--- a/BackTest/2019-11-01 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-01 BackTest STRAT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>5</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-20</v>
+      </c>
       <c r="L12" t="n">
         <v>386.6</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>9</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-55.55555555555556</v>
+      </c>
       <c r="L13" t="n">
         <v>386.1</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>12</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-66.66666666666666</v>
+      </c>
       <c r="L14" t="n">
         <v>385.3</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>12</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-66.66666666666666</v>
+      </c>
       <c r="L15" t="n">
         <v>384.5</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>12</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-66.66666666666666</v>
+      </c>
       <c r="L16" t="n">
         <v>383.7</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>12</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-81.81818181818183</v>
+      </c>
       <c r="L17" t="n">
         <v>382.9</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>13</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-80</v>
+      </c>
       <c r="L18" t="n">
         <v>381.9</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>13</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-77.77777777777779</v>
+      </c>
       <c r="L19" t="n">
         <v>381.1</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>18</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-23.07692307692308</v>
+      </c>
       <c r="L20" t="n">
         <v>380.9</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>18</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-23.07692307692308</v>
+      </c>
       <c r="L21" t="n">
         <v>380.6</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>20</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L22" t="n">
         <v>380.1</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>21</v>
       </c>
       <c r="K23" t="n">
-        <v>-23.80952380952381</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>380.1</v>
@@ -1466,7 +1488,7 @@
         <v>22</v>
       </c>
       <c r="K24" t="n">
-        <v>-27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L24" t="n">
         <v>380.3</v>
@@ -1515,7 +1537,7 @@
         <v>23</v>
       </c>
       <c r="K25" t="n">
-        <v>-30.43478260869566</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L25" t="n">
         <v>380.4</v>
@@ -1564,7 +1586,7 @@
         <v>24</v>
       </c>
       <c r="K26" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>380.4</v>
@@ -1613,7 +1635,7 @@
         <v>29</v>
       </c>
       <c r="K27" t="n">
-        <v>-10.3448275862069</v>
+        <v>37.5</v>
       </c>
       <c r="L27" t="n">
         <v>380.9</v>
@@ -1662,7 +1684,7 @@
         <v>34</v>
       </c>
       <c r="K28" t="n">
-        <v>-27.27272727272727</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L28" t="n">
         <v>381</v>
@@ -1711,7 +1733,7 @@
         <v>36</v>
       </c>
       <c r="K29" t="n">
-        <v>-15.15151515151515</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L29" t="n">
         <v>381.3</v>
@@ -1760,7 +1782,7 @@
         <v>38</v>
       </c>
       <c r="K30" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>381.3</v>
@@ -1809,7 +1831,7 @@
         <v>39</v>
       </c>
       <c r="K31" t="n">
-        <v>-5.88235294117647</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L31" t="n">
         <v>381.4</v>
@@ -1860,7 +1882,7 @@
         <v>40</v>
       </c>
       <c r="K32" t="n">
-        <v>-8.571428571428571</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L32" t="n">
         <v>381.6</v>
@@ -1911,7 +1933,7 @@
         <v>41</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L33" t="n">
         <v>381.6</v>
@@ -1962,7 +1984,7 @@
         <v>43</v>
       </c>
       <c r="K34" t="n">
-        <v>16.12903225806452</v>
+        <v>20</v>
       </c>
       <c r="L34" t="n">
         <v>381.9</v>
@@ -2013,7 +2035,7 @@
         <v>43</v>
       </c>
       <c r="K35" t="n">
-        <v>16.12903225806452</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L35" t="n">
         <v>382.3</v>
@@ -2064,7 +2086,7 @@
         <v>44</v>
       </c>
       <c r="K36" t="n">
-        <v>18.75</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L36" t="n">
         <v>382.9</v>
@@ -2115,7 +2137,7 @@
         <v>45</v>
       </c>
       <c r="K37" t="n">
-        <v>21.21212121212121</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L37" t="n">
         <v>383.1</v>
@@ -2166,7 +2188,7 @@
         <v>47</v>
       </c>
       <c r="K38" t="n">
-        <v>17.64705882352941</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L38" t="n">
         <v>383.6</v>
@@ -2217,7 +2239,7 @@
         <v>50</v>
       </c>
       <c r="K39" t="n">
-        <v>24.32432432432433</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>384.2</v>
@@ -2268,7 +2290,7 @@
         <v>51</v>
       </c>
       <c r="K40" t="n">
-        <v>15.15151515151515</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>384.7</v>
@@ -2319,7 +2341,7 @@
         <v>52</v>
       </c>
       <c r="K41" t="n">
-        <v>17.64705882352941</v>
+        <v>50</v>
       </c>
       <c r="L41" t="n">
         <v>385.2</v>
@@ -2370,7 +2392,7 @@
         <v>56</v>
       </c>
       <c r="K42" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L42" t="n">
         <v>385.4</v>
@@ -2421,7 +2443,7 @@
         <v>56</v>
       </c>
       <c r="K43" t="n">
-        <v>8.571428571428571</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L43" t="n">
         <v>385.7</v>
@@ -2523,7 +2545,7 @@
         <v>57</v>
       </c>
       <c r="K45" t="n">
-        <v>17.64705882352941</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L45" t="n">
         <v>386.1</v>
@@ -2574,7 +2596,7 @@
         <v>57</v>
       </c>
       <c r="K46" t="n">
-        <v>21.21212121212121</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>386.2</v>
@@ -2625,7 +2647,7 @@
         <v>57</v>
       </c>
       <c r="K47" t="n">
-        <v>7.142857142857142</v>
+        <v>20</v>
       </c>
       <c r="L47" t="n">
         <v>386.2</v>
@@ -2676,7 +2698,7 @@
         <v>58</v>
       </c>
       <c r="K48" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>386.5</v>
@@ -2727,7 +2749,7 @@
         <v>59</v>
       </c>
       <c r="K49" t="n">
-        <v>21.73913043478261</v>
+        <v>-25</v>
       </c>
       <c r="L49" t="n">
         <v>386.4</v>
@@ -2778,7 +2800,7 @@
         <v>59</v>
       </c>
       <c r="K50" t="n">
-        <v>14.28571428571428</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L50" t="n">
         <v>386.2</v>
@@ -2829,7 +2851,7 @@
         <v>59</v>
       </c>
       <c r="K51" t="n">
-        <v>10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L51" t="n">
         <v>385.9</v>
@@ -2880,7 +2902,7 @@
         <v>59</v>
       </c>
       <c r="K52" t="n">
-        <v>15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L52" t="n">
         <v>386</v>
@@ -2931,7 +2953,7 @@
         <v>59</v>
       </c>
       <c r="K53" t="n">
-        <v>22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>386.1</v>
@@ -2982,7 +3004,7 @@
         <v>60</v>
       </c>
       <c r="K54" t="n">
-        <v>5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L54" t="n">
         <v>386</v>
@@ -3033,7 +3055,7 @@
         <v>60</v>
       </c>
       <c r="K55" t="n">
-        <v>5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L55" t="n">
         <v>385.9</v>
@@ -3084,7 +3106,7 @@
         <v>61</v>
       </c>
       <c r="K56" t="n">
-        <v>-5.88235294117647</v>
+        <v>-50</v>
       </c>
       <c r="L56" t="n">
         <v>385.7</v>
@@ -3135,7 +3157,7 @@
         <v>61</v>
       </c>
       <c r="K57" t="n">
-        <v>-12.5</v>
+        <v>-100</v>
       </c>
       <c r="L57" t="n">
         <v>385.5</v>
@@ -3186,7 +3208,7 @@
         <v>61</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L58" t="n">
         <v>385.2</v>
@@ -3237,7 +3259,7 @@
         <v>61</v>
       </c>
       <c r="K59" t="n">
-        <v>-27.27272727272727</v>
+        <v>-100</v>
       </c>
       <c r="L59" t="n">
         <v>385</v>
@@ -3288,7 +3310,7 @@
         <v>61</v>
       </c>
       <c r="K60" t="n">
-        <v>-40</v>
+        <v>-100</v>
       </c>
       <c r="L60" t="n">
         <v>384.8</v>
@@ -3339,7 +3361,7 @@
         <v>61</v>
       </c>
       <c r="K61" t="n">
-        <v>-55.55555555555556</v>
+        <v>-100</v>
       </c>
       <c r="L61" t="n">
         <v>384.6</v>
@@ -3390,7 +3412,7 @@
         <v>61</v>
       </c>
       <c r="K62" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L62" t="n">
         <v>384.4</v>
@@ -3441,7 +3463,7 @@
         <v>61</v>
       </c>
       <c r="K63" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L63" t="n">
         <v>384.2</v>
@@ -3492,7 +3514,7 @@
         <v>63</v>
       </c>
       <c r="K64" t="n">
-        <v>-66.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L64" t="n">
         <v>383.9</v>
@@ -3543,7 +3565,7 @@
         <v>64</v>
       </c>
       <c r="K65" t="n">
-        <v>-71.42857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L65" t="n">
         <v>383.5</v>
@@ -3594,7 +3616,7 @@
         <v>64</v>
       </c>
       <c r="K66" t="n">
-        <v>-71.42857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L66" t="n">
         <v>383.2</v>
@@ -3645,7 +3667,7 @@
         <v>64</v>
       </c>
       <c r="K67" t="n">
-        <v>-71.42857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L67" t="n">
         <v>382.9</v>
@@ -3951,7 +3973,7 @@
         <v>68</v>
       </c>
       <c r="K73" t="n">
-        <v>-77.77777777777779</v>
+        <v>-60</v>
       </c>
       <c r="L73" t="n">
         <v>380.2</v>
@@ -4002,7 +4024,7 @@
         <v>71</v>
       </c>
       <c r="K74" t="n">
-        <v>-81.81818181818183</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L74" t="n">
         <v>379.6</v>
@@ -4053,7 +4075,7 @@
         <v>73</v>
       </c>
       <c r="K75" t="n">
-        <v>-84.61538461538461</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L75" t="n">
         <v>378.9</v>
@@ -4104,7 +4126,7 @@
         <v>75</v>
       </c>
       <c r="K76" t="n">
-        <v>-57.14285714285714</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L76" t="n">
         <v>378.4</v>
@@ -4155,7 +4177,7 @@
         <v>75</v>
       </c>
       <c r="K77" t="n">
-        <v>-57.14285714285714</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L77" t="n">
         <v>377.9</v>
@@ -4206,7 +4228,7 @@
         <v>75</v>
       </c>
       <c r="K78" t="n">
-        <v>-57.14285714285714</v>
+        <v>-40</v>
       </c>
       <c r="L78" t="n">
         <v>377.4</v>
@@ -4257,7 +4279,7 @@
         <v>75</v>
       </c>
       <c r="K79" t="n">
-        <v>-57.14285714285714</v>
+        <v>-40</v>
       </c>
       <c r="L79" t="n">
         <v>377</v>
@@ -4308,7 +4330,7 @@
         <v>76</v>
       </c>
       <c r="K80" t="n">
-        <v>-60</v>
+        <v>-40</v>
       </c>
       <c r="L80" t="n">
         <v>376.5</v>
@@ -4359,7 +4381,7 @@
         <v>80</v>
       </c>
       <c r="K81" t="n">
-        <v>-68.42105263157895</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L81" t="n">
         <v>375.7</v>
@@ -4410,7 +4432,7 @@
         <v>85</v>
       </c>
       <c r="K82" t="n">
-        <v>-33.33333333333333</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L82" t="n">
         <v>375.5</v>
@@ -4461,7 +4483,7 @@
         <v>85</v>
       </c>
       <c r="K83" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>375.2</v>
@@ -4512,7 +4534,7 @@
         <v>85</v>
       </c>
       <c r="K84" t="n">
-        <v>-27.27272727272727</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L84" t="n">
         <v>375.2</v>
@@ -4563,7 +4585,7 @@
         <v>85</v>
       </c>
       <c r="K85" t="n">
-        <v>-23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>375.4</v>
@@ -4614,7 +4636,7 @@
         <v>88</v>
       </c>
       <c r="K86" t="n">
-        <v>-8.333333333333332</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L86" t="n">
         <v>375.7</v>
@@ -4665,7 +4687,7 @@
         <v>90</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>376.2</v>
@@ -4716,7 +4738,7 @@
         <v>98</v>
       </c>
       <c r="K88" t="n">
-        <v>-23.52941176470588</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L88" t="n">
         <v>375.9</v>
@@ -4767,7 +4789,7 @@
         <v>101</v>
       </c>
       <c r="K89" t="n">
-        <v>-11.11111111111111</v>
+        <v>4</v>
       </c>
       <c r="L89" t="n">
         <v>375.9</v>
@@ -4818,7 +4840,7 @@
         <v>104</v>
       </c>
       <c r="K90" t="n">
-        <v>-2.564102564102564</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L90" t="n">
         <v>376.3</v>
@@ -4869,7 +4891,7 @@
         <v>104</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L91" t="n">
         <v>377.1</v>
@@ -4920,7 +4942,7 @@
         <v>105</v>
       </c>
       <c r="K92" t="n">
-        <v>5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L92" t="n">
         <v>377.5</v>
@@ -4971,7 +4993,7 @@
         <v>106</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L93" t="n">
         <v>377.8</v>
@@ -5022,7 +5044,7 @@
         <v>106</v>
       </c>
       <c r="K94" t="n">
-        <v>8.571428571428571</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L94" t="n">
         <v>378.1</v>
@@ -5073,7 +5095,7 @@
         <v>107</v>
       </c>
       <c r="K95" t="n">
-        <v>17.64705882352941</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L95" t="n">
         <v>378.5</v>
@@ -5124,7 +5146,7 @@
         <v>110</v>
       </c>
       <c r="K96" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L96" t="n">
         <v>378.9</v>
@@ -5175,7 +5197,7 @@
         <v>112</v>
       </c>
       <c r="K97" t="n">
-        <v>13.51351351351351</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L97" t="n">
         <v>378.9</v>
@@ -5226,7 +5248,7 @@
         <v>112</v>
       </c>
       <c r="K98" t="n">
-        <v>13.51351351351351</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L98" t="n">
         <v>379.7</v>
@@ -5277,7 +5299,7 @@
         <v>112</v>
       </c>
       <c r="K99" t="n">
-        <v>13.51351351351351</v>
+        <v>25</v>
       </c>
       <c r="L99" t="n">
         <v>380.2</v>
@@ -5328,7 +5350,7 @@
         <v>113</v>
       </c>
       <c r="K100" t="n">
-        <v>18.91891891891892</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L100" t="n">
         <v>380.5</v>
@@ -5379,7 +5401,7 @@
         <v>117</v>
       </c>
       <c r="K101" t="n">
-        <v>40.54054054054054</v>
+        <v>50</v>
       </c>
       <c r="L101" t="n">
         <v>381.2</v>
@@ -5430,7 +5452,7 @@
         <v>122</v>
       </c>
       <c r="K102" t="n">
-        <v>13.51351351351351</v>
+        <v>12.5</v>
       </c>
       <c r="L102" t="n">
         <v>381.3</v>
@@ -5481,7 +5503,7 @@
         <v>128</v>
       </c>
       <c r="K103" t="n">
-        <v>25.58139534883721</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="L103" t="n">
         <v>382.1</v>
@@ -5532,7 +5554,7 @@
         <v>132</v>
       </c>
       <c r="K104" t="n">
-        <v>14.8936170212766</v>
+        <v>12</v>
       </c>
       <c r="L104" t="n">
         <v>382.5</v>
@@ -5583,7 +5605,7 @@
         <v>133</v>
       </c>
       <c r="K105" t="n">
-        <v>12.5</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L105" t="n">
         <v>382.7</v>
@@ -5634,7 +5656,7 @@
         <v>133</v>
       </c>
       <c r="K106" t="n">
-        <v>6.666666666666667</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L106" t="n">
         <v>382.6</v>
@@ -5685,7 +5707,7 @@
         <v>133</v>
       </c>
       <c r="K107" t="n">
-        <v>2.325581395348837</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L107" t="n">
         <v>382.7</v>
@@ -5736,7 +5758,7 @@
         <v>133</v>
       </c>
       <c r="K108" t="n">
-        <v>25.71428571428571</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L108" t="n">
         <v>382.8</v>
@@ -5787,7 +5809,7 @@
         <v>133</v>
       </c>
       <c r="K109" t="n">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>382.9</v>
@@ -5838,7 +5860,7 @@
         <v>135</v>
       </c>
       <c r="K110" t="n">
-        <v>16.12903225806452</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L110" t="n">
         <v>383.1</v>
@@ -5889,7 +5911,7 @@
         <v>136</v>
       </c>
       <c r="K111" t="n">
-        <v>18.75</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L111" t="n">
         <v>383</v>
@@ -5940,7 +5962,7 @@
         <v>138</v>
       </c>
       <c r="K112" t="n">
-        <v>21.21212121212121</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>383.6</v>
@@ -5991,7 +6013,7 @@
         <v>141</v>
       </c>
       <c r="K113" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L113" t="n">
         <v>383.3</v>
@@ -6042,7 +6064,7 @@
         <v>143</v>
       </c>
       <c r="K114" t="n">
-        <v>18.91891891891892</v>
+        <v>40</v>
       </c>
       <c r="L114" t="n">
         <v>383.6</v>
@@ -6093,7 +6115,7 @@
         <v>143</v>
       </c>
       <c r="K115" t="n">
-        <v>16.66666666666666</v>
+        <v>40</v>
       </c>
       <c r="L115" t="n">
         <v>384</v>
@@ -6144,7 +6166,7 @@
         <v>144</v>
       </c>
       <c r="K116" t="n">
-        <v>5.88235294117647</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L116" t="n">
         <v>384.3</v>
@@ -6195,7 +6217,7 @@
         <v>144</v>
       </c>
       <c r="K117" t="n">
-        <v>12.5</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L117" t="n">
         <v>384.6</v>
@@ -6246,7 +6268,7 @@
         <v>148</v>
       </c>
       <c r="K118" t="n">
-        <v>22.22222222222222</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L118" t="n">
         <v>385.3</v>
@@ -6297,7 +6319,7 @@
         <v>153</v>
       </c>
       <c r="K119" t="n">
-        <v>7.317073170731707</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>385.5</v>
@@ -6348,7 +6370,7 @@
         <v>153</v>
       </c>
       <c r="K120" t="n">
-        <v>5</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L120" t="n">
         <v>385.5</v>
@@ -6399,7 +6421,7 @@
         <v>153</v>
       </c>
       <c r="K121" t="n">
-        <v>-5.555555555555555</v>
+        <v>-20</v>
       </c>
       <c r="L121" t="n">
         <v>385.4</v>
@@ -6450,7 +6472,7 @@
         <v>158</v>
       </c>
       <c r="K122" t="n">
-        <v>22.22222222222222</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L122" t="n">
         <v>385.6</v>
@@ -6501,7 +6523,7 @@
         <v>163</v>
       </c>
       <c r="K123" t="n">
-        <v>-8.571428571428571</v>
+        <v>-10</v>
       </c>
       <c r="L123" t="n">
         <v>385.6</v>
@@ -6552,7 +6574,7 @@
         <v>163</v>
       </c>
       <c r="K124" t="n">
-        <v>3.225806451612903</v>
+        <v>-10</v>
       </c>
       <c r="L124" t="n">
         <v>385.4</v>
@@ -6603,7 +6625,7 @@
         <v>166</v>
       </c>
       <c r="K125" t="n">
-        <v>-3.03030303030303</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L125" t="n">
         <v>384.9</v>
@@ -6654,7 +6676,7 @@
         <v>173</v>
       </c>
       <c r="K126" t="n">
-        <v>15</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L126" t="n">
         <v>385.2</v>
@@ -6705,7 +6727,7 @@
         <v>178</v>
       </c>
       <c r="K127" t="n">
-        <v>2.222222222222222</v>
+        <v>-20</v>
       </c>
       <c r="L127" t="n">
         <v>385</v>
@@ -6756,7 +6778,7 @@
         <v>178</v>
       </c>
       <c r="K128" t="n">
-        <v>2.222222222222222</v>
+        <v>-4</v>
       </c>
       <c r="L128" t="n">
         <v>384.4</v>
@@ -6807,7 +6829,7 @@
         <v>182</v>
       </c>
       <c r="K129" t="n">
-        <v>10.20408163265306</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L129" t="n">
         <v>384.7</v>
@@ -6858,7 +6880,7 @@
         <v>186</v>
       </c>
       <c r="K130" t="n">
-        <v>-1.96078431372549</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L130" t="n">
         <v>384.6</v>
@@ -6909,7 +6931,7 @@
         <v>187</v>
       </c>
       <c r="K131" t="n">
-        <v>-5.88235294117647</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L131" t="n">
         <v>384.4</v>
@@ -6960,7 +6982,7 @@
         <v>187</v>
       </c>
       <c r="K132" t="n">
-        <v>-10.20408163265306</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L132" t="n">
         <v>383.7</v>
@@ -7011,7 +7033,7 @@
         <v>190</v>
       </c>
       <c r="K133" t="n">
-        <v>-10.20408163265306</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L133" t="n">
         <v>383.2</v>
@@ -7062,7 +7084,7 @@
         <v>200</v>
       </c>
       <c r="K134" t="n">
-        <v>5.263157894736842</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L134" t="n">
         <v>383.7</v>
@@ -7113,7 +7135,7 @@
         <v>204</v>
       </c>
       <c r="K135" t="n">
-        <v>-1.639344262295082</v>
+        <v>-9.67741935483871</v>
       </c>
       <c r="L135" t="n">
         <v>384.1</v>
@@ -7164,7 +7186,7 @@
         <v>209</v>
       </c>
       <c r="K136" t="n">
-        <v>7.692307692307693</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L136" t="n">
         <v>384.3</v>
@@ -7215,7 +7237,7 @@
         <v>209</v>
       </c>
       <c r="K137" t="n">
-        <v>7.692307692307693</v>
+        <v>22.58064516129032</v>
       </c>
       <c r="L137" t="n">
         <v>385</v>
@@ -7266,7 +7288,7 @@
         <v>214</v>
       </c>
       <c r="K138" t="n">
-        <v>-6.060606060606061</v>
+        <v>-6.25</v>
       </c>
       <c r="L138" t="n">
         <v>385.2</v>
@@ -7317,7 +7339,7 @@
         <v>214</v>
       </c>
       <c r="K139" t="n">
-        <v>1.639344262295082</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L139" t="n">
         <v>385</v>
@@ -7368,7 +7390,7 @@
         <v>215</v>
       </c>
       <c r="K140" t="n">
-        <v>3.225806451612903</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L140" t="n">
         <v>385.3</v>
@@ -7419,7 +7441,7 @@
         <v>215</v>
       </c>
       <c r="K141" t="n">
-        <v>3.225806451612903</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L141" t="n">
         <v>385.7</v>
@@ -7470,7 +7492,7 @@
         <v>218</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L142" t="n">
         <v>386.4</v>
@@ -7521,7 +7543,7 @@
         <v>222</v>
       </c>
       <c r="K143" t="n">
-        <v>1.694915254237288</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L143" t="n">
         <v>387</v>
@@ -7572,7 +7594,7 @@
         <v>223</v>
       </c>
       <c r="K144" t="n">
-        <v>3.333333333333333</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L144" t="n">
         <v>386.7</v>
@@ -7623,7 +7645,7 @@
         <v>224</v>
       </c>
       <c r="K145" t="n">
-        <v>6.896551724137931</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L145" t="n">
         <v>386.7</v>
@@ -7674,7 +7696,7 @@
         <v>224</v>
       </c>
       <c r="K146" t="n">
-        <v>-5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L146" t="n">
         <v>386.2</v>
@@ -7725,7 +7747,7 @@
         <v>224</v>
       </c>
       <c r="K147" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
         <v>385.7</v>
@@ -7776,7 +7798,7 @@
         <v>224</v>
       </c>
       <c r="K148" t="n">
-        <v>4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>385.7</v>
@@ -7827,7 +7849,7 @@
         <v>224</v>
       </c>
       <c r="K149" t="n">
-        <v>-4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L149" t="n">
         <v>385.7</v>
@@ -7878,7 +7900,7 @@
         <v>224</v>
       </c>
       <c r="K150" t="n">
-        <v>5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L150" t="n">
         <v>385.6</v>
@@ -7929,7 +7951,7 @@
         <v>225</v>
       </c>
       <c r="K151" t="n">
-        <v>5.263157894736842</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L151" t="n">
         <v>385.4</v>
@@ -7980,7 +8002,7 @@
         <v>226</v>
       </c>
       <c r="K152" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L152" t="n">
         <v>385</v>
@@ -8031,7 +8053,7 @@
         <v>226</v>
       </c>
       <c r="K153" t="n">
-        <v>16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L153" t="n">
         <v>385</v>
@@ -8082,7 +8104,7 @@
         <v>226</v>
       </c>
       <c r="K154" t="n">
-        <v>-15.38461538461539</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>384.9</v>
@@ -8133,7 +8155,7 @@
         <v>231</v>
       </c>
       <c r="K155" t="n">
-        <v>-18.51851851851852</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L155" t="n">
         <v>384.4</v>
@@ -8184,7 +8206,7 @@
         <v>231</v>
       </c>
       <c r="K156" t="n">
-        <v>-45.45454545454545</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L156" t="n">
         <v>383.9</v>
@@ -8235,7 +8257,7 @@
         <v>232</v>
       </c>
       <c r="K157" t="n">
-        <v>-47.82608695652174</v>
+        <v>-75</v>
       </c>
       <c r="L157" t="n">
         <v>383.3</v>
@@ -8286,7 +8308,7 @@
         <v>237</v>
       </c>
       <c r="K158" t="n">
-        <v>-4.347826086956522</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L158" t="n">
         <v>383.2</v>
@@ -8337,7 +8359,7 @@
         <v>241</v>
       </c>
       <c r="K159" t="n">
-        <v>-18.51851851851852</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L159" t="n">
         <v>382.7</v>
@@ -8388,7 +8410,7 @@
         <v>241</v>
       </c>
       <c r="K160" t="n">
-        <v>-23.07692307692308</v>
+        <v>-25</v>
       </c>
       <c r="L160" t="n">
         <v>382.2</v>
@@ -8439,7 +8461,7 @@
         <v>242</v>
       </c>
       <c r="K161" t="n">
-        <v>-25.92592592592592</v>
+        <v>-37.5</v>
       </c>
       <c r="L161" t="n">
         <v>381.7</v>
@@ -8490,7 +8512,7 @@
         <v>243</v>
       </c>
       <c r="K162" t="n">
-        <v>-36</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L162" t="n">
         <v>381.2</v>
@@ -8541,7 +8563,7 @@
         <v>246</v>
       </c>
       <c r="K163" t="n">
-        <v>-8.333333333333332</v>
+        <v>-10</v>
       </c>
       <c r="L163" t="n">
         <v>381</v>
@@ -8592,7 +8614,7 @@
         <v>246</v>
       </c>
       <c r="K164" t="n">
-        <v>-13.04347826086956</v>
+        <v>20</v>
       </c>
       <c r="L164" t="n">
         <v>380.8</v>
@@ -8643,7 +8665,7 @@
         <v>248</v>
       </c>
       <c r="K165" t="n">
-        <v>-16.66666666666666</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L165" t="n">
         <v>380.9</v>
@@ -8694,7 +8716,7 @@
         <v>248</v>
       </c>
       <c r="K166" t="n">
-        <v>-16.66666666666666</v>
+        <v>12.5</v>
       </c>
       <c r="L166" t="n">
         <v>381</v>
@@ -8745,7 +8767,7 @@
         <v>248</v>
       </c>
       <c r="K167" t="n">
-        <v>-16.66666666666666</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L167" t="n">
         <v>381.2</v>
@@ -8796,7 +8818,7 @@
         <v>261</v>
       </c>
       <c r="K168" t="n">
-        <v>24.32432432432433</v>
+        <v>70</v>
       </c>
       <c r="L168" t="n">
         <v>382.2</v>
@@ -8847,7 +8869,7 @@
         <v>273</v>
       </c>
       <c r="K169" t="n">
-        <v>-6.122448979591836</v>
+        <v>6.25</v>
       </c>
       <c r="L169" t="n">
         <v>382.4</v>
@@ -8898,7 +8920,7 @@
         <v>275</v>
       </c>
       <c r="K170" t="n">
-        <v>-1.96078431372549</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L170" t="n">
         <v>382.8</v>
@@ -8949,7 +8971,7 @@
         <v>277</v>
       </c>
       <c r="K171" t="n">
-        <v>-3.846153846153846</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L171" t="n">
         <v>383.1</v>
@@ -9000,7 +9022,7 @@
         <v>278</v>
       </c>
       <c r="K172" t="n">
-        <v>-3.846153846153846</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>383.4</v>
@@ -9051,7 +9073,7 @@
         <v>278</v>
       </c>
       <c r="K173" t="n">
-        <v>-3.846153846153846</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>383.4</v>
@@ -9102,7 +9124,7 @@
         <v>278</v>
       </c>
       <c r="K174" t="n">
-        <v>-3.846153846153846</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L174" t="n">
         <v>383.4</v>

--- a/BackTest/2019-11-01 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-01 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S174"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,18 +526,10 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -611,18 +561,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -654,18 +596,10 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -697,18 +631,10 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>386.7</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L12" t="n">
-        <v>386.6</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L13" t="n">
-        <v>386.1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>12</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L14" t="n">
-        <v>385.3</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J15" t="n">
-        <v>12</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L15" t="n">
-        <v>384.5</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>12</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L16" t="n">
-        <v>383.7</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>12</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-81.81818181818183</v>
-      </c>
-      <c r="L17" t="n">
-        <v>382.9</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J18" t="n">
-        <v>13</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-80</v>
-      </c>
-      <c r="L18" t="n">
-        <v>381.9</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J19" t="n">
-        <v>13</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-77.77777777777779</v>
-      </c>
-      <c r="L19" t="n">
-        <v>381.1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>18</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L20" t="n">
-        <v>380.9</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>18</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L21" t="n">
-        <v>380.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>383.65</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>20</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L22" t="n">
-        <v>380.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>383.35</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>21</v>
-      </c>
-      <c r="K23" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L23" t="n">
-        <v>380.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>383.1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>22</v>
-      </c>
-      <c r="K24" t="n">
-        <v>20</v>
-      </c>
-      <c r="L24" t="n">
-        <v>380.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>382.8</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>23</v>
-      </c>
-      <c r="K25" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L25" t="n">
-        <v>380.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>382.45</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J26" t="n">
-        <v>24</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>380.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>382.05</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>29</v>
-      </c>
-      <c r="K27" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="L27" t="n">
-        <v>380.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>381.9</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J28" t="n">
-        <v>34</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L28" t="n">
-        <v>381</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>381.45</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>36</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L29" t="n">
-        <v>381.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>381.2</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J30" t="n">
-        <v>38</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>381.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>381.1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>39</v>
-      </c>
-      <c r="K31" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="L31" t="n">
-        <v>381.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>381</v>
-      </c>
-      <c r="N31" t="n">
-        <v>382.9</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>40</v>
-      </c>
-      <c r="K32" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L32" t="n">
-        <v>381.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>380.85</v>
-      </c>
-      <c r="N32" t="n">
-        <v>382.7666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>41</v>
-      </c>
-      <c r="K33" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L33" t="n">
-        <v>381.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>380.85</v>
-      </c>
-      <c r="N33" t="n">
-        <v>382.6</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>43</v>
-      </c>
-      <c r="K34" t="n">
-        <v>20</v>
-      </c>
-      <c r="L34" t="n">
-        <v>381.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>381.1</v>
-      </c>
-      <c r="N34" t="n">
-        <v>382.5</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J35" t="n">
-        <v>43</v>
-      </c>
-      <c r="K35" t="n">
-        <v>26.31578947368421</v>
-      </c>
-      <c r="L35" t="n">
-        <v>382.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>381.35</v>
-      </c>
-      <c r="N35" t="n">
-        <v>382.4</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J36" t="n">
-        <v>44</v>
-      </c>
-      <c r="K36" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L36" t="n">
-        <v>382.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>381.65</v>
-      </c>
-      <c r="N36" t="n">
-        <v>382.3333333333333</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>45</v>
-      </c>
-      <c r="K37" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="L37" t="n">
-        <v>383.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>382</v>
-      </c>
-      <c r="N37" t="n">
-        <v>382.3</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J38" t="n">
-        <v>47</v>
-      </c>
-      <c r="K38" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L38" t="n">
-        <v>383.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>382.3</v>
-      </c>
-      <c r="N38" t="n">
-        <v>382.1666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2235,26 +1751,10 @@
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>50</v>
-      </c>
-      <c r="K39" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L39" t="n">
-        <v>384.2</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>382.75</v>
-      </c>
-      <c r="N39" t="n">
-        <v>382.2</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>51</v>
-      </c>
-      <c r="K40" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L40" t="n">
-        <v>384.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>383</v>
-      </c>
-      <c r="N40" t="n">
-        <v>382.3</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>52</v>
-      </c>
-      <c r="K41" t="n">
-        <v>50</v>
-      </c>
-      <c r="L41" t="n">
-        <v>385.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>383.3</v>
-      </c>
-      <c r="N41" t="n">
-        <v>382.4</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>56</v>
-      </c>
-      <c r="K42" t="n">
-        <v>20</v>
-      </c>
-      <c r="L42" t="n">
-        <v>385.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>383.5</v>
-      </c>
-      <c r="N42" t="n">
-        <v>382.3666666666667</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>56</v>
-      </c>
-      <c r="K43" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L43" t="n">
-        <v>385.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>383.65</v>
-      </c>
-      <c r="N43" t="n">
-        <v>382.4666666666666</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>57</v>
-      </c>
-      <c r="K44" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L44" t="n">
-        <v>385.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>383.9</v>
-      </c>
-      <c r="N44" t="n">
-        <v>382.7</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>57</v>
-      </c>
-      <c r="K45" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L45" t="n">
-        <v>386.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>384.2</v>
-      </c>
-      <c r="N45" t="n">
-        <v>382.9333333333333</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>57</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>386.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>384.55</v>
-      </c>
-      <c r="N46" t="n">
-        <v>383.1666666666667</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>57</v>
-      </c>
-      <c r="K47" t="n">
-        <v>20</v>
-      </c>
-      <c r="L47" t="n">
-        <v>386.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>384.65</v>
-      </c>
-      <c r="N47" t="n">
-        <v>383.4</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2694,26 +2066,10 @@
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>58</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>386.5</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>385.05</v>
-      </c>
-      <c r="N48" t="n">
-        <v>383.7</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>59</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L49" t="n">
-        <v>386.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>385.3</v>
-      </c>
-      <c r="N49" t="n">
-        <v>383.9666666666666</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>59</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L50" t="n">
-        <v>386.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>385.45</v>
-      </c>
-      <c r="N50" t="n">
-        <v>384.0666666666667</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>59</v>
-      </c>
-      <c r="K51" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L51" t="n">
-        <v>385.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>385.55</v>
-      </c>
-      <c r="N51" t="n">
-        <v>384.1666666666667</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>59</v>
-      </c>
-      <c r="K52" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L52" t="n">
-        <v>386</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>385.7</v>
-      </c>
-      <c r="N52" t="n">
-        <v>384.3333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>59</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>386.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>385.9</v>
-      </c>
-      <c r="N53" t="n">
-        <v>384.4666666666666</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J54" t="n">
-        <v>60</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L54" t="n">
-        <v>386</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>385.95</v>
-      </c>
-      <c r="N54" t="n">
-        <v>384.6</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>60</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L55" t="n">
-        <v>385.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>386</v>
-      </c>
-      <c r="N55" t="n">
-        <v>384.7666666666667</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J56" t="n">
-        <v>61</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L56" t="n">
-        <v>385.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>385.95</v>
-      </c>
-      <c r="N56" t="n">
-        <v>384.9333333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>61</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L57" t="n">
-        <v>385.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>385.85</v>
-      </c>
-      <c r="N57" t="n">
-        <v>384.9333333333333</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J58" t="n">
-        <v>61</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L58" t="n">
-        <v>385.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>385.85</v>
-      </c>
-      <c r="N58" t="n">
-        <v>385.1</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J59" t="n">
-        <v>61</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L59" t="n">
-        <v>385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>385.7</v>
-      </c>
-      <c r="N59" t="n">
-        <v>385.2</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>61</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L60" t="n">
-        <v>384.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>385.5</v>
-      </c>
-      <c r="N60" t="n">
-        <v>385.2333333333333</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J61" t="n">
-        <v>61</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L61" t="n">
-        <v>384.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>385.25</v>
-      </c>
-      <c r="N61" t="n">
-        <v>385.2333333333333</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J62" t="n">
-        <v>61</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L62" t="n">
-        <v>384.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>385.2</v>
-      </c>
-      <c r="N62" t="n">
-        <v>385.2666666666667</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J63" t="n">
-        <v>61</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L63" t="n">
-        <v>384.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>385.15</v>
-      </c>
-      <c r="N63" t="n">
-        <v>385.3333333333333</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>63</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L64" t="n">
-        <v>383.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>384.95</v>
-      </c>
-      <c r="N64" t="n">
-        <v>385.2666666666667</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J65" t="n">
-        <v>64</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L65" t="n">
-        <v>383.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>384.7</v>
-      </c>
-      <c r="N65" t="n">
-        <v>385.1666666666667</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J66" t="n">
-        <v>64</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L66" t="n">
-        <v>383.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>384.45</v>
-      </c>
-      <c r="N66" t="n">
-        <v>385.0333333333334</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J67" t="n">
-        <v>64</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L67" t="n">
-        <v>382.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>384.2</v>
-      </c>
-      <c r="N67" t="n">
-        <v>384.8666666666667</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J68" t="n">
-        <v>64</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L68" t="n">
-        <v>382.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>383.9</v>
-      </c>
-      <c r="N68" t="n">
-        <v>384.7666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>65</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L69" t="n">
-        <v>382.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>383.6</v>
-      </c>
-      <c r="N69" t="n">
-        <v>384.5333333333334</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J70" t="n">
-        <v>65</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L70" t="n">
-        <v>381.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>383.3</v>
-      </c>
-      <c r="N70" t="n">
-        <v>384.2666666666667</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J71" t="n">
-        <v>66</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L71" t="n">
-        <v>381.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>382.95</v>
-      </c>
-      <c r="N71" t="n">
-        <v>383.9333333333333</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J72" t="n">
-        <v>67</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L72" t="n">
-        <v>380.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>382.55</v>
-      </c>
-      <c r="N72" t="n">
-        <v>383.7</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>68</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L73" t="n">
-        <v>380.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>382.2</v>
-      </c>
-      <c r="N73" t="n">
-        <v>383.5</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +2974,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J74" t="n">
-        <v>71</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L74" t="n">
-        <v>379.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>381.75</v>
-      </c>
-      <c r="N74" t="n">
-        <v>383.1666666666667</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3009,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J75" t="n">
-        <v>73</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-77.77777777777779</v>
-      </c>
-      <c r="L75" t="n">
-        <v>378.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>381.2</v>
-      </c>
-      <c r="N75" t="n">
-        <v>382.7666666666667</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3044,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J76" t="n">
-        <v>75</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L76" t="n">
-        <v>378.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>380.8</v>
-      </c>
-      <c r="N76" t="n">
-        <v>382.4333333333333</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3079,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J77" t="n">
-        <v>75</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L77" t="n">
-        <v>377.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>380.4</v>
-      </c>
-      <c r="N77" t="n">
-        <v>382.1</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3114,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J78" t="n">
-        <v>75</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L78" t="n">
-        <v>377.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>380</v>
-      </c>
-      <c r="N78" t="n">
-        <v>381.7333333333333</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,31 +3146,19 @@
         <v>382.6833333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>75</v>
+        <v>376</v>
       </c>
       <c r="K79" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L79" t="n">
-        <v>377</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>379.6</v>
-      </c>
-      <c r="N79" t="n">
-        <v>381.4</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,31 +3185,23 @@
         <v>382.55</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="K80" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L80" t="n">
-        <v>376.5</v>
+        <v>376</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>379.15</v>
-      </c>
-      <c r="N80" t="n">
-        <v>381.0333333333334</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,31 +3228,23 @@
         <v>382.35</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>80</v>
+        <v>374</v>
       </c>
       <c r="K81" t="n">
-        <v>-53.84615384615385</v>
-      </c>
-      <c r="L81" t="n">
-        <v>375.7</v>
+        <v>376</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>378.5</v>
-      </c>
-      <c r="N81" t="n">
-        <v>380.5333333333334</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,31 +3271,23 @@
         <v>382.2666666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>85</v>
+        <v>375</v>
       </c>
       <c r="K82" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L82" t="n">
-        <v>375.5</v>
+        <v>376</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>378.1</v>
-      </c>
-      <c r="N82" t="n">
-        <v>380.2</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,31 +3314,23 @@
         <v>382.1666666666667</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>85</v>
+        <v>374</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>375.2</v>
+        <v>376</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>377.7</v>
-      </c>
-      <c r="N83" t="n">
-        <v>379.8666666666667</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4525,31 +3357,23 @@
         <v>382.0833333333333</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>85</v>
+        <v>376</v>
       </c>
       <c r="K84" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L84" t="n">
-        <v>375.2</v>
+        <v>376</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>377.4</v>
-      </c>
-      <c r="N84" t="n">
-        <v>379.5666666666667</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4576,31 +3400,23 @@
         <v>382.0166666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>85</v>
+        <v>376</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>375.4</v>
+        <v>376</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>377.15</v>
-      </c>
-      <c r="N85" t="n">
-        <v>379.2666666666667</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4627,31 +3443,23 @@
         <v>382.0166666666667</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>88</v>
+        <v>374</v>
       </c>
       <c r="K86" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L86" t="n">
-        <v>375.7</v>
+        <v>376</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>377.05</v>
-      </c>
-      <c r="N86" t="n">
-        <v>379.1</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4678,31 +3486,23 @@
         <v>381.9666666666666</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>90</v>
+        <v>381</v>
       </c>
       <c r="K87" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L87" t="n">
-        <v>376.2</v>
+        <v>376</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>377.05</v>
-      </c>
-      <c r="N87" t="n">
-        <v>379</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4729,31 +3529,23 @@
         <v>381.8666666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>98</v>
+        <v>375</v>
       </c>
       <c r="K88" t="n">
-        <v>-13.04347826086956</v>
-      </c>
-      <c r="L88" t="n">
-        <v>375.9</v>
+        <v>376</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>376.65</v>
-      </c>
-      <c r="N88" t="n">
-        <v>378.6333333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3575,18 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J89" t="n">
-        <v>101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>4</v>
-      </c>
-      <c r="L89" t="n">
-        <v>375.9</v>
+        <v>376</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>376.45</v>
-      </c>
-      <c r="N89" t="n">
-        <v>378.3666666666667</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4831,31 +3613,23 @@
         <v>381.7166666666666</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>104</v>
+        <v>379</v>
       </c>
       <c r="K90" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L90" t="n">
-        <v>376.3</v>
+        <v>376</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>376.4</v>
-      </c>
-      <c r="N90" t="n">
-        <v>378.2</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,31 +3656,23 @@
         <v>381.6333333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>104</v>
+        <v>379</v>
       </c>
       <c r="K91" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="L91" t="n">
-        <v>377.1</v>
+        <v>376</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>376.4</v>
-      </c>
-      <c r="N91" t="n">
-        <v>378.0333333333334</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4933,31 +3699,23 @@
         <v>381.5833333333333</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>105</v>
+        <v>380</v>
       </c>
       <c r="K92" t="n">
-        <v>20</v>
-      </c>
-      <c r="L92" t="n">
-        <v>377.5</v>
+        <v>376</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>376.5</v>
-      </c>
-      <c r="N92" t="n">
-        <v>377.9</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4984,31 +3742,23 @@
         <v>381.5333333333334</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>106</v>
+        <v>379</v>
       </c>
       <c r="K93" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L93" t="n">
-        <v>377.8</v>
+        <v>376</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>376.5</v>
-      </c>
-      <c r="N93" t="n">
-        <v>377.7333333333333</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3788,18 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J94" t="n">
-        <v>106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L94" t="n">
-        <v>378.1</v>
+        <v>376</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>376.65</v>
-      </c>
-      <c r="N94" t="n">
-        <v>377.6333333333333</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3829,18 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J95" t="n">
-        <v>107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L95" t="n">
-        <v>378.5</v>
+        <v>376</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>376.95</v>
-      </c>
-      <c r="N95" t="n">
-        <v>377.6</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +3870,18 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J96" t="n">
-        <v>110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>10</v>
-      </c>
-      <c r="L96" t="n">
-        <v>378.9</v>
+        <v>376</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>377.3</v>
-      </c>
-      <c r="N96" t="n">
-        <v>377.6666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +3911,18 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J97" t="n">
-        <v>112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>57.14285714285714</v>
-      </c>
-      <c r="L97" t="n">
-        <v>378.9</v>
+        <v>376</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>377.55</v>
-      </c>
-      <c r="N97" t="n">
-        <v>377.6666666666667</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +3952,18 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J98" t="n">
-        <v>112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>45.45454545454545</v>
-      </c>
-      <c r="L98" t="n">
-        <v>379.7</v>
+        <v>376</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>377.8</v>
-      </c>
-      <c r="N98" t="n">
-        <v>377.6666666666667</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +3993,18 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J99" t="n">
-        <v>112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>25</v>
-      </c>
-      <c r="L99" t="n">
-        <v>380.2</v>
+        <v>376</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>378.05</v>
-      </c>
-      <c r="N99" t="n">
-        <v>377.7</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4034,18 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J100" t="n">
-        <v>113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L100" t="n">
-        <v>380.5</v>
+        <v>376</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>378.4</v>
-      </c>
-      <c r="N100" t="n">
-        <v>377.7666666666667</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4075,18 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>117</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>50</v>
-      </c>
-      <c r="L101" t="n">
-        <v>381.2</v>
+        <v>376</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>379.15</v>
-      </c>
-      <c r="N101" t="n">
-        <v>378</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4116,18 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J102" t="n">
-        <v>122</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L102" t="n">
-        <v>381.3</v>
+        <v>376</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>379.4</v>
-      </c>
-      <c r="N102" t="n">
-        <v>378.1</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5499,26 +4159,16 @@
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>128</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>36.36363636363637</v>
-      </c>
-      <c r="L103" t="n">
-        <v>382.1</v>
+        <v>376</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>379.95</v>
-      </c>
-      <c r="N103" t="n">
-        <v>378.3666666666667</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4198,18 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J104" t="n">
-        <v>132</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>12</v>
-      </c>
-      <c r="L104" t="n">
-        <v>382.5</v>
+        <v>376</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>380.3</v>
-      </c>
-      <c r="N104" t="n">
-        <v>378.6</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4239,18 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J105" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L105" t="n">
-        <v>382.7</v>
+        <v>376</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>380.6</v>
-      </c>
-      <c r="N105" t="n">
-        <v>378.8666666666667</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4280,18 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J106" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L106" t="n">
-        <v>382.6</v>
+        <v>376</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>380.75</v>
-      </c>
-      <c r="N106" t="n">
-        <v>379.0666666666667</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4321,18 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J107" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L107" t="n">
-        <v>382.7</v>
+        <v>376</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>380.8</v>
-      </c>
-      <c r="N107" t="n">
-        <v>379.2666666666667</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4362,18 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J108" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L108" t="n">
-        <v>382.8</v>
+        <v>376</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>381.25</v>
-      </c>
-      <c r="N108" t="n">
-        <v>379.4666666666666</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4403,18 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J109" t="n">
-        <v>133</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>382.9</v>
+        <v>376</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>381.55</v>
-      </c>
-      <c r="N109" t="n">
-        <v>379.6666666666667</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4444,18 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J110" t="n">
-        <v>135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L110" t="n">
-        <v>383.1</v>
+        <v>376</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>381.8</v>
-      </c>
-      <c r="N110" t="n">
-        <v>379.9666666666666</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4485,18 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J111" t="n">
-        <v>136</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L111" t="n">
-        <v>383</v>
+        <v>376</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>382.1</v>
-      </c>
-      <c r="N111" t="n">
-        <v>380.4333333333333</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5958,26 +4528,16 @@
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>138</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>383.6</v>
+        <v>376</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>382.45</v>
-      </c>
-      <c r="N112" t="n">
-        <v>380.8</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4567,18 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J113" t="n">
-        <v>141</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L113" t="n">
-        <v>383.3</v>
+        <v>376</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M113" t="n">
-        <v>382.7</v>
-      </c>
-      <c r="N113" t="n">
-        <v>381.0666666666667</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4608,18 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>40</v>
-      </c>
-      <c r="L114" t="n">
-        <v>383.6</v>
+        <v>376</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M114" t="n">
-        <v>383.05</v>
-      </c>
-      <c r="N114" t="n">
-        <v>381.4</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4649,18 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>40</v>
-      </c>
-      <c r="L115" t="n">
-        <v>384</v>
+        <v>376</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M115" t="n">
-        <v>383.35</v>
-      </c>
-      <c r="N115" t="n">
-        <v>381.7333333333333</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4690,18 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J116" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L116" t="n">
-        <v>384.3</v>
+        <v>376</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M116" t="n">
-        <v>383.45</v>
-      </c>
-      <c r="N116" t="n">
-        <v>381.9333333333333</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,29 +4731,19 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J117" t="n">
-        <v>144</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L117" t="n">
-        <v>384.6</v>
+        <v>376</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M117" t="n">
-        <v>383.65</v>
-      </c>
-      <c r="N117" t="n">
-        <v>382.0666666666667</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>1</v>
+        <v>1.018936170212766</v>
       </c>
     </row>
     <row r="118">
@@ -6262,28 +4772,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
-      </c>
-      <c r="J118" t="n">
-        <v>148</v>
-      </c>
-      <c r="K118" t="n">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="L118" t="n">
-        <v>385.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>384.05</v>
-      </c>
-      <c r="N118" t="n">
-        <v>382.6</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4807,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J119" t="n">
-        <v>153</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>385.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>384.2</v>
-      </c>
-      <c r="N119" t="n">
-        <v>382.8666666666667</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4842,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J120" t="n">
-        <v>153</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L120" t="n">
-        <v>385.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>384.3</v>
-      </c>
-      <c r="N120" t="n">
-        <v>383.0333333333334</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4877,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J121" t="n">
-        <v>153</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L121" t="n">
-        <v>385.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>384.2</v>
-      </c>
-      <c r="N121" t="n">
-        <v>383.2</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +4912,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
-      </c>
-      <c r="J122" t="n">
-        <v>158</v>
-      </c>
-      <c r="K122" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="L122" t="n">
-        <v>385.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>384.6</v>
-      </c>
-      <c r="N122" t="n">
-        <v>383.5</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,28 +4947,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J123" t="n">
-        <v>163</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L123" t="n">
-        <v>385.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>384.45</v>
-      </c>
-      <c r="N123" t="n">
-        <v>383.6666666666667</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6568,28 +4982,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J124" t="n">
-        <v>163</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L124" t="n">
-        <v>385.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>384.5</v>
-      </c>
-      <c r="N124" t="n">
-        <v>383.8333333333333</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6619,28 +5017,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J125" t="n">
-        <v>166</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-18.18181818181818</v>
-      </c>
-      <c r="L125" t="n">
-        <v>384.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>384.45</v>
-      </c>
-      <c r="N125" t="n">
-        <v>383.8666666666667</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6670,28 +5052,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="n">
-        <v>173</v>
-      </c>
-      <c r="K126" t="n">
-        <v>10.3448275862069</v>
-      </c>
-      <c r="L126" t="n">
-        <v>385.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>384.75</v>
-      </c>
-      <c r="N126" t="n">
-        <v>384.0333333333334</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6721,28 +5087,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J127" t="n">
-        <v>178</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L127" t="n">
-        <v>385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>384.8</v>
-      </c>
-      <c r="N127" t="n">
-        <v>384.1</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,28 +5122,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J128" t="n">
-        <v>178</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-4</v>
-      </c>
-      <c r="L128" t="n">
-        <v>384.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>384.85</v>
-      </c>
-      <c r="N128" t="n">
-        <v>384.1666666666667</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6825,26 +5159,10 @@
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>182</v>
-      </c>
-      <c r="K129" t="n">
-        <v>10.3448275862069</v>
-      </c>
-      <c r="L129" t="n">
-        <v>384.7</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>385.1</v>
-      </c>
-      <c r="N129" t="n">
-        <v>384.3666666666667</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6874,28 +5192,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J130" t="n">
-        <v>186</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-3.03030303030303</v>
-      </c>
-      <c r="L130" t="n">
-        <v>384.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>385.05</v>
-      </c>
-      <c r="N130" t="n">
-        <v>384.4</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6925,28 +5227,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J131" t="n">
-        <v>187</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-24.13793103448276</v>
-      </c>
-      <c r="L131" t="n">
-        <v>384.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>384.9</v>
-      </c>
-      <c r="N131" t="n">
-        <v>384.2666666666667</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,28 +5262,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J132" t="n">
-        <v>187</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-8.333333333333332</v>
-      </c>
-      <c r="L132" t="n">
-        <v>383.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>384.65</v>
-      </c>
-      <c r="N132" t="n">
-        <v>384.3</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,28 +5297,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J133" t="n">
-        <v>190</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-18.51851851851852</v>
-      </c>
-      <c r="L133" t="n">
-        <v>383.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>384.4</v>
-      </c>
-      <c r="N133" t="n">
-        <v>384.0333333333334</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,28 +5332,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
-      </c>
-      <c r="J134" t="n">
-        <v>200</v>
-      </c>
-      <c r="K134" t="n">
-        <v>23.52941176470588</v>
-      </c>
-      <c r="L134" t="n">
-        <v>383.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>384.55</v>
-      </c>
-      <c r="N134" t="n">
-        <v>384.2333333333333</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7129,28 +5367,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J135" t="n">
-        <v>204</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-9.67741935483871</v>
-      </c>
-      <c r="L135" t="n">
-        <v>384.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>384.5</v>
-      </c>
-      <c r="N135" t="n">
-        <v>384.3333333333333</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7180,28 +5402,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>3</v>
-      </c>
-      <c r="J136" t="n">
-        <v>209</v>
-      </c>
-      <c r="K136" t="n">
-        <v>22.58064516129032</v>
-      </c>
-      <c r="L136" t="n">
-        <v>384.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>384.75</v>
-      </c>
-      <c r="N136" t="n">
-        <v>384.6</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,28 +5437,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
-      </c>
-      <c r="J137" t="n">
-        <v>209</v>
-      </c>
-      <c r="K137" t="n">
-        <v>22.58064516129032</v>
-      </c>
-      <c r="L137" t="n">
-        <v>385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>385</v>
-      </c>
-      <c r="N137" t="n">
-        <v>384.8666666666667</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7282,28 +5472,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J138" t="n">
-        <v>214</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-6.25</v>
-      </c>
-      <c r="L138" t="n">
-        <v>385.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>384.8</v>
-      </c>
-      <c r="N138" t="n">
-        <v>384.9666666666666</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7333,28 +5507,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J139" t="n">
-        <v>214</v>
-      </c>
-      <c r="K139" t="n">
-        <v>7.142857142857142</v>
-      </c>
-      <c r="L139" t="n">
-        <v>385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>384.85</v>
-      </c>
-      <c r="N139" t="n">
-        <v>385.0666666666667</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7384,28 +5542,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J140" t="n">
-        <v>215</v>
-      </c>
-      <c r="K140" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L140" t="n">
-        <v>385.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>384.95</v>
-      </c>
-      <c r="N140" t="n">
-        <v>385.1333333333333</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7435,28 +5577,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J141" t="n">
-        <v>215</v>
-      </c>
-      <c r="K141" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L141" t="n">
-        <v>385.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>385.05</v>
-      </c>
-      <c r="N141" t="n">
-        <v>385.1666666666667</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,28 +5612,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>2</v>
-      </c>
-      <c r="J142" t="n">
-        <v>218</v>
-      </c>
-      <c r="K142" t="n">
-        <v>35.71428571428572</v>
-      </c>
-      <c r="L142" t="n">
-        <v>386.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>385.05</v>
-      </c>
-      <c r="N142" t="n">
-        <v>385.2333333333333</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7537,28 +5647,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J143" t="n">
-        <v>222</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-18.18181818181818</v>
-      </c>
-      <c r="L143" t="n">
-        <v>387</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>385.1</v>
-      </c>
-      <c r="N143" t="n">
-        <v>385.2666666666667</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,28 +5682,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J144" t="n">
-        <v>223</v>
-      </c>
-      <c r="K144" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L144" t="n">
-        <v>386.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>385.2</v>
-      </c>
-      <c r="N144" t="n">
-        <v>385.2666666666667</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7639,28 +5717,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J145" t="n">
-        <v>224</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L145" t="n">
-        <v>386.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>385.4</v>
-      </c>
-      <c r="N145" t="n">
-        <v>385.2333333333333</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7690,28 +5752,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J146" t="n">
-        <v>224</v>
-      </c>
-      <c r="K146" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L146" t="n">
-        <v>386.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>385.25</v>
-      </c>
-      <c r="N146" t="n">
-        <v>385.2333333333333</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7741,28 +5787,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J147" t="n">
-        <v>224</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0</v>
-      </c>
-      <c r="L147" t="n">
-        <v>385.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>385.35</v>
-      </c>
-      <c r="N147" t="n">
-        <v>385.2333333333333</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7792,28 +5822,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J148" t="n">
-        <v>224</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0</v>
-      </c>
-      <c r="L148" t="n">
-        <v>385.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>385.45</v>
-      </c>
-      <c r="N148" t="n">
-        <v>385.1</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7843,28 +5857,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J149" t="n">
-        <v>224</v>
-      </c>
-      <c r="K149" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L149" t="n">
-        <v>385.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>385.35</v>
-      </c>
-      <c r="N149" t="n">
-        <v>385.1333333333333</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,28 +5892,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J150" t="n">
-        <v>224</v>
-      </c>
-      <c r="K150" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L150" t="n">
-        <v>385.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>385.45</v>
-      </c>
-      <c r="N150" t="n">
-        <v>385.1666666666667</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7945,28 +5927,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J151" t="n">
-        <v>225</v>
-      </c>
-      <c r="K151" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L151" t="n">
-        <v>385.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>385.55</v>
-      </c>
-      <c r="N151" t="n">
-        <v>385.1666666666667</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7996,28 +5962,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J152" t="n">
-        <v>226</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0</v>
-      </c>
-      <c r="L152" t="n">
-        <v>385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>385.7</v>
-      </c>
-      <c r="N152" t="n">
-        <v>385.0333333333334</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8047,1099 +5997,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J153" t="n">
-        <v>226</v>
-      </c>
-      <c r="K153" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L153" t="n">
-        <v>385</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>386</v>
-      </c>
-      <c r="N153" t="n">
-        <v>385.0666666666667</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>385</v>
-      </c>
-      <c r="C154" t="n">
-        <v>385</v>
-      </c>
-      <c r="D154" t="n">
-        <v>385</v>
-      </c>
-      <c r="E154" t="n">
-        <v>385</v>
-      </c>
-      <c r="F154" t="n">
-        <v>779.2207792200001</v>
-      </c>
-      <c r="G154" t="n">
-        <v>384.4666666666666</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J154" t="n">
-        <v>226</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0</v>
-      </c>
-      <c r="L154" t="n">
-        <v>384.9</v>
-      </c>
-      <c r="M154" t="n">
-        <v>385.8</v>
-      </c>
-      <c r="N154" t="n">
-        <v>385.1</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>385</v>
-      </c>
-      <c r="C155" t="n">
-        <v>380</v>
-      </c>
-      <c r="D155" t="n">
-        <v>385</v>
-      </c>
-      <c r="E155" t="n">
-        <v>380</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2</v>
-      </c>
-      <c r="G155" t="n">
-        <v>384.4666666666666</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J155" t="n">
-        <v>231</v>
-      </c>
-      <c r="K155" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L155" t="n">
-        <v>384.4</v>
-      </c>
-      <c r="M155" t="n">
-        <v>385.55</v>
-      </c>
-      <c r="N155" t="n">
-        <v>385.0666666666667</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>380</v>
-      </c>
-      <c r="C156" t="n">
-        <v>380</v>
-      </c>
-      <c r="D156" t="n">
-        <v>380</v>
-      </c>
-      <c r="E156" t="n">
-        <v>380</v>
-      </c>
-      <c r="F156" t="n">
-        <v>9</v>
-      </c>
-      <c r="G156" t="n">
-        <v>384.4166666666667</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J156" t="n">
-        <v>231</v>
-      </c>
-      <c r="K156" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L156" t="n">
-        <v>383.9</v>
-      </c>
-      <c r="M156" t="n">
-        <v>385.05</v>
-      </c>
-      <c r="N156" t="n">
-        <v>384.8</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>380</v>
-      </c>
-      <c r="C157" t="n">
-        <v>379</v>
-      </c>
-      <c r="D157" t="n">
-        <v>380</v>
-      </c>
-      <c r="E157" t="n">
-        <v>379</v>
-      </c>
-      <c r="F157" t="n">
-        <v>2244.3892</v>
-      </c>
-      <c r="G157" t="n">
-        <v>384.3833333333333</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J157" t="n">
-        <v>232</v>
-      </c>
-      <c r="K157" t="n">
-        <v>-75</v>
-      </c>
-      <c r="L157" t="n">
-        <v>383.3</v>
-      </c>
-      <c r="M157" t="n">
-        <v>384.5</v>
-      </c>
-      <c r="N157" t="n">
-        <v>384.6666666666667</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>384</v>
-      </c>
-      <c r="C158" t="n">
-        <v>384</v>
-      </c>
-      <c r="D158" t="n">
-        <v>384</v>
-      </c>
-      <c r="E158" t="n">
-        <v>384</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1</v>
-      </c>
-      <c r="G158" t="n">
-        <v>384.4333333333333</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J158" t="n">
-        <v>237</v>
-      </c>
-      <c r="K158" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L158" t="n">
-        <v>383.2</v>
-      </c>
-      <c r="M158" t="n">
-        <v>384.45</v>
-      </c>
-      <c r="N158" t="n">
-        <v>384.7</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>380</v>
-      </c>
-      <c r="C159" t="n">
-        <v>380</v>
-      </c>
-      <c r="D159" t="n">
-        <v>380</v>
-      </c>
-      <c r="E159" t="n">
-        <v>380</v>
-      </c>
-      <c r="F159" t="n">
-        <v>184.8517</v>
-      </c>
-      <c r="G159" t="n">
-        <v>384.4166666666667</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J159" t="n">
-        <v>241</v>
-      </c>
-      <c r="K159" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L159" t="n">
-        <v>382.7</v>
-      </c>
-      <c r="M159" t="n">
-        <v>384.2</v>
-      </c>
-      <c r="N159" t="n">
-        <v>384.4666666666666</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>380</v>
-      </c>
-      <c r="C160" t="n">
-        <v>380</v>
-      </c>
-      <c r="D160" t="n">
-        <v>380</v>
-      </c>
-      <c r="E160" t="n">
-        <v>380</v>
-      </c>
-      <c r="F160" t="n">
-        <v>77.7587</v>
-      </c>
-      <c r="G160" t="n">
-        <v>384.3833333333333</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J160" t="n">
-        <v>241</v>
-      </c>
-      <c r="K160" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L160" t="n">
-        <v>382.2</v>
-      </c>
-      <c r="M160" t="n">
-        <v>383.9</v>
-      </c>
-      <c r="N160" t="n">
-        <v>384.3666666666667</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>380</v>
-      </c>
-      <c r="C161" t="n">
-        <v>379</v>
-      </c>
-      <c r="D161" t="n">
-        <v>380</v>
-      </c>
-      <c r="E161" t="n">
-        <v>379</v>
-      </c>
-      <c r="F161" t="n">
-        <v>2085.1828</v>
-      </c>
-      <c r="G161" t="n">
-        <v>384.2666666666667</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J161" t="n">
-        <v>242</v>
-      </c>
-      <c r="K161" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L161" t="n">
-        <v>381.7</v>
-      </c>
-      <c r="M161" t="n">
-        <v>383.55</v>
-      </c>
-      <c r="N161" t="n">
-        <v>384.2666666666667</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>380</v>
-      </c>
-      <c r="C162" t="n">
-        <v>380</v>
-      </c>
-      <c r="D162" t="n">
-        <v>380</v>
-      </c>
-      <c r="E162" t="n">
-        <v>380</v>
-      </c>
-      <c r="F162" t="n">
-        <v>252.6449</v>
-      </c>
-      <c r="G162" t="n">
-        <v>384.25</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J162" t="n">
-        <v>243</v>
-      </c>
-      <c r="K162" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L162" t="n">
-        <v>381.2</v>
-      </c>
-      <c r="M162" t="n">
-        <v>383.1</v>
-      </c>
-      <c r="N162" t="n">
-        <v>384.2</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>383</v>
-      </c>
-      <c r="C163" t="n">
-        <v>383</v>
-      </c>
-      <c r="D163" t="n">
-        <v>383</v>
-      </c>
-      <c r="E163" t="n">
-        <v>383</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1</v>
-      </c>
-      <c r="G163" t="n">
-        <v>384.1833333333333</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J163" t="n">
-        <v>246</v>
-      </c>
-      <c r="K163" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L163" t="n">
-        <v>381</v>
-      </c>
-      <c r="M163" t="n">
-        <v>383</v>
-      </c>
-      <c r="N163" t="n">
-        <v>384.3333333333333</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>383</v>
-      </c>
-      <c r="C164" t="n">
-        <v>383</v>
-      </c>
-      <c r="D164" t="n">
-        <v>383</v>
-      </c>
-      <c r="E164" t="n">
-        <v>383</v>
-      </c>
-      <c r="F164" t="n">
-        <v>3</v>
-      </c>
-      <c r="G164" t="n">
-        <v>384.1833333333333</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J164" t="n">
-        <v>246</v>
-      </c>
-      <c r="K164" t="n">
-        <v>20</v>
-      </c>
-      <c r="L164" t="n">
-        <v>380.8</v>
-      </c>
-      <c r="M164" t="n">
-        <v>382.85</v>
-      </c>
-      <c r="N164" t="n">
-        <v>384.1333333333333</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>384</v>
-      </c>
-      <c r="C165" t="n">
-        <v>381</v>
-      </c>
-      <c r="D165" t="n">
-        <v>384</v>
-      </c>
-      <c r="E165" t="n">
-        <v>381</v>
-      </c>
-      <c r="F165" t="n">
-        <v>119</v>
-      </c>
-      <c r="G165" t="n">
-        <v>384.1666666666667</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J165" t="n">
-        <v>248</v>
-      </c>
-      <c r="K165" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L165" t="n">
-        <v>380.9</v>
-      </c>
-      <c r="M165" t="n">
-        <v>382.65</v>
-      </c>
-      <c r="N165" t="n">
-        <v>384</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>381</v>
-      </c>
-      <c r="C166" t="n">
-        <v>381</v>
-      </c>
-      <c r="D166" t="n">
-        <v>382</v>
-      </c>
-      <c r="E166" t="n">
-        <v>381</v>
-      </c>
-      <c r="F166" t="n">
-        <v>544.3150000000001</v>
-      </c>
-      <c r="G166" t="n">
-        <v>384.15</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J166" t="n">
-        <v>248</v>
-      </c>
-      <c r="K166" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L166" t="n">
-        <v>381</v>
-      </c>
-      <c r="M166" t="n">
-        <v>382.45</v>
-      </c>
-      <c r="N166" t="n">
-        <v>383.7</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>381</v>
-      </c>
-      <c r="C167" t="n">
-        <v>381</v>
-      </c>
-      <c r="D167" t="n">
-        <v>381</v>
-      </c>
-      <c r="E167" t="n">
-        <v>381</v>
-      </c>
-      <c r="F167" t="n">
-        <v>82.6887</v>
-      </c>
-      <c r="G167" t="n">
-        <v>384.1333333333333</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J167" t="n">
-        <v>248</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L167" t="n">
-        <v>381.2</v>
-      </c>
-      <c r="M167" t="n">
-        <v>382.25</v>
-      </c>
-      <c r="N167" t="n">
-        <v>383.4</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>384</v>
-      </c>
-      <c r="C168" t="n">
-        <v>394</v>
-      </c>
-      <c r="D168" t="n">
-        <v>395</v>
-      </c>
-      <c r="E168" t="n">
-        <v>382</v>
-      </c>
-      <c r="F168" t="n">
-        <v>5940.7035</v>
-      </c>
-      <c r="G168" t="n">
-        <v>384.3333333333333</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>7</v>
-      </c>
-      <c r="J168" t="n">
-        <v>261</v>
-      </c>
-      <c r="K168" t="n">
-        <v>70</v>
-      </c>
-      <c r="L168" t="n">
-        <v>382.2</v>
-      </c>
-      <c r="M168" t="n">
-        <v>382.7</v>
-      </c>
-      <c r="N168" t="n">
-        <v>383.7</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>382</v>
-      </c>
-      <c r="C169" t="n">
-        <v>382</v>
-      </c>
-      <c r="D169" t="n">
-        <v>382</v>
-      </c>
-      <c r="E169" t="n">
-        <v>381</v>
-      </c>
-      <c r="F169" t="n">
-        <v>1392.8728</v>
-      </c>
-      <c r="G169" t="n">
-        <v>384.3333333333333</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J169" t="n">
-        <v>273</v>
-      </c>
-      <c r="K169" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="L169" t="n">
-        <v>382.4</v>
-      </c>
-      <c r="M169" t="n">
-        <v>382.55</v>
-      </c>
-      <c r="N169" t="n">
-        <v>383.6</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>384</v>
-      </c>
-      <c r="C170" t="n">
-        <v>384</v>
-      </c>
-      <c r="D170" t="n">
-        <v>384</v>
-      </c>
-      <c r="E170" t="n">
-        <v>384</v>
-      </c>
-      <c r="F170" t="n">
-        <v>26.178</v>
-      </c>
-      <c r="G170" t="n">
-        <v>384.3333333333333</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J170" t="n">
-        <v>275</v>
-      </c>
-      <c r="K170" t="n">
-        <v>15.15151515151515</v>
-      </c>
-      <c r="L170" t="n">
-        <v>382.8</v>
-      </c>
-      <c r="M170" t="n">
-        <v>382.5</v>
-      </c>
-      <c r="N170" t="n">
-        <v>383.5333333333334</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>382</v>
-      </c>
-      <c r="C171" t="n">
-        <v>382</v>
-      </c>
-      <c r="D171" t="n">
-        <v>382</v>
-      </c>
-      <c r="E171" t="n">
-        <v>382</v>
-      </c>
-      <c r="F171" t="n">
-        <v>571.8887999999999</v>
-      </c>
-      <c r="G171" t="n">
-        <v>384.2833333333334</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J171" t="n">
-        <v>277</v>
-      </c>
-      <c r="K171" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L171" t="n">
-        <v>383.1</v>
-      </c>
-      <c r="M171" t="n">
-        <v>382.4</v>
-      </c>
-      <c r="N171" t="n">
-        <v>383.4</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>383</v>
-      </c>
-      <c r="C172" t="n">
-        <v>383</v>
-      </c>
-      <c r="D172" t="n">
-        <v>383</v>
-      </c>
-      <c r="E172" t="n">
-        <v>383</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1866.1504</v>
-      </c>
-      <c r="G172" t="n">
-        <v>384.2166666666666</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J172" t="n">
-        <v>278</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0</v>
-      </c>
-      <c r="L172" t="n">
-        <v>383.4</v>
-      </c>
-      <c r="M172" t="n">
-        <v>382.3</v>
-      </c>
-      <c r="N172" t="n">
-        <v>383.2</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>383</v>
-      </c>
-      <c r="C173" t="n">
-        <v>383</v>
-      </c>
-      <c r="D173" t="n">
-        <v>383</v>
-      </c>
-      <c r="E173" t="n">
-        <v>383</v>
-      </c>
-      <c r="F173" t="n">
-        <v>79.16079999999999</v>
-      </c>
-      <c r="G173" t="n">
-        <v>384.2</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J173" t="n">
-        <v>278</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0</v>
-      </c>
-      <c r="L173" t="n">
-        <v>383.4</v>
-      </c>
-      <c r="M173" t="n">
-        <v>382.2</v>
-      </c>
-      <c r="N173" t="n">
-        <v>383.1333333333333</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>383</v>
-      </c>
-      <c r="C174" t="n">
-        <v>383</v>
-      </c>
-      <c r="D174" t="n">
-        <v>383</v>
-      </c>
-      <c r="E174" t="n">
-        <v>383</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1770.083</v>
-      </c>
-      <c r="G174" t="n">
-        <v>384.15</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J174" t="n">
-        <v>278</v>
-      </c>
-      <c r="K174" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L174" t="n">
-        <v>383.4</v>
-      </c>
-      <c r="M174" t="n">
-        <v>382.1</v>
-      </c>
-      <c r="N174" t="n">
-        <v>383.0333333333334</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-01 BackTest STRAT.xlsx
@@ -3146,17 +3146,13 @@
         <v>382.6833333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>376</v>
-      </c>
-      <c r="K79" t="n">
-        <v>376</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
@@ -3185,280 +3181,244 @@
         <v>382.55</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>374</v>
+      </c>
+      <c r="C81" t="n">
+        <v>371</v>
+      </c>
+      <c r="D81" t="n">
+        <v>374</v>
+      </c>
+      <c r="E81" t="n">
+        <v>371</v>
+      </c>
+      <c r="F81" t="n">
+        <v>4618.2676</v>
+      </c>
+      <c r="G81" t="n">
+        <v>382.35</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
         <v>375</v>
       </c>
-      <c r="K80" t="n">
+      <c r="C82" t="n">
         <v>376</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="D82" t="n">
+        <v>376</v>
+      </c>
+      <c r="E82" t="n">
+        <v>374</v>
+      </c>
+      <c r="F82" t="n">
+        <v>602.7495</v>
+      </c>
+      <c r="G82" t="n">
+        <v>382.2666666666667</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>374</v>
+      </c>
+      <c r="C83" t="n">
+        <v>376</v>
+      </c>
+      <c r="D83" t="n">
+        <v>376</v>
+      </c>
+      <c r="E83" t="n">
+        <v>374</v>
+      </c>
+      <c r="F83" t="n">
+        <v>435.2397</v>
+      </c>
+      <c r="G83" t="n">
+        <v>382.1666666666667</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>376</v>
+      </c>
+      <c r="C84" t="n">
+        <v>376</v>
+      </c>
+      <c r="D84" t="n">
+        <v>376</v>
+      </c>
+      <c r="E84" t="n">
+        <v>376</v>
+      </c>
+      <c r="F84" t="n">
+        <v>100</v>
+      </c>
+      <c r="G84" t="n">
+        <v>382.0833333333333</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>376</v>
+      </c>
+      <c r="K84" t="n">
+        <v>376</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>376</v>
+      </c>
+      <c r="C85" t="n">
+        <v>376</v>
+      </c>
+      <c r="D85" t="n">
+        <v>376</v>
+      </c>
+      <c r="E85" t="n">
+        <v>376</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1340.0994</v>
+      </c>
+      <c r="G85" t="n">
+        <v>382.0166666666667</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>376</v>
+      </c>
+      <c r="K85" t="n">
+        <v>376</v>
+      </c>
+      <c r="L85" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
         <v>374</v>
       </c>
-      <c r="C81" t="n">
-        <v>371</v>
-      </c>
-      <c r="D81" t="n">
+      <c r="C86" t="n">
+        <v>379</v>
+      </c>
+      <c r="D86" t="n">
+        <v>379</v>
+      </c>
+      <c r="E86" t="n">
         <v>374</v>
       </c>
-      <c r="E81" t="n">
-        <v>371</v>
-      </c>
-      <c r="F81" t="n">
-        <v>4618.2676</v>
-      </c>
-      <c r="G81" t="n">
-        <v>382.35</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>374</v>
-      </c>
-      <c r="K81" t="n">
+      <c r="F86" t="n">
+        <v>1051.5068</v>
+      </c>
+      <c r="G86" t="n">
+        <v>382.0166666666667</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
         <v>376</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="K86" t="n">
+        <v>376</v>
+      </c>
+      <c r="L86" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>375</v>
-      </c>
-      <c r="C82" t="n">
-        <v>376</v>
-      </c>
-      <c r="D82" t="n">
-        <v>376</v>
-      </c>
-      <c r="E82" t="n">
-        <v>374</v>
-      </c>
-      <c r="F82" t="n">
-        <v>602.7495</v>
-      </c>
-      <c r="G82" t="n">
-        <v>382.2666666666667</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>375</v>
-      </c>
-      <c r="K82" t="n">
-        <v>376</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>374</v>
-      </c>
-      <c r="C83" t="n">
-        <v>376</v>
-      </c>
-      <c r="D83" t="n">
-        <v>376</v>
-      </c>
-      <c r="E83" t="n">
-        <v>374</v>
-      </c>
-      <c r="F83" t="n">
-        <v>435.2397</v>
-      </c>
-      <c r="G83" t="n">
-        <v>382.1666666666667</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>374</v>
-      </c>
-      <c r="K83" t="n">
-        <v>376</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>376</v>
-      </c>
-      <c r="C84" t="n">
-        <v>376</v>
-      </c>
-      <c r="D84" t="n">
-        <v>376</v>
-      </c>
-      <c r="E84" t="n">
-        <v>376</v>
-      </c>
-      <c r="F84" t="n">
-        <v>100</v>
-      </c>
-      <c r="G84" t="n">
-        <v>382.0833333333333</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>376</v>
-      </c>
-      <c r="K84" t="n">
-        <v>376</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>376</v>
-      </c>
-      <c r="C85" t="n">
-        <v>376</v>
-      </c>
-      <c r="D85" t="n">
-        <v>376</v>
-      </c>
-      <c r="E85" t="n">
-        <v>376</v>
-      </c>
-      <c r="F85" t="n">
-        <v>1340.0994</v>
-      </c>
-      <c r="G85" t="n">
-        <v>382.0166666666667</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>376</v>
-      </c>
-      <c r="K85" t="n">
-        <v>376</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>374</v>
-      </c>
-      <c r="C86" t="n">
-        <v>379</v>
-      </c>
-      <c r="D86" t="n">
-        <v>379</v>
-      </c>
-      <c r="E86" t="n">
-        <v>374</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1051.5068</v>
-      </c>
-      <c r="G86" t="n">
-        <v>382.0166666666667</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>374</v>
-      </c>
-      <c r="K86" t="n">
-        <v>376</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3492,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K87" t="n">
         <v>376</v>
@@ -3535,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="K88" t="n">
         <v>376</v>
@@ -3613,14 +3573,12 @@
         <v>381.7166666666666</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>379</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
         <v>376</v>
       </c>
@@ -3656,14 +3614,12 @@
         <v>381.6333333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>379</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>376</v>
       </c>
@@ -3699,14 +3655,12 @@
         <v>381.5833333333333</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>380</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
         <v>376</v>
       </c>
@@ -3742,14 +3696,12 @@
         <v>381.5333333333334</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>379</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>376</v>
       </c>
@@ -4239,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
@@ -4247,11 +4199,11 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>1</v>
+        <v>1.010957446808511</v>
       </c>
     </row>
     <row r="106">
@@ -4283,14 +4235,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>376</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4324,14 +4270,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>376</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4365,14 +4305,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>376</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4406,14 +4340,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>376</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4447,14 +4375,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>376</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4488,14 +4410,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>376</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4529,14 +4445,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>376</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4570,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>376</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4608,17 +4512,11 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>376</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4652,14 +4550,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>376</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4693,14 +4585,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>376</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4731,19 +4617,13 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>376</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>1.018936170212766</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -4877,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -4912,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>

--- a/BackTest/2019-11-01 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-01 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C2" t="n">
         <v>387</v>
       </c>
       <c r="D2" t="n">
+        <v>387</v>
+      </c>
+      <c r="E2" t="n">
+        <v>386</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
         <v>388</v>
-      </c>
-      <c r="E2" t="n">
-        <v>387</v>
-      </c>
-      <c r="F2" t="n">
-        <v>964.2789</v>
-      </c>
-      <c r="G2" t="n">
-        <v>387.9333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C3" t="n">
         <v>387</v>
       </c>
       <c r="D3" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E3" t="n">
         <v>387</v>
       </c>
       <c r="F3" t="n">
-        <v>1755.5521</v>
+        <v>964.2789</v>
       </c>
       <c r="G3" t="n">
-        <v>387.8</v>
+        <v>387.9333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>387</v>
       </c>
       <c r="F4" t="n">
-        <v>1143.6393</v>
+        <v>1755.5521</v>
       </c>
       <c r="G4" t="n">
-        <v>387.6833333333333</v>
+        <v>387.8</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>387</v>
       </c>
       <c r="F5" t="n">
-        <v>4203</v>
+        <v>1143.6393</v>
       </c>
       <c r="G5" t="n">
-        <v>387.6333333333333</v>
+        <v>387.6833333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>387</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>4203</v>
       </c>
       <c r="G6" t="n">
-        <v>387.5833333333333</v>
+        <v>387.6333333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>387</v>
       </c>
       <c r="F7" t="n">
-        <v>648</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>387.5333333333334</v>
+        <v>387.5833333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C8" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D8" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E8" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F8" t="n">
-        <v>5.9085</v>
+        <v>648</v>
       </c>
       <c r="G8" t="n">
-        <v>387.5</v>
+        <v>387.5333333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C9" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D9" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E9" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F9" t="n">
-        <v>2112.1218</v>
+        <v>5.9085</v>
       </c>
       <c r="G9" t="n">
-        <v>387.4166666666667</v>
+        <v>387.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C10" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D10" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E10" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F10" t="n">
-        <v>5249.0079</v>
+        <v>2112.1218</v>
       </c>
       <c r="G10" t="n">
-        <v>387.3166666666667</v>
+        <v>387.4166666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>386</v>
       </c>
       <c r="C11" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D11" t="n">
         <v>386</v>
       </c>
       <c r="E11" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F11" t="n">
-        <v>2.9689</v>
+        <v>5249.0079</v>
       </c>
       <c r="G11" t="n">
-        <v>387.2333333333333</v>
+        <v>387.3166666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>386</v>
       </c>
       <c r="F12" t="n">
-        <v>2.9248</v>
+        <v>2.9689</v>
       </c>
       <c r="G12" t="n">
-        <v>387.15</v>
+        <v>387.2333333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C13" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D13" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E13" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F13" t="n">
-        <v>346.1752</v>
+        <v>2.9248</v>
       </c>
       <c r="G13" t="n">
-        <v>387.0166666666667</v>
+        <v>387.15</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>385</v>
+      </c>
+      <c r="C14" t="n">
         <v>382</v>
       </c>
-      <c r="C14" t="n">
-        <v>379</v>
-      </c>
       <c r="D14" t="n">
+        <v>385</v>
+      </c>
+      <c r="E14" t="n">
         <v>382</v>
       </c>
-      <c r="E14" t="n">
-        <v>379</v>
-      </c>
       <c r="F14" t="n">
-        <v>975.4</v>
+        <v>346.1752</v>
       </c>
       <c r="G14" t="n">
-        <v>386.8333333333333</v>
+        <v>387.0166666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C15" t="n">
         <v>379</v>
       </c>
       <c r="D15" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E15" t="n">
         <v>379</v>
       </c>
       <c r="F15" t="n">
-        <v>3.9577</v>
+        <v>975.4</v>
       </c>
       <c r="G15" t="n">
-        <v>386.65</v>
+        <v>386.8333333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>379</v>
       </c>
       <c r="F16" t="n">
-        <v>105.1197</v>
+        <v>3.9577</v>
       </c>
       <c r="G16" t="n">
-        <v>386.45</v>
+        <v>386.65</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>379</v>
       </c>
       <c r="F17" t="n">
-        <v>458.999</v>
+        <v>105.1197</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2666666666667</v>
+        <v>386.45</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C18" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D18" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E18" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F18" t="n">
-        <v>15.7205</v>
+        <v>458.999</v>
       </c>
       <c r="G18" t="n">
-        <v>386.0666666666667</v>
+        <v>386.2666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>378</v>
       </c>
       <c r="F19" t="n">
-        <v>191.4076</v>
+        <v>15.7205</v>
       </c>
       <c r="G19" t="n">
-        <v>385.8666666666667</v>
+        <v>386.0666666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C20" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D20" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E20" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F20" t="n">
-        <v>5.0234</v>
+        <v>191.4076</v>
       </c>
       <c r="G20" t="n">
-        <v>385.75</v>
+        <v>385.8666666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>383</v>
       </c>
       <c r="F21" t="n">
-        <v>290.8485</v>
+        <v>5.0234</v>
       </c>
       <c r="G21" t="n">
         <v>385.75</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C22" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D22" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E22" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F22" t="n">
-        <v>100.5074</v>
+        <v>290.8485</v>
       </c>
       <c r="G22" t="n">
-        <v>385.8</v>
+        <v>385.75</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C23" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D23" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E23" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F23" t="n">
-        <v>711.4083000000001</v>
+        <v>100.5074</v>
       </c>
       <c r="G23" t="n">
-        <v>385.6666666666667</v>
+        <v>385.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C24" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D24" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E24" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F24" t="n">
-        <v>2982.057</v>
+        <v>711.4083000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>385.6333333333333</v>
+        <v>385.6666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>381</v>
       </c>
       <c r="C25" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D25" t="n">
         <v>381</v>
       </c>
       <c r="E25" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F25" t="n">
-        <v>1397.5194</v>
+        <v>2982.057</v>
       </c>
       <c r="G25" t="n">
-        <v>385.5166666666667</v>
+        <v>385.6333333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C26" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D26" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E26" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F26" t="n">
-        <v>6426.259</v>
+        <v>1397.5194</v>
       </c>
       <c r="G26" t="n">
-        <v>385.3833333333333</v>
+        <v>385.5166666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C27" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D27" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E27" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F27" t="n">
-        <v>21</v>
+        <v>6426.259</v>
       </c>
       <c r="G27" t="n">
-        <v>385.2833333333334</v>
+        <v>385.3833333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C28" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D28" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E28" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F28" t="n">
-        <v>141.8777</v>
+        <v>21</v>
       </c>
       <c r="G28" t="n">
-        <v>385.1833333333333</v>
+        <v>385.2833333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C29" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D29" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E29" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F29" t="n">
-        <v>1217.8346</v>
+        <v>141.8777</v>
       </c>
       <c r="G29" t="n">
-        <v>385.05</v>
+        <v>385.1833333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C30" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D30" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E30" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>1217.8346</v>
       </c>
       <c r="G30" t="n">
-        <v>385.0333333333334</v>
+        <v>385.05</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,16 +1448,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C31" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D31" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E31" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C32" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D32" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E32" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F32" t="n">
-        <v>334.3517</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>384.9833333333333</v>
+        <v>385.0333333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C33" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D33" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E33" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F33" t="n">
-        <v>28.7958</v>
+        <v>334.3517</v>
       </c>
       <c r="G33" t="n">
-        <v>384.9166666666667</v>
+        <v>384.9833333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>382</v>
       </c>
       <c r="C34" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D34" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E34" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F34" t="n">
-        <v>3304.8757</v>
+        <v>28.7958</v>
       </c>
       <c r="G34" t="n">
-        <v>384.85</v>
+        <v>384.9166666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C35" t="n">
         <v>384</v>
@@ -1597,13 +1597,13 @@
         <v>384</v>
       </c>
       <c r="E35" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F35" t="n">
-        <v>141.8731</v>
+        <v>3304.8757</v>
       </c>
       <c r="G35" t="n">
-        <v>384.75</v>
+        <v>384.85</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C36" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D36" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E36" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>141.8731</v>
       </c>
       <c r="G36" t="n">
-        <v>384.7166666666666</v>
+        <v>384.75</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C37" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D37" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E37" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F37" t="n">
-        <v>438.8892</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>384.7333333333333</v>
+        <v>384.7166666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C38" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D38" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E38" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F38" t="n">
-        <v>719.7364</v>
+        <v>438.8892</v>
       </c>
       <c r="G38" t="n">
-        <v>384.6666666666667</v>
+        <v>384.7333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C39" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D39" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E39" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>719.7364</v>
       </c>
       <c r="G39" t="n">
-        <v>384.6333333333333</v>
+        <v>384.6666666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C40" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D40" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E40" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F40" t="n">
-        <v>2649.652</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>384.6666666666667</v>
+        <v>384.6333333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C41" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D41" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E41" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>2649.652</v>
       </c>
       <c r="G41" t="n">
-        <v>384.7666666666667</v>
+        <v>384.6666666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C42" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D42" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E42" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F42" t="n">
-        <v>79.9956</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>384.7333333333333</v>
+        <v>384.7666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>385</v>
       </c>
       <c r="F43" t="n">
-        <v>78.9956</v>
+        <v>79.9956</v>
       </c>
       <c r="G43" t="n">
-        <v>384.7166666666666</v>
+        <v>384.7333333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C44" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D44" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E44" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F44" t="n">
-        <v>81.1198</v>
+        <v>78.9956</v>
       </c>
       <c r="G44" t="n">
-        <v>384.6833333333333</v>
+        <v>384.7166666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>386</v>
       </c>
       <c r="F45" t="n">
-        <v>111</v>
+        <v>81.1198</v>
       </c>
       <c r="G45" t="n">
-        <v>384.65</v>
+        <v>384.6833333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>386</v>
       </c>
       <c r="F46" t="n">
-        <v>190.7905</v>
+        <v>111</v>
       </c>
       <c r="G46" t="n">
-        <v>384.6166666666667</v>
+        <v>384.65</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>386</v>
       </c>
       <c r="F47" t="n">
-        <v>202.0446</v>
+        <v>190.7905</v>
       </c>
       <c r="G47" t="n">
-        <v>384.55</v>
+        <v>384.6166666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C48" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D48" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E48" t="n">
         <v>386</v>
       </c>
       <c r="F48" t="n">
-        <v>3190.3222</v>
+        <v>202.0446</v>
       </c>
       <c r="G48" t="n">
-        <v>384.5666666666667</v>
+        <v>384.55</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,19 +2078,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C49" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D49" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E49" t="n">
         <v>386</v>
       </c>
       <c r="F49" t="n">
-        <v>969.4112</v>
+        <v>3190.3222</v>
       </c>
       <c r="G49" t="n">
         <v>384.5666666666667</v>
@@ -2125,7 +2125,7 @@
         <v>386</v>
       </c>
       <c r="F50" t="n">
-        <v>1719.1588</v>
+        <v>969.4112</v>
       </c>
       <c r="G50" t="n">
         <v>384.5666666666667</v>
@@ -2148,19 +2148,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C51" t="n">
         <v>386</v>
       </c>
       <c r="D51" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E51" t="n">
         <v>386</v>
       </c>
       <c r="F51" t="n">
-        <v>1231.327</v>
+        <v>1719.1588</v>
       </c>
       <c r="G51" t="n">
         <v>384.5666666666667</v>
@@ -2195,10 +2195,10 @@
         <v>386</v>
       </c>
       <c r="F52" t="n">
-        <v>192.1819</v>
+        <v>1231.327</v>
       </c>
       <c r="G52" t="n">
-        <v>384.55</v>
+        <v>384.5666666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>386</v>
       </c>
       <c r="F53" t="n">
-        <v>871.0154</v>
+        <v>192.1819</v>
       </c>
       <c r="G53" t="n">
-        <v>384.5166666666667</v>
+        <v>384.55</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C54" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D54" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E54" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F54" t="n">
-        <v>183.0677</v>
+        <v>871.0154</v>
       </c>
       <c r="G54" t="n">
-        <v>384.45</v>
+        <v>384.5166666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>385</v>
       </c>
       <c r="F55" t="n">
-        <v>521.0388</v>
+        <v>183.0677</v>
       </c>
       <c r="G55" t="n">
-        <v>384.4333333333333</v>
+        <v>384.45</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C56" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D56" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E56" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F56" t="n">
-        <v>1281.3542</v>
+        <v>521.0388</v>
       </c>
       <c r="G56" t="n">
-        <v>384.4</v>
+        <v>384.4333333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>384</v>
       </c>
       <c r="F57" t="n">
-        <v>2206.7819</v>
+        <v>1281.3542</v>
       </c>
       <c r="G57" t="n">
-        <v>384.3166666666667</v>
+        <v>384.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>384</v>
       </c>
       <c r="F58" t="n">
-        <v>298.6472</v>
+        <v>2206.7819</v>
       </c>
       <c r="G58" t="n">
-        <v>384.2333333333333</v>
+        <v>384.3166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>384</v>
       </c>
       <c r="F59" t="n">
-        <v>559.7453</v>
+        <v>298.6472</v>
       </c>
       <c r="G59" t="n">
-        <v>384.1333333333333</v>
+        <v>384.2333333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C60" t="n">
         <v>384</v>
       </c>
       <c r="D60" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E60" t="n">
         <v>384</v>
       </c>
       <c r="F60" t="n">
-        <v>7437.4468</v>
+        <v>559.7453</v>
       </c>
       <c r="G60" t="n">
-        <v>384.1166666666667</v>
+        <v>384.1333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C61" t="n">
         <v>384</v>
       </c>
       <c r="D61" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E61" t="n">
         <v>384</v>
       </c>
       <c r="F61" t="n">
-        <v>77</v>
+        <v>7437.4468</v>
       </c>
       <c r="G61" t="n">
-        <v>384.0666666666667</v>
+        <v>384.1166666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C62" t="n">
         <v>384</v>
       </c>
       <c r="D62" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E62" t="n">
         <v>384</v>
       </c>
       <c r="F62" t="n">
-        <v>1238.6304</v>
+        <v>77</v>
       </c>
       <c r="G62" t="n">
-        <v>384.0166666666667</v>
+        <v>384.0666666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C63" t="n">
         <v>384</v>
       </c>
       <c r="D63" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E63" t="n">
         <v>384</v>
       </c>
       <c r="F63" t="n">
-        <v>2719.6565</v>
+        <v>1238.6304</v>
       </c>
       <c r="G63" t="n">
-        <v>383.9666666666666</v>
+        <v>384.0166666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C64" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D64" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E64" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>2719.6565</v>
       </c>
       <c r="G64" t="n">
-        <v>383.8833333333333</v>
+        <v>383.9666666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2641,19 +2641,19 @@
         <v>382</v>
       </c>
       <c r="C65" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D65" t="n">
         <v>382</v>
       </c>
       <c r="E65" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F65" t="n">
-        <v>553.5099</v>
+        <v>250</v>
       </c>
       <c r="G65" t="n">
-        <v>383.7833333333334</v>
+        <v>383.8833333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C66" t="n">
         <v>381</v>
       </c>
       <c r="D66" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E66" t="n">
         <v>381</v>
       </c>
       <c r="F66" t="n">
-        <v>791.5972</v>
+        <v>553.5099</v>
       </c>
       <c r="G66" t="n">
-        <v>383.6833333333333</v>
+        <v>383.7833333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>381</v>
       </c>
       <c r="F67" t="n">
-        <v>758.5996</v>
+        <v>791.5972</v>
       </c>
       <c r="G67" t="n">
-        <v>383.5833333333333</v>
+        <v>383.6833333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>381</v>
       </c>
       <c r="F68" t="n">
-        <v>2137.0784</v>
+        <v>758.5996</v>
       </c>
       <c r="G68" t="n">
-        <v>383.4666666666666</v>
+        <v>383.5833333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2781,19 +2781,19 @@
         <v>381</v>
       </c>
       <c r="C69" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D69" t="n">
         <v>381</v>
       </c>
       <c r="E69" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F69" t="n">
-        <v>1483.6801</v>
+        <v>2137.0784</v>
       </c>
       <c r="G69" t="n">
-        <v>383.3666666666667</v>
+        <v>383.4666666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C70" t="n">
         <v>380</v>
       </c>
       <c r="D70" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E70" t="n">
         <v>380</v>
       </c>
       <c r="F70" t="n">
-        <v>172</v>
+        <v>1483.6801</v>
       </c>
       <c r="G70" t="n">
-        <v>383.2833333333334</v>
+        <v>383.3666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2851,19 +2851,19 @@
         <v>380</v>
       </c>
       <c r="C71" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D71" t="n">
         <v>380</v>
       </c>
       <c r="E71" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F71" t="n">
-        <v>47.88</v>
+        <v>172</v>
       </c>
       <c r="G71" t="n">
-        <v>383.1666666666667</v>
+        <v>383.2833333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>380</v>
+      </c>
+      <c r="C72" t="n">
         <v>379</v>
       </c>
-      <c r="C72" t="n">
-        <v>378</v>
-      </c>
       <c r="D72" t="n">
+        <v>380</v>
+      </c>
+      <c r="E72" t="n">
         <v>379</v>
       </c>
-      <c r="E72" t="n">
-        <v>378</v>
-      </c>
       <c r="F72" t="n">
-        <v>3959.5187</v>
+        <v>47.88</v>
       </c>
       <c r="G72" t="n">
-        <v>383.0333333333334</v>
+        <v>383.1666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2921,19 +2921,19 @@
         <v>379</v>
       </c>
       <c r="C73" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D73" t="n">
         <v>379</v>
       </c>
       <c r="E73" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F73" t="n">
-        <v>194.6791</v>
+        <v>3959.5187</v>
       </c>
       <c r="G73" t="n">
-        <v>382.9833333333333</v>
+        <v>383.0333333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>379</v>
       </c>
       <c r="C74" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D74" t="n">
         <v>379</v>
       </c>
       <c r="E74" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F74" t="n">
-        <v>4326.599</v>
+        <v>194.6791</v>
       </c>
       <c r="G74" t="n">
-        <v>382.9333333333333</v>
+        <v>382.9833333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C75" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D75" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E75" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F75" t="n">
-        <v>7614.5152</v>
+        <v>4326.599</v>
       </c>
       <c r="G75" t="n">
-        <v>382.85</v>
+        <v>382.9333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,10 +3023,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>376</v>
+      </c>
+      <c r="C76" t="n">
         <v>374</v>
-      </c>
-      <c r="C76" t="n">
-        <v>376</v>
       </c>
       <c r="D76" t="n">
         <v>376</v>
@@ -3035,10 +3035,10 @@
         <v>374</v>
       </c>
       <c r="F76" t="n">
-        <v>2571.4341</v>
+        <v>7614.5152</v>
       </c>
       <c r="G76" t="n">
-        <v>382.8</v>
+        <v>382.85</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,7 +3058,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C77" t="n">
         <v>376</v>
@@ -3067,13 +3067,13 @@
         <v>376</v>
       </c>
       <c r="E77" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F77" t="n">
-        <v>5095.0063</v>
+        <v>2571.4341</v>
       </c>
       <c r="G77" t="n">
-        <v>382.75</v>
+        <v>382.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C78" t="n">
         <v>376</v>
@@ -3102,13 +3102,13 @@
         <v>376</v>
       </c>
       <c r="E78" t="n">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F78" t="n">
-        <v>119.2562</v>
+        <v>5095.0063</v>
       </c>
       <c r="G78" t="n">
-        <v>382.7166666666666</v>
+        <v>382.75</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>376</v>
       </c>
       <c r="F79" t="n">
-        <v>850</v>
+        <v>119.2562</v>
       </c>
       <c r="G79" t="n">
-        <v>382.6833333333333</v>
+        <v>382.7166666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,31 +3163,35 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C80" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D80" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E80" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F80" t="n">
-        <v>219</v>
+        <v>850</v>
       </c>
       <c r="G80" t="n">
-        <v>382.55</v>
+        <v>382.6833333333333</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>376</v>
+      </c>
+      <c r="K80" t="n">
+        <v>376</v>
+      </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
@@ -3198,22 +3202,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C81" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D81" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E81" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F81" t="n">
-        <v>4618.2676</v>
+        <v>219</v>
       </c>
       <c r="G81" t="n">
-        <v>382.35</v>
+        <v>382.55</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,8 +3226,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>376</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,32 +3243,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>374</v>
+      </c>
+      <c r="C82" t="n">
+        <v>371</v>
+      </c>
+      <c r="D82" t="n">
+        <v>374</v>
+      </c>
+      <c r="E82" t="n">
+        <v>371</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4618.2676</v>
+      </c>
+      <c r="G82" t="n">
+        <v>382.35</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
         <v>375</v>
       </c>
-      <c r="C82" t="n">
-        <v>376</v>
-      </c>
-      <c r="D82" t="n">
-        <v>376</v>
-      </c>
-      <c r="E82" t="n">
-        <v>374</v>
-      </c>
-      <c r="F82" t="n">
-        <v>602.7495</v>
-      </c>
-      <c r="G82" t="n">
-        <v>382.2666666666667</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>376</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3268,7 +3286,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C83" t="n">
         <v>376</v>
@@ -3280,20 +3298,28 @@
         <v>374</v>
       </c>
       <c r="F83" t="n">
-        <v>435.2397</v>
+        <v>602.7495</v>
       </c>
       <c r="G83" t="n">
-        <v>382.1666666666667</v>
+        <v>382.2666666666667</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>371</v>
+      </c>
+      <c r="K83" t="n">
+        <v>376</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,7 +3329,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C84" t="n">
         <v>376</v>
@@ -3312,13 +3338,13 @@
         <v>376</v>
       </c>
       <c r="E84" t="n">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F84" t="n">
-        <v>100</v>
+        <v>435.2397</v>
       </c>
       <c r="G84" t="n">
-        <v>382.0833333333333</v>
+        <v>382.1666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
@@ -3332,7 +3358,11 @@
       <c r="K84" t="n">
         <v>376</v>
       </c>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3354,10 +3384,10 @@
         <v>376</v>
       </c>
       <c r="F85" t="n">
-        <v>1340.0994</v>
+        <v>100</v>
       </c>
       <c r="G85" t="n">
-        <v>382.0166666666667</v>
+        <v>382.0833333333333</v>
       </c>
       <c r="H85" t="n">
         <v>1</v>
@@ -3373,7 +3403,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -3385,38 +3415,36 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C86" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D86" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E86" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F86" t="n">
-        <v>1051.5068</v>
+        <v>1340.0994</v>
       </c>
       <c r="G86" t="n">
         <v>382.0166666666667</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>376</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
         <v>376</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -3428,22 +3456,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C87" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D87" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E87" t="n">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>1051.5068</v>
       </c>
       <c r="G87" t="n">
-        <v>381.9666666666666</v>
+        <v>382.0166666666667</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -3452,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K87" t="n">
         <v>376</v>
@@ -3471,22 +3499,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C88" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="D88" t="n">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="E88" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="F88" t="n">
-        <v>5497.9298</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>381.8666666666667</v>
+        <v>381.9666666666666</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
@@ -3495,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K88" t="n">
         <v>376</v>
@@ -3514,22 +3542,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C89" t="n">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D89" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E89" t="n">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F89" t="n">
-        <v>185.3703</v>
+        <v>5497.9298</v>
       </c>
       <c r="G89" t="n">
-        <v>381.7833333333334</v>
+        <v>381.8666666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3555,22 +3583,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C90" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D90" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E90" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F90" t="n">
-        <v>845.3329</v>
+        <v>185.3703</v>
       </c>
       <c r="G90" t="n">
-        <v>381.7166666666666</v>
+        <v>381.7833333333334</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3608,10 +3636,10 @@
         <v>379</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0001</v>
+        <v>845.3329</v>
       </c>
       <c r="G91" t="n">
-        <v>381.6333333333333</v>
+        <v>381.7166666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3637,30 +3665,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C92" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E92" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F92" t="n">
-        <v>175.3755</v>
+        <v>0.0001</v>
       </c>
       <c r="G92" t="n">
-        <v>381.5833333333333</v>
+        <v>381.6333333333333</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>379</v>
+      </c>
       <c r="K92" t="n">
         <v>376</v>
       </c>
@@ -3678,30 +3708,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>380</v>
+      </c>
+      <c r="C93" t="n">
+        <v>380</v>
+      </c>
+      <c r="D93" t="n">
+        <v>380</v>
+      </c>
+      <c r="E93" t="n">
+        <v>380</v>
+      </c>
+      <c r="F93" t="n">
+        <v>175.3755</v>
+      </c>
+      <c r="G93" t="n">
+        <v>381.5833333333333</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
         <v>379</v>
       </c>
-      <c r="C93" t="n">
-        <v>379</v>
-      </c>
-      <c r="D93" t="n">
-        <v>379</v>
-      </c>
-      <c r="E93" t="n">
-        <v>379</v>
-      </c>
-      <c r="F93" t="n">
-        <v>144.0144</v>
-      </c>
-      <c r="G93" t="n">
-        <v>381.5333333333334</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>376</v>
       </c>
@@ -3731,10 +3763,10 @@
         <v>379</v>
       </c>
       <c r="F94" t="n">
-        <v>15.26</v>
+        <v>144.0144</v>
       </c>
       <c r="G94" t="n">
-        <v>381.45</v>
+        <v>381.5333333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3760,22 +3792,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C95" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D95" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E95" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F95" t="n">
-        <v>50</v>
+        <v>15.26</v>
       </c>
       <c r="G95" t="n">
-        <v>381.3833333333333</v>
+        <v>381.45</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3801,22 +3833,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C96" t="n">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D96" t="n">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E96" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F96" t="n">
-        <v>1517.4255</v>
+        <v>50</v>
       </c>
       <c r="G96" t="n">
-        <v>381.35</v>
+        <v>381.3833333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3842,22 +3874,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C97" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D97" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E97" t="n">
         <v>381</v>
       </c>
       <c r="F97" t="n">
-        <v>2143</v>
+        <v>1517.4255</v>
       </c>
       <c r="G97" t="n">
-        <v>381.2666666666667</v>
+        <v>381.35</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3883,22 +3915,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C98" t="n">
         <v>381</v>
       </c>
       <c r="D98" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E98" t="n">
         <v>381</v>
       </c>
       <c r="F98" t="n">
-        <v>5</v>
+        <v>2143</v>
       </c>
       <c r="G98" t="n">
-        <v>381.2166666666666</v>
+        <v>381.2666666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3924,22 +3956,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C99" t="n">
         <v>381</v>
       </c>
       <c r="D99" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E99" t="n">
         <v>381</v>
       </c>
       <c r="F99" t="n">
-        <v>3720.2313</v>
+        <v>5</v>
       </c>
       <c r="G99" t="n">
-        <v>381.1166666666667</v>
+        <v>381.2166666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3965,22 +3997,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C100" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D100" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E100" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F100" t="n">
-        <v>104.8</v>
+        <v>3720.2313</v>
       </c>
       <c r="G100" t="n">
-        <v>381.0166666666667</v>
+        <v>381.1166666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4006,22 +4038,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C101" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D101" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E101" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F101" t="n">
-        <v>152.5647</v>
+        <v>104.8</v>
       </c>
       <c r="G101" t="n">
-        <v>380.9666666666666</v>
+        <v>381.0166666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4050,19 +4082,19 @@
         <v>386</v>
       </c>
       <c r="C102" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D102" t="n">
         <v>386</v>
       </c>
       <c r="E102" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F102" t="n">
-        <v>1125.6958</v>
+        <v>152.5647</v>
       </c>
       <c r="G102" t="n">
-        <v>380.9</v>
+        <v>380.9666666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4088,22 +4120,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C103" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D103" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E103" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>1125.6958</v>
       </c>
       <c r="G103" t="n">
-        <v>380.9333333333333</v>
+        <v>380.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4129,28 +4161,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C104" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D104" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E104" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F104" t="n">
-        <v>94.98690000000001</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>380.8833333333333</v>
+        <v>380.9333333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
@@ -4158,11 +4190,11 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>1</v>
+        <v>1.024255319148936</v>
       </c>
     </row>
     <row r="105">
@@ -4170,22 +4202,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C105" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D105" t="n">
         <v>383</v>
       </c>
       <c r="E105" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F105" t="n">
-        <v>1495.4467</v>
+        <v>94.98690000000001</v>
       </c>
       <c r="G105" t="n">
-        <v>380.8166666666667</v>
+        <v>380.8833333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4194,16 +4226,10 @@
         <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>376</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>1.010957446808511</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -4217,22 +4243,22 @@
         <v>382</v>
       </c>
       <c r="D106" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E106" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F106" t="n">
-        <v>181.876</v>
+        <v>1495.4467</v>
       </c>
       <c r="G106" t="n">
-        <v>380.75</v>
+        <v>380.8166666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4258,10 +4284,10 @@
         <v>382</v>
       </c>
       <c r="F107" t="n">
-        <v>1639.2004</v>
+        <v>181.876</v>
       </c>
       <c r="G107" t="n">
-        <v>380.6833333333333</v>
+        <v>380.75</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4293,10 +4319,10 @@
         <v>382</v>
       </c>
       <c r="F108" t="n">
-        <v>1451.0769</v>
+        <v>1639.2004</v>
       </c>
       <c r="G108" t="n">
-        <v>380.6</v>
+        <v>380.6833333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4328,10 +4354,10 @@
         <v>382</v>
       </c>
       <c r="F109" t="n">
-        <v>87.9999</v>
+        <v>1451.0769</v>
       </c>
       <c r="G109" t="n">
-        <v>380.5333333333334</v>
+        <v>380.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4351,22 +4377,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C110" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D110" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E110" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F110" t="n">
-        <v>629.9861</v>
+        <v>87.9999</v>
       </c>
       <c r="G110" t="n">
-        <v>380.5</v>
+        <v>380.5333333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4386,22 +4412,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C111" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D111" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E111" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>629.9861</v>
       </c>
       <c r="G111" t="n">
-        <v>380.4833333333333</v>
+        <v>380.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4424,19 +4450,19 @@
         <v>385</v>
       </c>
       <c r="C112" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D112" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E112" t="n">
         <v>385</v>
       </c>
       <c r="F112" t="n">
-        <v>904.0697</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>380.5</v>
+        <v>380.4833333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4456,22 +4482,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
+        <v>385</v>
+      </c>
+      <c r="C113" t="n">
         <v>387</v>
       </c>
-      <c r="C113" t="n">
-        <v>384</v>
-      </c>
       <c r="D113" t="n">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E113" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F113" t="n">
-        <v>6628.5442</v>
+        <v>904.0697</v>
       </c>
       <c r="G113" t="n">
-        <v>380.4666666666666</v>
+        <v>380.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4494,25 +4520,25 @@
         <v>387</v>
       </c>
       <c r="C114" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D114" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E114" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F114" t="n">
-        <v>473</v>
+        <v>6628.5442</v>
       </c>
       <c r="G114" t="n">
-        <v>380.4833333333333</v>
+        <v>380.4666666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4526,22 +4552,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C115" t="n">
         <v>386</v>
       </c>
       <c r="D115" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E115" t="n">
         <v>386</v>
       </c>
       <c r="F115" t="n">
-        <v>50</v>
+        <v>473</v>
       </c>
       <c r="G115" t="n">
-        <v>380.5</v>
+        <v>380.4833333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4564,19 +4590,19 @@
         <v>386</v>
       </c>
       <c r="C116" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D116" t="n">
         <v>386</v>
       </c>
       <c r="E116" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F116" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G116" t="n">
-        <v>380.5166666666667</v>
+        <v>380.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4596,22 +4622,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C117" t="n">
         <v>385</v>
       </c>
       <c r="D117" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E117" t="n">
         <v>385</v>
       </c>
       <c r="F117" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G117" t="n">
-        <v>380.5333333333334</v>
+        <v>380.5166666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4631,22 +4657,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C118" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D118" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E118" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G118" t="n">
-        <v>380.6166666666667</v>
+        <v>380.5333333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4666,19 +4692,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C119" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D119" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E119" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F119" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
         <v>380.6166666666667</v>
@@ -4713,7 +4739,7 @@
         <v>384</v>
       </c>
       <c r="F120" t="n">
-        <v>143.6356</v>
+        <v>50</v>
       </c>
       <c r="G120" t="n">
         <v>380.6166666666667</v>
@@ -4748,7 +4774,7 @@
         <v>384</v>
       </c>
       <c r="F121" t="n">
-        <v>3073.3927</v>
+        <v>143.6356</v>
       </c>
       <c r="G121" t="n">
         <v>380.6166666666667</v>
@@ -4771,22 +4797,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C122" t="n">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D122" t="n">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E122" t="n">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>3073.3927</v>
       </c>
       <c r="G122" t="n">
-        <v>380.7</v>
+        <v>380.6166666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4806,19 +4832,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C123" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D123" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E123" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F123" t="n">
-        <v>741.0595</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
         <v>380.7</v>
@@ -4853,10 +4879,10 @@
         <v>384</v>
       </c>
       <c r="F124" t="n">
-        <v>772.645</v>
+        <v>741.0595</v>
       </c>
       <c r="G124" t="n">
-        <v>380.7333333333333</v>
+        <v>380.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4879,16 +4905,16 @@
         <v>384</v>
       </c>
       <c r="C125" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D125" t="n">
         <v>384</v>
       </c>
       <c r="E125" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F125" t="n">
-        <v>584</v>
+        <v>772.645</v>
       </c>
       <c r="G125" t="n">
         <v>380.7333333333333</v>
@@ -4911,22 +4937,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C126" t="n">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D126" t="n">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E126" t="n">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>584</v>
       </c>
       <c r="G126" t="n">
-        <v>380.85</v>
+        <v>380.7333333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4946,22 +4972,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C127" t="n">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D127" t="n">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E127" t="n">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="F127" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>380.8833333333333</v>
+        <v>380.85</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4993,10 +5019,10 @@
         <v>383</v>
       </c>
       <c r="F128" t="n">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="G128" t="n">
-        <v>380.9166666666667</v>
+        <v>380.8833333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5016,22 +5042,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C129" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D129" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E129" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="G129" t="n">
-        <v>381.0333333333334</v>
+        <v>380.9166666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5051,22 +5077,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C130" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D130" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E130" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F130" t="n">
-        <v>361.324</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>381.0833333333333</v>
+        <v>381.0333333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5086,22 +5112,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C131" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D131" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E131" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F131" t="n">
-        <v>677.7653</v>
+        <v>361.324</v>
       </c>
       <c r="G131" t="n">
-        <v>381.1333333333333</v>
+        <v>381.0833333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5133,10 +5159,10 @@
         <v>382</v>
       </c>
       <c r="F132" t="n">
-        <v>901.8095</v>
+        <v>677.7653</v>
       </c>
       <c r="G132" t="n">
-        <v>381.2</v>
+        <v>381.1333333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5159,16 +5185,16 @@
         <v>382</v>
       </c>
       <c r="C133" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D133" t="n">
         <v>382</v>
       </c>
       <c r="E133" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F133" t="n">
-        <v>11819.4389</v>
+        <v>901.8095</v>
       </c>
       <c r="G133" t="n">
         <v>381.2</v>
@@ -5191,22 +5217,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C134" t="n">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D134" t="n">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E134" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F134" t="n">
-        <v>3067.324</v>
+        <v>11819.4389</v>
       </c>
       <c r="G134" t="n">
-        <v>381.4166666666667</v>
+        <v>381.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5229,19 +5255,19 @@
         <v>385</v>
       </c>
       <c r="C135" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D135" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E135" t="n">
         <v>385</v>
       </c>
       <c r="F135" t="n">
-        <v>102.2219</v>
+        <v>3067.324</v>
       </c>
       <c r="G135" t="n">
-        <v>381.6</v>
+        <v>381.4166666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5261,22 +5287,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C136" t="n">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D136" t="n">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E136" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F136" t="n">
-        <v>771.1305123</v>
+        <v>102.2219</v>
       </c>
       <c r="G136" t="n">
-        <v>381.8333333333333</v>
+        <v>381.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5296,7 +5322,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C137" t="n">
         <v>390</v>
@@ -5305,13 +5331,13 @@
         <v>390</v>
       </c>
       <c r="E137" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F137" t="n">
-        <v>513.07923076</v>
+        <v>771.1305123</v>
       </c>
       <c r="G137" t="n">
-        <v>382.0666666666667</v>
+        <v>381.8333333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5331,22 +5357,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C138" t="n">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="D138" t="n">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="E138" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F138" t="n">
-        <v>93.8383</v>
+        <v>513.07923076</v>
       </c>
       <c r="G138" t="n">
-        <v>382.2166666666666</v>
+        <v>382.0666666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5378,10 +5404,10 @@
         <v>385</v>
       </c>
       <c r="F139" t="n">
-        <v>121</v>
+        <v>93.8383</v>
       </c>
       <c r="G139" t="n">
-        <v>382.3666666666667</v>
+        <v>382.2166666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5401,22 +5427,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C140" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D140" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E140" t="n">
         <v>385</v>
       </c>
       <c r="F140" t="n">
-        <v>362.1</v>
+        <v>121</v>
       </c>
       <c r="G140" t="n">
-        <v>382.55</v>
+        <v>382.3666666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5445,13 +5471,13 @@
         <v>386</v>
       </c>
       <c r="E141" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F141" t="n">
-        <v>172</v>
+        <v>362.1</v>
       </c>
       <c r="G141" t="n">
-        <v>382.8</v>
+        <v>382.55</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5471,22 +5497,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C142" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D142" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E142" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="G142" t="n">
-        <v>383.0166666666667</v>
+        <v>382.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5506,22 +5532,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C143" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D143" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E143" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F143" t="n">
-        <v>113.1531</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
-        <v>383.1666666666667</v>
+        <v>383.0166666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5541,22 +5567,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C144" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D144" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E144" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F144" t="n">
-        <v>175.6196</v>
+        <v>113.1531</v>
       </c>
       <c r="G144" t="n">
-        <v>383.3333333333333</v>
+        <v>383.1666666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5576,22 +5602,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C145" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D145" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E145" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F145" t="n">
-        <v>886.1368</v>
+        <v>175.6196</v>
       </c>
       <c r="G145" t="n">
-        <v>383.4833333333333</v>
+        <v>383.3333333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5623,10 +5649,10 @@
         <v>385</v>
       </c>
       <c r="F146" t="n">
-        <v>39.0873</v>
+        <v>886.1368</v>
       </c>
       <c r="G146" t="n">
-        <v>383.5833333333333</v>
+        <v>383.4833333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5658,10 +5684,10 @@
         <v>385</v>
       </c>
       <c r="F147" t="n">
-        <v>87.9466</v>
+        <v>39.0873</v>
       </c>
       <c r="G147" t="n">
-        <v>383.65</v>
+        <v>383.5833333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5693,10 +5719,10 @@
         <v>385</v>
       </c>
       <c r="F148" t="n">
-        <v>665</v>
+        <v>87.9466</v>
       </c>
       <c r="G148" t="n">
-        <v>383.85</v>
+        <v>383.65</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5728,10 +5754,10 @@
         <v>385</v>
       </c>
       <c r="F149" t="n">
-        <v>237.9599</v>
+        <v>665</v>
       </c>
       <c r="G149" t="n">
-        <v>384</v>
+        <v>383.85</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5763,10 +5789,10 @@
         <v>385</v>
       </c>
       <c r="F150" t="n">
-        <v>1827.0045</v>
+        <v>237.9599</v>
       </c>
       <c r="G150" t="n">
-        <v>384.1</v>
+        <v>384</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5786,22 +5812,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C151" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D151" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E151" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F151" t="n">
-        <v>1813.8379</v>
+        <v>1827.0045</v>
       </c>
       <c r="G151" t="n">
-        <v>384.1833333333333</v>
+        <v>384.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5824,19 +5850,19 @@
         <v>384</v>
       </c>
       <c r="C152" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D152" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E152" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F152" t="n">
-        <v>1</v>
+        <v>1813.8379</v>
       </c>
       <c r="G152" t="n">
-        <v>384.2666666666667</v>
+        <v>384.1833333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5856,7 +5882,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C153" t="n">
         <v>385</v>
@@ -5865,13 +5891,13 @@
         <v>385</v>
       </c>
       <c r="E153" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F153" t="n">
-        <v>190.4763</v>
+        <v>1</v>
       </c>
       <c r="G153" t="n">
-        <v>384.3666666666667</v>
+        <v>384.2666666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5886,6 +5912,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>385</v>
+      </c>
+      <c r="C154" t="n">
+        <v>385</v>
+      </c>
+      <c r="D154" t="n">
+        <v>385</v>
+      </c>
+      <c r="E154" t="n">
+        <v>385</v>
+      </c>
+      <c r="F154" t="n">
+        <v>190.4763</v>
+      </c>
+      <c r="G154" t="n">
+        <v>384.3666666666667</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-01 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-01 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:N164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>100</v>
       </c>
       <c r="G2" t="n">
+        <v>387.3333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>388</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>964.2789</v>
       </c>
       <c r="G3" t="n">
+        <v>387.1333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>387.9333333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1755.5521</v>
       </c>
       <c r="G4" t="n">
+        <v>387.2</v>
+      </c>
+      <c r="H4" t="n">
         <v>387.8</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1143.6393</v>
       </c>
       <c r="G5" t="n">
+        <v>387.2666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>387.6833333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>4203</v>
       </c>
       <c r="G6" t="n">
+        <v>387.3333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>387.6333333333333</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>50</v>
       </c>
       <c r="G7" t="n">
+        <v>387.4</v>
+      </c>
+      <c r="H7" t="n">
         <v>387.5833333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>648</v>
       </c>
       <c r="G8" t="n">
+        <v>387.4</v>
+      </c>
+      <c r="H8" t="n">
         <v>387.5333333333334</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>5.9085</v>
       </c>
       <c r="G9" t="n">
+        <v>387.4</v>
+      </c>
+      <c r="H9" t="n">
         <v>387.5</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>2112.1218</v>
       </c>
       <c r="G10" t="n">
+        <v>387.2</v>
+      </c>
+      <c r="H10" t="n">
         <v>387.4166666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>5249.0079</v>
       </c>
       <c r="G11" t="n">
+        <v>387.1333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>387.3166666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>2.9689</v>
       </c>
       <c r="G12" t="n">
+        <v>387.1333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>387.2333333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>2.9248</v>
       </c>
       <c r="G13" t="n">
+        <v>386.9333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>387.15</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>346.1752</v>
       </c>
       <c r="G14" t="n">
+        <v>386.4666666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>387.0166666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>975.4</v>
       </c>
       <c r="G15" t="n">
+        <v>385.7333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>386.8333333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>3.9577</v>
       </c>
       <c r="G16" t="n">
+        <v>385.3333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>386.65</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>105.1197</v>
       </c>
       <c r="G17" t="n">
+        <v>384.8</v>
+      </c>
+      <c r="H17" t="n">
         <v>386.45</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>458.999</v>
       </c>
       <c r="G18" t="n">
+        <v>384.2666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>386.2666666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>15.7205</v>
       </c>
       <c r="G19" t="n">
+        <v>383.6666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>386.0666666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>191.4076</v>
       </c>
       <c r="G20" t="n">
+        <v>383.0666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>385.8666666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>5.0234</v>
       </c>
       <c r="G21" t="n">
+        <v>382.8</v>
+      </c>
+      <c r="H21" t="n">
         <v>385.75</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>290.8485</v>
       </c>
       <c r="G22" t="n">
+        <v>382.5333333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>385.75</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>100.5074</v>
       </c>
       <c r="G23" t="n">
+        <v>382.1333333333333</v>
+      </c>
+      <c r="H23" t="n">
         <v>385.8</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>711.4083000000001</v>
       </c>
       <c r="G24" t="n">
+        <v>381.7333333333333</v>
+      </c>
+      <c r="H24" t="n">
         <v>385.6666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>2982.057</v>
       </c>
       <c r="G25" t="n">
+        <v>381.4</v>
+      </c>
+      <c r="H25" t="n">
         <v>385.6333333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>1397.5194</v>
       </c>
       <c r="G26" t="n">
+        <v>381.0666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>385.5166666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>6426.259</v>
       </c>
       <c r="G27" t="n">
+        <v>380.6</v>
+      </c>
+      <c r="H27" t="n">
         <v>385.3833333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>21</v>
       </c>
       <c r="G28" t="n">
+        <v>380.4666666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>385.2833333333334</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>141.8777</v>
       </c>
       <c r="G29" t="n">
+        <v>380.2666666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>385.1833333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>1217.8346</v>
       </c>
       <c r="G30" t="n">
+        <v>380.4</v>
+      </c>
+      <c r="H30" t="n">
         <v>385.05</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
+        <v>380.6666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>385.0333333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
+        <v>381</v>
+      </c>
+      <c r="H32" t="n">
         <v>385.0333333333334</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>334.3517</v>
       </c>
       <c r="G33" t="n">
+        <v>381.2666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>384.9833333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>28.7958</v>
       </c>
       <c r="G34" t="n">
+        <v>381.5333333333334</v>
+      </c>
+      <c r="H34" t="n">
         <v>384.9166666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>3304.8757</v>
       </c>
       <c r="G35" t="n">
+        <v>381.9333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>384.85</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>141.8731</v>
       </c>
       <c r="G36" t="n">
+        <v>382</v>
+      </c>
+      <c r="H36" t="n">
         <v>384.75</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
+        <v>382.1333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>384.7166666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>438.8892</v>
       </c>
       <c r="G38" t="n">
+        <v>382.4666666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>384.7333333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>719.7364</v>
       </c>
       <c r="G39" t="n">
+        <v>382.6</v>
+      </c>
+      <c r="H39" t="n">
         <v>384.6666666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
+        <v>383</v>
+      </c>
+      <c r="H40" t="n">
         <v>384.6333333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>2649.652</v>
       </c>
       <c r="G41" t="n">
+        <v>383.5333333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>384.6666666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
+        <v>384.2</v>
+      </c>
+      <c r="H42" t="n">
         <v>384.7666666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>79.9956</v>
       </c>
       <c r="G43" t="n">
+        <v>384.2666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>384.7333333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>78.9956</v>
       </c>
       <c r="G44" t="n">
+        <v>384.6666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>384.7166666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>81.1198</v>
       </c>
       <c r="G45" t="n">
+        <v>385</v>
+      </c>
+      <c r="H45" t="n">
         <v>384.6833333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>111</v>
       </c>
       <c r="G46" t="n">
+        <v>385.2</v>
+      </c>
+      <c r="H46" t="n">
         <v>384.65</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>190.7905</v>
       </c>
       <c r="G47" t="n">
+        <v>385.3333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>384.6166666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>202.0446</v>
       </c>
       <c r="G48" t="n">
+        <v>385.5333333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>384.55</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>3190.3222</v>
       </c>
       <c r="G49" t="n">
+        <v>385.8666666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>384.5666666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>969.4112</v>
       </c>
       <c r="G50" t="n">
+        <v>386</v>
+      </c>
+      <c r="H50" t="n">
         <v>384.5666666666667</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>1719.1588</v>
       </c>
       <c r="G51" t="n">
+        <v>386.1333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>384.5666666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>1231.327</v>
       </c>
       <c r="G52" t="n">
+        <v>386.2</v>
+      </c>
+      <c r="H52" t="n">
         <v>384.5666666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>192.1819</v>
       </c>
       <c r="G53" t="n">
+        <v>386.2</v>
+      </c>
+      <c r="H53" t="n">
         <v>384.55</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>871.0154</v>
       </c>
       <c r="G54" t="n">
+        <v>386.3333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>384.5166666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>183.0677</v>
       </c>
       <c r="G55" t="n">
+        <v>386.2</v>
+      </c>
+      <c r="H55" t="n">
         <v>384.45</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>521.0388</v>
       </c>
       <c r="G56" t="n">
+        <v>386</v>
+      </c>
+      <c r="H56" t="n">
         <v>384.4333333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>1281.3542</v>
       </c>
       <c r="G57" t="n">
+        <v>385.6666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>384.4</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>2206.7819</v>
       </c>
       <c r="G58" t="n">
+        <v>385.6</v>
+      </c>
+      <c r="H58" t="n">
         <v>384.3166666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>298.6472</v>
       </c>
       <c r="G59" t="n">
+        <v>385.5333333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>384.2333333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>559.7453</v>
       </c>
       <c r="G60" t="n">
+        <v>385.4</v>
+      </c>
+      <c r="H60" t="n">
         <v>384.1333333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>7437.4468</v>
       </c>
       <c r="G61" t="n">
+        <v>385.2666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>384.1166666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>77</v>
       </c>
       <c r="G62" t="n">
+        <v>385.1333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>384.0666666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>1238.6304</v>
       </c>
       <c r="G63" t="n">
+        <v>385</v>
+      </c>
+      <c r="H63" t="n">
         <v>384.0166666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>2719.6565</v>
       </c>
       <c r="G64" t="n">
+        <v>384.8</v>
+      </c>
+      <c r="H64" t="n">
         <v>383.9666666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>250</v>
       </c>
       <c r="G65" t="n">
+        <v>384.5333333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>383.8833333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>553.5099</v>
       </c>
       <c r="G66" t="n">
+        <v>384.2</v>
+      </c>
+      <c r="H66" t="n">
         <v>383.7833333333334</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>791.5972</v>
       </c>
       <c r="G67" t="n">
+        <v>383.8666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>383.6833333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>758.5996</v>
       </c>
       <c r="G68" t="n">
+        <v>383.5333333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>383.5833333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>2137.0784</v>
       </c>
       <c r="G69" t="n">
+        <v>383.2</v>
+      </c>
+      <c r="H69" t="n">
         <v>383.4666666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>1483.6801</v>
       </c>
       <c r="G70" t="n">
+        <v>382.8666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>383.3666666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>172</v>
       </c>
       <c r="G71" t="n">
+        <v>382.5333333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>383.2833333333334</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>47.88</v>
       </c>
       <c r="G72" t="n">
+        <v>382.2</v>
+      </c>
+      <c r="H72" t="n">
         <v>383.1666666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>3959.5187</v>
       </c>
       <c r="G73" t="n">
+        <v>381.8</v>
+      </c>
+      <c r="H73" t="n">
         <v>383.0333333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>194.6791</v>
       </c>
       <c r="G74" t="n">
+        <v>381.4666666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>382.9833333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>4326.599</v>
       </c>
       <c r="G75" t="n">
+        <v>380.9333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>382.9333333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,27 @@
         <v>7614.5152</v>
       </c>
       <c r="G76" t="n">
+        <v>380.2666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>382.85</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>376</v>
+      </c>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3309,27 @@
         <v>2571.4341</v>
       </c>
       <c r="G77" t="n">
+        <v>379.7333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>382.8</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>374</v>
+      </c>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3353,27 @@
         <v>5095.0063</v>
       </c>
       <c r="G78" t="n">
+        <v>379.2</v>
+      </c>
+      <c r="H78" t="n">
         <v>382.75</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>376</v>
+      </c>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3397,27 @@
         <v>119.2562</v>
       </c>
       <c r="G79" t="n">
+        <v>378.6666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>382.7166666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>376</v>
+      </c>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,22 +3441,27 @@
         <v>850</v>
       </c>
       <c r="G80" t="n">
+        <v>378.2666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>382.6833333333333</v>
       </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
         <v>376</v>
       </c>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3217,24 +3485,27 @@
         <v>219</v>
       </c>
       <c r="G81" t="n">
+        <v>377.8666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>382.55</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="n">
         <v>376</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3258,26 +3529,27 @@
         <v>4618.2676</v>
       </c>
       <c r="G82" t="n">
+        <v>377.2</v>
+      </c>
+      <c r="H82" t="n">
         <v>382.35</v>
       </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
         <v>375</v>
       </c>
-      <c r="K82" t="n">
-        <v>376</v>
-      </c>
-      <c r="L82" t="inlineStr">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,26 +3573,27 @@
         <v>602.7495</v>
       </c>
       <c r="G83" t="n">
+        <v>376.8666666666667</v>
+      </c>
+      <c r="H83" t="n">
         <v>382.2666666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
         <v>371</v>
       </c>
-      <c r="K83" t="n">
-        <v>376</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3344,26 +3617,27 @@
         <v>435.2397</v>
       </c>
       <c r="G84" t="n">
+        <v>376.5333333333334</v>
+      </c>
+      <c r="H84" t="n">
         <v>382.1666666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
         <v>376</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3387,26 +3661,27 @@
         <v>100</v>
       </c>
       <c r="G85" t="n">
+        <v>376.2666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>382.0833333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
         <v>376</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3430,24 +3705,27 @@
         <v>1340.0994</v>
       </c>
       <c r="G86" t="n">
+        <v>376</v>
+      </c>
+      <c r="H86" t="n">
         <v>382.0166666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="n">
         <v>376</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3471,26 +3749,27 @@
         <v>1051.5068</v>
       </c>
       <c r="G87" t="n">
+        <v>376</v>
+      </c>
+      <c r="H87" t="n">
         <v>382.0166666666667</v>
       </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
         <v>376</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3514,26 +3793,25 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
+        <v>376.2</v>
+      </c>
+      <c r="H88" t="n">
         <v>381.9666666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>379</v>
-      </c>
-      <c r="K88" t="n">
-        <v>376</v>
-      </c>
-      <c r="L88" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3557,24 +3835,25 @@
         <v>5497.9298</v>
       </c>
       <c r="G89" t="n">
+        <v>375.8</v>
+      </c>
+      <c r="H89" t="n">
         <v>381.8666666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>376</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,24 +3877,25 @@
         <v>185.3703</v>
       </c>
       <c r="G90" t="n">
+        <v>375.8</v>
+      </c>
+      <c r="H90" t="n">
         <v>381.7833333333334</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>376</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3639,24 +3919,25 @@
         <v>845.3329</v>
       </c>
       <c r="G91" t="n">
+        <v>376.1333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>381.7166666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>376</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3680,26 +3961,25 @@
         <v>0.0001</v>
       </c>
       <c r="G92" t="n">
+        <v>376.3333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>381.6333333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>379</v>
-      </c>
-      <c r="K92" t="n">
-        <v>376</v>
-      </c>
-      <c r="L92" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3723,26 +4003,25 @@
         <v>175.3755</v>
       </c>
       <c r="G93" t="n">
+        <v>376.6</v>
+      </c>
+      <c r="H93" t="n">
         <v>381.5833333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>379</v>
-      </c>
-      <c r="K93" t="n">
-        <v>376</v>
-      </c>
-      <c r="L93" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3766,24 +4045,25 @@
         <v>144.0144</v>
       </c>
       <c r="G94" t="n">
+        <v>376.8</v>
+      </c>
+      <c r="H94" t="n">
         <v>381.5333333333334</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>376</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3807,24 +4087,25 @@
         <v>15.26</v>
       </c>
       <c r="G95" t="n">
+        <v>377</v>
+      </c>
+      <c r="H95" t="n">
         <v>381.45</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>376</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3848,24 +4129,25 @@
         <v>50</v>
       </c>
       <c r="G96" t="n">
+        <v>377.3333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>381.3833333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>376</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3889,24 +4171,27 @@
         <v>1517.4255</v>
       </c>
       <c r="G97" t="n">
+        <v>378.1333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>381.35</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="n">
-        <v>376</v>
-      </c>
-      <c r="L97" t="inlineStr">
+        <v>380</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3930,24 +4215,25 @@
         <v>2143</v>
       </c>
       <c r="G98" t="n">
+        <v>378.4666666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>381.2666666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>376</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3971,24 +4257,25 @@
         <v>5</v>
       </c>
       <c r="G99" t="n">
+        <v>378.8</v>
+      </c>
+      <c r="H99" t="n">
         <v>381.2166666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>376</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4012,24 +4299,25 @@
         <v>3720.2313</v>
       </c>
       <c r="G100" t="n">
+        <v>379.1333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>381.1166666666667</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>376</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,24 +4341,25 @@
         <v>104.8</v>
       </c>
       <c r="G101" t="n">
+        <v>379.5333333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>381.0166666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>376</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4094,24 +4383,25 @@
         <v>152.5647</v>
       </c>
       <c r="G102" t="n">
+        <v>380</v>
+      </c>
+      <c r="H102" t="n">
         <v>380.9666666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>376</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4135,24 +4425,25 @@
         <v>1125.6958</v>
       </c>
       <c r="G103" t="n">
+        <v>380</v>
+      </c>
+      <c r="H103" t="n">
         <v>380.9</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>376</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4179,583 +4470,696 @@
         <v>380.9333333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>380.9333333333333</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>376</v>
-      </c>
-      <c r="L104" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>383</v>
+      </c>
+      <c r="C105" t="n">
+        <v>383</v>
+      </c>
+      <c r="D105" t="n">
+        <v>383</v>
+      </c>
+      <c r="E105" t="n">
+        <v>383</v>
+      </c>
+      <c r="F105" t="n">
+        <v>94.98690000000001</v>
+      </c>
+      <c r="G105" t="n">
+        <v>381.4</v>
+      </c>
+      <c r="H105" t="n">
+        <v>380.8833333333333</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>382</v>
+      </c>
+      <c r="C106" t="n">
+        <v>382</v>
+      </c>
+      <c r="D106" t="n">
+        <v>383</v>
+      </c>
+      <c r="E106" t="n">
+        <v>381</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1495.4467</v>
+      </c>
+      <c r="G106" t="n">
+        <v>381.6</v>
+      </c>
+      <c r="H106" t="n">
+        <v>380.8166666666667</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>382</v>
+      </c>
+      <c r="C107" t="n">
+        <v>382</v>
+      </c>
+      <c r="D107" t="n">
+        <v>382</v>
+      </c>
+      <c r="E107" t="n">
+        <v>382</v>
+      </c>
+      <c r="F107" t="n">
+        <v>181.876</v>
+      </c>
+      <c r="G107" t="n">
+        <v>381.8</v>
+      </c>
+      <c r="H107" t="n">
+        <v>380.75</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>382</v>
+      </c>
+      <c r="C108" t="n">
+        <v>382</v>
+      </c>
+      <c r="D108" t="n">
+        <v>382</v>
+      </c>
+      <c r="E108" t="n">
+        <v>382</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1639.2004</v>
+      </c>
+      <c r="G108" t="n">
+        <v>381.9333333333333</v>
+      </c>
+      <c r="H108" t="n">
+        <v>380.6833333333333</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>382</v>
+      </c>
+      <c r="C109" t="n">
+        <v>382</v>
+      </c>
+      <c r="D109" t="n">
+        <v>382</v>
+      </c>
+      <c r="E109" t="n">
+        <v>382</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1451.0769</v>
+      </c>
+      <c r="G109" t="n">
+        <v>382.1333333333333</v>
+      </c>
+      <c r="H109" t="n">
+        <v>380.6</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>382</v>
+      </c>
+      <c r="C110" t="n">
+        <v>382</v>
+      </c>
+      <c r="D110" t="n">
+        <v>382</v>
+      </c>
+      <c r="E110" t="n">
+        <v>382</v>
+      </c>
+      <c r="F110" t="n">
+        <v>87.9999</v>
+      </c>
+      <c r="G110" t="n">
+        <v>382.3333333333333</v>
+      </c>
+      <c r="H110" t="n">
+        <v>380.5333333333334</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>382</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>383</v>
+      </c>
+      <c r="C111" t="n">
+        <v>384</v>
+      </c>
+      <c r="D111" t="n">
+        <v>384</v>
+      </c>
+      <c r="E111" t="n">
+        <v>383</v>
+      </c>
+      <c r="F111" t="n">
+        <v>629.9861</v>
+      </c>
+      <c r="G111" t="n">
+        <v>382.6</v>
+      </c>
+      <c r="H111" t="n">
+        <v>380.5</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>385</v>
+      </c>
+      <c r="C112" t="n">
+        <v>385</v>
+      </c>
+      <c r="D112" t="n">
+        <v>385</v>
+      </c>
+      <c r="E112" t="n">
+        <v>385</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>382.7333333333333</v>
+      </c>
+      <c r="H112" t="n">
+        <v>380.4833333333333</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>385</v>
+      </c>
+      <c r="C113" t="n">
+        <v>387</v>
+      </c>
+      <c r="D113" t="n">
+        <v>387</v>
+      </c>
+      <c r="E113" t="n">
+        <v>385</v>
+      </c>
+      <c r="F113" t="n">
+        <v>904.0697</v>
+      </c>
+      <c r="G113" t="n">
+        <v>383.1333333333333</v>
+      </c>
+      <c r="H113" t="n">
+        <v>380.5</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>387</v>
+      </c>
+      <c r="C114" t="n">
+        <v>384</v>
+      </c>
+      <c r="D114" t="n">
+        <v>390</v>
+      </c>
+      <c r="E114" t="n">
+        <v>384</v>
+      </c>
+      <c r="F114" t="n">
+        <v>6628.5442</v>
+      </c>
+      <c r="G114" t="n">
+        <v>383.3333333333333</v>
+      </c>
+      <c r="H114" t="n">
+        <v>380.4666666666666</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>387</v>
+      </c>
+      <c r="C115" t="n">
+        <v>386</v>
+      </c>
+      <c r="D115" t="n">
+        <v>387</v>
+      </c>
+      <c r="E115" t="n">
+        <v>386</v>
+      </c>
+      <c r="F115" t="n">
+        <v>473</v>
+      </c>
+      <c r="G115" t="n">
+        <v>383.6666666666667</v>
+      </c>
+      <c r="H115" t="n">
+        <v>380.4833333333333</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>386</v>
+      </c>
+      <c r="C116" t="n">
+        <v>386</v>
+      </c>
+      <c r="D116" t="n">
+        <v>386</v>
+      </c>
+      <c r="E116" t="n">
+        <v>386</v>
+      </c>
+      <c r="F116" t="n">
+        <v>50</v>
+      </c>
+      <c r="G116" t="n">
+        <v>383.9333333333333</v>
+      </c>
+      <c r="H116" t="n">
+        <v>380.5</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>386</v>
+      </c>
+      <c r="C117" t="n">
+        <v>385</v>
+      </c>
+      <c r="D117" t="n">
+        <v>386</v>
+      </c>
+      <c r="E117" t="n">
+        <v>385</v>
+      </c>
+      <c r="F117" t="n">
+        <v>200</v>
+      </c>
+      <c r="G117" t="n">
+        <v>383.8666666666667</v>
+      </c>
+      <c r="H117" t="n">
+        <v>380.5166666666667</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>385</v>
+      </c>
+      <c r="C118" t="n">
+        <v>385</v>
+      </c>
+      <c r="D118" t="n">
+        <v>385</v>
+      </c>
+      <c r="E118" t="n">
+        <v>385</v>
+      </c>
+      <c r="F118" t="n">
+        <v>50</v>
+      </c>
+      <c r="G118" t="n">
+        <v>384.1333333333333</v>
+      </c>
+      <c r="H118" t="n">
+        <v>380.5333333333334</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>389</v>
+      </c>
+      <c r="C119" t="n">
+        <v>389</v>
+      </c>
+      <c r="D119" t="n">
+        <v>389</v>
+      </c>
+      <c r="E119" t="n">
+        <v>389</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" t="n">
+        <v>384.2666666666667</v>
+      </c>
+      <c r="H119" t="n">
+        <v>380.6166666666667</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>384</v>
+      </c>
+      <c r="C120" t="n">
+        <v>384</v>
+      </c>
+      <c r="D120" t="n">
+        <v>384</v>
+      </c>
+      <c r="E120" t="n">
+        <v>384</v>
+      </c>
+      <c r="F120" t="n">
+        <v>50</v>
+      </c>
+      <c r="G120" t="n">
+        <v>384.3333333333333</v>
+      </c>
+      <c r="H120" t="n">
+        <v>380.6166666666667</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1.024255319148936</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>383</v>
-      </c>
-      <c r="C105" t="n">
-        <v>383</v>
-      </c>
-      <c r="D105" t="n">
-        <v>383</v>
-      </c>
-      <c r="E105" t="n">
-        <v>383</v>
-      </c>
-      <c r="F105" t="n">
-        <v>94.98690000000001</v>
-      </c>
-      <c r="G105" t="n">
-        <v>380.8833333333333</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>382</v>
-      </c>
-      <c r="C106" t="n">
-        <v>382</v>
-      </c>
-      <c r="D106" t="n">
-        <v>383</v>
-      </c>
-      <c r="E106" t="n">
-        <v>381</v>
-      </c>
-      <c r="F106" t="n">
-        <v>1495.4467</v>
-      </c>
-      <c r="G106" t="n">
-        <v>380.8166666666667</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>382</v>
-      </c>
-      <c r="C107" t="n">
-        <v>382</v>
-      </c>
-      <c r="D107" t="n">
-        <v>382</v>
-      </c>
-      <c r="E107" t="n">
-        <v>382</v>
-      </c>
-      <c r="F107" t="n">
-        <v>181.876</v>
-      </c>
-      <c r="G107" t="n">
-        <v>380.75</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>382</v>
-      </c>
-      <c r="C108" t="n">
-        <v>382</v>
-      </c>
-      <c r="D108" t="n">
-        <v>382</v>
-      </c>
-      <c r="E108" t="n">
-        <v>382</v>
-      </c>
-      <c r="F108" t="n">
-        <v>1639.2004</v>
-      </c>
-      <c r="G108" t="n">
-        <v>380.6833333333333</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>382</v>
-      </c>
-      <c r="C109" t="n">
-        <v>382</v>
-      </c>
-      <c r="D109" t="n">
-        <v>382</v>
-      </c>
-      <c r="E109" t="n">
-        <v>382</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1451.0769</v>
-      </c>
-      <c r="G109" t="n">
-        <v>380.6</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>382</v>
-      </c>
-      <c r="C110" t="n">
-        <v>382</v>
-      </c>
-      <c r="D110" t="n">
-        <v>382</v>
-      </c>
-      <c r="E110" t="n">
-        <v>382</v>
-      </c>
-      <c r="F110" t="n">
-        <v>87.9999</v>
-      </c>
-      <c r="G110" t="n">
-        <v>380.5333333333334</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>383</v>
-      </c>
-      <c r="C111" t="n">
-        <v>384</v>
-      </c>
-      <c r="D111" t="n">
-        <v>384</v>
-      </c>
-      <c r="E111" t="n">
-        <v>383</v>
-      </c>
-      <c r="F111" t="n">
-        <v>629.9861</v>
-      </c>
-      <c r="G111" t="n">
-        <v>380.5</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>385</v>
-      </c>
-      <c r="C112" t="n">
-        <v>385</v>
-      </c>
-      <c r="D112" t="n">
-        <v>385</v>
-      </c>
-      <c r="E112" t="n">
-        <v>385</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1</v>
-      </c>
-      <c r="G112" t="n">
-        <v>380.4833333333333</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>385</v>
-      </c>
-      <c r="C113" t="n">
-        <v>387</v>
-      </c>
-      <c r="D113" t="n">
-        <v>387</v>
-      </c>
-      <c r="E113" t="n">
-        <v>385</v>
-      </c>
-      <c r="F113" t="n">
-        <v>904.0697</v>
-      </c>
-      <c r="G113" t="n">
-        <v>380.5</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>387</v>
-      </c>
-      <c r="C114" t="n">
-        <v>384</v>
-      </c>
-      <c r="D114" t="n">
-        <v>390</v>
-      </c>
-      <c r="E114" t="n">
-        <v>384</v>
-      </c>
-      <c r="F114" t="n">
-        <v>6628.5442</v>
-      </c>
-      <c r="G114" t="n">
-        <v>380.4666666666666</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>387</v>
-      </c>
-      <c r="C115" t="n">
-        <v>386</v>
-      </c>
-      <c r="D115" t="n">
-        <v>387</v>
-      </c>
-      <c r="E115" t="n">
-        <v>386</v>
-      </c>
-      <c r="F115" t="n">
-        <v>473</v>
-      </c>
-      <c r="G115" t="n">
-        <v>380.4833333333333</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>386</v>
-      </c>
-      <c r="C116" t="n">
-        <v>386</v>
-      </c>
-      <c r="D116" t="n">
-        <v>386</v>
-      </c>
-      <c r="E116" t="n">
-        <v>386</v>
-      </c>
-      <c r="F116" t="n">
-        <v>50</v>
-      </c>
-      <c r="G116" t="n">
-        <v>380.5</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>386</v>
-      </c>
-      <c r="C117" t="n">
-        <v>385</v>
-      </c>
-      <c r="D117" t="n">
-        <v>386</v>
-      </c>
-      <c r="E117" t="n">
-        <v>385</v>
-      </c>
-      <c r="F117" t="n">
-        <v>200</v>
-      </c>
-      <c r="G117" t="n">
-        <v>380.5166666666667</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>385</v>
-      </c>
-      <c r="C118" t="n">
-        <v>385</v>
-      </c>
-      <c r="D118" t="n">
-        <v>385</v>
-      </c>
-      <c r="E118" t="n">
-        <v>385</v>
-      </c>
-      <c r="F118" t="n">
-        <v>50</v>
-      </c>
-      <c r="G118" t="n">
-        <v>380.5333333333334</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>389</v>
-      </c>
-      <c r="C119" t="n">
-        <v>389</v>
-      </c>
-      <c r="D119" t="n">
-        <v>389</v>
-      </c>
-      <c r="E119" t="n">
-        <v>389</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1</v>
-      </c>
-      <c r="G119" t="n">
-        <v>380.6166666666667</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>384</v>
-      </c>
-      <c r="C120" t="n">
-        <v>384</v>
-      </c>
-      <c r="D120" t="n">
-        <v>384</v>
-      </c>
-      <c r="E120" t="n">
-        <v>384</v>
-      </c>
-      <c r="F120" t="n">
-        <v>50</v>
-      </c>
-      <c r="G120" t="n">
-        <v>380.6166666666667</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4777,18 +5181,21 @@
         <v>143.6356</v>
       </c>
       <c r="G121" t="n">
+        <v>384.4666666666666</v>
+      </c>
+      <c r="H121" t="n">
         <v>380.6166666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4812,18 +5219,21 @@
         <v>3073.3927</v>
       </c>
       <c r="G122" t="n">
+        <v>384.6</v>
+      </c>
+      <c r="H122" t="n">
         <v>380.6166666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4847,18 +5257,21 @@
         <v>1</v>
       </c>
       <c r="G123" t="n">
+        <v>385.0666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>380.7</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,18 +5295,21 @@
         <v>741.0595</v>
       </c>
       <c r="G124" t="n">
+        <v>385.2</v>
+      </c>
+      <c r="H124" t="n">
         <v>380.7</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4917,18 +5333,21 @@
         <v>772.645</v>
       </c>
       <c r="G125" t="n">
+        <v>385.3333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>380.7333333333333</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4952,18 +5371,21 @@
         <v>584</v>
       </c>
       <c r="G126" t="n">
+        <v>385.1333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>380.7333333333333</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,18 +5409,21 @@
         <v>1</v>
       </c>
       <c r="G127" t="n">
+        <v>385.3333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>380.85</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5022,18 +5447,21 @@
         <v>50</v>
       </c>
       <c r="G128" t="n">
+        <v>385.0666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>380.8833333333333</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5057,18 +5485,21 @@
         <v>107</v>
       </c>
       <c r="G129" t="n">
+        <v>385</v>
+      </c>
+      <c r="H129" t="n">
         <v>380.9166666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5092,18 +5523,21 @@
         <v>1</v>
       </c>
       <c r="G130" t="n">
+        <v>385.0666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>381.0333333333334</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5127,18 +5561,21 @@
         <v>361.324</v>
       </c>
       <c r="G131" t="n">
+        <v>384.8666666666667</v>
+      </c>
+      <c r="H131" t="n">
         <v>381.0833333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5162,18 +5599,21 @@
         <v>677.7653</v>
       </c>
       <c r="G132" t="n">
+        <v>384.6666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>381.1333333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5197,18 +5637,21 @@
         <v>901.8095</v>
       </c>
       <c r="G133" t="n">
+        <v>384.4666666666666</v>
+      </c>
+      <c r="H133" t="n">
         <v>381.2</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5232,18 +5675,21 @@
         <v>11819.4389</v>
       </c>
       <c r="G134" t="n">
+        <v>383.8</v>
+      </c>
+      <c r="H134" t="n">
         <v>381.2</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5267,18 +5713,21 @@
         <v>3067.324</v>
       </c>
       <c r="G135" t="n">
+        <v>384.1333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>381.4166666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5302,18 +5751,21 @@
         <v>102.2219</v>
       </c>
       <c r="G136" t="n">
+        <v>384.2</v>
+      </c>
+      <c r="H136" t="n">
         <v>381.6</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5337,18 +5789,21 @@
         <v>771.1305123</v>
       </c>
       <c r="G137" t="n">
+        <v>384.6</v>
+      </c>
+      <c r="H137" t="n">
         <v>381.8333333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5372,18 +5827,21 @@
         <v>513.07923076</v>
       </c>
       <c r="G138" t="n">
+        <v>384.6666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>382.0666666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5407,18 +5865,21 @@
         <v>93.8383</v>
       </c>
       <c r="G139" t="n">
+        <v>384.7333333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>382.2166666666666</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5442,18 +5903,21 @@
         <v>121</v>
       </c>
       <c r="G140" t="n">
+        <v>384.8</v>
+      </c>
+      <c r="H140" t="n">
         <v>382.3666666666667</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5477,18 +5941,21 @@
         <v>362.1</v>
       </c>
       <c r="G141" t="n">
+        <v>385.1333333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>382.55</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5512,18 +5979,21 @@
         <v>172</v>
       </c>
       <c r="G142" t="n">
+        <v>385</v>
+      </c>
+      <c r="H142" t="n">
         <v>382.8</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5547,18 +6017,21 @@
         <v>1</v>
       </c>
       <c r="G143" t="n">
+        <v>385.4</v>
+      </c>
+      <c r="H143" t="n">
         <v>383.0166666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5582,18 +6055,21 @@
         <v>113.1531</v>
       </c>
       <c r="G144" t="n">
+        <v>385.5333333333334</v>
+      </c>
+      <c r="H144" t="n">
         <v>383.1666666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5617,18 +6093,21 @@
         <v>175.6196</v>
       </c>
       <c r="G145" t="n">
+        <v>385.4666666666666</v>
+      </c>
+      <c r="H145" t="n">
         <v>383.3333333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5652,18 +6131,21 @@
         <v>886.1368</v>
       </c>
       <c r="G146" t="n">
+        <v>385.6</v>
+      </c>
+      <c r="H146" t="n">
         <v>383.4833333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5687,18 +6169,21 @@
         <v>39.0873</v>
       </c>
       <c r="G147" t="n">
+        <v>385.8</v>
+      </c>
+      <c r="H147" t="n">
         <v>383.5833333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5722,18 +6207,21 @@
         <v>87.9466</v>
       </c>
       <c r="G148" t="n">
+        <v>386</v>
+      </c>
+      <c r="H148" t="n">
         <v>383.65</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5757,18 +6245,21 @@
         <v>665</v>
       </c>
       <c r="G149" t="n">
+        <v>386.4</v>
+      </c>
+      <c r="H149" t="n">
         <v>383.85</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5792,18 +6283,21 @@
         <v>237.9599</v>
       </c>
       <c r="G150" t="n">
-        <v>384</v>
+        <v>386.1333333333333</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5827,18 +6321,21 @@
         <v>1827.0045</v>
       </c>
       <c r="G151" t="n">
+        <v>386.1333333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>384.1</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5862,18 +6359,21 @@
         <v>1813.8379</v>
       </c>
       <c r="G152" t="n">
+        <v>385.7333333333333</v>
+      </c>
+      <c r="H152" t="n">
         <v>384.1833333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5897,18 +6397,21 @@
         <v>1</v>
       </c>
       <c r="G153" t="n">
+        <v>385.4</v>
+      </c>
+      <c r="H153" t="n">
         <v>384.2666666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5932,18 +6435,401 @@
         <v>190.4763</v>
       </c>
       <c r="G154" t="n">
+        <v>385.4</v>
+      </c>
+      <c r="H154" t="n">
         <v>384.3666666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>385</v>
+      </c>
+      <c r="C155" t="n">
+        <v>385</v>
+      </c>
+      <c r="D155" t="n">
+        <v>385</v>
+      </c>
+      <c r="E155" t="n">
+        <v>385</v>
+      </c>
+      <c r="F155" t="n">
+        <v>779.2207792200001</v>
+      </c>
+      <c r="G155" t="n">
+        <v>385.4</v>
+      </c>
+      <c r="H155" t="n">
+        <v>384.4666666666666</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>385</v>
+      </c>
+      <c r="C156" t="n">
+        <v>380</v>
+      </c>
+      <c r="D156" t="n">
+        <v>385</v>
+      </c>
+      <c r="E156" t="n">
+        <v>380</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2</v>
+      </c>
+      <c r="G156" t="n">
+        <v>385</v>
+      </c>
+      <c r="H156" t="n">
+        <v>384.4666666666666</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>380</v>
+      </c>
+      <c r="C157" t="n">
+        <v>380</v>
+      </c>
+      <c r="D157" t="n">
+        <v>380</v>
+      </c>
+      <c r="E157" t="n">
+        <v>380</v>
+      </c>
+      <c r="F157" t="n">
+        <v>9</v>
+      </c>
+      <c r="G157" t="n">
+        <v>384.6</v>
+      </c>
+      <c r="H157" t="n">
+        <v>384.4166666666667</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>380</v>
+      </c>
+      <c r="C158" t="n">
+        <v>379</v>
+      </c>
+      <c r="D158" t="n">
+        <v>380</v>
+      </c>
+      <c r="E158" t="n">
+        <v>379</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2244.3892</v>
+      </c>
+      <c r="G158" t="n">
+        <v>383.9333333333333</v>
+      </c>
+      <c r="H158" t="n">
+        <v>384.3833333333333</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>384</v>
+      </c>
+      <c r="C159" t="n">
+        <v>384</v>
+      </c>
+      <c r="D159" t="n">
+        <v>384</v>
+      </c>
+      <c r="E159" t="n">
+        <v>384</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>383.8666666666667</v>
+      </c>
+      <c r="H159" t="n">
+        <v>384.4333333333333</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>380</v>
+      </c>
+      <c r="C160" t="n">
+        <v>380</v>
+      </c>
+      <c r="D160" t="n">
+        <v>380</v>
+      </c>
+      <c r="E160" t="n">
+        <v>380</v>
+      </c>
+      <c r="F160" t="n">
+        <v>184.8517</v>
+      </c>
+      <c r="G160" t="n">
+        <v>383.4666666666666</v>
+      </c>
+      <c r="H160" t="n">
+        <v>384.4166666666667</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>380</v>
+      </c>
+      <c r="C161" t="n">
+        <v>380</v>
+      </c>
+      <c r="D161" t="n">
+        <v>380</v>
+      </c>
+      <c r="E161" t="n">
+        <v>380</v>
+      </c>
+      <c r="F161" t="n">
+        <v>77.7587</v>
+      </c>
+      <c r="G161" t="n">
+        <v>383.1333333333333</v>
+      </c>
+      <c r="H161" t="n">
+        <v>384.3833333333333</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>380</v>
+      </c>
+      <c r="C162" t="n">
+        <v>379</v>
+      </c>
+      <c r="D162" t="n">
+        <v>380</v>
+      </c>
+      <c r="E162" t="n">
+        <v>379</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2085.1828</v>
+      </c>
+      <c r="G162" t="n">
+        <v>382.7333333333333</v>
+      </c>
+      <c r="H162" t="n">
+        <v>384.2666666666667</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>380</v>
+      </c>
+      <c r="C163" t="n">
+        <v>380</v>
+      </c>
+      <c r="D163" t="n">
+        <v>380</v>
+      </c>
+      <c r="E163" t="n">
+        <v>380</v>
+      </c>
+      <c r="F163" t="n">
+        <v>252.6449</v>
+      </c>
+      <c r="G163" t="n">
+        <v>382.4</v>
+      </c>
+      <c r="H163" t="n">
+        <v>384.25</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>383</v>
+      </c>
+      <c r="C164" t="n">
+        <v>383</v>
+      </c>
+      <c r="D164" t="n">
+        <v>383</v>
+      </c>
+      <c r="E164" t="n">
+        <v>383</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>382.2666666666667</v>
+      </c>
+      <c r="H164" t="n">
+        <v>384.1833333333333</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-01 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N164"/>
+  <dimension ref="A1:M193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -441,33 +436,30 @@
         <v>386</v>
       </c>
       <c r="C2" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D2" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E2" t="n">
         <v>386</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>990.3688</v>
       </c>
       <c r="G2" t="n">
-        <v>387.3333333333333</v>
+        <v>-24674.3664</v>
       </c>
       <c r="H2" t="n">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C3" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D3" t="n">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E3" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F3" t="n">
-        <v>964.2789</v>
+        <v>176.1019</v>
       </c>
       <c r="G3" t="n">
-        <v>387.1333333333333</v>
+        <v>-24674.3664</v>
       </c>
       <c r="H3" t="n">
-        <v>387.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C4" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D4" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E4" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F4" t="n">
-        <v>1755.5521</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>387.2</v>
+        <v>-24599.2664</v>
       </c>
       <c r="H4" t="n">
-        <v>387.8</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C5" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D5" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E5" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F5" t="n">
-        <v>1143.6393</v>
+        <v>9080.6589</v>
       </c>
       <c r="G5" t="n">
-        <v>387.2666666666667</v>
+        <v>-15518.6075</v>
       </c>
       <c r="H5" t="n">
-        <v>387.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -602,24 +585,21 @@
         <v>387</v>
       </c>
       <c r="F6" t="n">
-        <v>4203</v>
+        <v>38.8506</v>
       </c>
       <c r="G6" t="n">
-        <v>387.3333333333333</v>
+        <v>-15557.4581</v>
       </c>
       <c r="H6" t="n">
-        <v>387.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -631,33 +611,30 @@
         <v>387</v>
       </c>
       <c r="C7" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D7" t="n">
         <v>387</v>
       </c>
       <c r="E7" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>428.0889</v>
       </c>
       <c r="G7" t="n">
-        <v>387.4</v>
+        <v>-15985.547</v>
       </c>
       <c r="H7" t="n">
-        <v>387.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C8" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D8" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E8" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F8" t="n">
-        <v>648</v>
+        <v>749.9384</v>
       </c>
       <c r="G8" t="n">
-        <v>387.4</v>
+        <v>-15235.6086</v>
       </c>
       <c r="H8" t="n">
-        <v>387.5333333333334</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C9" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D9" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E9" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F9" t="n">
-        <v>5.9085</v>
+        <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>387.4</v>
+        <v>-15230.6086</v>
       </c>
       <c r="H9" t="n">
-        <v>387.5</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C10" t="n">
         <v>386</v>
       </c>
       <c r="D10" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E10" t="n">
         <v>386</v>
       </c>
       <c r="F10" t="n">
-        <v>2112.1218</v>
+        <v>288.0288</v>
       </c>
       <c r="G10" t="n">
-        <v>387.2</v>
+        <v>-15518.6374</v>
       </c>
       <c r="H10" t="n">
-        <v>387.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -783,33 +751,30 @@
         <v>386</v>
       </c>
       <c r="C11" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D11" t="n">
         <v>386</v>
       </c>
       <c r="E11" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F11" t="n">
-        <v>5249.0079</v>
+        <v>9057.957200000001</v>
       </c>
       <c r="G11" t="n">
-        <v>387.1333333333333</v>
+        <v>-24576.5946</v>
       </c>
       <c r="H11" t="n">
-        <v>387.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C12" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D12" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E12" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F12" t="n">
-        <v>2.9689</v>
+        <v>359.5984</v>
       </c>
       <c r="G12" t="n">
-        <v>387.1333333333333</v>
+        <v>-24216.9962</v>
       </c>
       <c r="H12" t="n">
-        <v>387.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,24 +830,21 @@
         <v>386</v>
       </c>
       <c r="F13" t="n">
-        <v>2.9248</v>
+        <v>79.8613</v>
       </c>
       <c r="G13" t="n">
-        <v>386.9333333333333</v>
+        <v>-24296.8575</v>
       </c>
       <c r="H13" t="n">
-        <v>387.15</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C14" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D14" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E14" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F14" t="n">
-        <v>346.1752</v>
+        <v>8770.885200000001</v>
       </c>
       <c r="G14" t="n">
-        <v>386.4666666666666</v>
+        <v>-15525.9723</v>
       </c>
       <c r="H14" t="n">
-        <v>387.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C15" t="n">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="D15" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="E15" t="n">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="F15" t="n">
-        <v>975.4</v>
+        <v>1544.0144</v>
       </c>
       <c r="G15" t="n">
-        <v>385.7333333333333</v>
+        <v>-15525.9723</v>
       </c>
       <c r="H15" t="n">
-        <v>386.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C16" t="n">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="D16" t="n">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="E16" t="n">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="F16" t="n">
-        <v>3.9577</v>
+        <v>252.1107</v>
       </c>
       <c r="G16" t="n">
-        <v>385.3333333333333</v>
+        <v>-15525.9723</v>
       </c>
       <c r="H16" t="n">
-        <v>386.65</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="C17" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D17" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="E17" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="F17" t="n">
-        <v>105.1197</v>
+        <v>2264.4564</v>
       </c>
       <c r="G17" t="n">
-        <v>384.8</v>
+        <v>-13261.5159</v>
       </c>
       <c r="H17" t="n">
-        <v>386.45</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C18" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D18" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E18" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F18" t="n">
-        <v>458.999</v>
+        <v>105.7174</v>
       </c>
       <c r="G18" t="n">
-        <v>384.2666666666667</v>
+        <v>-13367.2333</v>
       </c>
       <c r="H18" t="n">
-        <v>386.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C19" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D19" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E19" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F19" t="n">
-        <v>15.7205</v>
+        <v>867.7173</v>
       </c>
       <c r="G19" t="n">
-        <v>383.6666666666667</v>
+        <v>-13367.2333</v>
       </c>
       <c r="H19" t="n">
-        <v>386.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C20" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D20" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E20" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F20" t="n">
-        <v>191.4076</v>
+        <v>185.4526</v>
       </c>
       <c r="G20" t="n">
-        <v>383.0666666666667</v>
+        <v>-13367.2333</v>
       </c>
       <c r="H20" t="n">
-        <v>385.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C21" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D21" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E21" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F21" t="n">
-        <v>5.0234</v>
+        <v>104.6968</v>
       </c>
       <c r="G21" t="n">
-        <v>382.8</v>
+        <v>-13367.2333</v>
       </c>
       <c r="H21" t="n">
-        <v>385.75</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C22" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D22" t="n">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="E22" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F22" t="n">
-        <v>290.8485</v>
+        <v>3287.7702</v>
       </c>
       <c r="G22" t="n">
-        <v>382.5333333333334</v>
+        <v>-10079.4631</v>
       </c>
       <c r="H22" t="n">
-        <v>385.75</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C23" t="n">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="D23" t="n">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="E23" t="n">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="F23" t="n">
-        <v>100.5074</v>
+        <v>118.9566</v>
       </c>
       <c r="G23" t="n">
-        <v>382.1333333333333</v>
+        <v>-9960.506500000001</v>
       </c>
       <c r="H23" t="n">
-        <v>385.8</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C24" t="n">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D24" t="n">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E24" t="n">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="F24" t="n">
-        <v>711.4083000000001</v>
+        <v>339.3271</v>
       </c>
       <c r="G24" t="n">
-        <v>381.7333333333333</v>
+        <v>-9621.179400000001</v>
       </c>
       <c r="H24" t="n">
-        <v>385.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C25" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D25" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E25" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F25" t="n">
-        <v>2982.057</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>381.4</v>
+        <v>-9622.179400000001</v>
       </c>
       <c r="H25" t="n">
-        <v>385.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C26" t="n">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D26" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E26" t="n">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F26" t="n">
-        <v>1397.5194</v>
+        <v>6.2542</v>
       </c>
       <c r="G26" t="n">
-        <v>381.0666666666667</v>
+        <v>-9622.179400000001</v>
       </c>
       <c r="H26" t="n">
-        <v>385.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C27" t="n">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="D27" t="n">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="E27" t="n">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="F27" t="n">
-        <v>6426.259</v>
+        <v>166.255</v>
       </c>
       <c r="G27" t="n">
-        <v>380.6</v>
+        <v>-9455.924400000002</v>
       </c>
       <c r="H27" t="n">
-        <v>385.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C28" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D28" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E28" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F28" t="n">
-        <v>21</v>
+        <v>373.5907</v>
       </c>
       <c r="G28" t="n">
-        <v>380.4666666666666</v>
+        <v>-9455.924400000002</v>
       </c>
       <c r="H28" t="n">
-        <v>385.2833333333334</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="C29" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D29" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="E29" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="F29" t="n">
-        <v>141.8777</v>
+        <v>7580.6984</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2666666666667</v>
+        <v>-1875.226000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>385.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C30" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D30" t="n">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="E30" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F30" t="n">
-        <v>1217.8346</v>
+        <v>1677.36</v>
       </c>
       <c r="G30" t="n">
-        <v>380.4</v>
+        <v>-3552.586000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>385.05</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C31" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D31" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E31" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G31" t="n">
-        <v>380.6666666666667</v>
+        <v>-3452.586000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>385.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C32" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D32" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E32" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>964.2789</v>
       </c>
       <c r="G32" t="n">
-        <v>381</v>
+        <v>-3452.586000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>385.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C33" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D33" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E33" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F33" t="n">
-        <v>334.3517</v>
+        <v>1755.5521</v>
       </c>
       <c r="G33" t="n">
-        <v>381.2666666666667</v>
+        <v>-3452.586000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>384.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C34" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D34" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E34" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F34" t="n">
-        <v>28.7958</v>
+        <v>1143.6393</v>
       </c>
       <c r="G34" t="n">
-        <v>381.5333333333334</v>
+        <v>-3452.586000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>384.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C35" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D35" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E35" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F35" t="n">
-        <v>3304.8757</v>
+        <v>4203</v>
       </c>
       <c r="G35" t="n">
-        <v>381.9333333333333</v>
+        <v>-3452.586000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>384.85</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C36" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D36" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E36" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F36" t="n">
-        <v>141.8731</v>
+        <v>50</v>
       </c>
       <c r="G36" t="n">
-        <v>382</v>
+        <v>-3452.586000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>384.75</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C37" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D37" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E37" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>648</v>
       </c>
       <c r="G37" t="n">
-        <v>382.1333333333333</v>
+        <v>-3452.586000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>384.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C38" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D38" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E38" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F38" t="n">
-        <v>438.8892</v>
+        <v>5.9085</v>
       </c>
       <c r="G38" t="n">
-        <v>382.4666666666666</v>
+        <v>-3446.677500000001</v>
       </c>
       <c r="H38" t="n">
-        <v>384.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C39" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D39" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E39" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F39" t="n">
-        <v>719.7364</v>
+        <v>2112.1218</v>
       </c>
       <c r="G39" t="n">
-        <v>382.6</v>
+        <v>-5558.799300000001</v>
       </c>
       <c r="H39" t="n">
-        <v>384.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C40" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D40" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E40" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>5249.0079</v>
       </c>
       <c r="G40" t="n">
-        <v>383</v>
+        <v>-10807.8072</v>
       </c>
       <c r="H40" t="n">
-        <v>384.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C41" t="n">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D41" t="n">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E41" t="n">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F41" t="n">
-        <v>2649.652</v>
+        <v>2.9689</v>
       </c>
       <c r="G41" t="n">
-        <v>383.5333333333334</v>
+        <v>-10804.8383</v>
       </c>
       <c r="H41" t="n">
-        <v>384.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C42" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D42" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E42" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>2.9248</v>
       </c>
       <c r="G42" t="n">
-        <v>384.2</v>
+        <v>-10804.8383</v>
       </c>
       <c r="H42" t="n">
-        <v>384.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1999,33 +1871,30 @@
         <v>385</v>
       </c>
       <c r="C43" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D43" t="n">
         <v>385</v>
       </c>
       <c r="E43" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F43" t="n">
-        <v>79.9956</v>
+        <v>346.1752</v>
       </c>
       <c r="G43" t="n">
-        <v>384.2666666666667</v>
+        <v>-11151.0135</v>
       </c>
       <c r="H43" t="n">
-        <v>384.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C44" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D44" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E44" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F44" t="n">
-        <v>78.9956</v>
+        <v>975.4</v>
       </c>
       <c r="G44" t="n">
-        <v>384.6666666666667</v>
+        <v>-12126.4135</v>
       </c>
       <c r="H44" t="n">
-        <v>384.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C45" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D45" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E45" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F45" t="n">
-        <v>81.1198</v>
+        <v>3.9577</v>
       </c>
       <c r="G45" t="n">
-        <v>385</v>
+        <v>-12126.4135</v>
       </c>
       <c r="H45" t="n">
-        <v>384.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C46" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D46" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E46" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F46" t="n">
-        <v>111</v>
+        <v>105.1197</v>
       </c>
       <c r="G46" t="n">
-        <v>385.2</v>
+        <v>-12126.4135</v>
       </c>
       <c r="H46" t="n">
-        <v>384.65</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C47" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D47" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E47" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F47" t="n">
-        <v>190.7905</v>
+        <v>458.999</v>
       </c>
       <c r="G47" t="n">
-        <v>385.3333333333333</v>
+        <v>-12126.4135</v>
       </c>
       <c r="H47" t="n">
-        <v>384.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C48" t="n">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D48" t="n">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="E48" t="n">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F48" t="n">
-        <v>202.0446</v>
+        <v>15.7205</v>
       </c>
       <c r="G48" t="n">
-        <v>385.5333333333334</v>
+        <v>-12142.134</v>
       </c>
       <c r="H48" t="n">
-        <v>384.55</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C49" t="n">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D49" t="n">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E49" t="n">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F49" t="n">
-        <v>3190.3222</v>
+        <v>191.4076</v>
       </c>
       <c r="G49" t="n">
-        <v>385.8666666666667</v>
+        <v>-12142.134</v>
       </c>
       <c r="H49" t="n">
-        <v>384.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C50" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D50" t="n">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E50" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F50" t="n">
-        <v>969.4112</v>
+        <v>5.0234</v>
       </c>
       <c r="G50" t="n">
-        <v>386</v>
+        <v>-12137.1106</v>
       </c>
       <c r="H50" t="n">
-        <v>384.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C51" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D51" t="n">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E51" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F51" t="n">
-        <v>1719.1588</v>
+        <v>290.8485</v>
       </c>
       <c r="G51" t="n">
-        <v>386.1333333333333</v>
+        <v>-12137.1106</v>
       </c>
       <c r="H51" t="n">
-        <v>384.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C52" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D52" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E52" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F52" t="n">
-        <v>1231.327</v>
+        <v>100.5074</v>
       </c>
       <c r="G52" t="n">
-        <v>386.2</v>
+        <v>-12237.618</v>
       </c>
       <c r="H52" t="n">
-        <v>384.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C53" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D53" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E53" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F53" t="n">
-        <v>192.1819</v>
+        <v>711.4083000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>386.2</v>
+        <v>-11526.2097</v>
       </c>
       <c r="H53" t="n">
-        <v>384.55</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C54" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D54" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E54" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F54" t="n">
-        <v>871.0154</v>
+        <v>2982.057</v>
       </c>
       <c r="G54" t="n">
-        <v>386.3333333333333</v>
+        <v>-14508.2667</v>
       </c>
       <c r="H54" t="n">
-        <v>384.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C55" t="n">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D55" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E55" t="n">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F55" t="n">
-        <v>183.0677</v>
+        <v>1397.5194</v>
       </c>
       <c r="G55" t="n">
-        <v>386.2</v>
+        <v>-15905.7861</v>
       </c>
       <c r="H55" t="n">
-        <v>384.45</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C56" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D56" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E56" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F56" t="n">
-        <v>521.0388</v>
+        <v>6426.259</v>
       </c>
       <c r="G56" t="n">
-        <v>386</v>
+        <v>-22332.0451</v>
       </c>
       <c r="H56" t="n">
-        <v>384.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2540,24 +2370,21 @@
         <v>384</v>
       </c>
       <c r="F57" t="n">
-        <v>1281.3542</v>
+        <v>21</v>
       </c>
       <c r="G57" t="n">
-        <v>385.6666666666667</v>
+        <v>-22311.0451</v>
       </c>
       <c r="H57" t="n">
-        <v>384.4</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C58" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D58" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E58" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F58" t="n">
-        <v>2206.7819</v>
+        <v>141.8777</v>
       </c>
       <c r="G58" t="n">
-        <v>385.6</v>
+        <v>-22452.9228</v>
       </c>
       <c r="H58" t="n">
-        <v>384.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C59" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D59" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E59" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F59" t="n">
-        <v>298.6472</v>
+        <v>1217.8346</v>
       </c>
       <c r="G59" t="n">
-        <v>385.5333333333334</v>
+        <v>-21235.0882</v>
       </c>
       <c r="H59" t="n">
-        <v>384.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C60" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D60" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E60" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F60" t="n">
-        <v>559.7453</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>385.4</v>
+        <v>-21234.0882</v>
       </c>
       <c r="H60" t="n">
-        <v>384.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C61" t="n">
         <v>384</v>
       </c>
       <c r="D61" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E61" t="n">
         <v>384</v>
       </c>
       <c r="F61" t="n">
-        <v>7437.4468</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>385.2666666666667</v>
+        <v>-21233.0882</v>
       </c>
       <c r="H61" t="n">
-        <v>384.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C62" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D62" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E62" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F62" t="n">
-        <v>77</v>
+        <v>334.3517</v>
       </c>
       <c r="G62" t="n">
-        <v>385.1333333333333</v>
+        <v>-21567.4399</v>
       </c>
       <c r="H62" t="n">
-        <v>384.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C63" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D63" t="n">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E63" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F63" t="n">
-        <v>1238.6304</v>
+        <v>28.7958</v>
       </c>
       <c r="G63" t="n">
-        <v>385</v>
+        <v>-21596.2357</v>
       </c>
       <c r="H63" t="n">
-        <v>384.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,7 +2603,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C64" t="n">
         <v>384</v>
@@ -2803,27 +2612,24 @@
         <v>384</v>
       </c>
       <c r="E64" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F64" t="n">
-        <v>2719.6565</v>
+        <v>3304.8757</v>
       </c>
       <c r="G64" t="n">
-        <v>384.8</v>
+        <v>-18291.36</v>
       </c>
       <c r="H64" t="n">
-        <v>383.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>1</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C65" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D65" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E65" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F65" t="n">
-        <v>250</v>
+        <v>141.8731</v>
       </c>
       <c r="G65" t="n">
-        <v>384.5333333333334</v>
+        <v>-18291.36</v>
       </c>
       <c r="H65" t="n">
-        <v>383.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>1</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C66" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D66" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E66" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F66" t="n">
-        <v>553.5099</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>384.2</v>
+        <v>-18290.36</v>
       </c>
       <c r="H66" t="n">
-        <v>383.7833333333334</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C67" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D67" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E67" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F67" t="n">
-        <v>791.5972</v>
+        <v>438.8892</v>
       </c>
       <c r="G67" t="n">
-        <v>383.8666666666667</v>
+        <v>-17851.4708</v>
       </c>
       <c r="H67" t="n">
-        <v>383.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C68" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D68" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E68" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F68" t="n">
-        <v>758.5996</v>
+        <v>719.7364</v>
       </c>
       <c r="G68" t="n">
-        <v>383.5333333333334</v>
+        <v>-18571.2072</v>
       </c>
       <c r="H68" t="n">
-        <v>383.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C69" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D69" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="E69" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F69" t="n">
-        <v>2137.0784</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>383.2</v>
+        <v>-18570.2072</v>
       </c>
       <c r="H69" t="n">
-        <v>383.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C70" t="n">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D70" t="n">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="E70" t="n">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F70" t="n">
-        <v>1483.6801</v>
+        <v>2649.652</v>
       </c>
       <c r="G70" t="n">
-        <v>382.8666666666667</v>
+        <v>-15920.5552</v>
       </c>
       <c r="H70" t="n">
-        <v>383.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="C71" t="n">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="D71" t="n">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E71" t="n">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="F71" t="n">
-        <v>172</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>382.5333333333334</v>
+        <v>-15919.5552</v>
       </c>
       <c r="H71" t="n">
-        <v>383.2833333333334</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C72" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D72" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="E72" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="F72" t="n">
-        <v>47.88</v>
+        <v>79.9956</v>
       </c>
       <c r="G72" t="n">
-        <v>382.2</v>
+        <v>-15999.5508</v>
       </c>
       <c r="H72" t="n">
-        <v>383.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C73" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D73" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="E73" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="F73" t="n">
-        <v>3959.5187</v>
+        <v>78.9956</v>
       </c>
       <c r="G73" t="n">
-        <v>381.8</v>
+        <v>-15999.5508</v>
       </c>
       <c r="H73" t="n">
-        <v>383.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C74" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D74" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E74" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F74" t="n">
-        <v>194.6791</v>
+        <v>81.1198</v>
       </c>
       <c r="G74" t="n">
-        <v>381.4666666666666</v>
+        <v>-15918.431</v>
       </c>
       <c r="H74" t="n">
-        <v>382.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C75" t="n">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D75" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E75" t="n">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="F75" t="n">
-        <v>4326.599</v>
+        <v>111</v>
       </c>
       <c r="G75" t="n">
-        <v>380.9333333333333</v>
+        <v>-15918.431</v>
       </c>
       <c r="H75" t="n">
-        <v>382.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,42 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C76" t="n">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="D76" t="n">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="E76" t="n">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="F76" t="n">
-        <v>7614.5152</v>
+        <v>190.7905</v>
       </c>
       <c r="G76" t="n">
-        <v>380.2666666666667</v>
+        <v>-15918.431</v>
       </c>
       <c r="H76" t="n">
-        <v>382.85</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3294,42 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C77" t="n">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D77" t="n">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="E77" t="n">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="F77" t="n">
-        <v>2571.4341</v>
+        <v>202.0446</v>
       </c>
       <c r="G77" t="n">
-        <v>379.7333333333333</v>
+        <v>-15918.431</v>
       </c>
       <c r="H77" t="n">
-        <v>382.8</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>374</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,42 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="C78" t="n">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="D78" t="n">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="E78" t="n">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="F78" t="n">
-        <v>5095.0063</v>
+        <v>3190.3222</v>
       </c>
       <c r="G78" t="n">
-        <v>379.2</v>
+        <v>-12728.1088</v>
       </c>
       <c r="H78" t="n">
-        <v>382.75</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3382,42 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="C79" t="n">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D79" t="n">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="E79" t="n">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="F79" t="n">
-        <v>119.2562</v>
+        <v>969.4112</v>
       </c>
       <c r="G79" t="n">
-        <v>378.6666666666667</v>
+        <v>-13697.52</v>
       </c>
       <c r="H79" t="n">
-        <v>382.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3426,42 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="C80" t="n">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D80" t="n">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="E80" t="n">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="F80" t="n">
-        <v>850</v>
+        <v>1719.1588</v>
       </c>
       <c r="G80" t="n">
-        <v>378.2666666666667</v>
+        <v>-13697.52</v>
       </c>
       <c r="H80" t="n">
-        <v>382.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3470,42 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="C81" t="n">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D81" t="n">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="E81" t="n">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="F81" t="n">
-        <v>219</v>
+        <v>1231.327</v>
       </c>
       <c r="G81" t="n">
-        <v>377.8666666666667</v>
+        <v>-13697.52</v>
       </c>
       <c r="H81" t="n">
-        <v>382.55</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3514,42 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C82" t="n">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="D82" t="n">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="E82" t="n">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="F82" t="n">
-        <v>4618.2676</v>
+        <v>192.1819</v>
       </c>
       <c r="G82" t="n">
-        <v>377.2</v>
+        <v>-13697.52</v>
       </c>
       <c r="H82" t="n">
-        <v>382.35</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3558,42 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="C83" t="n">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D83" t="n">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="E83" t="n">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="F83" t="n">
-        <v>602.7495</v>
+        <v>871.0154</v>
       </c>
       <c r="G83" t="n">
-        <v>376.8666666666667</v>
+        <v>-13697.52</v>
       </c>
       <c r="H83" t="n">
-        <v>382.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="n">
-        <v>371</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3602,42 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="C84" t="n">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D84" t="n">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="E84" t="n">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="F84" t="n">
-        <v>435.2397</v>
+        <v>183.0677</v>
       </c>
       <c r="G84" t="n">
-        <v>376.5333333333334</v>
+        <v>-13880.5877</v>
       </c>
       <c r="H84" t="n">
-        <v>382.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3646,42 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="C85" t="n">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D85" t="n">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="E85" t="n">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="F85" t="n">
-        <v>100</v>
+        <v>521.0388</v>
       </c>
       <c r="G85" t="n">
-        <v>376.2666666666667</v>
+        <v>-13880.5877</v>
       </c>
       <c r="H85" t="n">
-        <v>382.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3690,42 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C86" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="D86" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="E86" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F86" t="n">
-        <v>1340.0994</v>
+        <v>1281.3542</v>
       </c>
       <c r="G86" t="n">
-        <v>376</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H86" t="n">
-        <v>382.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="n">
-        <v>376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3734,42 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C87" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D87" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E87" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="F87" t="n">
-        <v>1051.5068</v>
+        <v>2206.7819</v>
       </c>
       <c r="G87" t="n">
-        <v>376</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H87" t="n">
-        <v>382.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3778,40 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C88" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D88" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E88" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>298.6472</v>
       </c>
       <c r="G88" t="n">
-        <v>376.2</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H88" t="n">
-        <v>381.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,40 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="C89" t="n">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="D89" t="n">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="E89" t="n">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="F89" t="n">
-        <v>5497.9298</v>
+        <v>559.7453</v>
       </c>
       <c r="G89" t="n">
-        <v>375.8</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H89" t="n">
-        <v>381.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,40 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C90" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="D90" t="n">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="E90" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F90" t="n">
-        <v>185.3703</v>
+        <v>7437.4468</v>
       </c>
       <c r="G90" t="n">
-        <v>375.8</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H90" t="n">
-        <v>381.7833333333334</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3904,40 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C91" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D91" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E91" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F91" t="n">
-        <v>845.3329</v>
+        <v>77</v>
       </c>
       <c r="G91" t="n">
-        <v>376.1333333333333</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H91" t="n">
-        <v>381.7166666666666</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3946,40 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C92" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D92" t="n">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E92" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0001</v>
+        <v>1238.6304</v>
       </c>
       <c r="G92" t="n">
-        <v>376.3333333333333</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H92" t="n">
-        <v>381.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3988,40 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C93" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D93" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E93" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F93" t="n">
-        <v>175.3755</v>
+        <v>2719.6565</v>
       </c>
       <c r="G93" t="n">
-        <v>376.6</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H93" t="n">
-        <v>381.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4030,40 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C94" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D94" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E94" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F94" t="n">
-        <v>144.0144</v>
+        <v>250</v>
       </c>
       <c r="G94" t="n">
-        <v>376.8</v>
+        <v>-15411.9419</v>
       </c>
       <c r="H94" t="n">
-        <v>381.5333333333334</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4072,40 +3688,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C95" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D95" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E95" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F95" t="n">
-        <v>15.26</v>
+        <v>553.5099</v>
       </c>
       <c r="G95" t="n">
-        <v>377</v>
+        <v>-15965.4518</v>
       </c>
       <c r="H95" t="n">
-        <v>381.45</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4114,40 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C96" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D96" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E96" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F96" t="n">
-        <v>50</v>
+        <v>791.5972</v>
       </c>
       <c r="G96" t="n">
-        <v>377.3333333333333</v>
+        <v>-15965.4518</v>
       </c>
       <c r="H96" t="n">
-        <v>381.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4159,39 +3761,30 @@
         <v>381</v>
       </c>
       <c r="C97" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D97" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E97" t="n">
         <v>381</v>
       </c>
       <c r="F97" t="n">
-        <v>1517.4255</v>
+        <v>758.5996</v>
       </c>
       <c r="G97" t="n">
-        <v>378.1333333333333</v>
+        <v>-15965.4518</v>
       </c>
       <c r="H97" t="n">
-        <v>381.35</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
-        <v>380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,40 +3793,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C98" t="n">
         <v>381</v>
       </c>
       <c r="D98" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E98" t="n">
         <v>381</v>
       </c>
       <c r="F98" t="n">
-        <v>2143</v>
+        <v>2137.0784</v>
       </c>
       <c r="G98" t="n">
-        <v>378.4666666666666</v>
+        <v>-15965.4518</v>
       </c>
       <c r="H98" t="n">
-        <v>381.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4245,37 +3831,30 @@
         <v>381</v>
       </c>
       <c r="C99" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D99" t="n">
         <v>381</v>
       </c>
       <c r="E99" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F99" t="n">
-        <v>5</v>
+        <v>1483.6801</v>
       </c>
       <c r="G99" t="n">
-        <v>378.8</v>
+        <v>-17449.1319</v>
       </c>
       <c r="H99" t="n">
-        <v>381.2166666666666</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4284,40 +3863,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C100" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D100" t="n">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E100" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F100" t="n">
-        <v>3720.2313</v>
+        <v>172</v>
       </c>
       <c r="G100" t="n">
-        <v>379.1333333333333</v>
+        <v>-17449.1319</v>
       </c>
       <c r="H100" t="n">
-        <v>381.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4326,40 +3898,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C101" t="n">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D101" t="n">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E101" t="n">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F101" t="n">
-        <v>104.8</v>
+        <v>47.88</v>
       </c>
       <c r="G101" t="n">
-        <v>379.5333333333334</v>
+        <v>-17497.0119</v>
       </c>
       <c r="H101" t="n">
-        <v>381.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,40 +3933,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C102" t="n">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D102" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E102" t="n">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F102" t="n">
-        <v>152.5647</v>
+        <v>3959.5187</v>
       </c>
       <c r="G102" t="n">
-        <v>380</v>
+        <v>-21456.5306</v>
       </c>
       <c r="H102" t="n">
-        <v>380.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4410,40 +3968,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C103" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D103" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E103" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F103" t="n">
-        <v>1125.6958</v>
+        <v>194.6791</v>
       </c>
       <c r="G103" t="n">
-        <v>380</v>
+        <v>-21261.8515</v>
       </c>
       <c r="H103" t="n">
-        <v>380.9</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4452,40 +4003,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C104" t="n">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="D104" t="n">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E104" t="n">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>4326.599</v>
       </c>
       <c r="G104" t="n">
-        <v>380.9333333333333</v>
+        <v>-25588.4505</v>
       </c>
       <c r="H104" t="n">
-        <v>380.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4494,40 +4038,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C105" t="n">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D105" t="n">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E105" t="n">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F105" t="n">
-        <v>94.98690000000001</v>
+        <v>7614.5152</v>
       </c>
       <c r="G105" t="n">
-        <v>381.4</v>
+        <v>-33202.9657</v>
       </c>
       <c r="H105" t="n">
-        <v>380.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4536,40 +4073,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C106" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D106" t="n">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E106" t="n">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F106" t="n">
-        <v>1495.4467</v>
+        <v>2571.4341</v>
       </c>
       <c r="G106" t="n">
-        <v>381.6</v>
+        <v>-30631.5316</v>
       </c>
       <c r="H106" t="n">
-        <v>380.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,40 +4108,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C107" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D107" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E107" t="n">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="F107" t="n">
-        <v>181.876</v>
+        <v>5095.0063</v>
       </c>
       <c r="G107" t="n">
-        <v>381.8</v>
+        <v>-30631.5316</v>
       </c>
       <c r="H107" t="n">
-        <v>380.75</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4620,40 +4143,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C108" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D108" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E108" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F108" t="n">
-        <v>1639.2004</v>
+        <v>119.2562</v>
       </c>
       <c r="G108" t="n">
-        <v>381.9333333333333</v>
+        <v>-30631.5316</v>
       </c>
       <c r="H108" t="n">
-        <v>380.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4662,40 +4178,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C109" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D109" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E109" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F109" t="n">
-        <v>1451.0769</v>
+        <v>850</v>
       </c>
       <c r="G109" t="n">
-        <v>382.1333333333333</v>
+        <v>-30631.5316</v>
       </c>
       <c r="H109" t="n">
-        <v>380.6</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
+        <v>376</v>
+      </c>
+      <c r="K109" t="n">
+        <v>376</v>
+      </c>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4704,42 +4217,41 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C110" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D110" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E110" t="n">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F110" t="n">
-        <v>87.9999</v>
+        <v>219</v>
       </c>
       <c r="G110" t="n">
-        <v>382.3333333333333</v>
+        <v>-30850.5316</v>
       </c>
       <c r="H110" t="n">
-        <v>380.5333333333334</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="K110" t="n">
-        <v>382</v>
-      </c>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+        <v>376</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4748,40 +4260,41 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C111" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="D111" t="n">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E111" t="n">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F111" t="n">
-        <v>629.9861</v>
+        <v>4618.2676</v>
       </c>
       <c r="G111" t="n">
-        <v>382.6</v>
+        <v>-35468.7992</v>
       </c>
       <c r="H111" t="n">
-        <v>380.5</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+        <v>375</v>
+      </c>
+      <c r="K111" t="n">
+        <v>376</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4790,40 +4303,41 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C112" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D112" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E112" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>602.7495</v>
       </c>
       <c r="G112" t="n">
-        <v>382.7333333333333</v>
+        <v>-34866.0497</v>
       </c>
       <c r="H112" t="n">
-        <v>380.4833333333333</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+        <v>371</v>
+      </c>
+      <c r="K112" t="n">
+        <v>376</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4832,40 +4346,41 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C113" t="n">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="D113" t="n">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E113" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F113" t="n">
-        <v>904.0697</v>
+        <v>435.2397</v>
       </c>
       <c r="G113" t="n">
-        <v>383.1333333333333</v>
+        <v>-34866.0497</v>
       </c>
       <c r="H113" t="n">
-        <v>380.5</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+        <v>376</v>
+      </c>
+      <c r="K113" t="n">
+        <v>376</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,40 +4389,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C114" t="n">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D114" t="n">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="E114" t="n">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F114" t="n">
-        <v>6628.5442</v>
+        <v>100</v>
       </c>
       <c r="G114" t="n">
-        <v>383.3333333333333</v>
+        <v>-34866.0497</v>
       </c>
       <c r="H114" t="n">
-        <v>380.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>376</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4916,40 +4430,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C115" t="n">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D115" t="n">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E115" t="n">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F115" t="n">
-        <v>473</v>
+        <v>1340.0994</v>
       </c>
       <c r="G115" t="n">
-        <v>383.6666666666667</v>
+        <v>-34866.0497</v>
       </c>
       <c r="H115" t="n">
-        <v>380.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>376</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4958,40 +4471,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C116" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D116" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E116" t="n">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="F116" t="n">
-        <v>50</v>
+        <v>1051.5068</v>
       </c>
       <c r="G116" t="n">
-        <v>383.9333333333333</v>
+        <v>-33814.5429</v>
       </c>
       <c r="H116" t="n">
-        <v>380.5</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>376</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5000,40 +4512,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C117" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D117" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E117" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F117" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>383.8666666666667</v>
+        <v>-33813.5429</v>
       </c>
       <c r="H117" t="n">
-        <v>380.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>376</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5042,40 +4553,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C118" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D118" t="n">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E118" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F118" t="n">
-        <v>50</v>
+        <v>5497.9298</v>
       </c>
       <c r="G118" t="n">
-        <v>384.1333333333333</v>
+        <v>-39311.4727</v>
       </c>
       <c r="H118" t="n">
-        <v>380.5333333333334</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>376</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,40 +4594,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="C119" t="n">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="D119" t="n">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="E119" t="n">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>185.3703</v>
       </c>
       <c r="G119" t="n">
-        <v>384.2666666666667</v>
+        <v>-39126.1024</v>
       </c>
       <c r="H119" t="n">
-        <v>380.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>376</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5126,76 +4635,80 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C120" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D120" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E120" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F120" t="n">
-        <v>50</v>
+        <v>845.3329</v>
       </c>
       <c r="G120" t="n">
-        <v>384.3333333333333</v>
+        <v>-38280.76949999999</v>
       </c>
       <c r="H120" t="n">
-        <v>380.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>1</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>376</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C121" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D121" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E121" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F121" t="n">
-        <v>143.6356</v>
+        <v>0.0001</v>
       </c>
       <c r="G121" t="n">
-        <v>384.4666666666666</v>
+        <v>-38280.76949999999</v>
       </c>
       <c r="H121" t="n">
-        <v>380.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>376</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5204,36 +4717,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C122" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D122" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E122" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F122" t="n">
-        <v>3073.3927</v>
+        <v>175.3755</v>
       </c>
       <c r="G122" t="n">
-        <v>384.6</v>
+        <v>-38105.39399999999</v>
       </c>
       <c r="H122" t="n">
-        <v>380.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>376</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,36 +4758,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C123" t="n">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D123" t="n">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="E123" t="n">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>144.0144</v>
       </c>
       <c r="G123" t="n">
-        <v>385.0666666666667</v>
+        <v>-38249.40839999999</v>
       </c>
       <c r="H123" t="n">
-        <v>380.7</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>376</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5280,36 +4799,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C124" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D124" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E124" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F124" t="n">
-        <v>741.0595</v>
+        <v>15.26</v>
       </c>
       <c r="G124" t="n">
-        <v>385.2</v>
+        <v>-38249.40839999999</v>
       </c>
       <c r="H124" t="n">
-        <v>380.7</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>1</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>376</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5318,36 +4840,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C125" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D125" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E125" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F125" t="n">
-        <v>772.645</v>
+        <v>50</v>
       </c>
       <c r="G125" t="n">
-        <v>385.3333333333333</v>
+        <v>-38199.40839999999</v>
       </c>
       <c r="H125" t="n">
-        <v>380.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>376</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5356,36 +4881,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C126" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D126" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E126" t="n">
         <v>381</v>
       </c>
       <c r="F126" t="n">
-        <v>584</v>
+        <v>1517.4255</v>
       </c>
       <c r="G126" t="n">
-        <v>385.1333333333333</v>
+        <v>-36681.9829</v>
       </c>
       <c r="H126" t="n">
-        <v>380.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>376</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5394,36 +4922,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C127" t="n">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D127" t="n">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E127" t="n">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>2143</v>
       </c>
       <c r="G127" t="n">
-        <v>385.3333333333333</v>
+        <v>-38824.9829</v>
       </c>
       <c r="H127" t="n">
-        <v>380.85</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>376</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5432,36 +4963,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C128" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D128" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E128" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F128" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G128" t="n">
-        <v>385.0666666666667</v>
+        <v>-38824.9829</v>
       </c>
       <c r="H128" t="n">
-        <v>380.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>376</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5473,33 +5007,36 @@
         <v>383</v>
       </c>
       <c r="C129" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D129" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E129" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F129" t="n">
-        <v>107</v>
+        <v>3720.2313</v>
       </c>
       <c r="G129" t="n">
-        <v>385</v>
+        <v>-38824.9829</v>
       </c>
       <c r="H129" t="n">
-        <v>380.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>376</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5508,36 +5045,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C130" t="n">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D130" t="n">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E130" t="n">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>104.8</v>
       </c>
       <c r="G130" t="n">
-        <v>385.0666666666667</v>
+        <v>-38720.18289999999</v>
       </c>
       <c r="H130" t="n">
-        <v>381.0333333333334</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>376</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5546,36 +5086,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C131" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D131" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E131" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F131" t="n">
-        <v>361.324</v>
+        <v>152.5647</v>
       </c>
       <c r="G131" t="n">
-        <v>384.8666666666667</v>
+        <v>-38567.61819999999</v>
       </c>
       <c r="H131" t="n">
-        <v>381.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>376</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5584,36 +5127,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C132" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D132" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E132" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F132" t="n">
-        <v>677.7653</v>
+        <v>1125.6958</v>
       </c>
       <c r="G132" t="n">
-        <v>384.6666666666667</v>
+        <v>-39693.31399999999</v>
       </c>
       <c r="H132" t="n">
-        <v>381.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>376</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5622,36 +5168,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C133" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D133" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E133" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="F133" t="n">
-        <v>901.8095</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>384.4666666666666</v>
+        <v>-39692.31399999999</v>
       </c>
       <c r="H133" t="n">
-        <v>381.2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>376</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5660,36 +5209,39 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C134" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D134" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E134" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F134" t="n">
-        <v>11819.4389</v>
+        <v>94.98690000000001</v>
       </c>
       <c r="G134" t="n">
-        <v>383.8</v>
+        <v>-39787.30089999999</v>
       </c>
       <c r="H134" t="n">
-        <v>381.2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>376</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,36 +5250,39 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C135" t="n">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D135" t="n">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E135" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F135" t="n">
-        <v>3067.324</v>
+        <v>1495.4467</v>
       </c>
       <c r="G135" t="n">
-        <v>384.1333333333333</v>
+        <v>-41282.7476</v>
       </c>
       <c r="H135" t="n">
-        <v>381.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>376</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5736,36 +5291,39 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C136" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D136" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E136" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F136" t="n">
-        <v>102.2219</v>
+        <v>181.876</v>
       </c>
       <c r="G136" t="n">
-        <v>384.2</v>
+        <v>-41282.7476</v>
       </c>
       <c r="H136" t="n">
-        <v>381.6</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>376</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5774,36 +5332,39 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C137" t="n">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D137" t="n">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E137" t="n">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F137" t="n">
-        <v>771.1305123</v>
+        <v>1639.2004</v>
       </c>
       <c r="G137" t="n">
-        <v>384.6</v>
+        <v>-41282.7476</v>
       </c>
       <c r="H137" t="n">
-        <v>381.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>376</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5812,36 +5373,39 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C138" t="n">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D138" t="n">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E138" t="n">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F138" t="n">
-        <v>513.07923076</v>
+        <v>1451.0769</v>
       </c>
       <c r="G138" t="n">
-        <v>384.6666666666667</v>
+        <v>-41282.7476</v>
       </c>
       <c r="H138" t="n">
-        <v>382.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>1</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>376</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5850,36 +5414,39 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C139" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D139" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E139" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F139" t="n">
-        <v>93.8383</v>
+        <v>87.9999</v>
       </c>
       <c r="G139" t="n">
-        <v>384.7333333333333</v>
+        <v>-41282.7476</v>
       </c>
       <c r="H139" t="n">
-        <v>382.2166666666666</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>376</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5888,36 +5455,39 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C140" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D140" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E140" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F140" t="n">
-        <v>121</v>
+        <v>629.9861</v>
       </c>
       <c r="G140" t="n">
-        <v>384.8</v>
+        <v>-40652.76149999999</v>
       </c>
       <c r="H140" t="n">
-        <v>382.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>1</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>376</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,36 +5496,39 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C141" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D141" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E141" t="n">
         <v>385</v>
       </c>
       <c r="F141" t="n">
-        <v>362.1</v>
+        <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>385.1333333333333</v>
+        <v>-40651.76149999999</v>
       </c>
       <c r="H141" t="n">
-        <v>382.55</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>376</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5964,36 +5537,39 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C142" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D142" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E142" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F142" t="n">
-        <v>172</v>
+        <v>904.0697</v>
       </c>
       <c r="G142" t="n">
-        <v>385</v>
+        <v>-39747.69179999999</v>
       </c>
       <c r="H142" t="n">
-        <v>382.8</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>1</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>376</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6002,36 +5578,39 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C143" t="n">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D143" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E143" t="n">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>6628.5442</v>
       </c>
       <c r="G143" t="n">
-        <v>385.4</v>
+        <v>-46376.23599999999</v>
       </c>
       <c r="H143" t="n">
-        <v>383.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>376</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6040,36 +5619,39 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C144" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D144" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E144" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F144" t="n">
-        <v>113.1531</v>
+        <v>473</v>
       </c>
       <c r="G144" t="n">
-        <v>385.5333333333334</v>
+        <v>-45903.23599999999</v>
       </c>
       <c r="H144" t="n">
-        <v>383.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>376</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6090,24 +5672,27 @@
         <v>386</v>
       </c>
       <c r="F145" t="n">
-        <v>175.6196</v>
+        <v>50</v>
       </c>
       <c r="G145" t="n">
-        <v>385.4666666666666</v>
+        <v>-45903.23599999999</v>
       </c>
       <c r="H145" t="n">
-        <v>383.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>376</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6116,36 +5701,39 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C146" t="n">
         <v>385</v>
       </c>
       <c r="D146" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E146" t="n">
         <v>385</v>
       </c>
       <c r="F146" t="n">
-        <v>886.1368</v>
+        <v>200</v>
       </c>
       <c r="G146" t="n">
-        <v>385.6</v>
+        <v>-46103.23599999999</v>
       </c>
       <c r="H146" t="n">
-        <v>383.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>1</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>376</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6166,24 +5754,27 @@
         <v>385</v>
       </c>
       <c r="F147" t="n">
-        <v>39.0873</v>
+        <v>50</v>
       </c>
       <c r="G147" t="n">
-        <v>385.8</v>
+        <v>-46103.23599999999</v>
       </c>
       <c r="H147" t="n">
-        <v>383.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>1</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>376</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6192,36 +5783,39 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C148" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D148" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E148" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F148" t="n">
-        <v>87.9466</v>
+        <v>1</v>
       </c>
       <c r="G148" t="n">
-        <v>386</v>
+        <v>-46102.23599999999</v>
       </c>
       <c r="H148" t="n">
-        <v>383.65</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>376</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6230,36 +5824,39 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C149" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D149" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E149" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F149" t="n">
-        <v>665</v>
+        <v>50</v>
       </c>
       <c r="G149" t="n">
-        <v>386.4</v>
+        <v>-46152.23599999999</v>
       </c>
       <c r="H149" t="n">
-        <v>383.85</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>1</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>376</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6268,36 +5865,39 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C150" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D150" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E150" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F150" t="n">
-        <v>237.9599</v>
+        <v>143.6356</v>
       </c>
       <c r="G150" t="n">
-        <v>386.1333333333333</v>
+        <v>-46152.23599999999</v>
       </c>
       <c r="H150" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="n">
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>376</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6306,36 +5906,39 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C151" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D151" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E151" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F151" t="n">
-        <v>1827.0045</v>
+        <v>3073.3927</v>
       </c>
       <c r="G151" t="n">
-        <v>386.1333333333333</v>
+        <v>-46152.23599999999</v>
       </c>
       <c r="H151" t="n">
-        <v>384.1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="n">
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>376</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6344,36 +5947,39 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C152" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D152" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E152" t="n">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="F152" t="n">
-        <v>1813.8379</v>
+        <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>385.7333333333333</v>
+        <v>-46151.23599999999</v>
       </c>
       <c r="H152" t="n">
-        <v>384.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="n">
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>376</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6385,33 +5991,36 @@
         <v>384</v>
       </c>
       <c r="C153" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D153" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E153" t="n">
         <v>384</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>741.0595</v>
       </c>
       <c r="G153" t="n">
-        <v>385.4</v>
+        <v>-46892.29549999999</v>
       </c>
       <c r="H153" t="n">
-        <v>384.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="n">
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>376</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6420,36 +6029,39 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C154" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D154" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E154" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F154" t="n">
-        <v>190.4763</v>
+        <v>772.645</v>
       </c>
       <c r="G154" t="n">
-        <v>385.4</v>
+        <v>-46892.29549999999</v>
       </c>
       <c r="H154" t="n">
-        <v>384.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="n">
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>376</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6458,36 +6070,39 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C155" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D155" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E155" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F155" t="n">
-        <v>779.2207792200001</v>
+        <v>584</v>
       </c>
       <c r="G155" t="n">
-        <v>385.4</v>
+        <v>-47476.29549999999</v>
       </c>
       <c r="H155" t="n">
-        <v>384.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="n">
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>376</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6496,36 +6111,39 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C156" t="n">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="D156" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E156" t="n">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="F156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>385</v>
+        <v>-47475.29549999999</v>
       </c>
       <c r="H156" t="n">
-        <v>384.4666666666666</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="inlineStr"/>
-      <c r="N156" t="n">
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>376</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6534,36 +6152,39 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C157" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D157" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E157" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F157" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="G157" t="n">
-        <v>384.6</v>
+        <v>-47525.29549999999</v>
       </c>
       <c r="H157" t="n">
-        <v>384.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="n">
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>376</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6572,36 +6193,39 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C158" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D158" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E158" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F158" t="n">
-        <v>2244.3892</v>
+        <v>107</v>
       </c>
       <c r="G158" t="n">
-        <v>383.9333333333333</v>
+        <v>-47525.29549999999</v>
       </c>
       <c r="H158" t="n">
-        <v>384.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="n">
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>376</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6610,36 +6234,39 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C159" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D159" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E159" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F159" t="n">
         <v>1</v>
       </c>
       <c r="G159" t="n">
-        <v>383.8666666666667</v>
+        <v>-47524.29549999999</v>
       </c>
       <c r="H159" t="n">
-        <v>384.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="n">
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>376</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6648,36 +6275,39 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C160" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D160" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E160" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F160" t="n">
-        <v>184.8517</v>
+        <v>361.324</v>
       </c>
       <c r="G160" t="n">
-        <v>383.4666666666666</v>
+        <v>-47885.61949999999</v>
       </c>
       <c r="H160" t="n">
-        <v>384.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="n">
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>376</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6686,36 +6316,39 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C161" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D161" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E161" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F161" t="n">
-        <v>77.7587</v>
+        <v>677.7653</v>
       </c>
       <c r="G161" t="n">
-        <v>383.1333333333333</v>
+        <v>-48563.38479999999</v>
       </c>
       <c r="H161" t="n">
-        <v>384.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="n">
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>376</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6724,36 +6357,39 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C162" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D162" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E162" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F162" t="n">
-        <v>2085.1828</v>
+        <v>901.8095</v>
       </c>
       <c r="G162" t="n">
-        <v>382.7333333333333</v>
+        <v>-48563.38479999999</v>
       </c>
       <c r="H162" t="n">
-        <v>384.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="n">
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>376</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6762,36 +6398,39 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C163" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D163" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E163" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F163" t="n">
-        <v>252.6449</v>
+        <v>11819.4389</v>
       </c>
       <c r="G163" t="n">
-        <v>382.4</v>
+        <v>-60382.82369999999</v>
       </c>
       <c r="H163" t="n">
-        <v>384.25</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>0</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="inlineStr"/>
-      <c r="N163" t="n">
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>376</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6800,36 +6439,1236 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
+        <v>385</v>
+      </c>
+      <c r="C164" t="n">
+        <v>389</v>
+      </c>
+      <c r="D164" t="n">
+        <v>389</v>
+      </c>
+      <c r="E164" t="n">
+        <v>385</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3067.324</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-57315.49969999999</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>376</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>385</v>
+      </c>
+      <c r="C165" t="n">
+        <v>385</v>
+      </c>
+      <c r="D165" t="n">
+        <v>385</v>
+      </c>
+      <c r="E165" t="n">
+        <v>385</v>
+      </c>
+      <c r="F165" t="n">
+        <v>102.2219</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-57417.72159999999</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>376</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>388</v>
+      </c>
+      <c r="C166" t="n">
+        <v>390</v>
+      </c>
+      <c r="D166" t="n">
+        <v>390</v>
+      </c>
+      <c r="E166" t="n">
+        <v>388</v>
+      </c>
+      <c r="F166" t="n">
+        <v>771.1305123</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-56646.59108769999</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>376</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>389</v>
+      </c>
+      <c r="C167" t="n">
+        <v>390</v>
+      </c>
+      <c r="D167" t="n">
+        <v>390</v>
+      </c>
+      <c r="E167" t="n">
+        <v>389</v>
+      </c>
+      <c r="F167" t="n">
+        <v>513.07923076</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-56646.59108769999</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>376</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>385</v>
+      </c>
+      <c r="C168" t="n">
+        <v>385</v>
+      </c>
+      <c r="D168" t="n">
+        <v>385</v>
+      </c>
+      <c r="E168" t="n">
+        <v>385</v>
+      </c>
+      <c r="F168" t="n">
+        <v>93.8383</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-56740.42938769999</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>376</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>385</v>
+      </c>
+      <c r="C169" t="n">
+        <v>385</v>
+      </c>
+      <c r="D169" t="n">
+        <v>385</v>
+      </c>
+      <c r="E169" t="n">
+        <v>385</v>
+      </c>
+      <c r="F169" t="n">
+        <v>121</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-56740.42938769999</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>376</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>386</v>
+      </c>
+      <c r="C170" t="n">
+        <v>386</v>
+      </c>
+      <c r="D170" t="n">
+        <v>386</v>
+      </c>
+      <c r="E170" t="n">
+        <v>385</v>
+      </c>
+      <c r="F170" t="n">
+        <v>362.1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-56378.3293877</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>376</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>386</v>
+      </c>
+      <c r="C171" t="n">
+        <v>386</v>
+      </c>
+      <c r="D171" t="n">
+        <v>386</v>
+      </c>
+      <c r="E171" t="n">
+        <v>386</v>
+      </c>
+      <c r="F171" t="n">
+        <v>172</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-56378.3293877</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>376</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>389</v>
+      </c>
+      <c r="C172" t="n">
+        <v>389</v>
+      </c>
+      <c r="D172" t="n">
+        <v>389</v>
+      </c>
+      <c r="E172" t="n">
+        <v>389</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-56377.3293877</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>376</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>385</v>
+      </c>
+      <c r="C173" t="n">
+        <v>385</v>
+      </c>
+      <c r="D173" t="n">
+        <v>385</v>
+      </c>
+      <c r="E173" t="n">
+        <v>385</v>
+      </c>
+      <c r="F173" t="n">
+        <v>113.1531</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-56490.4824877</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>376</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>386</v>
+      </c>
+      <c r="C174" t="n">
+        <v>386</v>
+      </c>
+      <c r="D174" t="n">
+        <v>386</v>
+      </c>
+      <c r="E174" t="n">
+        <v>386</v>
+      </c>
+      <c r="F174" t="n">
+        <v>175.6196</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-56314.8628877</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>376</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>385</v>
+      </c>
+      <c r="C175" t="n">
+        <v>385</v>
+      </c>
+      <c r="D175" t="n">
+        <v>385</v>
+      </c>
+      <c r="E175" t="n">
+        <v>385</v>
+      </c>
+      <c r="F175" t="n">
+        <v>886.1368</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-57200.9996877</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>376</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>385</v>
+      </c>
+      <c r="C176" t="n">
+        <v>385</v>
+      </c>
+      <c r="D176" t="n">
+        <v>385</v>
+      </c>
+      <c r="E176" t="n">
+        <v>385</v>
+      </c>
+      <c r="F176" t="n">
+        <v>39.0873</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-57200.9996877</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>376</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>385</v>
+      </c>
+      <c r="C177" t="n">
+        <v>385</v>
+      </c>
+      <c r="D177" t="n">
+        <v>385</v>
+      </c>
+      <c r="E177" t="n">
+        <v>385</v>
+      </c>
+      <c r="F177" t="n">
+        <v>87.9466</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-57200.9996877</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>376</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>385</v>
+      </c>
+      <c r="C178" t="n">
+        <v>385</v>
+      </c>
+      <c r="D178" t="n">
+        <v>385</v>
+      </c>
+      <c r="E178" t="n">
+        <v>385</v>
+      </c>
+      <c r="F178" t="n">
+        <v>665</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-57200.9996877</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>376</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>385</v>
+      </c>
+      <c r="C179" t="n">
+        <v>385</v>
+      </c>
+      <c r="D179" t="n">
+        <v>385</v>
+      </c>
+      <c r="E179" t="n">
+        <v>385</v>
+      </c>
+      <c r="F179" t="n">
+        <v>237.9599</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-57200.9996877</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>376</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>385</v>
+      </c>
+      <c r="C180" t="n">
+        <v>385</v>
+      </c>
+      <c r="D180" t="n">
+        <v>385</v>
+      </c>
+      <c r="E180" t="n">
+        <v>385</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1827.0045</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-57200.9996877</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>376</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>384</v>
+      </c>
+      <c r="C181" t="n">
+        <v>384</v>
+      </c>
+      <c r="D181" t="n">
+        <v>384</v>
+      </c>
+      <c r="E181" t="n">
+        <v>380</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1813.8379</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-59014.8375877</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>376</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>384</v>
+      </c>
+      <c r="C182" t="n">
+        <v>385</v>
+      </c>
+      <c r="D182" t="n">
+        <v>385</v>
+      </c>
+      <c r="E182" t="n">
+        <v>384</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-59013.8375877</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>376</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>385</v>
+      </c>
+      <c r="C183" t="n">
+        <v>385</v>
+      </c>
+      <c r="D183" t="n">
+        <v>385</v>
+      </c>
+      <c r="E183" t="n">
+        <v>385</v>
+      </c>
+      <c r="F183" t="n">
+        <v>190.4763</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-59013.8375877</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>376</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>385</v>
+      </c>
+      <c r="C184" t="n">
+        <v>385</v>
+      </c>
+      <c r="D184" t="n">
+        <v>385</v>
+      </c>
+      <c r="E184" t="n">
+        <v>385</v>
+      </c>
+      <c r="F184" t="n">
+        <v>779.2207792200001</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-59013.8375877</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>376</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>385</v>
+      </c>
+      <c r="C185" t="n">
+        <v>380</v>
+      </c>
+      <c r="D185" t="n">
+        <v>385</v>
+      </c>
+      <c r="E185" t="n">
+        <v>380</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-59015.8375877</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>376</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>380</v>
+      </c>
+      <c r="C186" t="n">
+        <v>380</v>
+      </c>
+      <c r="D186" t="n">
+        <v>380</v>
+      </c>
+      <c r="E186" t="n">
+        <v>380</v>
+      </c>
+      <c r="F186" t="n">
+        <v>9</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-59015.8375877</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>376</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>380</v>
+      </c>
+      <c r="C187" t="n">
+        <v>379</v>
+      </c>
+      <c r="D187" t="n">
+        <v>380</v>
+      </c>
+      <c r="E187" t="n">
+        <v>379</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2244.3892</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-61260.2267877</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>376</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>384</v>
+      </c>
+      <c r="C188" t="n">
+        <v>384</v>
+      </c>
+      <c r="D188" t="n">
+        <v>384</v>
+      </c>
+      <c r="E188" t="n">
+        <v>384</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-61259.2267877</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>376</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>380</v>
+      </c>
+      <c r="C189" t="n">
+        <v>380</v>
+      </c>
+      <c r="D189" t="n">
+        <v>380</v>
+      </c>
+      <c r="E189" t="n">
+        <v>380</v>
+      </c>
+      <c r="F189" t="n">
+        <v>184.8517</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-61444.0784877</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>384</v>
+      </c>
+      <c r="K189" t="n">
+        <v>376</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>380</v>
+      </c>
+      <c r="C190" t="n">
+        <v>380</v>
+      </c>
+      <c r="D190" t="n">
+        <v>380</v>
+      </c>
+      <c r="E190" t="n">
+        <v>380</v>
+      </c>
+      <c r="F190" t="n">
+        <v>77.7587</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-61444.0784877</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>376</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>380</v>
+      </c>
+      <c r="C191" t="n">
+        <v>379</v>
+      </c>
+      <c r="D191" t="n">
+        <v>380</v>
+      </c>
+      <c r="E191" t="n">
+        <v>379</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2085.1828</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-63529.2612877</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>380</v>
+      </c>
+      <c r="K191" t="n">
+        <v>376</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>380</v>
+      </c>
+      <c r="C192" t="n">
+        <v>380</v>
+      </c>
+      <c r="D192" t="n">
+        <v>380</v>
+      </c>
+      <c r="E192" t="n">
+        <v>380</v>
+      </c>
+      <c r="F192" t="n">
+        <v>252.6449</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-63276.6163877</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>379</v>
+      </c>
+      <c r="K192" t="n">
+        <v>376</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
         <v>383</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C193" t="n">
         <v>383</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D193" t="n">
         <v>383</v>
       </c>
-      <c r="E164" t="n">
+      <c r="E193" t="n">
         <v>383</v>
       </c>
-      <c r="F164" t="n">
-        <v>1</v>
-      </c>
-      <c r="G164" t="n">
-        <v>382.2666666666667</v>
-      </c>
-      <c r="H164" t="n">
-        <v>384.1833333333333</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="n">
+      <c r="F193" t="n">
+        <v>1</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-63275.6163877</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>380</v>
+      </c>
+      <c r="K193" t="n">
+        <v>376</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-01 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M193"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C2" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D2" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E2" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F2" t="n">
-        <v>990.3688</v>
+        <v>975.4</v>
       </c>
       <c r="G2" t="n">
-        <v>-24674.3664</v>
+        <v>-12126.4135</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C3" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D3" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E3" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F3" t="n">
-        <v>176.1019</v>
+        <v>3.9577</v>
       </c>
       <c r="G3" t="n">
-        <v>-24674.3664</v>
+        <v>-12126.4135</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C4" t="n">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D4" t="n">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="E4" t="n">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="F4" t="n">
-        <v>75.09999999999999</v>
+        <v>105.1197</v>
       </c>
       <c r="G4" t="n">
-        <v>-24599.2664</v>
+        <v>-12126.4135</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C5" t="n">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D5" t="n">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="E5" t="n">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="F5" t="n">
-        <v>9080.6589</v>
+        <v>458.999</v>
       </c>
       <c r="G5" t="n">
-        <v>-15518.6075</v>
+        <v>-12126.4135</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C6" t="n">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D6" t="n">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E6" t="n">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F6" t="n">
-        <v>38.8506</v>
+        <v>15.7205</v>
       </c>
       <c r="G6" t="n">
-        <v>-15557.4581</v>
+        <v>-12142.134</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C7" t="n">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D7" t="n">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E7" t="n">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0889</v>
+        <v>191.4076</v>
       </c>
       <c r="G7" t="n">
-        <v>-15985.547</v>
+        <v>-12142.134</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C8" t="n">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D8" t="n">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E8" t="n">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F8" t="n">
-        <v>749.9384</v>
+        <v>5.0234</v>
       </c>
       <c r="G8" t="n">
-        <v>-15235.6086</v>
+        <v>-12137.1106</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C9" t="n">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D9" t="n">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E9" t="n">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>290.8485</v>
       </c>
       <c r="G9" t="n">
-        <v>-15230.6086</v>
+        <v>-12137.1106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C10" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D10" t="n">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E10" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F10" t="n">
-        <v>288.0288</v>
+        <v>100.5074</v>
       </c>
       <c r="G10" t="n">
-        <v>-15518.6374</v>
+        <v>-12237.618</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C11" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D11" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E11" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F11" t="n">
-        <v>9057.957200000001</v>
+        <v>711.4083000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>-24576.5946</v>
+        <v>-11526.2097</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C12" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D12" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E12" t="n">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5984</v>
+        <v>2982.057</v>
       </c>
       <c r="G12" t="n">
-        <v>-24216.9962</v>
+        <v>-14508.2667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C13" t="n">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D13" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E13" t="n">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F13" t="n">
-        <v>79.8613</v>
+        <v>1397.5194</v>
       </c>
       <c r="G13" t="n">
-        <v>-24296.8575</v>
+        <v>-15905.7861</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C14" t="n">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D14" t="n">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="E14" t="n">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="F14" t="n">
-        <v>8770.885200000001</v>
+        <v>6426.259</v>
       </c>
       <c r="G14" t="n">
-        <v>-15525.9723</v>
+        <v>-22332.0451</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,34 +899,35 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C15" t="n">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D15" t="n">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E15" t="n">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F15" t="n">
-        <v>1544.0144</v>
+        <v>21</v>
       </c>
       <c r="G15" t="n">
-        <v>-15525.9723</v>
+        <v>-22311.0451</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C16" t="n">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D16" t="n">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="E16" t="n">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="F16" t="n">
-        <v>252.1107</v>
+        <v>141.8777</v>
       </c>
       <c r="G16" t="n">
-        <v>-15525.9723</v>
+        <v>-22452.9228</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C17" t="n">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D17" t="n">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E17" t="n">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F17" t="n">
-        <v>2264.4564</v>
+        <v>1217.8346</v>
       </c>
       <c r="G17" t="n">
-        <v>-13261.5159</v>
+        <v>-21235.0882</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,34 +1007,35 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C18" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D18" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E18" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F18" t="n">
-        <v>105.7174</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>-13367.2333</v>
+        <v>-21234.0882</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C19" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D19" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E19" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F19" t="n">
-        <v>867.7173</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>-13367.2333</v>
+        <v>-21233.0882</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C20" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D20" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E20" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F20" t="n">
-        <v>185.4526</v>
+        <v>334.3517</v>
       </c>
       <c r="G20" t="n">
-        <v>-13367.2333</v>
+        <v>-21567.4399</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,34 +1115,35 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C21" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D21" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E21" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F21" t="n">
-        <v>104.6968</v>
+        <v>28.7958</v>
       </c>
       <c r="G21" t="n">
-        <v>-13367.2333</v>
+        <v>-21596.2357</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C22" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D22" t="n">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E22" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F22" t="n">
-        <v>3287.7702</v>
+        <v>3304.8757</v>
       </c>
       <c r="G22" t="n">
-        <v>-10079.4631</v>
+        <v>-18291.36</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C23" t="n">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D23" t="n">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E23" t="n">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F23" t="n">
-        <v>118.9566</v>
+        <v>141.8731</v>
       </c>
       <c r="G23" t="n">
-        <v>-9960.506500000001</v>
+        <v>-18291.36</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C24" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D24" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E24" t="n">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F24" t="n">
-        <v>339.3271</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>-9621.179400000001</v>
+        <v>-18290.36</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1250,10 +1278,10 @@
         <v>386</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>438.8892</v>
       </c>
       <c r="G25" t="n">
-        <v>-9622.179400000001</v>
+        <v>-17851.4708</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C26" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D26" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E26" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F26" t="n">
-        <v>6.2542</v>
+        <v>719.7364</v>
       </c>
       <c r="G26" t="n">
-        <v>-9622.179400000001</v>
+        <v>-18571.2072</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C27" t="n">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D27" t="n">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E27" t="n">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F27" t="n">
-        <v>166.255</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>-9455.924400000002</v>
+        <v>-18570.2072</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,34 +1367,35 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C28" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D28" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E28" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F28" t="n">
-        <v>373.5907</v>
+        <v>2649.652</v>
       </c>
       <c r="G28" t="n">
-        <v>-9455.924400000002</v>
+        <v>-15920.5552</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C29" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D29" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E29" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F29" t="n">
-        <v>7580.6984</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>-1875.226000000001</v>
+        <v>-15919.5552</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C30" t="n">
         <v>385</v>
       </c>
       <c r="D30" t="n">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E30" t="n">
         <v>385</v>
       </c>
       <c r="F30" t="n">
-        <v>1677.36</v>
+        <v>79.9956</v>
       </c>
       <c r="G30" t="n">
-        <v>-3552.586000000001</v>
+        <v>-15999.5508</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C31" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D31" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E31" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>78.9956</v>
       </c>
       <c r="G31" t="n">
-        <v>-3452.586000000001</v>
+        <v>-15999.5508</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C32" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D32" t="n">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E32" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F32" t="n">
-        <v>964.2789</v>
+        <v>81.1198</v>
       </c>
       <c r="G32" t="n">
-        <v>-3452.586000000001</v>
+        <v>-15918.431</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C33" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D33" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E33" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F33" t="n">
-        <v>1755.5521</v>
+        <v>111</v>
       </c>
       <c r="G33" t="n">
-        <v>-3452.586000000001</v>
+        <v>-15918.431</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C34" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D34" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E34" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F34" t="n">
-        <v>1143.6393</v>
+        <v>190.7905</v>
       </c>
       <c r="G34" t="n">
-        <v>-3452.586000000001</v>
+        <v>-15918.431</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C35" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D35" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E35" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F35" t="n">
-        <v>4203</v>
+        <v>202.0446</v>
       </c>
       <c r="G35" t="n">
-        <v>-3452.586000000001</v>
+        <v>-15918.431</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1632,13 +1671,13 @@
         <v>387</v>
       </c>
       <c r="E36" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F36" t="n">
-        <v>50</v>
+        <v>3190.3222</v>
       </c>
       <c r="G36" t="n">
-        <v>-3452.586000000001</v>
+        <v>-12728.1088</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C37" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D37" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E37" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F37" t="n">
-        <v>648</v>
+        <v>969.4112</v>
       </c>
       <c r="G37" t="n">
-        <v>-3452.586000000001</v>
+        <v>-13697.52</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C38" t="n">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D38" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E38" t="n">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F38" t="n">
-        <v>5.9085</v>
+        <v>1719.1588</v>
       </c>
       <c r="G38" t="n">
-        <v>-3446.677500000001</v>
+        <v>-13697.52</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,34 +1763,35 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C39" t="n">
         <v>386</v>
       </c>
       <c r="D39" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E39" t="n">
         <v>386</v>
       </c>
       <c r="F39" t="n">
-        <v>2112.1218</v>
+        <v>1231.327</v>
       </c>
       <c r="G39" t="n">
-        <v>-5558.799300000001</v>
+        <v>-13697.52</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1766,19 +1809,19 @@
         <v>386</v>
       </c>
       <c r="C40" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D40" t="n">
         <v>386</v>
       </c>
       <c r="E40" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F40" t="n">
-        <v>5249.0079</v>
+        <v>192.1819</v>
       </c>
       <c r="G40" t="n">
-        <v>-10807.8072</v>
+        <v>-13697.52</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1810,10 +1854,10 @@
         <v>386</v>
       </c>
       <c r="F41" t="n">
-        <v>2.9689</v>
+        <v>871.0154</v>
       </c>
       <c r="G41" t="n">
-        <v>-10804.8383</v>
+        <v>-13697.52</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C42" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D42" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E42" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F42" t="n">
-        <v>2.9248</v>
+        <v>183.0677</v>
       </c>
       <c r="G42" t="n">
-        <v>-10804.8383</v>
+        <v>-13880.5877</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1871,19 +1917,19 @@
         <v>385</v>
       </c>
       <c r="C43" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D43" t="n">
         <v>385</v>
       </c>
       <c r="E43" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F43" t="n">
-        <v>346.1752</v>
+        <v>521.0388</v>
       </c>
       <c r="G43" t="n">
-        <v>-11151.0135</v>
+        <v>-13880.5877</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C44" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D44" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E44" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F44" t="n">
-        <v>975.4</v>
+        <v>1281.3542</v>
       </c>
       <c r="G44" t="n">
-        <v>-12126.4135</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C45" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D45" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E45" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F45" t="n">
-        <v>3.9577</v>
+        <v>2206.7819</v>
       </c>
       <c r="G45" t="n">
-        <v>-12126.4135</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C46" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D46" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E46" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F46" t="n">
-        <v>105.1197</v>
+        <v>298.6472</v>
       </c>
       <c r="G46" t="n">
-        <v>-12126.4135</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C47" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D47" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E47" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F47" t="n">
-        <v>458.999</v>
+        <v>559.7453</v>
       </c>
       <c r="G47" t="n">
-        <v>-12126.4135</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C48" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D48" t="n">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="E48" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F48" t="n">
-        <v>15.7205</v>
+        <v>7437.4468</v>
       </c>
       <c r="G48" t="n">
-        <v>-12142.134</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C49" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D49" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E49" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F49" t="n">
-        <v>191.4076</v>
+        <v>77</v>
       </c>
       <c r="G49" t="n">
-        <v>-12142.134</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C50" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D50" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E50" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F50" t="n">
-        <v>5.0234</v>
+        <v>1238.6304</v>
       </c>
       <c r="G50" t="n">
-        <v>-12137.1106</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C51" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D51" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E51" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F51" t="n">
-        <v>290.8485</v>
+        <v>2719.6565</v>
       </c>
       <c r="G51" t="n">
-        <v>-12137.1106</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C52" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D52" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E52" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F52" t="n">
-        <v>100.5074</v>
+        <v>250</v>
       </c>
       <c r="G52" t="n">
-        <v>-12237.618</v>
+        <v>-15411.9419</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2221,19 +2277,19 @@
         <v>382</v>
       </c>
       <c r="C53" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D53" t="n">
         <v>382</v>
       </c>
       <c r="E53" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F53" t="n">
-        <v>711.4083000000001</v>
+        <v>553.5099</v>
       </c>
       <c r="G53" t="n">
-        <v>-11526.2097</v>
+        <v>-15965.4518</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2265,10 +2322,10 @@
         <v>381</v>
       </c>
       <c r="F54" t="n">
-        <v>2982.057</v>
+        <v>791.5972</v>
       </c>
       <c r="G54" t="n">
-        <v>-14508.2667</v>
+        <v>-15965.4518</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2291,19 +2349,19 @@
         <v>381</v>
       </c>
       <c r="C55" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D55" t="n">
         <v>381</v>
       </c>
       <c r="E55" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F55" t="n">
-        <v>1397.5194</v>
+        <v>758.5996</v>
       </c>
       <c r="G55" t="n">
-        <v>-15905.7861</v>
+        <v>-15965.4518</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C56" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D56" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E56" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F56" t="n">
-        <v>6426.259</v>
+        <v>2137.0784</v>
       </c>
       <c r="G56" t="n">
-        <v>-22332.0451</v>
+        <v>-15965.4518</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C57" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D57" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E57" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F57" t="n">
-        <v>21</v>
+        <v>1483.6801</v>
       </c>
       <c r="G57" t="n">
-        <v>-22311.0451</v>
+        <v>-17449.1319</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C58" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D58" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E58" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F58" t="n">
-        <v>141.8777</v>
+        <v>172</v>
       </c>
       <c r="G58" t="n">
-        <v>-22452.9228</v>
+        <v>-17449.1319</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C59" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D59" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E59" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F59" t="n">
-        <v>1217.8346</v>
+        <v>47.88</v>
       </c>
       <c r="G59" t="n">
-        <v>-21235.0882</v>
+        <v>-17497.0119</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C60" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D60" t="n">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E60" t="n">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>3959.5187</v>
       </c>
       <c r="G60" t="n">
-        <v>-21234.0882</v>
+        <v>-21456.5306</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,63 +2555,69 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C61" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D61" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E61" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>194.6791</v>
       </c>
       <c r="G61" t="n">
-        <v>-21233.0882</v>
+        <v>-21261.8515</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>378</v>
+      </c>
+      <c r="K61" t="n">
+        <v>378</v>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C62" t="n">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D62" t="n">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E62" t="n">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F62" t="n">
-        <v>334.3517</v>
+        <v>4326.599</v>
       </c>
       <c r="G62" t="n">
-        <v>-21567.4399</v>
+        <v>-25588.4505</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,628 +2626,788 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>378</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C63" t="n">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D63" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E63" t="n">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F63" t="n">
-        <v>28.7958</v>
+        <v>7614.5152</v>
       </c>
       <c r="G63" t="n">
-        <v>-21596.2357</v>
+        <v>-33202.9657</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>376</v>
+      </c>
+      <c r="K63" t="n">
+        <v>378</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C64" t="n">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D64" t="n">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E64" t="n">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F64" t="n">
-        <v>3304.8757</v>
+        <v>2571.4341</v>
       </c>
       <c r="G64" t="n">
-        <v>-18291.36</v>
+        <v>-30631.5316</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>374</v>
+      </c>
+      <c r="K64" t="n">
+        <v>378</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C65" t="n">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="D65" t="n">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E65" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="F65" t="n">
-        <v>141.8731</v>
+        <v>5095.0063</v>
       </c>
       <c r="G65" t="n">
-        <v>-18291.36</v>
+        <v>-30631.5316</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>376</v>
+      </c>
+      <c r="K65" t="n">
+        <v>378</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C66" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D66" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E66" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>119.2562</v>
       </c>
       <c r="G66" t="n">
-        <v>-18290.36</v>
+        <v>-30631.5316</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>376</v>
+      </c>
+      <c r="K66" t="n">
+        <v>378</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C67" t="n">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D67" t="n">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="E67" t="n">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F67" t="n">
-        <v>438.8892</v>
+        <v>850</v>
       </c>
       <c r="G67" t="n">
-        <v>-17851.4708</v>
+        <v>-30631.5316</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>376</v>
+      </c>
+      <c r="K67" t="n">
+        <v>378</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C68" t="n">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D68" t="n">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E68" t="n">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="F68" t="n">
-        <v>719.7364</v>
+        <v>219</v>
       </c>
       <c r="G68" t="n">
-        <v>-18571.2072</v>
+        <v>-30850.5316</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>376</v>
+      </c>
+      <c r="K68" t="n">
+        <v>378</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="C69" t="n">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="D69" t="n">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E69" t="n">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>4618.2676</v>
       </c>
       <c r="G69" t="n">
-        <v>-18570.2072</v>
+        <v>-35468.7992</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>375</v>
+      </c>
+      <c r="K69" t="n">
+        <v>378</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C70" t="n">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D70" t="n">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E70" t="n">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="F70" t="n">
-        <v>2649.652</v>
+        <v>602.7495</v>
       </c>
       <c r="G70" t="n">
-        <v>-15920.5552</v>
+        <v>-34866.0497</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>371</v>
+      </c>
+      <c r="K70" t="n">
+        <v>378</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C71" t="n">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="D71" t="n">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="E71" t="n">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>435.2397</v>
       </c>
       <c r="G71" t="n">
-        <v>-15919.5552</v>
+        <v>-34866.0497</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>376</v>
+      </c>
+      <c r="K71" t="n">
+        <v>378</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C72" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D72" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E72" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F72" t="n">
-        <v>79.9956</v>
+        <v>100</v>
       </c>
       <c r="G72" t="n">
-        <v>-15999.5508</v>
+        <v>-34866.0497</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>376</v>
+      </c>
+      <c r="K72" t="n">
+        <v>378</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C73" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D73" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E73" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F73" t="n">
-        <v>78.9956</v>
+        <v>1340.0994</v>
       </c>
       <c r="G73" t="n">
-        <v>-15999.5508</v>
+        <v>-34866.0497</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>376</v>
+      </c>
+      <c r="K73" t="n">
+        <v>378</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C74" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D74" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E74" t="n">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="F74" t="n">
-        <v>81.1198</v>
+        <v>1051.5068</v>
       </c>
       <c r="G74" t="n">
-        <v>-15918.431</v>
+        <v>-33814.5429</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>376</v>
+      </c>
+      <c r="K74" t="n">
+        <v>378</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C75" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D75" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E75" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F75" t="n">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>-15918.431</v>
+        <v>-33813.5429</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>379</v>
+      </c>
+      <c r="K75" t="n">
+        <v>378</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C76" t="n">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D76" t="n">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="E76" t="n">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="F76" t="n">
-        <v>190.7905</v>
+        <v>5497.9298</v>
       </c>
       <c r="G76" t="n">
-        <v>-15918.431</v>
+        <v>-39311.4727</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>381</v>
+      </c>
+      <c r="K76" t="n">
+        <v>378</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C77" t="n">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D77" t="n">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="E77" t="n">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="F77" t="n">
-        <v>202.0446</v>
+        <v>185.3703</v>
       </c>
       <c r="G77" t="n">
-        <v>-15918.431</v>
+        <v>-39126.1024</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>373</v>
+      </c>
+      <c r="K77" t="n">
+        <v>378</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C78" t="n">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="D78" t="n">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E78" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F78" t="n">
-        <v>3190.3222</v>
+        <v>845.3329</v>
       </c>
       <c r="G78" t="n">
-        <v>-12728.1088</v>
+        <v>-38280.76949999999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>376</v>
+      </c>
+      <c r="K78" t="n">
+        <v>378</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C79" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D79" t="n">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="E79" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F79" t="n">
-        <v>969.4112</v>
+        <v>0.0001</v>
       </c>
       <c r="G79" t="n">
-        <v>-13697.52</v>
+        <v>-38280.76949999999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>379</v>
+      </c>
+      <c r="K79" t="n">
+        <v>378</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C80" t="n">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D80" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E80" t="n">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F80" t="n">
-        <v>1719.1588</v>
+        <v>175.3755</v>
       </c>
       <c r="G80" t="n">
-        <v>-13697.52</v>
+        <v>-38105.39399999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,68 +3416,84 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>378</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C81" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D81" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E81" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F81" t="n">
-        <v>1231.327</v>
+        <v>144.0144</v>
       </c>
       <c r="G81" t="n">
-        <v>-13697.52</v>
+        <v>-38249.40839999999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>380</v>
+      </c>
+      <c r="K81" t="n">
+        <v>378</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C82" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D82" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E82" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F82" t="n">
-        <v>192.1819</v>
+        <v>15.26</v>
       </c>
       <c r="G82" t="n">
-        <v>-13697.52</v>
+        <v>-38249.40839999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,33 +3502,40 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>378</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C83" t="n">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D83" t="n">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E83" t="n">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F83" t="n">
-        <v>871.0154</v>
+        <v>50</v>
       </c>
       <c r="G83" t="n">
-        <v>-13697.52</v>
+        <v>-38199.40839999999</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,33 +3544,40 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>378</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C84" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D84" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E84" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F84" t="n">
-        <v>183.0677</v>
+        <v>1517.4255</v>
       </c>
       <c r="G84" t="n">
-        <v>-13880.5877</v>
+        <v>-36681.9829</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,33 +3586,40 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>378</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C85" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D85" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E85" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F85" t="n">
-        <v>521.0388</v>
+        <v>2143</v>
       </c>
       <c r="G85" t="n">
-        <v>-13880.5877</v>
+        <v>-38824.9829</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,33 +3628,40 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>378</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C86" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D86" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E86" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F86" t="n">
-        <v>1281.3542</v>
+        <v>5</v>
       </c>
       <c r="G86" t="n">
-        <v>-15161.9419</v>
+        <v>-38824.9829</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,33 +3670,40 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>378</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C87" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D87" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E87" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F87" t="n">
-        <v>2206.7819</v>
+        <v>3720.2313</v>
       </c>
       <c r="G87" t="n">
-        <v>-15161.9419</v>
+        <v>-38824.9829</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,33 +3712,40 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>378</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C88" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D88" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E88" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F88" t="n">
-        <v>298.6472</v>
+        <v>104.8</v>
       </c>
       <c r="G88" t="n">
-        <v>-15161.9419</v>
+        <v>-38720.18289999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,33 +3754,40 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>378</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C89" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D89" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E89" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F89" t="n">
-        <v>559.7453</v>
+        <v>152.5647</v>
       </c>
       <c r="G89" t="n">
-        <v>-15161.9419</v>
+        <v>-38567.61819999999</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,33 +3796,40 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>378</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C90" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D90" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E90" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F90" t="n">
-        <v>7437.4468</v>
+        <v>1125.6958</v>
       </c>
       <c r="G90" t="n">
-        <v>-15161.9419</v>
+        <v>-39693.31399999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3537,33 +3838,40 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>378</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C91" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D91" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E91" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F91" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>-15161.9419</v>
+        <v>-39692.31399999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3572,33 +3880,40 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>378</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C92" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D92" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E92" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F92" t="n">
-        <v>1238.6304</v>
+        <v>94.98690000000001</v>
       </c>
       <c r="G92" t="n">
-        <v>-15161.9419</v>
+        <v>-39787.30089999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3607,33 +3922,40 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>378</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C93" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D93" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E93" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F93" t="n">
-        <v>2719.6565</v>
+        <v>1495.4467</v>
       </c>
       <c r="G93" t="n">
-        <v>-15161.9419</v>
+        <v>-41282.7476</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3642,11 +3964,18 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>378</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3665,10 +3994,10 @@
         <v>382</v>
       </c>
       <c r="F94" t="n">
-        <v>250</v>
+        <v>181.876</v>
       </c>
       <c r="G94" t="n">
-        <v>-15411.9419</v>
+        <v>-41282.7476</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3677,11 +4006,18 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>378</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3691,19 +4027,19 @@
         <v>382</v>
       </c>
       <c r="C95" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D95" t="n">
         <v>382</v>
       </c>
       <c r="E95" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F95" t="n">
-        <v>553.5099</v>
+        <v>1639.2004</v>
       </c>
       <c r="G95" t="n">
-        <v>-15965.4518</v>
+        <v>-41282.7476</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3712,33 +4048,40 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>378</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C96" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D96" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E96" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F96" t="n">
-        <v>791.5972</v>
+        <v>1451.0769</v>
       </c>
       <c r="G96" t="n">
-        <v>-15965.4518</v>
+        <v>-41282.7476</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3747,33 +4090,40 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>378</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C97" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D97" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E97" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F97" t="n">
-        <v>758.5996</v>
+        <v>87.9999</v>
       </c>
       <c r="G97" t="n">
-        <v>-15965.4518</v>
+        <v>-41282.7476</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3782,103 +4132,128 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>378</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C98" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D98" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E98" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F98" t="n">
-        <v>2137.0784</v>
+        <v>629.9861</v>
       </c>
       <c r="G98" t="n">
-        <v>-15965.4518</v>
+        <v>-40652.76149999999</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>382</v>
+      </c>
+      <c r="K98" t="n">
+        <v>378</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C99" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D99" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E99" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F99" t="n">
-        <v>1483.6801</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>-17449.1319</v>
+        <v>-40651.76149999999</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>384</v>
+      </c>
+      <c r="K99" t="n">
+        <v>378</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C100" t="n">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="D100" t="n">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="E100" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F100" t="n">
-        <v>172</v>
+        <v>904.0697</v>
       </c>
       <c r="G100" t="n">
-        <v>-17449.1319</v>
+        <v>-39747.69179999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3887,33 +4262,40 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>378</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C101" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D101" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="E101" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F101" t="n">
-        <v>47.88</v>
+        <v>6628.5442</v>
       </c>
       <c r="G101" t="n">
-        <v>-17497.0119</v>
+        <v>-46376.23599999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3922,33 +4304,40 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>378</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C102" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D102" t="n">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E102" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F102" t="n">
-        <v>3959.5187</v>
+        <v>473</v>
       </c>
       <c r="G102" t="n">
-        <v>-21456.5306</v>
+        <v>-45903.23599999999</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3957,33 +4346,40 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>378</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C103" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D103" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E103" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F103" t="n">
-        <v>194.6791</v>
+        <v>50</v>
       </c>
       <c r="G103" t="n">
-        <v>-21261.8515</v>
+        <v>-45903.23599999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,33 +4388,40 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>378</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C104" t="n">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D104" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E104" t="n">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="F104" t="n">
-        <v>4326.599</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
-        <v>-25588.4505</v>
+        <v>-46103.23599999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,33 +4430,40 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>378</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="C105" t="n">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="D105" t="n">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="E105" t="n">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="F105" t="n">
-        <v>7614.5152</v>
+        <v>50</v>
       </c>
       <c r="G105" t="n">
-        <v>-33202.9657</v>
+        <v>-46103.23599999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,33 +4472,40 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>378</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="C106" t="n">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D106" t="n">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="E106" t="n">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="F106" t="n">
-        <v>2571.4341</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>-30631.5316</v>
+        <v>-46102.23599999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4097,33 +4514,40 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>378</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="C107" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="D107" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="E107" t="n">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F107" t="n">
-        <v>5095.0063</v>
+        <v>50</v>
       </c>
       <c r="G107" t="n">
-        <v>-30631.5316</v>
+        <v>-46152.23599999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4132,33 +4556,40 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>378</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C108" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="D108" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="E108" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F108" t="n">
-        <v>119.2562</v>
+        <v>143.6356</v>
       </c>
       <c r="G108" t="n">
-        <v>-30631.5316</v>
+        <v>-46152.23599999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4167,72 +4598,82 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>378</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C109" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="D109" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="E109" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F109" t="n">
-        <v>850</v>
+        <v>3073.3927</v>
       </c>
       <c r="G109" t="n">
-        <v>-30631.5316</v>
+        <v>-46152.23599999999</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>376</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>376</v>
-      </c>
-      <c r="L109" t="inlineStr"/>
+        <v>378</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="C110" t="n">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="D110" t="n">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="E110" t="n">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="F110" t="n">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>-30850.5316</v>
+        <v>-46151.23599999999</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -4241,96 +4682,94 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="K110" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C111" t="n">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="D111" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="E111" t="n">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F111" t="n">
-        <v>4618.2676</v>
+        <v>741.0595</v>
       </c>
       <c r="G111" t="n">
-        <v>-35468.7992</v>
+        <v>-46892.29549999999</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>375</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="C112" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="D112" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="E112" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="F112" t="n">
-        <v>602.7495</v>
+        <v>772.645</v>
       </c>
       <c r="G112" t="n">
-        <v>-34866.0497</v>
+        <v>-46892.29549999999</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>371</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4340,28 +4779,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C113" t="n">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D113" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="E113" t="n">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="F113" t="n">
-        <v>435.2397</v>
+        <v>584</v>
       </c>
       <c r="G113" t="n">
-        <v>-34866.0497</v>
+        <v>-47476.29549999999</v>
       </c>
       <c r="H113" t="n">
         <v>1</v>
@@ -4370,10 +4810,10 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="K113" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4383,38 +4823,41 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="C114" t="n">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="D114" t="n">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="E114" t="n">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="F114" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>-34866.0497</v>
+        <v>-47475.29549999999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>381</v>
+      </c>
       <c r="K114" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4424,28 +4867,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C115" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D115" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E115" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="F115" t="n">
-        <v>1340.0994</v>
+        <v>50</v>
       </c>
       <c r="G115" t="n">
-        <v>-34866.0497</v>
+        <v>-47525.29549999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4455,7 +4899,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4465,28 +4909,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C116" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D116" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E116" t="n">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="F116" t="n">
-        <v>1051.5068</v>
+        <v>107</v>
       </c>
       <c r="G116" t="n">
-        <v>-33814.5429</v>
+        <v>-47525.29549999999</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4496,7 +4941,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4506,28 +4951,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C117" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D117" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="E117" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F117" t="n">
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>-33813.5429</v>
+        <v>-47524.29549999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4537,7 +4983,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4547,28 +4993,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C118" t="n">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D118" t="n">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="E118" t="n">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="F118" t="n">
-        <v>5497.9298</v>
+        <v>361.324</v>
       </c>
       <c r="G118" t="n">
-        <v>-39311.4727</v>
+        <v>-47885.61949999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4578,7 +5025,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4588,28 +5035,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C119" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D119" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="E119" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F119" t="n">
-        <v>185.3703</v>
+        <v>677.7653</v>
       </c>
       <c r="G119" t="n">
-        <v>-39126.1024</v>
+        <v>-48563.38479999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4619,7 +5067,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4629,28 +5077,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C120" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D120" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E120" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F120" t="n">
-        <v>845.3329</v>
+        <v>901.8095</v>
       </c>
       <c r="G120" t="n">
-        <v>-38280.76949999999</v>
+        <v>-48563.38479999999</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4660,7 +5109,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4670,28 +5119,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C121" t="n">
         <v>379</v>
       </c>
       <c r="D121" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E121" t="n">
         <v>379</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0001</v>
+        <v>11819.4389</v>
       </c>
       <c r="G121" t="n">
-        <v>-38280.76949999999</v>
+        <v>-60382.82369999999</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4701,7 +5151,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -4711,28 +5161,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C122" t="n">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="D122" t="n">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E122" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F122" t="n">
-        <v>175.3755</v>
+        <v>3067.324</v>
       </c>
       <c r="G122" t="n">
-        <v>-38105.39399999999</v>
+        <v>-57315.49969999999</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4742,7 +5193,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -4752,28 +5203,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C123" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D123" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="E123" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="F123" t="n">
-        <v>144.0144</v>
+        <v>102.2219</v>
       </c>
       <c r="G123" t="n">
-        <v>-38249.40839999999</v>
+        <v>-57417.72159999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4783,7 +5235,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -4793,28 +5245,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C124" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D124" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="E124" t="n">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="F124" t="n">
-        <v>15.26</v>
+        <v>771.1305123</v>
       </c>
       <c r="G124" t="n">
-        <v>-38249.40839999999</v>
+        <v>-56646.59108769999</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4824,7 +5277,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -4834,28 +5287,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="C125" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D125" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="E125" t="n">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="F125" t="n">
-        <v>50</v>
+        <v>513.07923076</v>
       </c>
       <c r="G125" t="n">
-        <v>-38199.40839999999</v>
+        <v>-56646.59108769999</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4865,7 +5319,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -4875,28 +5329,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C126" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D126" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E126" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F126" t="n">
-        <v>1517.4255</v>
+        <v>93.8383</v>
       </c>
       <c r="G126" t="n">
-        <v>-36681.9829</v>
+        <v>-56740.42938769999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4906,7 +5361,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -4916,28 +5371,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C127" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D127" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E127" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F127" t="n">
-        <v>2143</v>
+        <v>121</v>
       </c>
       <c r="G127" t="n">
-        <v>-38824.9829</v>
+        <v>-56740.42938769999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4947,7 +5403,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -4957,28 +5413,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C128" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D128" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E128" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F128" t="n">
-        <v>5</v>
+        <v>362.1</v>
       </c>
       <c r="G128" t="n">
-        <v>-38824.9829</v>
+        <v>-56378.3293877</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4988,7 +5445,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -4998,28 +5455,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C129" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D129" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E129" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F129" t="n">
-        <v>3720.2313</v>
+        <v>172</v>
       </c>
       <c r="G129" t="n">
-        <v>-38824.9829</v>
+        <v>-56378.3293877</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5029,7 +5487,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5039,28 +5497,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C130" t="n">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D130" t="n">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E130" t="n">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="F130" t="n">
-        <v>104.8</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>-38720.18289999999</v>
+        <v>-56377.3293877</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5070,7 +5529,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5080,28 +5539,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C131" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D131" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E131" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F131" t="n">
-        <v>152.5647</v>
+        <v>113.1531</v>
       </c>
       <c r="G131" t="n">
-        <v>-38567.61819999999</v>
+        <v>-56490.4824877</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5111,7 +5571,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5121,6 +5581,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5130,19 +5591,19 @@
         <v>386</v>
       </c>
       <c r="C132" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D132" t="n">
         <v>386</v>
       </c>
       <c r="E132" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F132" t="n">
-        <v>1125.6958</v>
+        <v>175.6196</v>
       </c>
       <c r="G132" t="n">
-        <v>-39693.31399999999</v>
+        <v>-56314.8628877</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5152,7 +5613,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5162,28 +5623,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C133" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D133" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E133" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>886.1368</v>
       </c>
       <c r="G133" t="n">
-        <v>-39692.31399999999</v>
+        <v>-57200.9996877</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5193,7 +5655,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5203,28 +5665,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C134" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D134" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E134" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F134" t="n">
-        <v>94.98690000000001</v>
+        <v>39.0873</v>
       </c>
       <c r="G134" t="n">
-        <v>-39787.30089999999</v>
+        <v>-57200.9996877</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5234,7 +5697,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5244,28 +5707,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C135" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D135" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E135" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F135" t="n">
-        <v>1495.4467</v>
+        <v>87.9466</v>
       </c>
       <c r="G135" t="n">
-        <v>-41282.7476</v>
+        <v>-57200.9996877</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5275,7 +5739,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5285,28 +5749,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C136" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D136" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E136" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F136" t="n">
-        <v>181.876</v>
+        <v>665</v>
       </c>
       <c r="G136" t="n">
-        <v>-41282.7476</v>
+        <v>-57200.9996877</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5316,7 +5781,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5326,28 +5791,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C137" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D137" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E137" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F137" t="n">
-        <v>1639.2004</v>
+        <v>237.9599</v>
       </c>
       <c r="G137" t="n">
-        <v>-41282.7476</v>
+        <v>-57200.9996877</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5357,7 +5823,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5367,28 +5833,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C138" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D138" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E138" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F138" t="n">
-        <v>1451.0769</v>
+        <v>1827.0045</v>
       </c>
       <c r="G138" t="n">
-        <v>-41282.7476</v>
+        <v>-57200.9996877</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5398,7 +5865,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5408,28 +5875,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C139" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D139" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E139" t="n">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F139" t="n">
-        <v>87.9999</v>
+        <v>1813.8379</v>
       </c>
       <c r="G139" t="n">
-        <v>-41282.7476</v>
+        <v>-59014.8375877</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5439,7 +5907,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5449,28 +5917,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C140" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D140" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E140" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F140" t="n">
-        <v>629.9861</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>-40652.76149999999</v>
+        <v>-59013.8375877</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5480,7 +5949,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5490,6 +5959,7 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5508,10 +5978,10 @@
         <v>385</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>190.4763</v>
       </c>
       <c r="G141" t="n">
-        <v>-40651.76149999999</v>
+        <v>-59013.8375877</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5521,7 +5991,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5531,6 +6001,7 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5540,19 +6011,19 @@
         <v>385</v>
       </c>
       <c r="C142" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D142" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E142" t="n">
         <v>385</v>
       </c>
       <c r="F142" t="n">
-        <v>904.0697</v>
+        <v>779.2207792200001</v>
       </c>
       <c r="G142" t="n">
-        <v>-39747.69179999999</v>
+        <v>-59013.8375877</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5562,7 +6033,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5572,28 +6043,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C143" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D143" t="n">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E143" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F143" t="n">
-        <v>6628.5442</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
-        <v>-46376.23599999999</v>
+        <v>-59015.8375877</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5603,7 +6075,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5613,28 +6085,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C144" t="n">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D144" t="n">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E144" t="n">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F144" t="n">
-        <v>473</v>
+        <v>9</v>
       </c>
       <c r="G144" t="n">
-        <v>-45903.23599999999</v>
+        <v>-59015.8375877</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5644,7 +6117,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5654,28 +6127,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C145" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D145" t="n">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E145" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F145" t="n">
-        <v>50</v>
+        <v>2244.3892</v>
       </c>
       <c r="G145" t="n">
-        <v>-45903.23599999999</v>
+        <v>-61260.2267877</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5685,7 +6159,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5695,28 +6169,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C146" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D146" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E146" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F146" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>-46103.23599999999</v>
+        <v>-61259.2267877</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5726,7 +6201,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5736,28 +6211,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C147" t="n">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D147" t="n">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E147" t="n">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F147" t="n">
-        <v>50</v>
+        <v>184.8517</v>
       </c>
       <c r="G147" t="n">
-        <v>-46103.23599999999</v>
+        <v>-61444.0784877</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5767,7 +6243,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5777,28 +6253,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C148" t="n">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D148" t="n">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="E148" t="n">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>77.7587</v>
       </c>
       <c r="G148" t="n">
-        <v>-46102.23599999999</v>
+        <v>-61444.0784877</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5808,7 +6285,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5818,28 +6295,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C149" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D149" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E149" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F149" t="n">
-        <v>50</v>
+        <v>2085.1828</v>
       </c>
       <c r="G149" t="n">
-        <v>-46152.23599999999</v>
+        <v>-63529.2612877</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5849,7 +6327,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5859,28 +6337,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C150" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D150" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E150" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F150" t="n">
-        <v>143.6356</v>
+        <v>252.6449</v>
       </c>
       <c r="G150" t="n">
-        <v>-46152.23599999999</v>
+        <v>-63276.6163877</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5890,7 +6369,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -5900,28 +6379,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C151" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D151" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E151" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F151" t="n">
-        <v>3073.3927</v>
+        <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>-46152.23599999999</v>
+        <v>-63275.6163877</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5931,7 +6411,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -5941,1736 +6421,7 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>389</v>
-      </c>
-      <c r="C152" t="n">
-        <v>389</v>
-      </c>
-      <c r="D152" t="n">
-        <v>389</v>
-      </c>
-      <c r="E152" t="n">
-        <v>389</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-46151.23599999999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>376</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>384</v>
-      </c>
-      <c r="C153" t="n">
-        <v>384</v>
-      </c>
-      <c r="D153" t="n">
-        <v>384</v>
-      </c>
-      <c r="E153" t="n">
-        <v>384</v>
-      </c>
-      <c r="F153" t="n">
-        <v>741.0595</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-46892.29549999999</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>376</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>384</v>
-      </c>
-      <c r="C154" t="n">
-        <v>384</v>
-      </c>
-      <c r="D154" t="n">
-        <v>384</v>
-      </c>
-      <c r="E154" t="n">
-        <v>384</v>
-      </c>
-      <c r="F154" t="n">
-        <v>772.645</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-46892.29549999999</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>376</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>384</v>
-      </c>
-      <c r="C155" t="n">
-        <v>381</v>
-      </c>
-      <c r="D155" t="n">
-        <v>384</v>
-      </c>
-      <c r="E155" t="n">
-        <v>381</v>
-      </c>
-      <c r="F155" t="n">
-        <v>584</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-47476.29549999999</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>376</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>388</v>
-      </c>
-      <c r="C156" t="n">
-        <v>388</v>
-      </c>
-      <c r="D156" t="n">
-        <v>388</v>
-      </c>
-      <c r="E156" t="n">
-        <v>388</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-47475.29549999999</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>376</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>383</v>
-      </c>
-      <c r="C157" t="n">
-        <v>383</v>
-      </c>
-      <c r="D157" t="n">
-        <v>383</v>
-      </c>
-      <c r="E157" t="n">
-        <v>383</v>
-      </c>
-      <c r="F157" t="n">
-        <v>50</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-47525.29549999999</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>376</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>383</v>
-      </c>
-      <c r="C158" t="n">
-        <v>383</v>
-      </c>
-      <c r="D158" t="n">
-        <v>383</v>
-      </c>
-      <c r="E158" t="n">
-        <v>383</v>
-      </c>
-      <c r="F158" t="n">
-        <v>107</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-47525.29549999999</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>376</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>387</v>
-      </c>
-      <c r="C159" t="n">
-        <v>387</v>
-      </c>
-      <c r="D159" t="n">
-        <v>387</v>
-      </c>
-      <c r="E159" t="n">
-        <v>387</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-47524.29549999999</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>376</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>383</v>
-      </c>
-      <c r="C160" t="n">
-        <v>383</v>
-      </c>
-      <c r="D160" t="n">
-        <v>383</v>
-      </c>
-      <c r="E160" t="n">
-        <v>383</v>
-      </c>
-      <c r="F160" t="n">
-        <v>361.324</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-47885.61949999999</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>376</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>382</v>
-      </c>
-      <c r="C161" t="n">
-        <v>382</v>
-      </c>
-      <c r="D161" t="n">
-        <v>382</v>
-      </c>
-      <c r="E161" t="n">
-        <v>382</v>
-      </c>
-      <c r="F161" t="n">
-        <v>677.7653</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-48563.38479999999</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>376</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>382</v>
-      </c>
-      <c r="C162" t="n">
-        <v>382</v>
-      </c>
-      <c r="D162" t="n">
-        <v>382</v>
-      </c>
-      <c r="E162" t="n">
-        <v>382</v>
-      </c>
-      <c r="F162" t="n">
-        <v>901.8095</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-48563.38479999999</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>376</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>382</v>
-      </c>
-      <c r="C163" t="n">
-        <v>379</v>
-      </c>
-      <c r="D163" t="n">
-        <v>382</v>
-      </c>
-      <c r="E163" t="n">
-        <v>379</v>
-      </c>
-      <c r="F163" t="n">
-        <v>11819.4389</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-60382.82369999999</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>376</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>385</v>
-      </c>
-      <c r="C164" t="n">
-        <v>389</v>
-      </c>
-      <c r="D164" t="n">
-        <v>389</v>
-      </c>
-      <c r="E164" t="n">
-        <v>385</v>
-      </c>
-      <c r="F164" t="n">
-        <v>3067.324</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-57315.49969999999</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>376</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>385</v>
-      </c>
-      <c r="C165" t="n">
-        <v>385</v>
-      </c>
-      <c r="D165" t="n">
-        <v>385</v>
-      </c>
-      <c r="E165" t="n">
-        <v>385</v>
-      </c>
-      <c r="F165" t="n">
-        <v>102.2219</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-57417.72159999999</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>376</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>388</v>
-      </c>
-      <c r="C166" t="n">
-        <v>390</v>
-      </c>
-      <c r="D166" t="n">
-        <v>390</v>
-      </c>
-      <c r="E166" t="n">
-        <v>388</v>
-      </c>
-      <c r="F166" t="n">
-        <v>771.1305123</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-56646.59108769999</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>376</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>389</v>
-      </c>
-      <c r="C167" t="n">
-        <v>390</v>
-      </c>
-      <c r="D167" t="n">
-        <v>390</v>
-      </c>
-      <c r="E167" t="n">
-        <v>389</v>
-      </c>
-      <c r="F167" t="n">
-        <v>513.07923076</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-56646.59108769999</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>376</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>385</v>
-      </c>
-      <c r="C168" t="n">
-        <v>385</v>
-      </c>
-      <c r="D168" t="n">
-        <v>385</v>
-      </c>
-      <c r="E168" t="n">
-        <v>385</v>
-      </c>
-      <c r="F168" t="n">
-        <v>93.8383</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-56740.42938769999</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>376</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>385</v>
-      </c>
-      <c r="C169" t="n">
-        <v>385</v>
-      </c>
-      <c r="D169" t="n">
-        <v>385</v>
-      </c>
-      <c r="E169" t="n">
-        <v>385</v>
-      </c>
-      <c r="F169" t="n">
-        <v>121</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-56740.42938769999</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>376</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>386</v>
-      </c>
-      <c r="C170" t="n">
-        <v>386</v>
-      </c>
-      <c r="D170" t="n">
-        <v>386</v>
-      </c>
-      <c r="E170" t="n">
-        <v>385</v>
-      </c>
-      <c r="F170" t="n">
-        <v>362.1</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-56378.3293877</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>376</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>386</v>
-      </c>
-      <c r="C171" t="n">
-        <v>386</v>
-      </c>
-      <c r="D171" t="n">
-        <v>386</v>
-      </c>
-      <c r="E171" t="n">
-        <v>386</v>
-      </c>
-      <c r="F171" t="n">
-        <v>172</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-56378.3293877</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>376</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>389</v>
-      </c>
-      <c r="C172" t="n">
-        <v>389</v>
-      </c>
-      <c r="D172" t="n">
-        <v>389</v>
-      </c>
-      <c r="E172" t="n">
-        <v>389</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-56377.3293877</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>376</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>385</v>
-      </c>
-      <c r="C173" t="n">
-        <v>385</v>
-      </c>
-      <c r="D173" t="n">
-        <v>385</v>
-      </c>
-      <c r="E173" t="n">
-        <v>385</v>
-      </c>
-      <c r="F173" t="n">
-        <v>113.1531</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-56490.4824877</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>376</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>386</v>
-      </c>
-      <c r="C174" t="n">
-        <v>386</v>
-      </c>
-      <c r="D174" t="n">
-        <v>386</v>
-      </c>
-      <c r="E174" t="n">
-        <v>386</v>
-      </c>
-      <c r="F174" t="n">
-        <v>175.6196</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-56314.8628877</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>376</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>385</v>
-      </c>
-      <c r="C175" t="n">
-        <v>385</v>
-      </c>
-      <c r="D175" t="n">
-        <v>385</v>
-      </c>
-      <c r="E175" t="n">
-        <v>385</v>
-      </c>
-      <c r="F175" t="n">
-        <v>886.1368</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-57200.9996877</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>376</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>385</v>
-      </c>
-      <c r="C176" t="n">
-        <v>385</v>
-      </c>
-      <c r="D176" t="n">
-        <v>385</v>
-      </c>
-      <c r="E176" t="n">
-        <v>385</v>
-      </c>
-      <c r="F176" t="n">
-        <v>39.0873</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-57200.9996877</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>376</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>385</v>
-      </c>
-      <c r="C177" t="n">
-        <v>385</v>
-      </c>
-      <c r="D177" t="n">
-        <v>385</v>
-      </c>
-      <c r="E177" t="n">
-        <v>385</v>
-      </c>
-      <c r="F177" t="n">
-        <v>87.9466</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-57200.9996877</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>376</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>385</v>
-      </c>
-      <c r="C178" t="n">
-        <v>385</v>
-      </c>
-      <c r="D178" t="n">
-        <v>385</v>
-      </c>
-      <c r="E178" t="n">
-        <v>385</v>
-      </c>
-      <c r="F178" t="n">
-        <v>665</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-57200.9996877</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>376</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>385</v>
-      </c>
-      <c r="C179" t="n">
-        <v>385</v>
-      </c>
-      <c r="D179" t="n">
-        <v>385</v>
-      </c>
-      <c r="E179" t="n">
-        <v>385</v>
-      </c>
-      <c r="F179" t="n">
-        <v>237.9599</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-57200.9996877</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>376</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>385</v>
-      </c>
-      <c r="C180" t="n">
-        <v>385</v>
-      </c>
-      <c r="D180" t="n">
-        <v>385</v>
-      </c>
-      <c r="E180" t="n">
-        <v>385</v>
-      </c>
-      <c r="F180" t="n">
-        <v>1827.0045</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-57200.9996877</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>376</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>384</v>
-      </c>
-      <c r="C181" t="n">
-        <v>384</v>
-      </c>
-      <c r="D181" t="n">
-        <v>384</v>
-      </c>
-      <c r="E181" t="n">
-        <v>380</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1813.8379</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-59014.8375877</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>376</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>384</v>
-      </c>
-      <c r="C182" t="n">
-        <v>385</v>
-      </c>
-      <c r="D182" t="n">
-        <v>385</v>
-      </c>
-      <c r="E182" t="n">
-        <v>384</v>
-      </c>
-      <c r="F182" t="n">
-        <v>1</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-59013.8375877</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>376</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>385</v>
-      </c>
-      <c r="C183" t="n">
-        <v>385</v>
-      </c>
-      <c r="D183" t="n">
-        <v>385</v>
-      </c>
-      <c r="E183" t="n">
-        <v>385</v>
-      </c>
-      <c r="F183" t="n">
-        <v>190.4763</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-59013.8375877</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>376</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>385</v>
-      </c>
-      <c r="C184" t="n">
-        <v>385</v>
-      </c>
-      <c r="D184" t="n">
-        <v>385</v>
-      </c>
-      <c r="E184" t="n">
-        <v>385</v>
-      </c>
-      <c r="F184" t="n">
-        <v>779.2207792200001</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-59013.8375877</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>376</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>385</v>
-      </c>
-      <c r="C185" t="n">
-        <v>380</v>
-      </c>
-      <c r="D185" t="n">
-        <v>385</v>
-      </c>
-      <c r="E185" t="n">
-        <v>380</v>
-      </c>
-      <c r="F185" t="n">
-        <v>2</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-59015.8375877</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>376</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>380</v>
-      </c>
-      <c r="C186" t="n">
-        <v>380</v>
-      </c>
-      <c r="D186" t="n">
-        <v>380</v>
-      </c>
-      <c r="E186" t="n">
-        <v>380</v>
-      </c>
-      <c r="F186" t="n">
-        <v>9</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-59015.8375877</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>376</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>380</v>
-      </c>
-      <c r="C187" t="n">
-        <v>379</v>
-      </c>
-      <c r="D187" t="n">
-        <v>380</v>
-      </c>
-      <c r="E187" t="n">
-        <v>379</v>
-      </c>
-      <c r="F187" t="n">
-        <v>2244.3892</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-61260.2267877</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>376</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>384</v>
-      </c>
-      <c r="C188" t="n">
-        <v>384</v>
-      </c>
-      <c r="D188" t="n">
-        <v>384</v>
-      </c>
-      <c r="E188" t="n">
-        <v>384</v>
-      </c>
-      <c r="F188" t="n">
-        <v>1</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-61259.2267877</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>376</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>380</v>
-      </c>
-      <c r="C189" t="n">
-        <v>380</v>
-      </c>
-      <c r="D189" t="n">
-        <v>380</v>
-      </c>
-      <c r="E189" t="n">
-        <v>380</v>
-      </c>
-      <c r="F189" t="n">
-        <v>184.8517</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-61444.0784877</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="n">
-        <v>384</v>
-      </c>
-      <c r="K189" t="n">
-        <v>376</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>380</v>
-      </c>
-      <c r="C190" t="n">
-        <v>380</v>
-      </c>
-      <c r="D190" t="n">
-        <v>380</v>
-      </c>
-      <c r="E190" t="n">
-        <v>380</v>
-      </c>
-      <c r="F190" t="n">
-        <v>77.7587</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-61444.0784877</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>376</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>380</v>
-      </c>
-      <c r="C191" t="n">
-        <v>379</v>
-      </c>
-      <c r="D191" t="n">
-        <v>380</v>
-      </c>
-      <c r="E191" t="n">
-        <v>379</v>
-      </c>
-      <c r="F191" t="n">
-        <v>2085.1828</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-63529.2612877</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
-        <v>380</v>
-      </c>
-      <c r="K191" t="n">
-        <v>376</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>380</v>
-      </c>
-      <c r="C192" t="n">
-        <v>380</v>
-      </c>
-      <c r="D192" t="n">
-        <v>380</v>
-      </c>
-      <c r="E192" t="n">
-        <v>380</v>
-      </c>
-      <c r="F192" t="n">
-        <v>252.6449</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-63276.6163877</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>379</v>
-      </c>
-      <c r="K192" t="n">
-        <v>376</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>383</v>
-      </c>
-      <c r="C193" t="n">
-        <v>383</v>
-      </c>
-      <c r="D193" t="n">
-        <v>383</v>
-      </c>
-      <c r="E193" t="n">
-        <v>383</v>
-      </c>
-      <c r="F193" t="n">
-        <v>1</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-63275.6163877</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
-        <v>380</v>
-      </c>
-      <c r="K193" t="n">
-        <v>376</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
+      <c r="N151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-01 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:N222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="C2" t="n">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="D2" t="n">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="E2" t="n">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="F2" t="n">
-        <v>975.4</v>
+        <v>4399.946</v>
       </c>
       <c r="G2" t="n">
-        <v>-12126.4135</v>
+        <v>19611.3131</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C3" t="n">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="D3" t="n">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="E3" t="n">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="F3" t="n">
-        <v>3.9577</v>
+        <v>88.76009999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>-12126.4135</v>
+        <v>19522.553</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="C4" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D4" t="n">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="E4" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="F4" t="n">
-        <v>105.1197</v>
+        <v>116.2017</v>
       </c>
       <c r="G4" t="n">
-        <v>-12126.4135</v>
+        <v>19406.3513</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="C5" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D5" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="E5" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="F5" t="n">
-        <v>458.999</v>
+        <v>1100.8162</v>
       </c>
       <c r="G5" t="n">
-        <v>-12126.4135</v>
+        <v>19406.3513</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="C6" t="n">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="D6" t="n">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="E6" t="n">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="F6" t="n">
-        <v>15.7205</v>
+        <v>305.7725</v>
       </c>
       <c r="G6" t="n">
-        <v>-12142.134</v>
+        <v>19406.3513</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="C7" t="n">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="D7" t="n">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="E7" t="n">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="F7" t="n">
-        <v>191.4076</v>
+        <v>111.8528</v>
       </c>
       <c r="G7" t="n">
-        <v>-12142.134</v>
+        <v>19406.3513</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C8" t="n">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D8" t="n">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="E8" t="n">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="F8" t="n">
-        <v>5.0234</v>
+        <v>8.236599999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>-12137.1106</v>
+        <v>19414.5879</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C9" t="n">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D9" t="n">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="E9" t="n">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="F9" t="n">
-        <v>290.8485</v>
+        <v>765.3061</v>
       </c>
       <c r="G9" t="n">
-        <v>-12137.1106</v>
+        <v>19414.5879</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C10" t="n">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D10" t="n">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="E10" t="n">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="F10" t="n">
-        <v>100.5074</v>
+        <v>1.9565</v>
       </c>
       <c r="G10" t="n">
-        <v>-12237.618</v>
+        <v>19414.5879</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C11" t="n">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="D11" t="n">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="E11" t="n">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="F11" t="n">
-        <v>711.4083000000001</v>
+        <v>111.0916</v>
       </c>
       <c r="G11" t="n">
-        <v>-11526.2097</v>
+        <v>19414.5879</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C12" t="n">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="D12" t="n">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="E12" t="n">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F12" t="n">
-        <v>2982.057</v>
+        <v>660.5671</v>
       </c>
       <c r="G12" t="n">
-        <v>-14508.2667</v>
+        <v>18754.0208</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C13" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D13" t="n">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="E13" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F13" t="n">
-        <v>1397.5194</v>
+        <v>1741.9613</v>
       </c>
       <c r="G13" t="n">
-        <v>-15905.7861</v>
+        <v>18754.0208</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="C14" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D14" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="E14" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="F14" t="n">
-        <v>6426.259</v>
+        <v>2026.8931</v>
       </c>
       <c r="G14" t="n">
-        <v>-22332.0451</v>
+        <v>18754.0208</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C15" t="n">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="D15" t="n">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E15" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>3128.4181</v>
       </c>
       <c r="G15" t="n">
-        <v>-22311.0451</v>
+        <v>21882.4389</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="C16" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D16" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="E16" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="F16" t="n">
-        <v>141.8777</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>-22452.9228</v>
+        <v>21879.4389</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C17" t="n">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="D17" t="n">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="E17" t="n">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F17" t="n">
-        <v>1217.8346</v>
+        <v>634.4774</v>
       </c>
       <c r="G17" t="n">
-        <v>-21235.0882</v>
+        <v>21879.4389</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C18" t="n">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D18" t="n">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E18" t="n">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G18" t="n">
-        <v>-21234.0882</v>
+        <v>21879.4389</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C19" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D19" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E19" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>116.2018</v>
       </c>
       <c r="G19" t="n">
-        <v>-21233.0882</v>
+        <v>21879.4389</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C20" t="n">
         <v>383</v>
       </c>
       <c r="D20" t="n">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E20" t="n">
         <v>383</v>
       </c>
       <c r="F20" t="n">
-        <v>334.3517</v>
+        <v>38377.3341</v>
       </c>
       <c r="G20" t="n">
-        <v>-21567.4399</v>
+        <v>-16497.8952</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C21" t="n">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D21" t="n">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="E21" t="n">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F21" t="n">
-        <v>28.7958</v>
+        <v>12000.889</v>
       </c>
       <c r="G21" t="n">
-        <v>-21596.2357</v>
+        <v>-28498.7842</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C22" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D22" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E22" t="n">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F22" t="n">
-        <v>3304.8757</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>-18291.36</v>
+        <v>-28497.7842</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C23" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D23" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E23" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F23" t="n">
-        <v>141.8731</v>
+        <v>171.921</v>
       </c>
       <c r="G23" t="n">
-        <v>-18291.36</v>
+        <v>-28669.7052</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C24" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D24" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E24" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>6356.4388</v>
       </c>
       <c r="G24" t="n">
-        <v>-18290.36</v>
+        <v>-22313.2664</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C25" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D25" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E25" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F25" t="n">
-        <v>438.8892</v>
+        <v>2758.5271</v>
       </c>
       <c r="G25" t="n">
-        <v>-17851.4708</v>
+        <v>-22313.2664</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C26" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D26" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E26" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F26" t="n">
-        <v>719.7364</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>-18571.2072</v>
+        <v>-22312.2664</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C27" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D27" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E27" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>796.4319</v>
       </c>
       <c r="G27" t="n">
-        <v>-18570.2072</v>
+        <v>-23108.6983</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C28" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D28" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E28" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F28" t="n">
-        <v>2649.652</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>-15920.5552</v>
+        <v>-23107.6983</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C29" t="n">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D29" t="n">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E29" t="n">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>2557.0369</v>
       </c>
       <c r="G29" t="n">
-        <v>-15919.5552</v>
+        <v>-25664.7352</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1449,25 +1449,25 @@
         <v>385</v>
       </c>
       <c r="C30" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D30" t="n">
         <v>385</v>
       </c>
       <c r="E30" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F30" t="n">
-        <v>79.9956</v>
+        <v>509.416</v>
       </c>
       <c r="G30" t="n">
-        <v>-15999.5508</v>
+        <v>-25664.7352</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C31" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D31" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E31" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F31" t="n">
-        <v>78.9956</v>
+        <v>990.3688</v>
       </c>
       <c r="G31" t="n">
-        <v>-15999.5508</v>
+        <v>-24674.3664</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>386</v>
       </c>
       <c r="F32" t="n">
-        <v>81.1198</v>
+        <v>176.1019</v>
       </c>
       <c r="G32" t="n">
-        <v>-15918.431</v>
+        <v>-24674.3664</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C33" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D33" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E33" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F33" t="n">
-        <v>111</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>-15918.431</v>
+        <v>-24599.2664</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C34" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D34" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E34" t="n">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F34" t="n">
-        <v>190.7905</v>
+        <v>9080.6589</v>
       </c>
       <c r="G34" t="n">
-        <v>-15918.431</v>
+        <v>-15518.6075</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C35" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D35" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E35" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F35" t="n">
-        <v>202.0446</v>
+        <v>38.8506</v>
       </c>
       <c r="G35" t="n">
-        <v>-15918.431</v>
+        <v>-15557.4581</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1665,19 +1665,19 @@
         <v>387</v>
       </c>
       <c r="C36" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D36" t="n">
         <v>387</v>
       </c>
       <c r="E36" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F36" t="n">
-        <v>3190.3222</v>
+        <v>428.0889</v>
       </c>
       <c r="G36" t="n">
-        <v>-12728.1088</v>
+        <v>-15985.547</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C37" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D37" t="n">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E37" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F37" t="n">
-        <v>969.4112</v>
+        <v>749.9384</v>
       </c>
       <c r="G37" t="n">
-        <v>-13697.52</v>
+        <v>-15235.6086</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C38" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D38" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E38" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F38" t="n">
-        <v>1719.1588</v>
+        <v>5</v>
       </c>
       <c r="G38" t="n">
-        <v>-13697.52</v>
+        <v>-15230.6086</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,28 +1770,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C39" t="n">
         <v>386</v>
       </c>
       <c r="D39" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E39" t="n">
         <v>386</v>
       </c>
       <c r="F39" t="n">
-        <v>1231.327</v>
+        <v>288.0288</v>
       </c>
       <c r="G39" t="n">
-        <v>-13697.52</v>
+        <v>-15518.6374</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1809,19 +1809,19 @@
         <v>386</v>
       </c>
       <c r="C40" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D40" t="n">
         <v>386</v>
       </c>
       <c r="E40" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F40" t="n">
-        <v>192.1819</v>
+        <v>9057.957200000001</v>
       </c>
       <c r="G40" t="n">
-        <v>-13697.52</v>
+        <v>-24576.5946</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C41" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D41" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E41" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F41" t="n">
-        <v>871.0154</v>
+        <v>359.5984</v>
       </c>
       <c r="G41" t="n">
-        <v>-13697.52</v>
+        <v>-24216.9962</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C42" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D42" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E42" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F42" t="n">
-        <v>183.0677</v>
+        <v>79.8613</v>
       </c>
       <c r="G42" t="n">
-        <v>-13880.5877</v>
+        <v>-24296.8575</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C43" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D43" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E43" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F43" t="n">
-        <v>521.0388</v>
+        <v>8770.885200000001</v>
       </c>
       <c r="G43" t="n">
-        <v>-13880.5877</v>
+        <v>-15525.9723</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C44" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D44" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E44" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F44" t="n">
-        <v>1281.3542</v>
+        <v>1544.0144</v>
       </c>
       <c r="G44" t="n">
-        <v>-15161.9419</v>
+        <v>-15525.9723</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C45" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D45" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E45" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F45" t="n">
-        <v>2206.7819</v>
+        <v>252.1107</v>
       </c>
       <c r="G45" t="n">
-        <v>-15161.9419</v>
+        <v>-15525.9723</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C46" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D46" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E46" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F46" t="n">
-        <v>298.6472</v>
+        <v>2264.4564</v>
       </c>
       <c r="G46" t="n">
-        <v>-15161.9419</v>
+        <v>-13261.5159</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C47" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D47" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E47" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F47" t="n">
-        <v>559.7453</v>
+        <v>105.7174</v>
       </c>
       <c r="G47" t="n">
-        <v>-15161.9419</v>
+        <v>-13367.2333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C48" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D48" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E48" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F48" t="n">
-        <v>7437.4468</v>
+        <v>867.7173</v>
       </c>
       <c r="G48" t="n">
-        <v>-15161.9419</v>
+        <v>-13367.2333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C49" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D49" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E49" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F49" t="n">
-        <v>77</v>
+        <v>185.4526</v>
       </c>
       <c r="G49" t="n">
-        <v>-15161.9419</v>
+        <v>-13367.2333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C50" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D50" t="n">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E50" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F50" t="n">
-        <v>1238.6304</v>
+        <v>104.6968</v>
       </c>
       <c r="G50" t="n">
-        <v>-15161.9419</v>
+        <v>-13367.2333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C51" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D51" t="n">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E51" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F51" t="n">
-        <v>2719.6565</v>
+        <v>3287.7702</v>
       </c>
       <c r="G51" t="n">
-        <v>-15161.9419</v>
+        <v>-10079.4631</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C52" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D52" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="E52" t="n">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F52" t="n">
-        <v>250</v>
+        <v>118.9566</v>
       </c>
       <c r="G52" t="n">
-        <v>-15411.9419</v>
+        <v>-9960.506500000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C53" t="n">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="D53" t="n">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="E53" t="n">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="F53" t="n">
-        <v>553.5099</v>
+        <v>339.3271</v>
       </c>
       <c r="G53" t="n">
-        <v>-15965.4518</v>
+        <v>-9621.179400000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C54" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D54" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E54" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F54" t="n">
-        <v>791.5972</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>-15965.4518</v>
+        <v>-9622.179400000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C55" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D55" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="E55" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F55" t="n">
-        <v>758.5996</v>
+        <v>6.2542</v>
       </c>
       <c r="G55" t="n">
-        <v>-15965.4518</v>
+        <v>-9622.179400000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C56" t="n">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="D56" t="n">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="E56" t="n">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="F56" t="n">
-        <v>2137.0784</v>
+        <v>166.255</v>
       </c>
       <c r="G56" t="n">
-        <v>-15965.4518</v>
+        <v>-9455.924400000002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C57" t="n">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="D57" t="n">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="E57" t="n">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="F57" t="n">
-        <v>1483.6801</v>
+        <v>373.5907</v>
       </c>
       <c r="G57" t="n">
-        <v>-17449.1319</v>
+        <v>-9455.924400000002</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C58" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D58" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="E58" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F58" t="n">
-        <v>172</v>
+        <v>7580.6984</v>
       </c>
       <c r="G58" t="n">
-        <v>-17449.1319</v>
+        <v>-1875.226000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C59" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D59" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="E59" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="F59" t="n">
-        <v>47.88</v>
+        <v>1677.36</v>
       </c>
       <c r="G59" t="n">
-        <v>-17497.0119</v>
+        <v>-3552.586000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C60" t="n">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="D60" t="n">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E60" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F60" t="n">
-        <v>3959.5187</v>
+        <v>100</v>
       </c>
       <c r="G60" t="n">
-        <v>-21456.5306</v>
+        <v>-3452.586000000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,35 +2562,31 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C61" t="n">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="D61" t="n">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="E61" t="n">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="F61" t="n">
-        <v>194.6791</v>
+        <v>964.2789</v>
       </c>
       <c r="G61" t="n">
-        <v>-21261.8515</v>
+        <v>-3452.586000000001</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>378</v>
-      </c>
-      <c r="K61" t="n">
-        <v>378</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
@@ -2602,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C62" t="n">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="D62" t="n">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E62" t="n">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="F62" t="n">
-        <v>4326.599</v>
+        <v>1755.5521</v>
       </c>
       <c r="G62" t="n">
-        <v>-25588.4505</v>
+        <v>-3452.586000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2626,14 +2622,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>378</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2644,40 +2634,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C63" t="n">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="D63" t="n">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="E63" t="n">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="F63" t="n">
-        <v>7614.5152</v>
+        <v>1143.6393</v>
       </c>
       <c r="G63" t="n">
-        <v>-33202.9657</v>
+        <v>-3452.586000000001</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>376</v>
-      </c>
-      <c r="K63" t="n">
-        <v>378</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2688,40 +2670,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="C64" t="n">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="D64" t="n">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="E64" t="n">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="F64" t="n">
-        <v>2571.4341</v>
+        <v>4203</v>
       </c>
       <c r="G64" t="n">
-        <v>-30631.5316</v>
+        <v>-3452.586000000001</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>374</v>
-      </c>
-      <c r="K64" t="n">
-        <v>378</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2732,40 +2706,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="C65" t="n">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="D65" t="n">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="E65" t="n">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="F65" t="n">
-        <v>5095.0063</v>
+        <v>50</v>
       </c>
       <c r="G65" t="n">
-        <v>-30631.5316</v>
+        <v>-3452.586000000001</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>376</v>
-      </c>
-      <c r="K65" t="n">
-        <v>378</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2776,40 +2742,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C66" t="n">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="D66" t="n">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="E66" t="n">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="F66" t="n">
-        <v>119.2562</v>
+        <v>648</v>
       </c>
       <c r="G66" t="n">
-        <v>-30631.5316</v>
+        <v>-3452.586000000001</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>376</v>
-      </c>
-      <c r="K66" t="n">
-        <v>378</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2820,40 +2778,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="C67" t="n">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="D67" t="n">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="E67" t="n">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="F67" t="n">
-        <v>850</v>
+        <v>5.9085</v>
       </c>
       <c r="G67" t="n">
-        <v>-30631.5316</v>
+        <v>-3446.677500000001</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>376</v>
-      </c>
-      <c r="K67" t="n">
-        <v>378</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2864,40 +2814,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C68" t="n">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="D68" t="n">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="E68" t="n">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="F68" t="n">
-        <v>219</v>
+        <v>2112.1218</v>
       </c>
       <c r="G68" t="n">
-        <v>-30850.5316</v>
+        <v>-5558.799300000001</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>376</v>
-      </c>
-      <c r="K68" t="n">
-        <v>378</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2908,40 +2850,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C69" t="n">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="D69" t="n">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="E69" t="n">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="F69" t="n">
-        <v>4618.2676</v>
+        <v>5249.0079</v>
       </c>
       <c r="G69" t="n">
-        <v>-35468.7992</v>
+        <v>-10807.8072</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>375</v>
-      </c>
-      <c r="K69" t="n">
-        <v>378</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2952,40 +2886,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="C70" t="n">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D70" t="n">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="E70" t="n">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="F70" t="n">
-        <v>602.7495</v>
+        <v>2.9689</v>
       </c>
       <c r="G70" t="n">
-        <v>-34866.0497</v>
+        <v>-10804.8383</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>371</v>
-      </c>
-      <c r="K70" t="n">
-        <v>378</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2996,40 +2922,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C71" t="n">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D71" t="n">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="E71" t="n">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="F71" t="n">
-        <v>435.2397</v>
+        <v>2.9248</v>
       </c>
       <c r="G71" t="n">
-        <v>-34866.0497</v>
+        <v>-10804.8383</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>376</v>
-      </c>
-      <c r="K71" t="n">
-        <v>378</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3040,40 +2958,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="C72" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D72" t="n">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="E72" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>346.1752</v>
       </c>
       <c r="G72" t="n">
-        <v>-34866.0497</v>
+        <v>-11151.0135</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>376</v>
-      </c>
-      <c r="K72" t="n">
-        <v>378</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3084,40 +2994,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C73" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D73" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="E73" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F73" t="n">
-        <v>1340.0994</v>
+        <v>975.4</v>
       </c>
       <c r="G73" t="n">
-        <v>-34866.0497</v>
+        <v>-12126.4135</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>376</v>
-      </c>
-      <c r="K73" t="n">
-        <v>378</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3030,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C74" t="n">
         <v>379</v>
@@ -3137,31 +3039,23 @@
         <v>379</v>
       </c>
       <c r="E74" t="n">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="F74" t="n">
-        <v>1051.5068</v>
+        <v>3.9577</v>
       </c>
       <c r="G74" t="n">
-        <v>-33814.5429</v>
+        <v>-12126.4135</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>376</v>
-      </c>
-      <c r="K74" t="n">
-        <v>378</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3172,40 +3066,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C75" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D75" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E75" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>105.1197</v>
       </c>
       <c r="G75" t="n">
-        <v>-33813.5429</v>
+        <v>-12126.4135</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>379</v>
-      </c>
-      <c r="K75" t="n">
-        <v>378</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3216,40 +3102,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C76" t="n">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D76" t="n">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="E76" t="n">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F76" t="n">
-        <v>5497.9298</v>
+        <v>458.999</v>
       </c>
       <c r="G76" t="n">
-        <v>-39311.4727</v>
+        <v>-12126.4135</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>381</v>
-      </c>
-      <c r="K76" t="n">
-        <v>378</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3260,40 +3138,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C77" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D77" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E77" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F77" t="n">
-        <v>185.3703</v>
+        <v>15.7205</v>
       </c>
       <c r="G77" t="n">
-        <v>-39126.1024</v>
+        <v>-12142.134</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>373</v>
-      </c>
-      <c r="K77" t="n">
-        <v>378</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3304,40 +3174,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C78" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D78" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E78" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F78" t="n">
-        <v>845.3329</v>
+        <v>191.4076</v>
       </c>
       <c r="G78" t="n">
-        <v>-38280.76949999999</v>
+        <v>-12142.134</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>376</v>
-      </c>
-      <c r="K78" t="n">
-        <v>378</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3348,40 +3210,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C79" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D79" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="E79" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0001</v>
+        <v>5.0234</v>
       </c>
       <c r="G79" t="n">
-        <v>-38280.76949999999</v>
+        <v>-12137.1106</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>379</v>
-      </c>
-      <c r="K79" t="n">
-        <v>378</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3392,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C80" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D80" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E80" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F80" t="n">
-        <v>175.3755</v>
+        <v>290.8485</v>
       </c>
       <c r="G80" t="n">
-        <v>-38105.39399999999</v>
+        <v>-12137.1106</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3416,14 +3270,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>378</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3434,40 +3282,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C81" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D81" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E81" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F81" t="n">
-        <v>144.0144</v>
+        <v>100.5074</v>
       </c>
       <c r="G81" t="n">
-        <v>-38249.40839999999</v>
+        <v>-12237.618</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>380</v>
-      </c>
-      <c r="K81" t="n">
-        <v>378</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C82" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D82" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E82" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F82" t="n">
-        <v>15.26</v>
+        <v>711.4083000000001</v>
       </c>
       <c r="G82" t="n">
-        <v>-38249.40839999999</v>
+        <v>-11526.2097</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3502,14 +3342,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>378</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3520,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C83" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D83" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E83" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F83" t="n">
-        <v>50</v>
+        <v>2982.057</v>
       </c>
       <c r="G83" t="n">
-        <v>-38199.40839999999</v>
+        <v>-14508.2667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3544,14 +3378,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>378</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3565,19 +3393,19 @@
         <v>381</v>
       </c>
       <c r="C84" t="n">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D84" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E84" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F84" t="n">
-        <v>1517.4255</v>
+        <v>1397.5194</v>
       </c>
       <c r="G84" t="n">
-        <v>-36681.9829</v>
+        <v>-15905.7861</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3586,14 +3414,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>378</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3604,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C85" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D85" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E85" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F85" t="n">
-        <v>2143</v>
+        <v>6426.259</v>
       </c>
       <c r="G85" t="n">
-        <v>-38824.9829</v>
+        <v>-22332.0451</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3628,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>378</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3646,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C86" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D86" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E86" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F86" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G86" t="n">
-        <v>-38824.9829</v>
+        <v>-22311.0451</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3670,14 +3486,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>378</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C87" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D87" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E87" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F87" t="n">
-        <v>3720.2313</v>
+        <v>141.8777</v>
       </c>
       <c r="G87" t="n">
-        <v>-38824.9829</v>
+        <v>-22452.9228</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3712,14 +3522,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>378</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3730,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C88" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D88" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E88" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F88" t="n">
-        <v>104.8</v>
+        <v>1217.8346</v>
       </c>
       <c r="G88" t="n">
-        <v>-38720.18289999999</v>
+        <v>-21235.0882</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3754,14 +3558,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>378</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3772,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C89" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D89" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E89" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F89" t="n">
-        <v>152.5647</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>-38567.61819999999</v>
+        <v>-21234.0882</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3796,14 +3594,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>378</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3814,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C90" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D90" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E90" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F90" t="n">
-        <v>1125.6958</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>-39693.31399999999</v>
+        <v>-21233.0882</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3838,14 +3630,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>378</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3856,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C91" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D91" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E91" t="n">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>334.3517</v>
       </c>
       <c r="G91" t="n">
-        <v>-39692.31399999999</v>
+        <v>-21567.4399</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3880,14 +3666,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>378</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3898,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C92" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D92" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E92" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F92" t="n">
-        <v>94.98690000000001</v>
+        <v>28.7958</v>
       </c>
       <c r="G92" t="n">
-        <v>-39787.30089999999</v>
+        <v>-21596.2357</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3922,14 +3702,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>378</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3943,19 +3717,19 @@
         <v>382</v>
       </c>
       <c r="C93" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D93" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E93" t="n">
         <v>381</v>
       </c>
       <c r="F93" t="n">
-        <v>1495.4467</v>
+        <v>3304.8757</v>
       </c>
       <c r="G93" t="n">
-        <v>-41282.7476</v>
+        <v>-18291.36</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3964,14 +3738,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>378</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3982,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C94" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D94" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E94" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F94" t="n">
-        <v>181.876</v>
+        <v>141.8731</v>
       </c>
       <c r="G94" t="n">
-        <v>-41282.7476</v>
+        <v>-18291.36</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4006,14 +3774,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>378</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4024,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C95" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D95" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E95" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F95" t="n">
-        <v>1639.2004</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>-41282.7476</v>
+        <v>-18290.36</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4048,14 +3810,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>378</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4066,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C96" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D96" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="E96" t="n">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F96" t="n">
-        <v>1451.0769</v>
+        <v>438.8892</v>
       </c>
       <c r="G96" t="n">
-        <v>-41282.7476</v>
+        <v>-17851.4708</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4090,14 +3846,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>378</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4108,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C97" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D97" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E97" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F97" t="n">
-        <v>87.9999</v>
+        <v>719.7364</v>
       </c>
       <c r="G97" t="n">
-        <v>-41282.7476</v>
+        <v>-18571.2072</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4132,14 +3882,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>378</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4150,40 +3894,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C98" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D98" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E98" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F98" t="n">
-        <v>629.9861</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>-40652.76149999999</v>
+        <v>-18570.2072</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>382</v>
-      </c>
-      <c r="K98" t="n">
-        <v>378</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4194,40 +3930,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C99" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D99" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E99" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>2649.652</v>
       </c>
       <c r="G99" t="n">
-        <v>-40651.76149999999</v>
+        <v>-15920.5552</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>384</v>
-      </c>
-      <c r="K99" t="n">
-        <v>378</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4238,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C100" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D100" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E100" t="n">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F100" t="n">
-        <v>904.0697</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>-39747.69179999999</v>
+        <v>-15919.5552</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4262,14 +3990,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>378</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4280,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C101" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D101" t="n">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E101" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F101" t="n">
-        <v>6628.5442</v>
+        <v>79.9956</v>
       </c>
       <c r="G101" t="n">
-        <v>-46376.23599999999</v>
+        <v>-15999.5508</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4304,14 +4026,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>378</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4322,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C102" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D102" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E102" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F102" t="n">
-        <v>473</v>
+        <v>78.9956</v>
       </c>
       <c r="G102" t="n">
-        <v>-45903.23599999999</v>
+        <v>-15999.5508</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4346,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>378</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4376,10 +4086,10 @@
         <v>386</v>
       </c>
       <c r="F103" t="n">
-        <v>50</v>
+        <v>81.1198</v>
       </c>
       <c r="G103" t="n">
-        <v>-45903.23599999999</v>
+        <v>-15918.431</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4388,14 +4098,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>378</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4409,19 +4113,19 @@
         <v>386</v>
       </c>
       <c r="C104" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D104" t="n">
         <v>386</v>
       </c>
       <c r="E104" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F104" t="n">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="G104" t="n">
-        <v>-46103.23599999999</v>
+        <v>-15918.431</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4430,14 +4134,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>378</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4448,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C105" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D105" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E105" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F105" t="n">
-        <v>50</v>
+        <v>190.7905</v>
       </c>
       <c r="G105" t="n">
-        <v>-46103.23599999999</v>
+        <v>-15918.431</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4472,14 +4170,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>378</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4490,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C106" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D106" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E106" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>202.0446</v>
       </c>
       <c r="G106" t="n">
-        <v>-46102.23599999999</v>
+        <v>-15918.431</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4514,14 +4206,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>378</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4532,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C107" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D107" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E107" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F107" t="n">
-        <v>50</v>
+        <v>3190.3222</v>
       </c>
       <c r="G107" t="n">
-        <v>-46152.23599999999</v>
+        <v>-12728.1088</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4556,14 +4242,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>378</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4574,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C108" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D108" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E108" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F108" t="n">
-        <v>143.6356</v>
+        <v>969.4112</v>
       </c>
       <c r="G108" t="n">
-        <v>-46152.23599999999</v>
+        <v>-13697.52</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4598,14 +4278,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>378</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4616,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C109" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D109" t="n">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="E109" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F109" t="n">
-        <v>3073.3927</v>
+        <v>1719.1588</v>
       </c>
       <c r="G109" t="n">
-        <v>-46152.23599999999</v>
+        <v>-13697.52</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4640,14 +4314,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>378</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4658,40 +4326,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C110" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D110" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E110" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>1231.327</v>
       </c>
       <c r="G110" t="n">
-        <v>-46151.23599999999</v>
+        <v>-13697.52</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>384</v>
-      </c>
-      <c r="K110" t="n">
-        <v>378</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4702,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C111" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D111" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E111" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F111" t="n">
-        <v>741.0595</v>
+        <v>192.1819</v>
       </c>
       <c r="G111" t="n">
-        <v>-46892.29549999999</v>
+        <v>-13697.52</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4726,14 +4386,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>378</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4744,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C112" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D112" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E112" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F112" t="n">
-        <v>772.645</v>
+        <v>871.0154</v>
       </c>
       <c r="G112" t="n">
-        <v>-46892.29549999999</v>
+        <v>-13697.52</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4768,14 +4422,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>378</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4786,40 +4434,32 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C113" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D113" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E113" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F113" t="n">
-        <v>584</v>
+        <v>183.0677</v>
       </c>
       <c r="G113" t="n">
-        <v>-47476.29549999999</v>
+        <v>-13880.5877</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>384</v>
-      </c>
-      <c r="K113" t="n">
-        <v>378</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4830,40 +4470,32 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C114" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D114" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E114" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>521.0388</v>
       </c>
       <c r="G114" t="n">
-        <v>-47475.29549999999</v>
+        <v>-13880.5877</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>381</v>
-      </c>
-      <c r="K114" t="n">
-        <v>378</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4874,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C115" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D115" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E115" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F115" t="n">
-        <v>50</v>
+        <v>1281.3542</v>
       </c>
       <c r="G115" t="n">
-        <v>-47525.29549999999</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4898,14 +4530,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>378</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4916,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C116" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D116" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E116" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F116" t="n">
-        <v>107</v>
+        <v>2206.7819</v>
       </c>
       <c r="G116" t="n">
-        <v>-47525.29549999999</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4940,14 +4566,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>378</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4958,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C117" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D117" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E117" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>298.6472</v>
       </c>
       <c r="G117" t="n">
-        <v>-47524.29549999999</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4982,14 +4602,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>378</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5000,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C118" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D118" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E118" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F118" t="n">
-        <v>361.324</v>
+        <v>559.7453</v>
       </c>
       <c r="G118" t="n">
-        <v>-47885.61949999999</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5024,14 +4638,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>378</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5042,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C119" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D119" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E119" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F119" t="n">
-        <v>677.7653</v>
+        <v>7437.4468</v>
       </c>
       <c r="G119" t="n">
-        <v>-48563.38479999999</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5066,14 +4674,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>378</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5084,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C120" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D120" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E120" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F120" t="n">
-        <v>901.8095</v>
+        <v>77</v>
       </c>
       <c r="G120" t="n">
-        <v>-48563.38479999999</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5108,14 +4710,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>378</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5126,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C121" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D121" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E121" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F121" t="n">
-        <v>11819.4389</v>
+        <v>1238.6304</v>
       </c>
       <c r="G121" t="n">
-        <v>-60382.82369999999</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5150,14 +4746,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>378</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5168,22 +4758,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C122" t="n">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D122" t="n">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E122" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F122" t="n">
-        <v>3067.324</v>
+        <v>2719.6565</v>
       </c>
       <c r="G122" t="n">
-        <v>-57315.49969999999</v>
+        <v>-15161.9419</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5192,14 +4782,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>378</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5210,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C123" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D123" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E123" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F123" t="n">
-        <v>102.2219</v>
+        <v>250</v>
       </c>
       <c r="G123" t="n">
-        <v>-57417.72159999999</v>
+        <v>-15411.9419</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5234,14 +4818,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>378</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5252,22 +4830,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C124" t="n">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D124" t="n">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E124" t="n">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F124" t="n">
-        <v>771.1305123</v>
+        <v>553.5099</v>
       </c>
       <c r="G124" t="n">
-        <v>-56646.59108769999</v>
+        <v>-15965.4518</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5276,14 +4854,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>378</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5294,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C125" t="n">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D125" t="n">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E125" t="n">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F125" t="n">
-        <v>513.07923076</v>
+        <v>791.5972</v>
       </c>
       <c r="G125" t="n">
-        <v>-56646.59108769999</v>
+        <v>-15965.4518</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5318,14 +4890,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>378</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5336,22 +4902,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C126" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D126" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E126" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F126" t="n">
-        <v>93.8383</v>
+        <v>758.5996</v>
       </c>
       <c r="G126" t="n">
-        <v>-56740.42938769999</v>
+        <v>-15965.4518</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5360,14 +4926,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>378</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5378,22 +4938,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C127" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D127" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E127" t="n">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F127" t="n">
-        <v>121</v>
+        <v>2137.0784</v>
       </c>
       <c r="G127" t="n">
-        <v>-56740.42938769999</v>
+        <v>-15965.4518</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5402,14 +4962,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>378</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5420,22 +4974,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C128" t="n">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D128" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E128" t="n">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F128" t="n">
-        <v>362.1</v>
+        <v>1483.6801</v>
       </c>
       <c r="G128" t="n">
-        <v>-56378.3293877</v>
+        <v>-17449.1319</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5444,14 +4998,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>378</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5462,22 +5010,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C129" t="n">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D129" t="n">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E129" t="n">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F129" t="n">
         <v>172</v>
       </c>
       <c r="G129" t="n">
-        <v>-56378.3293877</v>
+        <v>-17449.1319</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5486,14 +5034,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>378</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5504,22 +5046,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C130" t="n">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D130" t="n">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="E130" t="n">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>47.88</v>
       </c>
       <c r="G130" t="n">
-        <v>-56377.3293877</v>
+        <v>-17497.0119</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5528,14 +5070,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>378</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5546,22 +5082,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C131" t="n">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D131" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E131" t="n">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F131" t="n">
-        <v>113.1531</v>
+        <v>3959.5187</v>
       </c>
       <c r="G131" t="n">
-        <v>-56490.4824877</v>
+        <v>-21456.5306</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5570,14 +5106,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>378</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5588,22 +5118,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C132" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D132" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E132" t="n">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F132" t="n">
-        <v>175.6196</v>
+        <v>194.6791</v>
       </c>
       <c r="G132" t="n">
-        <v>-56314.8628877</v>
+        <v>-21261.8515</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5612,14 +5142,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>378</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5630,22 +5154,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C133" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D133" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E133" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F133" t="n">
-        <v>886.1368</v>
+        <v>4326.599</v>
       </c>
       <c r="G133" t="n">
-        <v>-57200.9996877</v>
+        <v>-25588.4505</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5654,14 +5178,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>378</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5672,22 +5190,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C134" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D134" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E134" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F134" t="n">
-        <v>39.0873</v>
+        <v>7614.5152</v>
       </c>
       <c r="G134" t="n">
-        <v>-57200.9996877</v>
+        <v>-33202.9657</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5696,14 +5214,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>378</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5714,22 +5226,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C135" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D135" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E135" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F135" t="n">
-        <v>87.9466</v>
+        <v>2571.4341</v>
       </c>
       <c r="G135" t="n">
-        <v>-57200.9996877</v>
+        <v>-30631.5316</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5738,14 +5250,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>378</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5756,36 +5262,36 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C136" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D136" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E136" t="n">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="F136" t="n">
-        <v>665</v>
+        <v>5095.0063</v>
       </c>
       <c r="G136" t="n">
-        <v>-57200.9996877</v>
+        <v>-30631.5316</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>378</v>
-      </c>
+      <c r="J136" t="n">
+        <v>376</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M136" t="n">
@@ -5798,33 +5304,33 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C137" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D137" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E137" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F137" t="n">
-        <v>237.9599</v>
+        <v>119.2562</v>
       </c>
       <c r="G137" t="n">
-        <v>-57200.9996877</v>
+        <v>-30631.5316</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>378</v>
-      </c>
+      <c r="J137" t="n">
+        <v>376</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5840,33 +5346,33 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C138" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D138" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E138" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F138" t="n">
-        <v>1827.0045</v>
+        <v>850</v>
       </c>
       <c r="G138" t="n">
-        <v>-57200.9996877</v>
+        <v>-30631.5316</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>378</v>
-      </c>
+      <c r="J138" t="n">
+        <v>376</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5882,33 +5388,33 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C139" t="n">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D139" t="n">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E139" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F139" t="n">
-        <v>1813.8379</v>
+        <v>219</v>
       </c>
       <c r="G139" t="n">
-        <v>-59014.8375877</v>
+        <v>-30850.5316</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>378</v>
-      </c>
+      <c r="J139" t="n">
+        <v>376</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5924,33 +5430,33 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C140" t="n">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D140" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E140" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>4618.2676</v>
       </c>
       <c r="G140" t="n">
-        <v>-59013.8375877</v>
+        <v>-35468.7992</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>378</v>
-      </c>
+      <c r="J140" t="n">
+        <v>375</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5966,33 +5472,33 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C141" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D141" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E141" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F141" t="n">
-        <v>190.4763</v>
+        <v>602.7495</v>
       </c>
       <c r="G141" t="n">
-        <v>-59013.8375877</v>
+        <v>-34866.0497</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>378</v>
-      </c>
+      <c r="J141" t="n">
+        <v>371</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6008,33 +5514,33 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C142" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D142" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E142" t="n">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F142" t="n">
-        <v>779.2207792200001</v>
+        <v>435.2397</v>
       </c>
       <c r="G142" t="n">
-        <v>-59013.8375877</v>
+        <v>-34866.0497</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>378</v>
-      </c>
+      <c r="J142" t="n">
+        <v>376</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6050,33 +5556,33 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C143" t="n">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D143" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="E143" t="n">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F143" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G143" t="n">
-        <v>-59015.8375877</v>
+        <v>-34866.0497</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>378</v>
-      </c>
+      <c r="J143" t="n">
+        <v>376</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6092,33 +5598,33 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C144" t="n">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D144" t="n">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E144" t="n">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F144" t="n">
-        <v>9</v>
+        <v>1340.0994</v>
       </c>
       <c r="G144" t="n">
-        <v>-59015.8375877</v>
+        <v>-34866.0497</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>378</v>
-      </c>
+      <c r="J144" t="n">
+        <v>376</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6134,33 +5640,33 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C145" t="n">
         <v>379</v>
       </c>
       <c r="D145" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E145" t="n">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F145" t="n">
-        <v>2244.3892</v>
+        <v>1051.5068</v>
       </c>
       <c r="G145" t="n">
-        <v>-61260.2267877</v>
+        <v>-33814.5429</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>378</v>
-      </c>
+      <c r="J145" t="n">
+        <v>376</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6176,33 +5682,33 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C146" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D146" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E146" t="n">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F146" t="n">
         <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>-61259.2267877</v>
+        <v>-33813.5429</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>378</v>
-      </c>
+      <c r="J146" t="n">
+        <v>379</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6218,33 +5724,33 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C147" t="n">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D147" t="n">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E147" t="n">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F147" t="n">
-        <v>184.8517</v>
+        <v>5497.9298</v>
       </c>
       <c r="G147" t="n">
-        <v>-61444.0784877</v>
+        <v>-39311.4727</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>378</v>
-      </c>
+      <c r="J147" t="n">
+        <v>381</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6260,33 +5766,33 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C148" t="n">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D148" t="n">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E148" t="n">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F148" t="n">
-        <v>77.7587</v>
+        <v>185.3703</v>
       </c>
       <c r="G148" t="n">
-        <v>-61444.0784877</v>
+        <v>-39126.1024</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>378</v>
-      </c>
+      <c r="J148" t="n">
+        <v>373</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6302,33 +5808,33 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C149" t="n">
         <v>379</v>
       </c>
       <c r="D149" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E149" t="n">
         <v>379</v>
       </c>
       <c r="F149" t="n">
-        <v>2085.1828</v>
+        <v>845.3329</v>
       </c>
       <c r="G149" t="n">
-        <v>-63529.2612877</v>
+        <v>-38280.76949999999</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>378</v>
-      </c>
+      <c r="J149" t="n">
+        <v>376</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6344,33 +5850,33 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C150" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D150" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E150" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F150" t="n">
-        <v>252.6449</v>
+        <v>0.0001</v>
       </c>
       <c r="G150" t="n">
-        <v>-63276.6163877</v>
+        <v>-38280.76949999999</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>378</v>
-      </c>
+      <c r="J150" t="n">
+        <v>379</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6386,42 +5892,2884 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
+        <v>380</v>
+      </c>
+      <c r="C151" t="n">
+        <v>380</v>
+      </c>
+      <c r="D151" t="n">
+        <v>380</v>
+      </c>
+      <c r="E151" t="n">
+        <v>380</v>
+      </c>
+      <c r="F151" t="n">
+        <v>175.3755</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-38105.39399999999</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>379</v>
+      </c>
+      <c r="C152" t="n">
+        <v>379</v>
+      </c>
+      <c r="D152" t="n">
+        <v>379</v>
+      </c>
+      <c r="E152" t="n">
+        <v>379</v>
+      </c>
+      <c r="F152" t="n">
+        <v>144.0144</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-38249.40839999999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>380</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>379</v>
+      </c>
+      <c r="C153" t="n">
+        <v>379</v>
+      </c>
+      <c r="D153" t="n">
+        <v>379</v>
+      </c>
+      <c r="E153" t="n">
+        <v>379</v>
+      </c>
+      <c r="F153" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-38249.40839999999</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>380</v>
+      </c>
+      <c r="C154" t="n">
+        <v>380</v>
+      </c>
+      <c r="D154" t="n">
+        <v>380</v>
+      </c>
+      <c r="E154" t="n">
+        <v>380</v>
+      </c>
+      <c r="F154" t="n">
+        <v>50</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-38199.40839999999</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>379</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>381</v>
+      </c>
+      <c r="C155" t="n">
         <v>383</v>
       </c>
-      <c r="C151" t="n">
+      <c r="D155" t="n">
         <v>383</v>
       </c>
-      <c r="D151" t="n">
+      <c r="E155" t="n">
+        <v>381</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1517.4255</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-36681.9829</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>384</v>
+      </c>
+      <c r="C156" t="n">
+        <v>381</v>
+      </c>
+      <c r="D156" t="n">
+        <v>384</v>
+      </c>
+      <c r="E156" t="n">
+        <v>381</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2143</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-38824.9829</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>381</v>
+      </c>
+      <c r="C157" t="n">
+        <v>381</v>
+      </c>
+      <c r="D157" t="n">
+        <v>381</v>
+      </c>
+      <c r="E157" t="n">
+        <v>381</v>
+      </c>
+      <c r="F157" t="n">
+        <v>5</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-38824.9829</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
         <v>383</v>
       </c>
-      <c r="E151" t="n">
+      <c r="C158" t="n">
+        <v>381</v>
+      </c>
+      <c r="D158" t="n">
+        <v>385</v>
+      </c>
+      <c r="E158" t="n">
+        <v>381</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3720.2313</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-38824.9829</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>382</v>
+      </c>
+      <c r="C159" t="n">
+        <v>382</v>
+      </c>
+      <c r="D159" t="n">
+        <v>382</v>
+      </c>
+      <c r="E159" t="n">
+        <v>382</v>
+      </c>
+      <c r="F159" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-38720.18289999999</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>386</v>
+      </c>
+      <c r="C160" t="n">
+        <v>386</v>
+      </c>
+      <c r="D160" t="n">
+        <v>386</v>
+      </c>
+      <c r="E160" t="n">
+        <v>386</v>
+      </c>
+      <c r="F160" t="n">
+        <v>152.5647</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-38567.61819999999</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>386</v>
+      </c>
+      <c r="C161" t="n">
+        <v>381</v>
+      </c>
+      <c r="D161" t="n">
+        <v>386</v>
+      </c>
+      <c r="E161" t="n">
+        <v>381</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1125.6958</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-39693.31399999999</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>387</v>
+      </c>
+      <c r="C162" t="n">
+        <v>387</v>
+      </c>
+      <c r="D162" t="n">
+        <v>387</v>
+      </c>
+      <c r="E162" t="n">
+        <v>387</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-39692.31399999999</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
         <v>383</v>
       </c>
-      <c r="F151" t="n">
-        <v>1</v>
-      </c>
-      <c r="G151" t="n">
+      <c r="C163" t="n">
+        <v>383</v>
+      </c>
+      <c r="D163" t="n">
+        <v>383</v>
+      </c>
+      <c r="E163" t="n">
+        <v>383</v>
+      </c>
+      <c r="F163" t="n">
+        <v>94.98690000000001</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-39787.30089999999</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>382</v>
+      </c>
+      <c r="C164" t="n">
+        <v>382</v>
+      </c>
+      <c r="D164" t="n">
+        <v>383</v>
+      </c>
+      <c r="E164" t="n">
+        <v>381</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1495.4467</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-41282.7476</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>382</v>
+      </c>
+      <c r="C165" t="n">
+        <v>382</v>
+      </c>
+      <c r="D165" t="n">
+        <v>382</v>
+      </c>
+      <c r="E165" t="n">
+        <v>382</v>
+      </c>
+      <c r="F165" t="n">
+        <v>181.876</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-41282.7476</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>382</v>
+      </c>
+      <c r="C166" t="n">
+        <v>382</v>
+      </c>
+      <c r="D166" t="n">
+        <v>382</v>
+      </c>
+      <c r="E166" t="n">
+        <v>382</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1639.2004</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-41282.7476</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>382</v>
+      </c>
+      <c r="C167" t="n">
+        <v>382</v>
+      </c>
+      <c r="D167" t="n">
+        <v>382</v>
+      </c>
+      <c r="E167" t="n">
+        <v>382</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1451.0769</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-41282.7476</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>382</v>
+      </c>
+      <c r="C168" t="n">
+        <v>382</v>
+      </c>
+      <c r="D168" t="n">
+        <v>382</v>
+      </c>
+      <c r="E168" t="n">
+        <v>382</v>
+      </c>
+      <c r="F168" t="n">
+        <v>87.9999</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-41282.7476</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>383</v>
+      </c>
+      <c r="C169" t="n">
+        <v>384</v>
+      </c>
+      <c r="D169" t="n">
+        <v>384</v>
+      </c>
+      <c r="E169" t="n">
+        <v>383</v>
+      </c>
+      <c r="F169" t="n">
+        <v>629.9861</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-40652.76149999999</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>385</v>
+      </c>
+      <c r="C170" t="n">
+        <v>385</v>
+      </c>
+      <c r="D170" t="n">
+        <v>385</v>
+      </c>
+      <c r="E170" t="n">
+        <v>385</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-40651.76149999999</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>385</v>
+      </c>
+      <c r="C171" t="n">
+        <v>387</v>
+      </c>
+      <c r="D171" t="n">
+        <v>387</v>
+      </c>
+      <c r="E171" t="n">
+        <v>385</v>
+      </c>
+      <c r="F171" t="n">
+        <v>904.0697</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-39747.69179999999</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>387</v>
+      </c>
+      <c r="C172" t="n">
+        <v>384</v>
+      </c>
+      <c r="D172" t="n">
+        <v>390</v>
+      </c>
+      <c r="E172" t="n">
+        <v>384</v>
+      </c>
+      <c r="F172" t="n">
+        <v>6628.5442</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-46376.23599999999</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>387</v>
+      </c>
+      <c r="C173" t="n">
+        <v>386</v>
+      </c>
+      <c r="D173" t="n">
+        <v>387</v>
+      </c>
+      <c r="E173" t="n">
+        <v>386</v>
+      </c>
+      <c r="F173" t="n">
+        <v>473</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-45903.23599999999</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>386</v>
+      </c>
+      <c r="C174" t="n">
+        <v>386</v>
+      </c>
+      <c r="D174" t="n">
+        <v>386</v>
+      </c>
+      <c r="E174" t="n">
+        <v>386</v>
+      </c>
+      <c r="F174" t="n">
+        <v>50</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-45903.23599999999</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>386</v>
+      </c>
+      <c r="C175" t="n">
+        <v>385</v>
+      </c>
+      <c r="D175" t="n">
+        <v>386</v>
+      </c>
+      <c r="E175" t="n">
+        <v>385</v>
+      </c>
+      <c r="F175" t="n">
+        <v>200</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-46103.23599999999</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>385</v>
+      </c>
+      <c r="C176" t="n">
+        <v>385</v>
+      </c>
+      <c r="D176" t="n">
+        <v>385</v>
+      </c>
+      <c r="E176" t="n">
+        <v>385</v>
+      </c>
+      <c r="F176" t="n">
+        <v>50</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-46103.23599999999</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>389</v>
+      </c>
+      <c r="C177" t="n">
+        <v>389</v>
+      </c>
+      <c r="D177" t="n">
+        <v>389</v>
+      </c>
+      <c r="E177" t="n">
+        <v>389</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-46102.23599999999</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>384</v>
+      </c>
+      <c r="C178" t="n">
+        <v>384</v>
+      </c>
+      <c r="D178" t="n">
+        <v>384</v>
+      </c>
+      <c r="E178" t="n">
+        <v>384</v>
+      </c>
+      <c r="F178" t="n">
+        <v>50</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-46152.23599999999</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>384</v>
+      </c>
+      <c r="C179" t="n">
+        <v>384</v>
+      </c>
+      <c r="D179" t="n">
+        <v>384</v>
+      </c>
+      <c r="E179" t="n">
+        <v>384</v>
+      </c>
+      <c r="F179" t="n">
+        <v>143.6356</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-46152.23599999999</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>384</v>
+      </c>
+      <c r="C180" t="n">
+        <v>384</v>
+      </c>
+      <c r="D180" t="n">
+        <v>384</v>
+      </c>
+      <c r="E180" t="n">
+        <v>384</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3073.3927</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-46152.23599999999</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>389</v>
+      </c>
+      <c r="C181" t="n">
+        <v>389</v>
+      </c>
+      <c r="D181" t="n">
+        <v>389</v>
+      </c>
+      <c r="E181" t="n">
+        <v>389</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-46151.23599999999</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>384</v>
+      </c>
+      <c r="C182" t="n">
+        <v>384</v>
+      </c>
+      <c r="D182" t="n">
+        <v>384</v>
+      </c>
+      <c r="E182" t="n">
+        <v>384</v>
+      </c>
+      <c r="F182" t="n">
+        <v>741.0595</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-46892.29549999999</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>384</v>
+      </c>
+      <c r="C183" t="n">
+        <v>384</v>
+      </c>
+      <c r="D183" t="n">
+        <v>384</v>
+      </c>
+      <c r="E183" t="n">
+        <v>384</v>
+      </c>
+      <c r="F183" t="n">
+        <v>772.645</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-46892.29549999999</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>384</v>
+      </c>
+      <c r="C184" t="n">
+        <v>381</v>
+      </c>
+      <c r="D184" t="n">
+        <v>384</v>
+      </c>
+      <c r="E184" t="n">
+        <v>381</v>
+      </c>
+      <c r="F184" t="n">
+        <v>584</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-47476.29549999999</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>388</v>
+      </c>
+      <c r="C185" t="n">
+        <v>388</v>
+      </c>
+      <c r="D185" t="n">
+        <v>388</v>
+      </c>
+      <c r="E185" t="n">
+        <v>388</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-47475.29549999999</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>383</v>
+      </c>
+      <c r="C186" t="n">
+        <v>383</v>
+      </c>
+      <c r="D186" t="n">
+        <v>383</v>
+      </c>
+      <c r="E186" t="n">
+        <v>383</v>
+      </c>
+      <c r="F186" t="n">
+        <v>50</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-47525.29549999999</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>383</v>
+      </c>
+      <c r="C187" t="n">
+        <v>383</v>
+      </c>
+      <c r="D187" t="n">
+        <v>383</v>
+      </c>
+      <c r="E187" t="n">
+        <v>383</v>
+      </c>
+      <c r="F187" t="n">
+        <v>107</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-47525.29549999999</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>387</v>
+      </c>
+      <c r="C188" t="n">
+        <v>387</v>
+      </c>
+      <c r="D188" t="n">
+        <v>387</v>
+      </c>
+      <c r="E188" t="n">
+        <v>387</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-47524.29549999999</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>383</v>
+      </c>
+      <c r="C189" t="n">
+        <v>383</v>
+      </c>
+      <c r="D189" t="n">
+        <v>383</v>
+      </c>
+      <c r="E189" t="n">
+        <v>383</v>
+      </c>
+      <c r="F189" t="n">
+        <v>361.324</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-47885.61949999999</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>382</v>
+      </c>
+      <c r="C190" t="n">
+        <v>382</v>
+      </c>
+      <c r="D190" t="n">
+        <v>382</v>
+      </c>
+      <c r="E190" t="n">
+        <v>382</v>
+      </c>
+      <c r="F190" t="n">
+        <v>677.7653</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-48563.38479999999</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>382</v>
+      </c>
+      <c r="C191" t="n">
+        <v>382</v>
+      </c>
+      <c r="D191" t="n">
+        <v>382</v>
+      </c>
+      <c r="E191" t="n">
+        <v>382</v>
+      </c>
+      <c r="F191" t="n">
+        <v>901.8095</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-48563.38479999999</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>382</v>
+      </c>
+      <c r="C192" t="n">
+        <v>379</v>
+      </c>
+      <c r="D192" t="n">
+        <v>382</v>
+      </c>
+      <c r="E192" t="n">
+        <v>379</v>
+      </c>
+      <c r="F192" t="n">
+        <v>11819.4389</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-60382.82369999999</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>385</v>
+      </c>
+      <c r="C193" t="n">
+        <v>389</v>
+      </c>
+      <c r="D193" t="n">
+        <v>389</v>
+      </c>
+      <c r="E193" t="n">
+        <v>385</v>
+      </c>
+      <c r="F193" t="n">
+        <v>3067.324</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-57315.49969999999</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>385</v>
+      </c>
+      <c r="C194" t="n">
+        <v>385</v>
+      </c>
+      <c r="D194" t="n">
+        <v>385</v>
+      </c>
+      <c r="E194" t="n">
+        <v>385</v>
+      </c>
+      <c r="F194" t="n">
+        <v>102.2219</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-57417.72159999999</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>388</v>
+      </c>
+      <c r="C195" t="n">
+        <v>390</v>
+      </c>
+      <c r="D195" t="n">
+        <v>390</v>
+      </c>
+      <c r="E195" t="n">
+        <v>388</v>
+      </c>
+      <c r="F195" t="n">
+        <v>771.1305123</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-56646.59108769999</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>389</v>
+      </c>
+      <c r="C196" t="n">
+        <v>390</v>
+      </c>
+      <c r="D196" t="n">
+        <v>390</v>
+      </c>
+      <c r="E196" t="n">
+        <v>389</v>
+      </c>
+      <c r="F196" t="n">
+        <v>513.07923076</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-56646.59108769999</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>385</v>
+      </c>
+      <c r="C197" t="n">
+        <v>385</v>
+      </c>
+      <c r="D197" t="n">
+        <v>385</v>
+      </c>
+      <c r="E197" t="n">
+        <v>385</v>
+      </c>
+      <c r="F197" t="n">
+        <v>93.8383</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-56740.42938769999</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>385</v>
+      </c>
+      <c r="C198" t="n">
+        <v>385</v>
+      </c>
+      <c r="D198" t="n">
+        <v>385</v>
+      </c>
+      <c r="E198" t="n">
+        <v>385</v>
+      </c>
+      <c r="F198" t="n">
+        <v>121</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-56740.42938769999</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>386</v>
+      </c>
+      <c r="C199" t="n">
+        <v>386</v>
+      </c>
+      <c r="D199" t="n">
+        <v>386</v>
+      </c>
+      <c r="E199" t="n">
+        <v>385</v>
+      </c>
+      <c r="F199" t="n">
+        <v>362.1</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-56378.3293877</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>386</v>
+      </c>
+      <c r="C200" t="n">
+        <v>386</v>
+      </c>
+      <c r="D200" t="n">
+        <v>386</v>
+      </c>
+      <c r="E200" t="n">
+        <v>386</v>
+      </c>
+      <c r="F200" t="n">
+        <v>172</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-56378.3293877</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>389</v>
+      </c>
+      <c r="C201" t="n">
+        <v>389</v>
+      </c>
+      <c r="D201" t="n">
+        <v>389</v>
+      </c>
+      <c r="E201" t="n">
+        <v>389</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-56377.3293877</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>385</v>
+      </c>
+      <c r="C202" t="n">
+        <v>385</v>
+      </c>
+      <c r="D202" t="n">
+        <v>385</v>
+      </c>
+      <c r="E202" t="n">
+        <v>385</v>
+      </c>
+      <c r="F202" t="n">
+        <v>113.1531</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-56490.4824877</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>386</v>
+      </c>
+      <c r="C203" t="n">
+        <v>386</v>
+      </c>
+      <c r="D203" t="n">
+        <v>386</v>
+      </c>
+      <c r="E203" t="n">
+        <v>386</v>
+      </c>
+      <c r="F203" t="n">
+        <v>175.6196</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-56314.8628877</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>385</v>
+      </c>
+      <c r="C204" t="n">
+        <v>385</v>
+      </c>
+      <c r="D204" t="n">
+        <v>385</v>
+      </c>
+      <c r="E204" t="n">
+        <v>385</v>
+      </c>
+      <c r="F204" t="n">
+        <v>886.1368</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-57200.9996877</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>385</v>
+      </c>
+      <c r="C205" t="n">
+        <v>385</v>
+      </c>
+      <c r="D205" t="n">
+        <v>385</v>
+      </c>
+      <c r="E205" t="n">
+        <v>385</v>
+      </c>
+      <c r="F205" t="n">
+        <v>39.0873</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-57200.9996877</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>385</v>
+      </c>
+      <c r="C206" t="n">
+        <v>385</v>
+      </c>
+      <c r="D206" t="n">
+        <v>385</v>
+      </c>
+      <c r="E206" t="n">
+        <v>385</v>
+      </c>
+      <c r="F206" t="n">
+        <v>87.9466</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-57200.9996877</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>385</v>
+      </c>
+      <c r="C207" t="n">
+        <v>385</v>
+      </c>
+      <c r="D207" t="n">
+        <v>385</v>
+      </c>
+      <c r="E207" t="n">
+        <v>385</v>
+      </c>
+      <c r="F207" t="n">
+        <v>665</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-57200.9996877</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>385</v>
+      </c>
+      <c r="C208" t="n">
+        <v>385</v>
+      </c>
+      <c r="D208" t="n">
+        <v>385</v>
+      </c>
+      <c r="E208" t="n">
+        <v>385</v>
+      </c>
+      <c r="F208" t="n">
+        <v>237.9599</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-57200.9996877</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>385</v>
+      </c>
+      <c r="C209" t="n">
+        <v>385</v>
+      </c>
+      <c r="D209" t="n">
+        <v>385</v>
+      </c>
+      <c r="E209" t="n">
+        <v>385</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1827.0045</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-57200.9996877</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>384</v>
+      </c>
+      <c r="C210" t="n">
+        <v>384</v>
+      </c>
+      <c r="D210" t="n">
+        <v>384</v>
+      </c>
+      <c r="E210" t="n">
+        <v>380</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1813.8379</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-59014.8375877</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>384</v>
+      </c>
+      <c r="C211" t="n">
+        <v>385</v>
+      </c>
+      <c r="D211" t="n">
+        <v>385</v>
+      </c>
+      <c r="E211" t="n">
+        <v>384</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-59013.8375877</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>385</v>
+      </c>
+      <c r="C212" t="n">
+        <v>385</v>
+      </c>
+      <c r="D212" t="n">
+        <v>385</v>
+      </c>
+      <c r="E212" t="n">
+        <v>385</v>
+      </c>
+      <c r="F212" t="n">
+        <v>190.4763</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-59013.8375877</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>385</v>
+      </c>
+      <c r="C213" t="n">
+        <v>385</v>
+      </c>
+      <c r="D213" t="n">
+        <v>385</v>
+      </c>
+      <c r="E213" t="n">
+        <v>385</v>
+      </c>
+      <c r="F213" t="n">
+        <v>779.2207792200001</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-59013.8375877</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>385</v>
+      </c>
+      <c r="C214" t="n">
+        <v>380</v>
+      </c>
+      <c r="D214" t="n">
+        <v>385</v>
+      </c>
+      <c r="E214" t="n">
+        <v>380</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-59015.8375877</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>380</v>
+      </c>
+      <c r="C215" t="n">
+        <v>380</v>
+      </c>
+      <c r="D215" t="n">
+        <v>380</v>
+      </c>
+      <c r="E215" t="n">
+        <v>380</v>
+      </c>
+      <c r="F215" t="n">
+        <v>9</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-59015.8375877</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>380</v>
+      </c>
+      <c r="C216" t="n">
+        <v>379</v>
+      </c>
+      <c r="D216" t="n">
+        <v>380</v>
+      </c>
+      <c r="E216" t="n">
+        <v>379</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2244.3892</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-61260.2267877</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>384</v>
+      </c>
+      <c r="C217" t="n">
+        <v>384</v>
+      </c>
+      <c r="D217" t="n">
+        <v>384</v>
+      </c>
+      <c r="E217" t="n">
+        <v>384</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-61259.2267877</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>380</v>
+      </c>
+      <c r="C218" t="n">
+        <v>380</v>
+      </c>
+      <c r="D218" t="n">
+        <v>380</v>
+      </c>
+      <c r="E218" t="n">
+        <v>380</v>
+      </c>
+      <c r="F218" t="n">
+        <v>184.8517</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-61444.0784877</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>380</v>
+      </c>
+      <c r="C219" t="n">
+        <v>380</v>
+      </c>
+      <c r="D219" t="n">
+        <v>380</v>
+      </c>
+      <c r="E219" t="n">
+        <v>380</v>
+      </c>
+      <c r="F219" t="n">
+        <v>77.7587</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-61444.0784877</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>380</v>
+      </c>
+      <c r="C220" t="n">
+        <v>379</v>
+      </c>
+      <c r="D220" t="n">
+        <v>380</v>
+      </c>
+      <c r="E220" t="n">
+        <v>379</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2085.1828</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-63529.2612877</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>380</v>
+      </c>
+      <c r="C221" t="n">
+        <v>380</v>
+      </c>
+      <c r="D221" t="n">
+        <v>380</v>
+      </c>
+      <c r="E221" t="n">
+        <v>380</v>
+      </c>
+      <c r="F221" t="n">
+        <v>252.6449</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-63276.6163877</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>383</v>
+      </c>
+      <c r="C222" t="n">
+        <v>383</v>
+      </c>
+      <c r="D222" t="n">
+        <v>383</v>
+      </c>
+      <c r="E222" t="n">
+        <v>383</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1</v>
+      </c>
+      <c r="G222" t="n">
         <v>-63275.6163877</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>378</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-01 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N222"/>
+  <dimension ref="A1:M222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>19611.3131</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>19522.553</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>19406.3513</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>19406.3513</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>19414.5879</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>19414.5879</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>19414.5879</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>18754.0208</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>18754.0208</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>18754.0208</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>21882.4389</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>21879.4389</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>21879.4389</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>21879.4389</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>21879.4389</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-16497.8952</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-28498.7842</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-28497.7842</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-28669.7052</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +3718,15 @@
         <v>-15999.5508</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3751,15 @@
         <v>-15999.5508</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +3850,15 @@
         <v>-15918.431</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4114,15 @@
         <v>-13880.5877</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,18 +4807,21 @@
         <v>-33202.9657</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5244,18 +4846,21 @@
         <v>-30631.5316</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,24 +4885,19 @@
         <v>-30631.5316</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>376</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5322,24 +4922,19 @@
         <v>-30631.5316</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>376</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5364,24 +4959,19 @@
         <v>-30631.5316</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>376</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5406,24 +4996,19 @@
         <v>-30850.5316</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>376</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5448,24 +5033,21 @@
         <v>-35468.7992</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
         <v>375</v>
       </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5490,24 +5072,21 @@
         <v>-34866.0497</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
         <v>371</v>
       </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5532,24 +5111,21 @@
         <v>-34866.0497</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
         <v>376</v>
       </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5574,24 +5150,19 @@
         <v>-34866.0497</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>376</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5616,24 +5187,19 @@
         <v>-34866.0497</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>376</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5658,24 +5224,21 @@
         <v>-33814.5429</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
         <v>376</v>
       </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5700,24 +5263,21 @@
         <v>-33813.5429</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
         <v>379</v>
       </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5742,24 +5302,21 @@
         <v>-39311.4727</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
         <v>381</v>
       </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5784,24 +5341,19 @@
         <v>-39126.1024</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>373</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5826,24 +5378,19 @@
         <v>-38280.76949999999</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>376</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5868,24 +5415,19 @@
         <v>-38280.76949999999</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>379</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5912,20 +5454,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5950,24 +5489,19 @@
         <v>-38249.40839999999</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>380</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5994,20 +5528,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6032,24 +5563,19 @@
         <v>-38199.40839999999</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>379</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6076,20 +5602,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6116,20 +5639,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6156,20 +5676,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6196,20 +5713,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6236,20 +5750,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6276,20 +5787,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6316,20 +5824,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6356,20 +5861,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6396,20 +5898,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6436,20 +5935,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6476,20 +5972,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6516,20 +6009,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6556,20 +6046,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6596,20 +6083,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6636,20 +6120,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6676,20 +6157,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6716,20 +6194,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6756,20 +6231,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6796,20 +6268,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6836,20 +6305,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6876,20 +6342,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6916,20 +6379,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6956,20 +6416,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6996,20 +6453,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7034,22 +6488,21 @@
         <v>-46152.23599999999</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7074,22 +6527,21 @@
         <v>-46152.23599999999</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7114,22 +6566,21 @@
         <v>-46151.23599999999</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7156,20 +6607,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7194,22 +6642,21 @@
         <v>-46892.29549999999</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7234,22 +6681,21 @@
         <v>-47476.29549999999</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7274,22 +6720,21 @@
         <v>-47475.29549999999</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7314,22 +6759,21 @@
         <v>-47525.29549999999</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7354,22 +6798,21 @@
         <v>-47525.29549999999</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7394,22 +6837,21 @@
         <v>-47524.29549999999</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7436,20 +6878,17 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7476,20 +6915,17 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7514,22 +6950,21 @@
         <v>-48563.38479999999</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7556,20 +6991,17 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7594,22 +7026,21 @@
         <v>-57315.49969999999</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7636,20 +7067,17 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7676,20 +7104,17 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7716,20 +7141,17 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7756,20 +7178,17 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7796,20 +7215,17 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7836,20 +7252,17 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7876,20 +7289,17 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7916,20 +7326,17 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7956,20 +7363,17 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7996,20 +7400,17 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8036,20 +7437,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8076,20 +7474,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8116,20 +7511,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8156,20 +7548,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8196,20 +7585,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8236,20 +7622,17 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8276,20 +7659,17 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8316,20 +7696,17 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8356,20 +7733,17 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8396,20 +7770,17 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8436,20 +7807,17 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8476,20 +7844,17 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8516,20 +7881,17 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8556,20 +7918,17 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8596,20 +7955,17 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8634,22 +7990,21 @@
         <v>-61444.0784877</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8676,20 +8031,17 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8716,20 +8068,17 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8756,22 +8105,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-01 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>19611.3131</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>19522.553</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>19406.3513</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>19406.3513</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>19406.3513</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>19406.3513</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>19414.5879</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>19414.5879</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>19414.5879</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>19414.5879</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>18754.0208</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>18754.0208</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>18754.0208</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>21882.4389</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>21879.4389</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>21879.4389</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>21879.4389</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>21879.4389</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-16497.8952</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-28498.7842</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-28497.7842</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-28669.7052</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-22313.2664</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-23107.6983</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-25664.7352</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-25664.7352</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-24674.3664</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-15999.5508</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-15999.5508</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-15918.431</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-13880.5877</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4807,17 +4807,11 @@
         <v>-33202.9657</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4846,17 +4840,11 @@
         <v>-30631.5316</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>374</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4889,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4926,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4963,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5000,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5033,7 +5005,7 @@
         <v>-35468.7992</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>375</v>
@@ -5041,7 +5013,7 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L140" t="n">
@@ -5072,7 +5044,7 @@
         <v>-34866.0497</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>371</v>
@@ -5111,7 +5083,7 @@
         <v>-34866.0497</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>376</v>
@@ -5150,9 +5122,11 @@
         <v>-34866.0497</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>376</v>
+      </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5187,9 +5161,11 @@
         <v>-34866.0497</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>376</v>
+      </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5224,7 +5200,7 @@
         <v>-33814.5429</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>376</v>
@@ -5263,7 +5239,7 @@
         <v>-33813.5429</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>379</v>
@@ -5302,11 +5278,9 @@
         <v>-39311.4727</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>381</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5600,9 +5574,11 @@
         <v>-36681.9829</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>380</v>
+      </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -6488,11 +6464,9 @@
         <v>-46152.23599999999</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>384</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
@@ -6527,11 +6501,9 @@
         <v>-46152.23599999999</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>384</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
@@ -6566,11 +6538,9 @@
         <v>-46151.23599999999</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>384</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -6642,11 +6612,9 @@
         <v>-46892.29549999999</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>384</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -6681,7 +6649,7 @@
         <v>-47476.29549999999</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>384</v>
@@ -6720,7 +6688,7 @@
         <v>-47475.29549999999</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>381</v>
@@ -6759,11 +6727,9 @@
         <v>-47525.29549999999</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -6798,11 +6764,9 @@
         <v>-47525.29549999999</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -6837,11 +6801,9 @@
         <v>-47524.29549999999</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -6950,7 +6912,7 @@
         <v>-48563.38479999999</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>382</v>
@@ -6989,9 +6951,11 @@
         <v>-60382.82369999999</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>382</v>
+      </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
@@ -7026,7 +6990,7 @@
         <v>-57315.49969999999</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>379</v>
@@ -7324,9 +7288,11 @@
         <v>-56377.3293877</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>386</v>
+      </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7916,9 +7882,11 @@
         <v>-61259.2267877</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>379</v>
+      </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -7953,9 +7921,11 @@
         <v>-61444.0784877</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>384</v>
+      </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -7990,7 +7960,7 @@
         <v>-61444.0784877</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>380</v>
@@ -8029,9 +7999,11 @@
         <v>-63529.2612877</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>380</v>
+      </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
@@ -8066,9 +8038,11 @@
         <v>-63276.6163877</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>379</v>
+      </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -8103,9 +8077,11 @@
         <v>-63275.6163877</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>380</v>
+      </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -8118,6 +8094,6 @@
       <c r="M222" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-01 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>19611.3131</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>19522.553</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>19406.3513</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>19406.3513</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>19406.3513</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>19406.3513</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>19414.5879</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>19414.5879</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>19414.5879</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>19414.5879</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>18754.0208</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>18754.0208</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>18754.0208</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>21882.4389</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>21879.4389</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>21879.4389</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>21879.4389</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>21879.4389</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-16497.8952</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-28498.7842</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-28669.7052</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-22313.2664</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-23107.6983</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-25664.7352</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-25664.7352</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-24674.3664</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -4939,10 +4939,14 @@
         <v>-30631.5316</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>376</v>
+      </c>
+      <c r="J138" t="n">
+        <v>376</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
@@ -4975,8 +4979,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>376</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5010,7 +5020,9 @@
       <c r="I140" t="n">
         <v>375</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>376</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -5049,7 +5061,9 @@
       <c r="I141" t="n">
         <v>371</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>376</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5088,7 +5102,9 @@
       <c r="I142" t="n">
         <v>376</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>376</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5127,7 +5143,9 @@
       <c r="I143" t="n">
         <v>376</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>376</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5166,7 +5184,9 @@
       <c r="I144" t="n">
         <v>376</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>376</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5205,7 +5225,9 @@
       <c r="I145" t="n">
         <v>376</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>376</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5244,7 +5266,9 @@
       <c r="I146" t="n">
         <v>379</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>376</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5281,7 +5305,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>376</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5315,10 +5341,14 @@
         <v>-39126.1024</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>373</v>
+      </c>
+      <c r="J148" t="n">
+        <v>376</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5352,10 +5382,14 @@
         <v>-38280.76949999999</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>376</v>
+      </c>
+      <c r="J149" t="n">
+        <v>376</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5392,7 +5426,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>376</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5429,7 +5465,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>376</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5466,7 +5504,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>376</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5503,7 +5543,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>376</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5540,7 +5582,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>376</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5574,12 +5618,12 @@
         <v>-36681.9829</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>380</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>376</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5616,7 +5660,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>376</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5653,7 +5699,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>376</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5690,7 +5738,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>376</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5727,7 +5777,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>376</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5764,7 +5816,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>376</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5801,7 +5855,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>376</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5838,7 +5894,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>376</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5875,7 +5933,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>376</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5912,7 +5972,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>376</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5949,7 +6011,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>376</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5986,7 +6050,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>376</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6023,7 +6089,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>376</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6060,7 +6128,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>376</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6097,7 +6167,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>376</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6134,7 +6206,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>376</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6171,7 +6245,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>376</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6208,7 +6284,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>376</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6245,7 +6323,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>376</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6282,7 +6362,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>376</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6319,7 +6401,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>376</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6356,7 +6440,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>376</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6393,7 +6479,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>376</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6430,7 +6518,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>376</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6467,7 +6557,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>376</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6504,7 +6596,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>376</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6541,7 +6635,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>376</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6575,17 +6671,19 @@
         <v>-46892.29549999999</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>376</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L182" t="n">
-        <v>1</v>
+        <v>1.016276595744681</v>
       </c>
       <c r="M182" t="inlineStr"/>
     </row>
@@ -6612,15 +6710,11 @@
         <v>-46892.29549999999</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6649,17 +6743,11 @@
         <v>-47476.29549999999</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>384</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6688,17 +6776,11 @@
         <v>-47475.29549999999</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>381</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6727,15 +6809,11 @@
         <v>-47525.29549999999</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6764,15 +6842,11 @@
         <v>-47525.29549999999</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6801,15 +6875,11 @@
         <v>-47524.29549999999</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6838,15 +6908,11 @@
         <v>-47885.61949999999</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6875,15 +6941,11 @@
         <v>-48563.38479999999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6912,17 +6974,11 @@
         <v>-48563.38479999999</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>382</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6951,17 +7007,11 @@
         <v>-60382.82369999999</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>382</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6990,17 +7040,11 @@
         <v>-57315.49969999999</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>379</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7029,15 +7073,11 @@
         <v>-57417.72159999999</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7066,15 +7106,11 @@
         <v>-56646.59108769999</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7103,15 +7139,11 @@
         <v>-56646.59108769999</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7140,15 +7172,11 @@
         <v>-56740.42938769999</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7177,15 +7205,11 @@
         <v>-56740.42938769999</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7214,15 +7238,11 @@
         <v>-56378.3293877</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7251,15 +7271,11 @@
         <v>-56378.3293877</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7288,17 +7304,11 @@
         <v>-56377.3293877</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>386</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7327,15 +7337,11 @@
         <v>-56490.4824877</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7364,15 +7370,11 @@
         <v>-56314.8628877</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7405,11 +7407,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7442,11 +7440,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7479,11 +7473,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7516,11 +7506,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7553,11 +7539,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7590,11 +7572,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7623,15 +7601,11 @@
         <v>-59014.8375877</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7664,11 +7638,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7701,11 +7671,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7738,11 +7704,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7775,11 +7737,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7812,11 +7770,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7845,15 +7799,11 @@
         <v>-61260.2267877</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7882,17 +7832,11 @@
         <v>-61259.2267877</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7921,17 +7865,11 @@
         <v>-61444.0784877</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>384</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7960,17 +7898,11 @@
         <v>-61444.0784877</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7999,17 +7931,11 @@
         <v>-63529.2612877</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8038,17 +7964,11 @@
         <v>-63276.6163877</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>379</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8082,18 +8002,16 @@
       <c r="I222" t="n">
         <v>380</v>
       </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="n">
+        <v>380</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
       <c r="M222" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-01 BackTest STRAT.xlsx
@@ -451,7 +451,7 @@
         <v>19611.3131</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>19522.553</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>19406.3513</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>19406.3513</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>19414.5879</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -4939,14 +4939,10 @@
         <v>-30631.5316</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>376</v>
-      </c>
-      <c r="J138" t="n">
-        <v>376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
@@ -4979,3033 +4975,3063 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>374</v>
+      </c>
+      <c r="C140" t="n">
+        <v>371</v>
+      </c>
+      <c r="D140" t="n">
+        <v>374</v>
+      </c>
+      <c r="E140" t="n">
+        <v>371</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4618.2676</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-35468.7992</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>375</v>
+      </c>
+      <c r="C141" t="n">
         <v>376</v>
       </c>
-      <c r="K139" t="inlineStr">
+      <c r="D141" t="n">
+        <v>376</v>
+      </c>
+      <c r="E141" t="n">
+        <v>374</v>
+      </c>
+      <c r="F141" t="n">
+        <v>602.7495</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-34866.0497</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>374</v>
+      </c>
+      <c r="C142" t="n">
+        <v>376</v>
+      </c>
+      <c r="D142" t="n">
+        <v>376</v>
+      </c>
+      <c r="E142" t="n">
+        <v>374</v>
+      </c>
+      <c r="F142" t="n">
+        <v>435.2397</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-34866.0497</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>376</v>
+      </c>
+      <c r="C143" t="n">
+        <v>376</v>
+      </c>
+      <c r="D143" t="n">
+        <v>376</v>
+      </c>
+      <c r="E143" t="n">
+        <v>376</v>
+      </c>
+      <c r="F143" t="n">
+        <v>100</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-34866.0497</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>376</v>
+      </c>
+      <c r="C144" t="n">
+        <v>376</v>
+      </c>
+      <c r="D144" t="n">
+        <v>376</v>
+      </c>
+      <c r="E144" t="n">
+        <v>376</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1340.0994</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-34866.0497</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>374</v>
+      </c>
+      <c r="C145" t="n">
+        <v>379</v>
+      </c>
+      <c r="D145" t="n">
+        <v>379</v>
+      </c>
+      <c r="E145" t="n">
+        <v>374</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1051.5068</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-33814.5429</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>381</v>
+      </c>
+      <c r="C146" t="n">
+        <v>381</v>
+      </c>
+      <c r="D146" t="n">
+        <v>381</v>
+      </c>
+      <c r="E146" t="n">
+        <v>381</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-33813.5429</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>375</v>
+      </c>
+      <c r="C147" t="n">
+        <v>373</v>
+      </c>
+      <c r="D147" t="n">
+        <v>375</v>
+      </c>
+      <c r="E147" t="n">
+        <v>373</v>
+      </c>
+      <c r="F147" t="n">
+        <v>5497.9298</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-39311.4727</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>376</v>
+      </c>
+      <c r="C148" t="n">
+        <v>376</v>
+      </c>
+      <c r="D148" t="n">
+        <v>376</v>
+      </c>
+      <c r="E148" t="n">
+        <v>376</v>
+      </c>
+      <c r="F148" t="n">
+        <v>185.3703</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-39126.1024</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>379</v>
+      </c>
+      <c r="C149" t="n">
+        <v>379</v>
+      </c>
+      <c r="D149" t="n">
+        <v>379</v>
+      </c>
+      <c r="E149" t="n">
+        <v>379</v>
+      </c>
+      <c r="F149" t="n">
+        <v>845.3329</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-38280.76949999999</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>379</v>
+      </c>
+      <c r="C150" t="n">
+        <v>379</v>
+      </c>
+      <c r="D150" t="n">
+        <v>379</v>
+      </c>
+      <c r="E150" t="n">
+        <v>379</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-38280.76949999999</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>380</v>
+      </c>
+      <c r="C151" t="n">
+        <v>380</v>
+      </c>
+      <c r="D151" t="n">
+        <v>380</v>
+      </c>
+      <c r="E151" t="n">
+        <v>380</v>
+      </c>
+      <c r="F151" t="n">
+        <v>175.3755</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-38105.39399999999</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>379</v>
+      </c>
+      <c r="C152" t="n">
+        <v>379</v>
+      </c>
+      <c r="D152" t="n">
+        <v>379</v>
+      </c>
+      <c r="E152" t="n">
+        <v>379</v>
+      </c>
+      <c r="F152" t="n">
+        <v>144.0144</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-38249.40839999999</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>379</v>
+      </c>
+      <c r="C153" t="n">
+        <v>379</v>
+      </c>
+      <c r="D153" t="n">
+        <v>379</v>
+      </c>
+      <c r="E153" t="n">
+        <v>379</v>
+      </c>
+      <c r="F153" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-38249.40839999999</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>380</v>
+      </c>
+      <c r="C154" t="n">
+        <v>380</v>
+      </c>
+      <c r="D154" t="n">
+        <v>380</v>
+      </c>
+      <c r="E154" t="n">
+        <v>380</v>
+      </c>
+      <c r="F154" t="n">
+        <v>50</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-38199.40839999999</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>381</v>
+      </c>
+      <c r="C155" t="n">
+        <v>383</v>
+      </c>
+      <c r="D155" t="n">
+        <v>383</v>
+      </c>
+      <c r="E155" t="n">
+        <v>381</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1517.4255</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-36681.9829</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>384</v>
+      </c>
+      <c r="C156" t="n">
+        <v>381</v>
+      </c>
+      <c r="D156" t="n">
+        <v>384</v>
+      </c>
+      <c r="E156" t="n">
+        <v>381</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2143</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-38824.9829</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>381</v>
+      </c>
+      <c r="C157" t="n">
+        <v>381</v>
+      </c>
+      <c r="D157" t="n">
+        <v>381</v>
+      </c>
+      <c r="E157" t="n">
+        <v>381</v>
+      </c>
+      <c r="F157" t="n">
+        <v>5</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-38824.9829</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>383</v>
+      </c>
+      <c r="C158" t="n">
+        <v>381</v>
+      </c>
+      <c r="D158" t="n">
+        <v>385</v>
+      </c>
+      <c r="E158" t="n">
+        <v>381</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3720.2313</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-38824.9829</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>382</v>
+      </c>
+      <c r="C159" t="n">
+        <v>382</v>
+      </c>
+      <c r="D159" t="n">
+        <v>382</v>
+      </c>
+      <c r="E159" t="n">
+        <v>382</v>
+      </c>
+      <c r="F159" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-38720.18289999999</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>386</v>
+      </c>
+      <c r="C160" t="n">
+        <v>386</v>
+      </c>
+      <c r="D160" t="n">
+        <v>386</v>
+      </c>
+      <c r="E160" t="n">
+        <v>386</v>
+      </c>
+      <c r="F160" t="n">
+        <v>152.5647</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-38567.61819999999</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>386</v>
+      </c>
+      <c r="C161" t="n">
+        <v>381</v>
+      </c>
+      <c r="D161" t="n">
+        <v>386</v>
+      </c>
+      <c r="E161" t="n">
+        <v>381</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1125.6958</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-39693.31399999999</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>387</v>
+      </c>
+      <c r="C162" t="n">
+        <v>387</v>
+      </c>
+      <c r="D162" t="n">
+        <v>387</v>
+      </c>
+      <c r="E162" t="n">
+        <v>387</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-39692.31399999999</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>383</v>
+      </c>
+      <c r="C163" t="n">
+        <v>383</v>
+      </c>
+      <c r="D163" t="n">
+        <v>383</v>
+      </c>
+      <c r="E163" t="n">
+        <v>383</v>
+      </c>
+      <c r="F163" t="n">
+        <v>94.98690000000001</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-39787.30089999999</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>382</v>
+      </c>
+      <c r="C164" t="n">
+        <v>382</v>
+      </c>
+      <c r="D164" t="n">
+        <v>383</v>
+      </c>
+      <c r="E164" t="n">
+        <v>381</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1495.4467</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-41282.7476</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>382</v>
+      </c>
+      <c r="C165" t="n">
+        <v>382</v>
+      </c>
+      <c r="D165" t="n">
+        <v>382</v>
+      </c>
+      <c r="E165" t="n">
+        <v>382</v>
+      </c>
+      <c r="F165" t="n">
+        <v>181.876</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-41282.7476</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>382</v>
+      </c>
+      <c r="C166" t="n">
+        <v>382</v>
+      </c>
+      <c r="D166" t="n">
+        <v>382</v>
+      </c>
+      <c r="E166" t="n">
+        <v>382</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1639.2004</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-41282.7476</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>382</v>
+      </c>
+      <c r="C167" t="n">
+        <v>382</v>
+      </c>
+      <c r="D167" t="n">
+        <v>382</v>
+      </c>
+      <c r="E167" t="n">
+        <v>382</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1451.0769</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-41282.7476</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>382</v>
+      </c>
+      <c r="C168" t="n">
+        <v>382</v>
+      </c>
+      <c r="D168" t="n">
+        <v>382</v>
+      </c>
+      <c r="E168" t="n">
+        <v>382</v>
+      </c>
+      <c r="F168" t="n">
+        <v>87.9999</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-41282.7476</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>383</v>
+      </c>
+      <c r="C169" t="n">
+        <v>384</v>
+      </c>
+      <c r="D169" t="n">
+        <v>384</v>
+      </c>
+      <c r="E169" t="n">
+        <v>383</v>
+      </c>
+      <c r="F169" t="n">
+        <v>629.9861</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-40652.76149999999</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>385</v>
+      </c>
+      <c r="C170" t="n">
+        <v>385</v>
+      </c>
+      <c r="D170" t="n">
+        <v>385</v>
+      </c>
+      <c r="E170" t="n">
+        <v>385</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-40651.76149999999</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>385</v>
+      </c>
+      <c r="C171" t="n">
+        <v>387</v>
+      </c>
+      <c r="D171" t="n">
+        <v>387</v>
+      </c>
+      <c r="E171" t="n">
+        <v>385</v>
+      </c>
+      <c r="F171" t="n">
+        <v>904.0697</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-39747.69179999999</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>387</v>
+      </c>
+      <c r="C172" t="n">
+        <v>384</v>
+      </c>
+      <c r="D172" t="n">
+        <v>390</v>
+      </c>
+      <c r="E172" t="n">
+        <v>384</v>
+      </c>
+      <c r="F172" t="n">
+        <v>6628.5442</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-46376.23599999999</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>387</v>
+      </c>
+      <c r="C173" t="n">
+        <v>386</v>
+      </c>
+      <c r="D173" t="n">
+        <v>387</v>
+      </c>
+      <c r="E173" t="n">
+        <v>386</v>
+      </c>
+      <c r="F173" t="n">
+        <v>473</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-45903.23599999999</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>386</v>
+      </c>
+      <c r="C174" t="n">
+        <v>386</v>
+      </c>
+      <c r="D174" t="n">
+        <v>386</v>
+      </c>
+      <c r="E174" t="n">
+        <v>386</v>
+      </c>
+      <c r="F174" t="n">
+        <v>50</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-45903.23599999999</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>386</v>
+      </c>
+      <c r="C175" t="n">
+        <v>385</v>
+      </c>
+      <c r="D175" t="n">
+        <v>386</v>
+      </c>
+      <c r="E175" t="n">
+        <v>385</v>
+      </c>
+      <c r="F175" t="n">
+        <v>200</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-46103.23599999999</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>385</v>
+      </c>
+      <c r="C176" t="n">
+        <v>385</v>
+      </c>
+      <c r="D176" t="n">
+        <v>385</v>
+      </c>
+      <c r="E176" t="n">
+        <v>385</v>
+      </c>
+      <c r="F176" t="n">
+        <v>50</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-46103.23599999999</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>389</v>
+      </c>
+      <c r="C177" t="n">
+        <v>389</v>
+      </c>
+      <c r="D177" t="n">
+        <v>389</v>
+      </c>
+      <c r="E177" t="n">
+        <v>389</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-46102.23599999999</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>385</v>
+      </c>
+      <c r="J177" t="n">
+        <v>385</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>384</v>
+      </c>
+      <c r="C178" t="n">
+        <v>384</v>
+      </c>
+      <c r="D178" t="n">
+        <v>384</v>
+      </c>
+      <c r="E178" t="n">
+        <v>384</v>
+      </c>
+      <c r="F178" t="n">
+        <v>50</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-46152.23599999999</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>385</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>374</v>
-      </c>
-      <c r="C140" t="n">
-        <v>371</v>
-      </c>
-      <c r="D140" t="n">
-        <v>374</v>
-      </c>
-      <c r="E140" t="n">
-        <v>371</v>
-      </c>
-      <c r="F140" t="n">
-        <v>4618.2676</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-35468.7992</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>375</v>
-      </c>
-      <c r="J140" t="n">
-        <v>376</v>
-      </c>
-      <c r="K140" t="inlineStr">
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>384</v>
+      </c>
+      <c r="C179" t="n">
+        <v>384</v>
+      </c>
+      <c r="D179" t="n">
+        <v>384</v>
+      </c>
+      <c r="E179" t="n">
+        <v>384</v>
+      </c>
+      <c r="F179" t="n">
+        <v>143.6356</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-46152.23599999999</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>384</v>
+      </c>
+      <c r="J179" t="n">
+        <v>385</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>384</v>
+      </c>
+      <c r="C180" t="n">
+        <v>384</v>
+      </c>
+      <c r="D180" t="n">
+        <v>384</v>
+      </c>
+      <c r="E180" t="n">
+        <v>384</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3073.3927</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-46152.23599999999</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>384</v>
+      </c>
+      <c r="J180" t="n">
+        <v>384</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>389</v>
+      </c>
+      <c r="C181" t="n">
+        <v>389</v>
+      </c>
+      <c r="D181" t="n">
+        <v>389</v>
+      </c>
+      <c r="E181" t="n">
+        <v>389</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-46151.23599999999</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>384</v>
+      </c>
+      <c r="J181" t="n">
+        <v>384</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>384</v>
+      </c>
+      <c r="C182" t="n">
+        <v>384</v>
+      </c>
+      <c r="D182" t="n">
+        <v>384</v>
+      </c>
+      <c r="E182" t="n">
+        <v>384</v>
+      </c>
+      <c r="F182" t="n">
+        <v>741.0595</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-46892.29549999999</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>384</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>384</v>
+      </c>
+      <c r="C183" t="n">
+        <v>384</v>
+      </c>
+      <c r="D183" t="n">
+        <v>384</v>
+      </c>
+      <c r="E183" t="n">
+        <v>384</v>
+      </c>
+      <c r="F183" t="n">
+        <v>772.645</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-46892.29549999999</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>384</v>
+      </c>
+      <c r="J183" t="n">
+        <v>384</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>384</v>
+      </c>
+      <c r="C184" t="n">
+        <v>381</v>
+      </c>
+      <c r="D184" t="n">
+        <v>384</v>
+      </c>
+      <c r="E184" t="n">
+        <v>381</v>
+      </c>
+      <c r="F184" t="n">
+        <v>584</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-47476.29549999999</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>384</v>
+      </c>
+      <c r="J184" t="n">
+        <v>384</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>375</v>
-      </c>
-      <c r="C141" t="n">
-        <v>376</v>
-      </c>
-      <c r="D141" t="n">
-        <v>376</v>
-      </c>
-      <c r="E141" t="n">
-        <v>374</v>
-      </c>
-      <c r="F141" t="n">
-        <v>602.7495</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-34866.0497</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>371</v>
-      </c>
-      <c r="J141" t="n">
-        <v>376</v>
-      </c>
-      <c r="K141" t="inlineStr">
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>388</v>
+      </c>
+      <c r="C185" t="n">
+        <v>388</v>
+      </c>
+      <c r="D185" t="n">
+        <v>388</v>
+      </c>
+      <c r="E185" t="n">
+        <v>388</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-47475.29549999999</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>381</v>
+      </c>
+      <c r="J185" t="n">
+        <v>384</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>374</v>
-      </c>
-      <c r="C142" t="n">
-        <v>376</v>
-      </c>
-      <c r="D142" t="n">
-        <v>376</v>
-      </c>
-      <c r="E142" t="n">
-        <v>374</v>
-      </c>
-      <c r="F142" t="n">
-        <v>435.2397</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-34866.0497</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>376</v>
-      </c>
-      <c r="J142" t="n">
-        <v>376</v>
-      </c>
-      <c r="K142" t="inlineStr">
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>383</v>
+      </c>
+      <c r="C186" t="n">
+        <v>383</v>
+      </c>
+      <c r="D186" t="n">
+        <v>383</v>
+      </c>
+      <c r="E186" t="n">
+        <v>383</v>
+      </c>
+      <c r="F186" t="n">
+        <v>50</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-47525.29549999999</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>388</v>
+      </c>
+      <c r="J186" t="n">
+        <v>384</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>376</v>
-      </c>
-      <c r="C143" t="n">
-        <v>376</v>
-      </c>
-      <c r="D143" t="n">
-        <v>376</v>
-      </c>
-      <c r="E143" t="n">
-        <v>376</v>
-      </c>
-      <c r="F143" t="n">
-        <v>100</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-34866.0497</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>376</v>
-      </c>
-      <c r="J143" t="n">
-        <v>376</v>
-      </c>
-      <c r="K143" t="inlineStr">
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>383</v>
+      </c>
+      <c r="C187" t="n">
+        <v>383</v>
+      </c>
+      <c r="D187" t="n">
+        <v>383</v>
+      </c>
+      <c r="E187" t="n">
+        <v>383</v>
+      </c>
+      <c r="F187" t="n">
+        <v>107</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-47525.29549999999</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>383</v>
+      </c>
+      <c r="J187" t="n">
+        <v>384</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>376</v>
-      </c>
-      <c r="C144" t="n">
-        <v>376</v>
-      </c>
-      <c r="D144" t="n">
-        <v>376</v>
-      </c>
-      <c r="E144" t="n">
-        <v>376</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1340.0994</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-34866.0497</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>376</v>
-      </c>
-      <c r="J144" t="n">
-        <v>376</v>
-      </c>
-      <c r="K144" t="inlineStr">
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>387</v>
+      </c>
+      <c r="C188" t="n">
+        <v>387</v>
+      </c>
+      <c r="D188" t="n">
+        <v>387</v>
+      </c>
+      <c r="E188" t="n">
+        <v>387</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-47524.29549999999</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>383</v>
+      </c>
+      <c r="J188" t="n">
+        <v>384</v>
+      </c>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>374</v>
-      </c>
-      <c r="C145" t="n">
-        <v>379</v>
-      </c>
-      <c r="D145" t="n">
-        <v>379</v>
-      </c>
-      <c r="E145" t="n">
-        <v>374</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1051.5068</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-33814.5429</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>376</v>
-      </c>
-      <c r="J145" t="n">
-        <v>376</v>
-      </c>
-      <c r="K145" t="inlineStr">
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>383</v>
+      </c>
+      <c r="C189" t="n">
+        <v>383</v>
+      </c>
+      <c r="D189" t="n">
+        <v>383</v>
+      </c>
+      <c r="E189" t="n">
+        <v>383</v>
+      </c>
+      <c r="F189" t="n">
+        <v>361.324</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-47885.61949999999</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>387</v>
+      </c>
+      <c r="J189" t="n">
+        <v>384</v>
+      </c>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>381</v>
-      </c>
-      <c r="C146" t="n">
-        <v>381</v>
-      </c>
-      <c r="D146" t="n">
-        <v>381</v>
-      </c>
-      <c r="E146" t="n">
-        <v>381</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-33813.5429</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>379</v>
-      </c>
-      <c r="J146" t="n">
-        <v>376</v>
-      </c>
-      <c r="K146" t="inlineStr">
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>382</v>
+      </c>
+      <c r="C190" t="n">
+        <v>382</v>
+      </c>
+      <c r="D190" t="n">
+        <v>382</v>
+      </c>
+      <c r="E190" t="n">
+        <v>382</v>
+      </c>
+      <c r="F190" t="n">
+        <v>677.7653</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-48563.38479999999</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>383</v>
+      </c>
+      <c r="J190" t="n">
+        <v>384</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>375</v>
-      </c>
-      <c r="C147" t="n">
-        <v>373</v>
-      </c>
-      <c r="D147" t="n">
-        <v>375</v>
-      </c>
-      <c r="E147" t="n">
-        <v>373</v>
-      </c>
-      <c r="F147" t="n">
-        <v>5497.9298</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-39311.4727</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>376</v>
-      </c>
-      <c r="K147" t="inlineStr">
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>382</v>
+      </c>
+      <c r="C191" t="n">
+        <v>382</v>
+      </c>
+      <c r="D191" t="n">
+        <v>382</v>
+      </c>
+      <c r="E191" t="n">
+        <v>382</v>
+      </c>
+      <c r="F191" t="n">
+        <v>901.8095</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-48563.38479999999</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>382</v>
+      </c>
+      <c r="J191" t="n">
+        <v>384</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>376</v>
-      </c>
-      <c r="C148" t="n">
-        <v>376</v>
-      </c>
-      <c r="D148" t="n">
-        <v>376</v>
-      </c>
-      <c r="E148" t="n">
-        <v>376</v>
-      </c>
-      <c r="F148" t="n">
-        <v>185.3703</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-39126.1024</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>373</v>
-      </c>
-      <c r="J148" t="n">
-        <v>376</v>
-      </c>
-      <c r="K148" t="inlineStr">
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>382</v>
+      </c>
+      <c r="C192" t="n">
+        <v>379</v>
+      </c>
+      <c r="D192" t="n">
+        <v>382</v>
+      </c>
+      <c r="E192" t="n">
+        <v>379</v>
+      </c>
+      <c r="F192" t="n">
+        <v>11819.4389</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-60382.82369999999</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>382</v>
+      </c>
+      <c r="J192" t="n">
+        <v>384</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>385</v>
+      </c>
+      <c r="C193" t="n">
+        <v>389</v>
+      </c>
+      <c r="D193" t="n">
+        <v>389</v>
+      </c>
+      <c r="E193" t="n">
+        <v>385</v>
+      </c>
+      <c r="F193" t="n">
+        <v>3067.324</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-57315.49969999999</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
         <v>379</v>
       </c>
-      <c r="C149" t="n">
-        <v>379</v>
-      </c>
-      <c r="D149" t="n">
-        <v>379</v>
-      </c>
-      <c r="E149" t="n">
-        <v>379</v>
-      </c>
-      <c r="F149" t="n">
-        <v>845.3329</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-38280.76949999999</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>376</v>
-      </c>
-      <c r="J149" t="n">
-        <v>376</v>
-      </c>
-      <c r="K149" t="inlineStr">
+      <c r="J193" t="n">
+        <v>384</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>379</v>
-      </c>
-      <c r="C150" t="n">
-        <v>379</v>
-      </c>
-      <c r="D150" t="n">
-        <v>379</v>
-      </c>
-      <c r="E150" t="n">
-        <v>379</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-38280.76949999999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>376</v>
-      </c>
-      <c r="K150" t="inlineStr">
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>385</v>
+      </c>
+      <c r="C194" t="n">
+        <v>385</v>
+      </c>
+      <c r="D194" t="n">
+        <v>385</v>
+      </c>
+      <c r="E194" t="n">
+        <v>385</v>
+      </c>
+      <c r="F194" t="n">
+        <v>102.2219</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-57417.72159999999</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>389</v>
+      </c>
+      <c r="J194" t="n">
+        <v>384</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>380</v>
-      </c>
-      <c r="C151" t="n">
-        <v>380</v>
-      </c>
-      <c r="D151" t="n">
-        <v>380</v>
-      </c>
-      <c r="E151" t="n">
-        <v>380</v>
-      </c>
-      <c r="F151" t="n">
-        <v>175.3755</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-38105.39399999999</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>376</v>
-      </c>
-      <c r="K151" t="inlineStr">
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>388</v>
+      </c>
+      <c r="C195" t="n">
+        <v>390</v>
+      </c>
+      <c r="D195" t="n">
+        <v>390</v>
+      </c>
+      <c r="E195" t="n">
+        <v>388</v>
+      </c>
+      <c r="F195" t="n">
+        <v>771.1305123</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-56646.59108769999</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>385</v>
+      </c>
+      <c r="J195" t="n">
+        <v>384</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>379</v>
-      </c>
-      <c r="C152" t="n">
-        <v>379</v>
-      </c>
-      <c r="D152" t="n">
-        <v>379</v>
-      </c>
-      <c r="E152" t="n">
-        <v>379</v>
-      </c>
-      <c r="F152" t="n">
-        <v>144.0144</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-38249.40839999999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>376</v>
-      </c>
-      <c r="K152" t="inlineStr">
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>389</v>
+      </c>
+      <c r="C196" t="n">
+        <v>390</v>
+      </c>
+      <c r="D196" t="n">
+        <v>390</v>
+      </c>
+      <c r="E196" t="n">
+        <v>389</v>
+      </c>
+      <c r="F196" t="n">
+        <v>513.07923076</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-56646.59108769999</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>384</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>379</v>
-      </c>
-      <c r="C153" t="n">
-        <v>379</v>
-      </c>
-      <c r="D153" t="n">
-        <v>379</v>
-      </c>
-      <c r="E153" t="n">
-        <v>379</v>
-      </c>
-      <c r="F153" t="n">
-        <v>15.26</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-38249.40839999999</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>376</v>
-      </c>
-      <c r="K153" t="inlineStr">
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>385</v>
+      </c>
+      <c r="C197" t="n">
+        <v>385</v>
+      </c>
+      <c r="D197" t="n">
+        <v>385</v>
+      </c>
+      <c r="E197" t="n">
+        <v>385</v>
+      </c>
+      <c r="F197" t="n">
+        <v>93.8383</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-56740.42938769999</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>384</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>380</v>
-      </c>
-      <c r="C154" t="n">
-        <v>380</v>
-      </c>
-      <c r="D154" t="n">
-        <v>380</v>
-      </c>
-      <c r="E154" t="n">
-        <v>380</v>
-      </c>
-      <c r="F154" t="n">
-        <v>50</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-38199.40839999999</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>376</v>
-      </c>
-      <c r="K154" t="inlineStr">
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>385</v>
+      </c>
+      <c r="C198" t="n">
+        <v>385</v>
+      </c>
+      <c r="D198" t="n">
+        <v>385</v>
+      </c>
+      <c r="E198" t="n">
+        <v>385</v>
+      </c>
+      <c r="F198" t="n">
+        <v>121</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-56740.42938769999</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>384</v>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>381</v>
-      </c>
-      <c r="C155" t="n">
-        <v>383</v>
-      </c>
-      <c r="D155" t="n">
-        <v>383</v>
-      </c>
-      <c r="E155" t="n">
-        <v>381</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1517.4255</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-36681.9829</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>376</v>
-      </c>
-      <c r="K155" t="inlineStr">
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>386</v>
+      </c>
+      <c r="C199" t="n">
+        <v>386</v>
+      </c>
+      <c r="D199" t="n">
+        <v>386</v>
+      </c>
+      <c r="E199" t="n">
+        <v>385</v>
+      </c>
+      <c r="F199" t="n">
+        <v>362.1</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-56378.3293877</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>384</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>384</v>
-      </c>
-      <c r="C156" t="n">
-        <v>381</v>
-      </c>
-      <c r="D156" t="n">
-        <v>384</v>
-      </c>
-      <c r="E156" t="n">
-        <v>381</v>
-      </c>
-      <c r="F156" t="n">
-        <v>2143</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-38824.9829</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>376</v>
-      </c>
-      <c r="K156" t="inlineStr">
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>386</v>
+      </c>
+      <c r="C200" t="n">
+        <v>386</v>
+      </c>
+      <c r="D200" t="n">
+        <v>386</v>
+      </c>
+      <c r="E200" t="n">
+        <v>386</v>
+      </c>
+      <c r="F200" t="n">
+        <v>172</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-56378.3293877</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>384</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>381</v>
-      </c>
-      <c r="C157" t="n">
-        <v>381</v>
-      </c>
-      <c r="D157" t="n">
-        <v>381</v>
-      </c>
-      <c r="E157" t="n">
-        <v>381</v>
-      </c>
-      <c r="F157" t="n">
-        <v>5</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-38824.9829</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>376</v>
-      </c>
-      <c r="K157" t="inlineStr">
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>389</v>
+      </c>
+      <c r="C201" t="n">
+        <v>389</v>
+      </c>
+      <c r="D201" t="n">
+        <v>389</v>
+      </c>
+      <c r="E201" t="n">
+        <v>389</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-56377.3293877</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>384</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>383</v>
-      </c>
-      <c r="C158" t="n">
-        <v>381</v>
-      </c>
-      <c r="D158" t="n">
-        <v>385</v>
-      </c>
-      <c r="E158" t="n">
-        <v>381</v>
-      </c>
-      <c r="F158" t="n">
-        <v>3720.2313</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-38824.9829</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>376</v>
-      </c>
-      <c r="K158" t="inlineStr">
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>385</v>
+      </c>
+      <c r="C202" t="n">
+        <v>385</v>
+      </c>
+      <c r="D202" t="n">
+        <v>385</v>
+      </c>
+      <c r="E202" t="n">
+        <v>385</v>
+      </c>
+      <c r="F202" t="n">
+        <v>113.1531</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-56490.4824877</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>384</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>382</v>
-      </c>
-      <c r="C159" t="n">
-        <v>382</v>
-      </c>
-      <c r="D159" t="n">
-        <v>382</v>
-      </c>
-      <c r="E159" t="n">
-        <v>382</v>
-      </c>
-      <c r="F159" t="n">
-        <v>104.8</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-38720.18289999999</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>376</v>
-      </c>
-      <c r="K159" t="inlineStr">
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>386</v>
+      </c>
+      <c r="C203" t="n">
+        <v>386</v>
+      </c>
+      <c r="D203" t="n">
+        <v>386</v>
+      </c>
+      <c r="E203" t="n">
+        <v>386</v>
+      </c>
+      <c r="F203" t="n">
+        <v>175.6196</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-56314.8628877</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>384</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>386</v>
-      </c>
-      <c r="C160" t="n">
-        <v>386</v>
-      </c>
-      <c r="D160" t="n">
-        <v>386</v>
-      </c>
-      <c r="E160" t="n">
-        <v>386</v>
-      </c>
-      <c r="F160" t="n">
-        <v>152.5647</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-38567.61819999999</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>376</v>
-      </c>
-      <c r="K160" t="inlineStr">
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>385</v>
+      </c>
+      <c r="C204" t="n">
+        <v>385</v>
+      </c>
+      <c r="D204" t="n">
+        <v>385</v>
+      </c>
+      <c r="E204" t="n">
+        <v>385</v>
+      </c>
+      <c r="F204" t="n">
+        <v>886.1368</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-57200.9996877</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>384</v>
+      </c>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>386</v>
-      </c>
-      <c r="C161" t="n">
-        <v>381</v>
-      </c>
-      <c r="D161" t="n">
-        <v>386</v>
-      </c>
-      <c r="E161" t="n">
-        <v>381</v>
-      </c>
-      <c r="F161" t="n">
-        <v>1125.6958</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-39693.31399999999</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>376</v>
-      </c>
-      <c r="K161" t="inlineStr">
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>385</v>
+      </c>
+      <c r="C205" t="n">
+        <v>385</v>
+      </c>
+      <c r="D205" t="n">
+        <v>385</v>
+      </c>
+      <c r="E205" t="n">
+        <v>385</v>
+      </c>
+      <c r="F205" t="n">
+        <v>39.0873</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-57200.9996877</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>384</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>387</v>
-      </c>
-      <c r="C162" t="n">
-        <v>387</v>
-      </c>
-      <c r="D162" t="n">
-        <v>387</v>
-      </c>
-      <c r="E162" t="n">
-        <v>387</v>
-      </c>
-      <c r="F162" t="n">
-        <v>1</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-39692.31399999999</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>376</v>
-      </c>
-      <c r="K162" t="inlineStr">
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>385</v>
+      </c>
+      <c r="C206" t="n">
+        <v>385</v>
+      </c>
+      <c r="D206" t="n">
+        <v>385</v>
+      </c>
+      <c r="E206" t="n">
+        <v>385</v>
+      </c>
+      <c r="F206" t="n">
+        <v>87.9466</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-57200.9996877</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>384</v>
+      </c>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>383</v>
-      </c>
-      <c r="C163" t="n">
-        <v>383</v>
-      </c>
-      <c r="D163" t="n">
-        <v>383</v>
-      </c>
-      <c r="E163" t="n">
-        <v>383</v>
-      </c>
-      <c r="F163" t="n">
-        <v>94.98690000000001</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-39787.30089999999</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>376</v>
-      </c>
-      <c r="K163" t="inlineStr">
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>385</v>
+      </c>
+      <c r="C207" t="n">
+        <v>385</v>
+      </c>
+      <c r="D207" t="n">
+        <v>385</v>
+      </c>
+      <c r="E207" t="n">
+        <v>385</v>
+      </c>
+      <c r="F207" t="n">
+        <v>665</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-57200.9996877</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>384</v>
+      </c>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>382</v>
-      </c>
-      <c r="C164" t="n">
-        <v>382</v>
-      </c>
-      <c r="D164" t="n">
-        <v>383</v>
-      </c>
-      <c r="E164" t="n">
-        <v>381</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1495.4467</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-41282.7476</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>376</v>
-      </c>
-      <c r="K164" t="inlineStr">
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>385</v>
+      </c>
+      <c r="C208" t="n">
+        <v>385</v>
+      </c>
+      <c r="D208" t="n">
+        <v>385</v>
+      </c>
+      <c r="E208" t="n">
+        <v>385</v>
+      </c>
+      <c r="F208" t="n">
+        <v>237.9599</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-57200.9996877</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>385</v>
+      </c>
+      <c r="J208" t="n">
+        <v>384</v>
+      </c>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>382</v>
-      </c>
-      <c r="C165" t="n">
-        <v>382</v>
-      </c>
-      <c r="D165" t="n">
-        <v>382</v>
-      </c>
-      <c r="E165" t="n">
-        <v>382</v>
-      </c>
-      <c r="F165" t="n">
-        <v>181.876</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-41282.7476</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>376</v>
-      </c>
-      <c r="K165" t="inlineStr">
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>385</v>
+      </c>
+      <c r="C209" t="n">
+        <v>385</v>
+      </c>
+      <c r="D209" t="n">
+        <v>385</v>
+      </c>
+      <c r="E209" t="n">
+        <v>385</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1827.0045</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-57200.9996877</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>384</v>
+      </c>
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>382</v>
-      </c>
-      <c r="C166" t="n">
-        <v>382</v>
-      </c>
-      <c r="D166" t="n">
-        <v>382</v>
-      </c>
-      <c r="E166" t="n">
-        <v>382</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1639.2004</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-41282.7476</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>376</v>
-      </c>
-      <c r="K166" t="inlineStr">
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>384</v>
+      </c>
+      <c r="C210" t="n">
+        <v>384</v>
+      </c>
+      <c r="D210" t="n">
+        <v>384</v>
+      </c>
+      <c r="E210" t="n">
+        <v>380</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1813.8379</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-59014.8375877</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>384</v>
+      </c>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>382</v>
-      </c>
-      <c r="C167" t="n">
-        <v>382</v>
-      </c>
-      <c r="D167" t="n">
-        <v>382</v>
-      </c>
-      <c r="E167" t="n">
-        <v>382</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1451.0769</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-41282.7476</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>376</v>
-      </c>
-      <c r="K167" t="inlineStr">
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>384</v>
+      </c>
+      <c r="C211" t="n">
+        <v>385</v>
+      </c>
+      <c r="D211" t="n">
+        <v>385</v>
+      </c>
+      <c r="E211" t="n">
+        <v>384</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-59013.8375877</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>384</v>
+      </c>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>382</v>
-      </c>
-      <c r="C168" t="n">
-        <v>382</v>
-      </c>
-      <c r="D168" t="n">
-        <v>382</v>
-      </c>
-      <c r="E168" t="n">
-        <v>382</v>
-      </c>
-      <c r="F168" t="n">
-        <v>87.9999</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-41282.7476</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>376</v>
-      </c>
-      <c r="K168" t="inlineStr">
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>385</v>
+      </c>
+      <c r="C212" t="n">
+        <v>385</v>
+      </c>
+      <c r="D212" t="n">
+        <v>385</v>
+      </c>
+      <c r="E212" t="n">
+        <v>385</v>
+      </c>
+      <c r="F212" t="n">
+        <v>190.4763</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-59013.8375877</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>384</v>
+      </c>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>383</v>
-      </c>
-      <c r="C169" t="n">
-        <v>384</v>
-      </c>
-      <c r="D169" t="n">
-        <v>384</v>
-      </c>
-      <c r="E169" t="n">
-        <v>383</v>
-      </c>
-      <c r="F169" t="n">
-        <v>629.9861</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-40652.76149999999</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>376</v>
-      </c>
-      <c r="K169" t="inlineStr">
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>385</v>
+      </c>
+      <c r="C213" t="n">
+        <v>385</v>
+      </c>
+      <c r="D213" t="n">
+        <v>385</v>
+      </c>
+      <c r="E213" t="n">
+        <v>385</v>
+      </c>
+      <c r="F213" t="n">
+        <v>779.2207792200001</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-59013.8375877</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>384</v>
+      </c>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>385</v>
-      </c>
-      <c r="C170" t="n">
-        <v>385</v>
-      </c>
-      <c r="D170" t="n">
-        <v>385</v>
-      </c>
-      <c r="E170" t="n">
-        <v>385</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-40651.76149999999</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>376</v>
-      </c>
-      <c r="K170" t="inlineStr">
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>385</v>
+      </c>
+      <c r="C214" t="n">
+        <v>380</v>
+      </c>
+      <c r="D214" t="n">
+        <v>385</v>
+      </c>
+      <c r="E214" t="n">
+        <v>380</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-59015.8375877</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>384</v>
+      </c>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>385</v>
-      </c>
-      <c r="C171" t="n">
-        <v>387</v>
-      </c>
-      <c r="D171" t="n">
-        <v>387</v>
-      </c>
-      <c r="E171" t="n">
-        <v>385</v>
-      </c>
-      <c r="F171" t="n">
-        <v>904.0697</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-39747.69179999999</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>376</v>
-      </c>
-      <c r="K171" t="inlineStr">
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>380</v>
+      </c>
+      <c r="C215" t="n">
+        <v>380</v>
+      </c>
+      <c r="D215" t="n">
+        <v>380</v>
+      </c>
+      <c r="E215" t="n">
+        <v>380</v>
+      </c>
+      <c r="F215" t="n">
+        <v>9</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-59015.8375877</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>380</v>
+      </c>
+      <c r="J215" t="n">
+        <v>384</v>
+      </c>
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>387</v>
-      </c>
-      <c r="C172" t="n">
-        <v>384</v>
-      </c>
-      <c r="D172" t="n">
-        <v>390</v>
-      </c>
-      <c r="E172" t="n">
-        <v>384</v>
-      </c>
-      <c r="F172" t="n">
-        <v>6628.5442</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-46376.23599999999</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>376</v>
-      </c>
-      <c r="K172" t="inlineStr">
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>380</v>
+      </c>
+      <c r="C216" t="n">
+        <v>379</v>
+      </c>
+      <c r="D216" t="n">
+        <v>380</v>
+      </c>
+      <c r="E216" t="n">
+        <v>379</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2244.3892</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-61260.2267877</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>380</v>
+      </c>
+      <c r="J216" t="n">
+        <v>384</v>
+      </c>
+      <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>387</v>
-      </c>
-      <c r="C173" t="n">
-        <v>386</v>
-      </c>
-      <c r="D173" t="n">
-        <v>387</v>
-      </c>
-      <c r="E173" t="n">
-        <v>386</v>
-      </c>
-      <c r="F173" t="n">
-        <v>473</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-45903.23599999999</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>376</v>
-      </c>
-      <c r="K173" t="inlineStr">
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>384</v>
+      </c>
+      <c r="C217" t="n">
+        <v>384</v>
+      </c>
+      <c r="D217" t="n">
+        <v>384</v>
+      </c>
+      <c r="E217" t="n">
+        <v>384</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-61259.2267877</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>379</v>
+      </c>
+      <c r="J217" t="n">
+        <v>384</v>
+      </c>
+      <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>386</v>
-      </c>
-      <c r="C174" t="n">
-        <v>386</v>
-      </c>
-      <c r="D174" t="n">
-        <v>386</v>
-      </c>
-      <c r="E174" t="n">
-        <v>386</v>
-      </c>
-      <c r="F174" t="n">
-        <v>50</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-45903.23599999999</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>376</v>
-      </c>
-      <c r="K174" t="inlineStr">
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>380</v>
+      </c>
+      <c r="C218" t="n">
+        <v>380</v>
+      </c>
+      <c r="D218" t="n">
+        <v>380</v>
+      </c>
+      <c r="E218" t="n">
+        <v>380</v>
+      </c>
+      <c r="F218" t="n">
+        <v>184.8517</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-61444.0784877</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>384</v>
+      </c>
+      <c r="J218" t="n">
+        <v>384</v>
+      </c>
+      <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>386</v>
-      </c>
-      <c r="C175" t="n">
-        <v>385</v>
-      </c>
-      <c r="D175" t="n">
-        <v>386</v>
-      </c>
-      <c r="E175" t="n">
-        <v>385</v>
-      </c>
-      <c r="F175" t="n">
-        <v>200</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-46103.23599999999</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>376</v>
-      </c>
-      <c r="K175" t="inlineStr">
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>380</v>
+      </c>
+      <c r="C219" t="n">
+        <v>380</v>
+      </c>
+      <c r="D219" t="n">
+        <v>380</v>
+      </c>
+      <c r="E219" t="n">
+        <v>380</v>
+      </c>
+      <c r="F219" t="n">
+        <v>77.7587</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-61444.0784877</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>380</v>
+      </c>
+      <c r="J219" t="n">
+        <v>384</v>
+      </c>
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>385</v>
-      </c>
-      <c r="C176" t="n">
-        <v>385</v>
-      </c>
-      <c r="D176" t="n">
-        <v>385</v>
-      </c>
-      <c r="E176" t="n">
-        <v>385</v>
-      </c>
-      <c r="F176" t="n">
-        <v>50</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-46103.23599999999</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>376</v>
-      </c>
-      <c r="K176" t="inlineStr">
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>380</v>
+      </c>
+      <c r="C220" t="n">
+        <v>379</v>
+      </c>
+      <c r="D220" t="n">
+        <v>380</v>
+      </c>
+      <c r="E220" t="n">
+        <v>379</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2085.1828</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-63529.2612877</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>380</v>
+      </c>
+      <c r="J220" t="n">
+        <v>384</v>
+      </c>
+      <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>389</v>
-      </c>
-      <c r="C177" t="n">
-        <v>389</v>
-      </c>
-      <c r="D177" t="n">
-        <v>389</v>
-      </c>
-      <c r="E177" t="n">
-        <v>389</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-46102.23599999999</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>376</v>
-      </c>
-      <c r="K177" t="inlineStr">
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>380</v>
+      </c>
+      <c r="C221" t="n">
+        <v>380</v>
+      </c>
+      <c r="D221" t="n">
+        <v>380</v>
+      </c>
+      <c r="E221" t="n">
+        <v>380</v>
+      </c>
+      <c r="F221" t="n">
+        <v>252.6449</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-63276.6163877</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>379</v>
+      </c>
+      <c r="J221" t="n">
+        <v>384</v>
+      </c>
+      <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>384</v>
-      </c>
-      <c r="C178" t="n">
-        <v>384</v>
-      </c>
-      <c r="D178" t="n">
-        <v>384</v>
-      </c>
-      <c r="E178" t="n">
-        <v>384</v>
-      </c>
-      <c r="F178" t="n">
-        <v>50</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-46152.23599999999</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>376</v>
-      </c>
-      <c r="K178" t="inlineStr">
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>383</v>
+      </c>
+      <c r="C222" t="n">
+        <v>383</v>
+      </c>
+      <c r="D222" t="n">
+        <v>383</v>
+      </c>
+      <c r="E222" t="n">
+        <v>383</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-63275.6163877</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>380</v>
+      </c>
+      <c r="J222" t="n">
+        <v>384</v>
+      </c>
+      <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>384</v>
-      </c>
-      <c r="C179" t="n">
-        <v>384</v>
-      </c>
-      <c r="D179" t="n">
-        <v>384</v>
-      </c>
-      <c r="E179" t="n">
-        <v>384</v>
-      </c>
-      <c r="F179" t="n">
-        <v>143.6356</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-46152.23599999999</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>376</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>384</v>
-      </c>
-      <c r="C180" t="n">
-        <v>384</v>
-      </c>
-      <c r="D180" t="n">
-        <v>384</v>
-      </c>
-      <c r="E180" t="n">
-        <v>384</v>
-      </c>
-      <c r="F180" t="n">
-        <v>3073.3927</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-46152.23599999999</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>376</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>389</v>
-      </c>
-      <c r="C181" t="n">
-        <v>389</v>
-      </c>
-      <c r="D181" t="n">
-        <v>389</v>
-      </c>
-      <c r="E181" t="n">
-        <v>389</v>
-      </c>
-      <c r="F181" t="n">
-        <v>1</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-46151.23599999999</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>376</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>384</v>
-      </c>
-      <c r="C182" t="n">
-        <v>384</v>
-      </c>
-      <c r="D182" t="n">
-        <v>384</v>
-      </c>
-      <c r="E182" t="n">
-        <v>384</v>
-      </c>
-      <c r="F182" t="n">
-        <v>741.0595</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-46892.29549999999</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>376</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1.016276595744681</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>384</v>
-      </c>
-      <c r="C183" t="n">
-        <v>384</v>
-      </c>
-      <c r="D183" t="n">
-        <v>384</v>
-      </c>
-      <c r="E183" t="n">
-        <v>384</v>
-      </c>
-      <c r="F183" t="n">
-        <v>772.645</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-46892.29549999999</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>384</v>
-      </c>
-      <c r="C184" t="n">
-        <v>381</v>
-      </c>
-      <c r="D184" t="n">
-        <v>384</v>
-      </c>
-      <c r="E184" t="n">
-        <v>381</v>
-      </c>
-      <c r="F184" t="n">
-        <v>584</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-47476.29549999999</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>388</v>
-      </c>
-      <c r="C185" t="n">
-        <v>388</v>
-      </c>
-      <c r="D185" t="n">
-        <v>388</v>
-      </c>
-      <c r="E185" t="n">
-        <v>388</v>
-      </c>
-      <c r="F185" t="n">
-        <v>1</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-47475.29549999999</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>383</v>
-      </c>
-      <c r="C186" t="n">
-        <v>383</v>
-      </c>
-      <c r="D186" t="n">
-        <v>383</v>
-      </c>
-      <c r="E186" t="n">
-        <v>383</v>
-      </c>
-      <c r="F186" t="n">
-        <v>50</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-47525.29549999999</v>
-      </c>
-      <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>383</v>
-      </c>
-      <c r="C187" t="n">
-        <v>383</v>
-      </c>
-      <c r="D187" t="n">
-        <v>383</v>
-      </c>
-      <c r="E187" t="n">
-        <v>383</v>
-      </c>
-      <c r="F187" t="n">
-        <v>107</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-47525.29549999999</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>387</v>
-      </c>
-      <c r="C188" t="n">
-        <v>387</v>
-      </c>
-      <c r="D188" t="n">
-        <v>387</v>
-      </c>
-      <c r="E188" t="n">
-        <v>387</v>
-      </c>
-      <c r="F188" t="n">
-        <v>1</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-47524.29549999999</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>383</v>
-      </c>
-      <c r="C189" t="n">
-        <v>383</v>
-      </c>
-      <c r="D189" t="n">
-        <v>383</v>
-      </c>
-      <c r="E189" t="n">
-        <v>383</v>
-      </c>
-      <c r="F189" t="n">
-        <v>361.324</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-47885.61949999999</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>382</v>
-      </c>
-      <c r="C190" t="n">
-        <v>382</v>
-      </c>
-      <c r="D190" t="n">
-        <v>382</v>
-      </c>
-      <c r="E190" t="n">
-        <v>382</v>
-      </c>
-      <c r="F190" t="n">
-        <v>677.7653</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-48563.38479999999</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>382</v>
-      </c>
-      <c r="C191" t="n">
-        <v>382</v>
-      </c>
-      <c r="D191" t="n">
-        <v>382</v>
-      </c>
-      <c r="E191" t="n">
-        <v>382</v>
-      </c>
-      <c r="F191" t="n">
-        <v>901.8095</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-48563.38479999999</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>382</v>
-      </c>
-      <c r="C192" t="n">
-        <v>379</v>
-      </c>
-      <c r="D192" t="n">
-        <v>382</v>
-      </c>
-      <c r="E192" t="n">
-        <v>379</v>
-      </c>
-      <c r="F192" t="n">
-        <v>11819.4389</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-60382.82369999999</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>385</v>
-      </c>
-      <c r="C193" t="n">
-        <v>389</v>
-      </c>
-      <c r="D193" t="n">
-        <v>389</v>
-      </c>
-      <c r="E193" t="n">
-        <v>385</v>
-      </c>
-      <c r="F193" t="n">
-        <v>3067.324</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-57315.49969999999</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>385</v>
-      </c>
-      <c r="C194" t="n">
-        <v>385</v>
-      </c>
-      <c r="D194" t="n">
-        <v>385</v>
-      </c>
-      <c r="E194" t="n">
-        <v>385</v>
-      </c>
-      <c r="F194" t="n">
-        <v>102.2219</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-57417.72159999999</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>388</v>
-      </c>
-      <c r="C195" t="n">
-        <v>390</v>
-      </c>
-      <c r="D195" t="n">
-        <v>390</v>
-      </c>
-      <c r="E195" t="n">
-        <v>388</v>
-      </c>
-      <c r="F195" t="n">
-        <v>771.1305123</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-56646.59108769999</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>389</v>
-      </c>
-      <c r="C196" t="n">
-        <v>390</v>
-      </c>
-      <c r="D196" t="n">
-        <v>390</v>
-      </c>
-      <c r="E196" t="n">
-        <v>389</v>
-      </c>
-      <c r="F196" t="n">
-        <v>513.07923076</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-56646.59108769999</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>385</v>
-      </c>
-      <c r="C197" t="n">
-        <v>385</v>
-      </c>
-      <c r="D197" t="n">
-        <v>385</v>
-      </c>
-      <c r="E197" t="n">
-        <v>385</v>
-      </c>
-      <c r="F197" t="n">
-        <v>93.8383</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-56740.42938769999</v>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>385</v>
-      </c>
-      <c r="C198" t="n">
-        <v>385</v>
-      </c>
-      <c r="D198" t="n">
-        <v>385</v>
-      </c>
-      <c r="E198" t="n">
-        <v>385</v>
-      </c>
-      <c r="F198" t="n">
-        <v>121</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-56740.42938769999</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>386</v>
-      </c>
-      <c r="C199" t="n">
-        <v>386</v>
-      </c>
-      <c r="D199" t="n">
-        <v>386</v>
-      </c>
-      <c r="E199" t="n">
-        <v>385</v>
-      </c>
-      <c r="F199" t="n">
-        <v>362.1</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-56378.3293877</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>386</v>
-      </c>
-      <c r="C200" t="n">
-        <v>386</v>
-      </c>
-      <c r="D200" t="n">
-        <v>386</v>
-      </c>
-      <c r="E200" t="n">
-        <v>386</v>
-      </c>
-      <c r="F200" t="n">
-        <v>172</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-56378.3293877</v>
-      </c>
-      <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>389</v>
-      </c>
-      <c r="C201" t="n">
-        <v>389</v>
-      </c>
-      <c r="D201" t="n">
-        <v>389</v>
-      </c>
-      <c r="E201" t="n">
-        <v>389</v>
-      </c>
-      <c r="F201" t="n">
-        <v>1</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-56377.3293877</v>
-      </c>
-      <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>385</v>
-      </c>
-      <c r="C202" t="n">
-        <v>385</v>
-      </c>
-      <c r="D202" t="n">
-        <v>385</v>
-      </c>
-      <c r="E202" t="n">
-        <v>385</v>
-      </c>
-      <c r="F202" t="n">
-        <v>113.1531</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-56490.4824877</v>
-      </c>
-      <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>386</v>
-      </c>
-      <c r="C203" t="n">
-        <v>386</v>
-      </c>
-      <c r="D203" t="n">
-        <v>386</v>
-      </c>
-      <c r="E203" t="n">
-        <v>386</v>
-      </c>
-      <c r="F203" t="n">
-        <v>175.6196</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-56314.8628877</v>
-      </c>
-      <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>385</v>
-      </c>
-      <c r="C204" t="n">
-        <v>385</v>
-      </c>
-      <c r="D204" t="n">
-        <v>385</v>
-      </c>
-      <c r="E204" t="n">
-        <v>385</v>
-      </c>
-      <c r="F204" t="n">
-        <v>886.1368</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-57200.9996877</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>385</v>
-      </c>
-      <c r="C205" t="n">
-        <v>385</v>
-      </c>
-      <c r="D205" t="n">
-        <v>385</v>
-      </c>
-      <c r="E205" t="n">
-        <v>385</v>
-      </c>
-      <c r="F205" t="n">
-        <v>39.0873</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-57200.9996877</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>385</v>
-      </c>
-      <c r="C206" t="n">
-        <v>385</v>
-      </c>
-      <c r="D206" t="n">
-        <v>385</v>
-      </c>
-      <c r="E206" t="n">
-        <v>385</v>
-      </c>
-      <c r="F206" t="n">
-        <v>87.9466</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-57200.9996877</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>385</v>
-      </c>
-      <c r="C207" t="n">
-        <v>385</v>
-      </c>
-      <c r="D207" t="n">
-        <v>385</v>
-      </c>
-      <c r="E207" t="n">
-        <v>385</v>
-      </c>
-      <c r="F207" t="n">
-        <v>665</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-57200.9996877</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>385</v>
-      </c>
-      <c r="C208" t="n">
-        <v>385</v>
-      </c>
-      <c r="D208" t="n">
-        <v>385</v>
-      </c>
-      <c r="E208" t="n">
-        <v>385</v>
-      </c>
-      <c r="F208" t="n">
-        <v>237.9599</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-57200.9996877</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>385</v>
-      </c>
-      <c r="C209" t="n">
-        <v>385</v>
-      </c>
-      <c r="D209" t="n">
-        <v>385</v>
-      </c>
-      <c r="E209" t="n">
-        <v>385</v>
-      </c>
-      <c r="F209" t="n">
-        <v>1827.0045</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-57200.9996877</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>384</v>
-      </c>
-      <c r="C210" t="n">
-        <v>384</v>
-      </c>
-      <c r="D210" t="n">
-        <v>384</v>
-      </c>
-      <c r="E210" t="n">
-        <v>380</v>
-      </c>
-      <c r="F210" t="n">
-        <v>1813.8379</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-59014.8375877</v>
-      </c>
-      <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>384</v>
-      </c>
-      <c r="C211" t="n">
-        <v>385</v>
-      </c>
-      <c r="D211" t="n">
-        <v>385</v>
-      </c>
-      <c r="E211" t="n">
-        <v>384</v>
-      </c>
-      <c r="F211" t="n">
-        <v>1</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-59013.8375877</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>385</v>
-      </c>
-      <c r="C212" t="n">
-        <v>385</v>
-      </c>
-      <c r="D212" t="n">
-        <v>385</v>
-      </c>
-      <c r="E212" t="n">
-        <v>385</v>
-      </c>
-      <c r="F212" t="n">
-        <v>190.4763</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-59013.8375877</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>385</v>
-      </c>
-      <c r="C213" t="n">
-        <v>385</v>
-      </c>
-      <c r="D213" t="n">
-        <v>385</v>
-      </c>
-      <c r="E213" t="n">
-        <v>385</v>
-      </c>
-      <c r="F213" t="n">
-        <v>779.2207792200001</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-59013.8375877</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>385</v>
-      </c>
-      <c r="C214" t="n">
-        <v>380</v>
-      </c>
-      <c r="D214" t="n">
-        <v>385</v>
-      </c>
-      <c r="E214" t="n">
-        <v>380</v>
-      </c>
-      <c r="F214" t="n">
-        <v>2</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-59015.8375877</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>380</v>
-      </c>
-      <c r="C215" t="n">
-        <v>380</v>
-      </c>
-      <c r="D215" t="n">
-        <v>380</v>
-      </c>
-      <c r="E215" t="n">
-        <v>380</v>
-      </c>
-      <c r="F215" t="n">
-        <v>9</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-59015.8375877</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>380</v>
-      </c>
-      <c r="C216" t="n">
-        <v>379</v>
-      </c>
-      <c r="D216" t="n">
-        <v>380</v>
-      </c>
-      <c r="E216" t="n">
-        <v>379</v>
-      </c>
-      <c r="F216" t="n">
-        <v>2244.3892</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-61260.2267877</v>
-      </c>
-      <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>384</v>
-      </c>
-      <c r="C217" t="n">
-        <v>384</v>
-      </c>
-      <c r="D217" t="n">
-        <v>384</v>
-      </c>
-      <c r="E217" t="n">
-        <v>384</v>
-      </c>
-      <c r="F217" t="n">
-        <v>1</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-61259.2267877</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>380</v>
-      </c>
-      <c r="C218" t="n">
-        <v>380</v>
-      </c>
-      <c r="D218" t="n">
-        <v>380</v>
-      </c>
-      <c r="E218" t="n">
-        <v>380</v>
-      </c>
-      <c r="F218" t="n">
-        <v>184.8517</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-61444.0784877</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>380</v>
-      </c>
-      <c r="C219" t="n">
-        <v>380</v>
-      </c>
-      <c r="D219" t="n">
-        <v>380</v>
-      </c>
-      <c r="E219" t="n">
-        <v>380</v>
-      </c>
-      <c r="F219" t="n">
-        <v>77.7587</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-61444.0784877</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>380</v>
-      </c>
-      <c r="C220" t="n">
-        <v>379</v>
-      </c>
-      <c r="D220" t="n">
-        <v>380</v>
-      </c>
-      <c r="E220" t="n">
-        <v>379</v>
-      </c>
-      <c r="F220" t="n">
-        <v>2085.1828</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-63529.2612877</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>380</v>
-      </c>
-      <c r="C221" t="n">
-        <v>380</v>
-      </c>
-      <c r="D221" t="n">
-        <v>380</v>
-      </c>
-      <c r="E221" t="n">
-        <v>380</v>
-      </c>
-      <c r="F221" t="n">
-        <v>252.6449</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-63276.6163877</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>383</v>
-      </c>
-      <c r="C222" t="n">
-        <v>383</v>
-      </c>
-      <c r="D222" t="n">
-        <v>383</v>
-      </c>
-      <c r="E222" t="n">
-        <v>383</v>
-      </c>
-      <c r="F222" t="n">
-        <v>1</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-63275.6163877</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>380</v>
-      </c>
-      <c r="J222" t="n">
-        <v>380</v>
-      </c>
-      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-01 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-01 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M222"/>
+  <dimension ref="A1:L222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>4399.946</v>
       </c>
       <c r="G2" t="n">
-        <v>19611.3131</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>88.76009999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>19522.553</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>116.2017</v>
       </c>
       <c r="G4" t="n">
-        <v>19406.3513</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1100.8162</v>
       </c>
       <c r="G5" t="n">
-        <v>19406.3513</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>305.7725</v>
       </c>
       <c r="G6" t="n">
-        <v>19406.3513</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>111.8528</v>
       </c>
       <c r="G7" t="n">
-        <v>19406.3513</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>8.236599999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>19414.5879</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>765.3061</v>
       </c>
       <c r="G9" t="n">
-        <v>19414.5879</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1.9565</v>
       </c>
       <c r="G10" t="n">
-        <v>19414.5879</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>111.0916</v>
       </c>
       <c r="G11" t="n">
-        <v>19414.5879</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>660.5671</v>
       </c>
       <c r="G12" t="n">
-        <v>18754.0208</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1741.9613</v>
       </c>
       <c r="G13" t="n">
-        <v>18754.0208</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>2026.8931</v>
       </c>
       <c r="G14" t="n">
-        <v>18754.0208</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3128.4181</v>
       </c>
       <c r="G15" t="n">
-        <v>21882.4389</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>21879.4389</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>634.4774</v>
       </c>
       <c r="G17" t="n">
-        <v>21879.4389</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>17</v>
       </c>
       <c r="G18" t="n">
-        <v>21879.4389</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>116.2018</v>
       </c>
       <c r="G19" t="n">
-        <v>21879.4389</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>38377.3341</v>
       </c>
       <c r="G20" t="n">
-        <v>-16497.8952</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>12000.889</v>
       </c>
       <c r="G21" t="n">
-        <v>-28498.7842</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>-28497.7842</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>171.921</v>
       </c>
       <c r="G23" t="n">
-        <v>-28669.7052</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>6356.4388</v>
       </c>
       <c r="G24" t="n">
-        <v>-22313.2664</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>2758.5271</v>
       </c>
       <c r="G25" t="n">
-        <v>-22313.2664</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>-22312.2664</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>796.4319</v>
       </c>
       <c r="G27" t="n">
-        <v>-23108.6983</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>-23107.6983</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>2557.0369</v>
       </c>
       <c r="G29" t="n">
-        <v>-25664.7352</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>509.416</v>
       </c>
       <c r="G30" t="n">
-        <v>-25664.7352</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>990.3688</v>
       </c>
       <c r="G31" t="n">
-        <v>-24674.3664</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>176.1019</v>
       </c>
       <c r="G32" t="n">
-        <v>-24674.3664</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>75.09999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>-24599.2664</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>9080.6589</v>
       </c>
       <c r="G34" t="n">
-        <v>-15518.6075</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>38.8506</v>
       </c>
       <c r="G35" t="n">
-        <v>-15557.4581</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>428.0889</v>
       </c>
       <c r="G36" t="n">
-        <v>-15985.547</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>749.9384</v>
       </c>
       <c r="G37" t="n">
-        <v>-15235.6086</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>5</v>
       </c>
       <c r="G38" t="n">
-        <v>-15230.6086</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>288.0288</v>
       </c>
       <c r="G39" t="n">
-        <v>-15518.6374</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>9057.957200000001</v>
       </c>
       <c r="G40" t="n">
-        <v>-24576.5946</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>359.5984</v>
       </c>
       <c r="G41" t="n">
-        <v>-24216.9962</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>79.8613</v>
       </c>
       <c r="G42" t="n">
-        <v>-24296.8575</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>8770.885200000001</v>
       </c>
       <c r="G43" t="n">
-        <v>-15525.9723</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1544.0144</v>
       </c>
       <c r="G44" t="n">
-        <v>-15525.9723</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>252.1107</v>
       </c>
       <c r="G45" t="n">
-        <v>-15525.9723</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>2264.4564</v>
       </c>
       <c r="G46" t="n">
-        <v>-13261.5159</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>105.7174</v>
       </c>
       <c r="G47" t="n">
-        <v>-13367.2333</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>867.7173</v>
       </c>
       <c r="G48" t="n">
-        <v>-13367.2333</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>185.4526</v>
       </c>
       <c r="G49" t="n">
-        <v>-13367.2333</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>104.6968</v>
       </c>
       <c r="G50" t="n">
-        <v>-13367.2333</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>3287.7702</v>
       </c>
       <c r="G51" t="n">
-        <v>-10079.4631</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>118.9566</v>
       </c>
       <c r="G52" t="n">
-        <v>-9960.506500000001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>339.3271</v>
       </c>
       <c r="G53" t="n">
-        <v>-9621.179400000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>-9622.179400000001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>6.2542</v>
       </c>
       <c r="G55" t="n">
-        <v>-9622.179400000001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>166.255</v>
       </c>
       <c r="G56" t="n">
-        <v>-9455.924400000002</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>373.5907</v>
       </c>
       <c r="G57" t="n">
-        <v>-9455.924400000002</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>7580.6984</v>
       </c>
       <c r="G58" t="n">
-        <v>-1875.226000000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>1677.36</v>
       </c>
       <c r="G59" t="n">
-        <v>-3552.586000000001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>100</v>
       </c>
       <c r="G60" t="n">
-        <v>-3452.586000000001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>964.2789</v>
       </c>
       <c r="G61" t="n">
-        <v>-3452.586000000001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>1755.5521</v>
       </c>
       <c r="G62" t="n">
-        <v>-3452.586000000001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1143.6393</v>
       </c>
       <c r="G63" t="n">
-        <v>-3452.586000000001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>4203</v>
       </c>
       <c r="G64" t="n">
-        <v>-3452.586000000001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>50</v>
       </c>
       <c r="G65" t="n">
-        <v>-3452.586000000001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>648</v>
       </c>
       <c r="G66" t="n">
-        <v>-3452.586000000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>5.9085</v>
       </c>
       <c r="G67" t="n">
-        <v>-3446.677500000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>2112.1218</v>
       </c>
       <c r="G68" t="n">
-        <v>-5558.799300000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>5249.0079</v>
       </c>
       <c r="G69" t="n">
-        <v>-10807.8072</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>2.9689</v>
       </c>
       <c r="G70" t="n">
-        <v>-10804.8383</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>2.9248</v>
       </c>
       <c r="G71" t="n">
-        <v>-10804.8383</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>346.1752</v>
       </c>
       <c r="G72" t="n">
-        <v>-11151.0135</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>975.4</v>
       </c>
       <c r="G73" t="n">
-        <v>-12126.4135</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>3.9577</v>
       </c>
       <c r="G74" t="n">
-        <v>-12126.4135</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>105.1197</v>
       </c>
       <c r="G75" t="n">
-        <v>-12126.4135</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>458.999</v>
       </c>
       <c r="G76" t="n">
-        <v>-12126.4135</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>15.7205</v>
       </c>
       <c r="G77" t="n">
-        <v>-12142.134</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>191.4076</v>
       </c>
       <c r="G78" t="n">
-        <v>-12142.134</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>5.0234</v>
       </c>
       <c r="G79" t="n">
-        <v>-12137.1106</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>290.8485</v>
       </c>
       <c r="G80" t="n">
-        <v>-12137.1106</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>100.5074</v>
       </c>
       <c r="G81" t="n">
-        <v>-12237.618</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>711.4083000000001</v>
       </c>
       <c r="G82" t="n">
-        <v>-11526.2097</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>2982.057</v>
       </c>
       <c r="G83" t="n">
-        <v>-14508.2667</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>1397.5194</v>
       </c>
       <c r="G84" t="n">
-        <v>-15905.7861</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>6426.259</v>
       </c>
       <c r="G85" t="n">
-        <v>-22332.0451</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>21</v>
       </c>
       <c r="G86" t="n">
-        <v>-22311.0451</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>141.8777</v>
       </c>
       <c r="G87" t="n">
-        <v>-22452.9228</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>1217.8346</v>
       </c>
       <c r="G88" t="n">
-        <v>-21235.0882</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>-21234.0882</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>-21233.0882</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>334.3517</v>
       </c>
       <c r="G91" t="n">
-        <v>-21567.4399</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>28.7958</v>
       </c>
       <c r="G92" t="n">
-        <v>-21596.2357</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>3304.8757</v>
       </c>
       <c r="G93" t="n">
-        <v>-18291.36</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>141.8731</v>
       </c>
       <c r="G94" t="n">
-        <v>-18291.36</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>-18290.36</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>438.8892</v>
       </c>
       <c r="G96" t="n">
-        <v>-17851.4708</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>719.7364</v>
       </c>
       <c r="G97" t="n">
-        <v>-18571.2072</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>-18570.2072</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>2649.652</v>
       </c>
       <c r="G99" t="n">
-        <v>-15920.5552</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>-15919.5552</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>79.9956</v>
       </c>
       <c r="G101" t="n">
-        <v>-15999.5508</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>78.9956</v>
       </c>
       <c r="G102" t="n">
-        <v>-15999.5508</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>81.1198</v>
       </c>
       <c r="G103" t="n">
-        <v>-15918.431</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>111</v>
       </c>
       <c r="G104" t="n">
-        <v>-15918.431</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>190.7905</v>
       </c>
       <c r="G105" t="n">
-        <v>-15918.431</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>202.0446</v>
       </c>
       <c r="G106" t="n">
-        <v>-15918.431</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>3190.3222</v>
       </c>
       <c r="G107" t="n">
-        <v>-12728.1088</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>969.4112</v>
       </c>
       <c r="G108" t="n">
-        <v>-13697.52</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>1719.1588</v>
       </c>
       <c r="G109" t="n">
-        <v>-13697.52</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>1231.327</v>
       </c>
       <c r="G110" t="n">
-        <v>-13697.52</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>192.1819</v>
       </c>
       <c r="G111" t="n">
-        <v>-13697.52</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>871.0154</v>
       </c>
       <c r="G112" t="n">
-        <v>-13697.52</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>183.0677</v>
       </c>
       <c r="G113" t="n">
-        <v>-13880.5877</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>521.0388</v>
       </c>
       <c r="G114" t="n">
-        <v>-13880.5877</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>1281.3542</v>
       </c>
       <c r="G115" t="n">
-        <v>-15161.9419</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>2206.7819</v>
       </c>
       <c r="G116" t="n">
-        <v>-15161.9419</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>298.6472</v>
       </c>
       <c r="G117" t="n">
-        <v>-15161.9419</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>559.7453</v>
       </c>
       <c r="G118" t="n">
-        <v>-15161.9419</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>7437.4468</v>
       </c>
       <c r="G119" t="n">
-        <v>-15161.9419</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>77</v>
       </c>
       <c r="G120" t="n">
-        <v>-15161.9419</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>1238.6304</v>
       </c>
       <c r="G121" t="n">
-        <v>-15161.9419</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>2719.6565</v>
       </c>
       <c r="G122" t="n">
-        <v>-15161.9419</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>250</v>
       </c>
       <c r="G123" t="n">
-        <v>-15411.9419</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>553.5099</v>
       </c>
       <c r="G124" t="n">
-        <v>-15965.4518</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>791.5972</v>
       </c>
       <c r="G125" t="n">
-        <v>-15965.4518</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>758.5996</v>
       </c>
       <c r="G126" t="n">
-        <v>-15965.4518</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>2137.0784</v>
       </c>
       <c r="G127" t="n">
-        <v>-15965.4518</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>1483.6801</v>
       </c>
       <c r="G128" t="n">
-        <v>-17449.1319</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>172</v>
       </c>
       <c r="G129" t="n">
-        <v>-17449.1319</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>47.88</v>
       </c>
       <c r="G130" t="n">
-        <v>-17497.0119</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>3959.5187</v>
       </c>
       <c r="G131" t="n">
-        <v>-21456.5306</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>194.6791</v>
       </c>
       <c r="G132" t="n">
-        <v>-21261.8515</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>4326.599</v>
       </c>
       <c r="G133" t="n">
-        <v>-25588.4505</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>7614.5152</v>
       </c>
       <c r="G134" t="n">
-        <v>-33202.9657</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>2571.4341</v>
       </c>
       <c r="G135" t="n">
-        <v>-30631.5316</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>5095.0063</v>
       </c>
       <c r="G136" t="n">
-        <v>-30631.5316</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>119.2562</v>
       </c>
       <c r="G137" t="n">
-        <v>-30631.5316</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>850</v>
       </c>
       <c r="G138" t="n">
-        <v>-30631.5316</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>219</v>
       </c>
       <c r="G139" t="n">
-        <v>-30850.5316</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>4618.2676</v>
       </c>
       <c r="G140" t="n">
-        <v>-35468.7992</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>602.7495</v>
       </c>
       <c r="G141" t="n">
-        <v>-34866.0497</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,21 @@
         <v>435.2397</v>
       </c>
       <c r="G142" t="n">
-        <v>-34866.0497</v>
+        <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4679,19 @@
         <v>100</v>
       </c>
       <c r="G143" t="n">
-        <v>-34866.0497</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4713,21 @@
         <v>1340.0994</v>
       </c>
       <c r="G144" t="n">
-        <v>-34866.0497</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4749,21 @@
         <v>1051.5068</v>
       </c>
       <c r="G145" t="n">
-        <v>-33814.5429</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4785,21 @@
         <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>-33813.5429</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4821,19 @@
         <v>5497.9298</v>
       </c>
       <c r="G147" t="n">
-        <v>-39311.4727</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4855,19 @@
         <v>185.3703</v>
       </c>
       <c r="G148" t="n">
-        <v>-39126.1024</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4889,19 @@
         <v>845.3329</v>
       </c>
       <c r="G149" t="n">
-        <v>-38280.76949999999</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4923,19 @@
         <v>0.0001</v>
       </c>
       <c r="G150" t="n">
-        <v>-38280.76949999999</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4957,19 @@
         <v>175.3755</v>
       </c>
       <c r="G151" t="n">
-        <v>-38105.39399999999</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4991,19 @@
         <v>144.0144</v>
       </c>
       <c r="G152" t="n">
-        <v>-38249.40839999999</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5025,19 @@
         <v>15.26</v>
       </c>
       <c r="G153" t="n">
-        <v>-38249.40839999999</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5059,19 @@
         <v>50</v>
       </c>
       <c r="G154" t="n">
-        <v>-38199.40839999999</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5093,19 @@
         <v>1517.4255</v>
       </c>
       <c r="G155" t="n">
-        <v>-36681.9829</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5127,19 @@
         <v>2143</v>
       </c>
       <c r="G156" t="n">
-        <v>-38824.9829</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5161,19 @@
         <v>5</v>
       </c>
       <c r="G157" t="n">
-        <v>-38824.9829</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5195,19 @@
         <v>3720.2313</v>
       </c>
       <c r="G158" t="n">
-        <v>-38824.9829</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5229,19 @@
         <v>104.8</v>
       </c>
       <c r="G159" t="n">
-        <v>-38720.18289999999</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5263,19 @@
         <v>152.5647</v>
       </c>
       <c r="G160" t="n">
-        <v>-38567.61819999999</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5297,19 @@
         <v>1125.6958</v>
       </c>
       <c r="G161" t="n">
-        <v>-39693.31399999999</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5331,19 @@
         <v>1</v>
       </c>
       <c r="G162" t="n">
-        <v>-39692.31399999999</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5365,19 @@
         <v>94.98690000000001</v>
       </c>
       <c r="G163" t="n">
-        <v>-39787.30089999999</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5399,19 @@
         <v>1495.4467</v>
       </c>
       <c r="G164" t="n">
-        <v>-41282.7476</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5433,19 @@
         <v>181.876</v>
       </c>
       <c r="G165" t="n">
-        <v>-41282.7476</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5467,19 @@
         <v>1639.2004</v>
       </c>
       <c r="G166" t="n">
-        <v>-41282.7476</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5501,19 @@
         <v>1451.0769</v>
       </c>
       <c r="G167" t="n">
-        <v>-41282.7476</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5535,19 @@
         <v>87.9999</v>
       </c>
       <c r="G168" t="n">
-        <v>-41282.7476</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5569,19 @@
         <v>629.9861</v>
       </c>
       <c r="G169" t="n">
-        <v>-40652.76149999999</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5603,19 @@
         <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>-40651.76149999999</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5637,19 @@
         <v>904.0697</v>
       </c>
       <c r="G171" t="n">
-        <v>-39747.69179999999</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5671,19 @@
         <v>6628.5442</v>
       </c>
       <c r="G172" t="n">
-        <v>-46376.23599999999</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5705,19 @@
         <v>473</v>
       </c>
       <c r="G173" t="n">
-        <v>-45903.23599999999</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5739,19 @@
         <v>50</v>
       </c>
       <c r="G174" t="n">
-        <v>-45903.23599999999</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5773,19 @@
         <v>200</v>
       </c>
       <c r="G175" t="n">
-        <v>-46103.23599999999</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5807,19 @@
         <v>50</v>
       </c>
       <c r="G176" t="n">
-        <v>-46103.23599999999</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,22 +5841,19 @@
         <v>1</v>
       </c>
       <c r="G177" t="n">
-        <v>-46102.23599999999</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>385</v>
-      </c>
-      <c r="J177" t="n">
-        <v>385</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6260,24 +5875,19 @@
         <v>50</v>
       </c>
       <c r="G178" t="n">
-        <v>-46152.23599999999</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>385</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6299,26 +5909,19 @@
         <v>143.6356</v>
       </c>
       <c r="G179" t="n">
-        <v>-46152.23599999999</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>384</v>
-      </c>
-      <c r="J179" t="n">
-        <v>385</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6340,22 +5943,19 @@
         <v>3073.3927</v>
       </c>
       <c r="G180" t="n">
-        <v>-46152.23599999999</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>384</v>
-      </c>
-      <c r="J180" t="n">
-        <v>384</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6377,26 +5977,19 @@
         <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>-46151.23599999999</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>384</v>
-      </c>
-      <c r="J181" t="n">
-        <v>384</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6418,24 +6011,19 @@
         <v>741.0595</v>
       </c>
       <c r="G182" t="n">
-        <v>-46892.29549999999</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>384</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6457,22 +6045,19 @@
         <v>772.645</v>
       </c>
       <c r="G183" t="n">
-        <v>-46892.29549999999</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>384</v>
-      </c>
-      <c r="J183" t="n">
-        <v>384</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6494,26 +6079,19 @@
         <v>584</v>
       </c>
       <c r="G184" t="n">
-        <v>-47476.29549999999</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>384</v>
-      </c>
-      <c r="J184" t="n">
-        <v>384</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6535,26 +6113,19 @@
         <v>1</v>
       </c>
       <c r="G185" t="n">
-        <v>-47475.29549999999</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>381</v>
-      </c>
-      <c r="J185" t="n">
-        <v>384</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6576,26 +6147,19 @@
         <v>50</v>
       </c>
       <c r="G186" t="n">
-        <v>-47525.29549999999</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>388</v>
-      </c>
-      <c r="J186" t="n">
-        <v>384</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6617,26 +6181,19 @@
         <v>107</v>
       </c>
       <c r="G187" t="n">
-        <v>-47525.29549999999</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>383</v>
-      </c>
-      <c r="J187" t="n">
-        <v>384</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6658,26 +6215,19 @@
         <v>1</v>
       </c>
       <c r="G188" t="n">
-        <v>-47524.29549999999</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>383</v>
-      </c>
-      <c r="J188" t="n">
-        <v>384</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6699,26 +6249,19 @@
         <v>361.324</v>
       </c>
       <c r="G189" t="n">
-        <v>-47885.61949999999</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>387</v>
-      </c>
-      <c r="J189" t="n">
-        <v>384</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6740,26 +6283,19 @@
         <v>677.7653</v>
       </c>
       <c r="G190" t="n">
-        <v>-48563.38479999999</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>383</v>
-      </c>
-      <c r="J190" t="n">
-        <v>384</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6781,26 +6317,19 @@
         <v>901.8095</v>
       </c>
       <c r="G191" t="n">
-        <v>-48563.38479999999</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>382</v>
-      </c>
-      <c r="J191" t="n">
-        <v>384</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6822,26 +6351,19 @@
         <v>11819.4389</v>
       </c>
       <c r="G192" t="n">
-        <v>-60382.82369999999</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>382</v>
-      </c>
-      <c r="J192" t="n">
-        <v>384</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6863,26 +6385,19 @@
         <v>3067.324</v>
       </c>
       <c r="G193" t="n">
-        <v>-57315.49969999999</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>379</v>
-      </c>
-      <c r="J193" t="n">
-        <v>384</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6904,26 +6419,19 @@
         <v>102.2219</v>
       </c>
       <c r="G194" t="n">
-        <v>-57417.72159999999</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>389</v>
-      </c>
-      <c r="J194" t="n">
-        <v>384</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6945,26 +6453,19 @@
         <v>771.1305123</v>
       </c>
       <c r="G195" t="n">
-        <v>-56646.59108769999</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>385</v>
-      </c>
-      <c r="J195" t="n">
-        <v>384</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6986,24 +6487,19 @@
         <v>513.07923076</v>
       </c>
       <c r="G196" t="n">
-        <v>-56646.59108769999</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>384</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7025,24 +6521,19 @@
         <v>93.8383</v>
       </c>
       <c r="G197" t="n">
-        <v>-56740.42938769999</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>384</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7064,24 +6555,19 @@
         <v>121</v>
       </c>
       <c r="G198" t="n">
-        <v>-56740.42938769999</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>384</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7103,24 +6589,19 @@
         <v>362.1</v>
       </c>
       <c r="G199" t="n">
-        <v>-56378.3293877</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>384</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7142,24 +6623,19 @@
         <v>172</v>
       </c>
       <c r="G200" t="n">
-        <v>-56378.3293877</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>384</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7181,24 +6657,19 @@
         <v>1</v>
       </c>
       <c r="G201" t="n">
-        <v>-56377.3293877</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>384</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7220,24 +6691,19 @@
         <v>113.1531</v>
       </c>
       <c r="G202" t="n">
-        <v>-56490.4824877</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>384</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7259,24 +6725,19 @@
         <v>175.6196</v>
       </c>
       <c r="G203" t="n">
-        <v>-56314.8628877</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>384</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7298,24 +6759,19 @@
         <v>886.1368</v>
       </c>
       <c r="G204" t="n">
-        <v>-57200.9996877</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>384</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7337,24 +6793,19 @@
         <v>39.0873</v>
       </c>
       <c r="G205" t="n">
-        <v>-57200.9996877</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>384</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7376,24 +6827,19 @@
         <v>87.9466</v>
       </c>
       <c r="G206" t="n">
-        <v>-57200.9996877</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>384</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7415,24 +6861,19 @@
         <v>665</v>
       </c>
       <c r="G207" t="n">
-        <v>-57200.9996877</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>384</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7454,26 +6895,19 @@
         <v>237.9599</v>
       </c>
       <c r="G208" t="n">
-        <v>-57200.9996877</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>385</v>
-      </c>
-      <c r="J208" t="n">
-        <v>384</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7495,24 +6929,19 @@
         <v>1827.0045</v>
       </c>
       <c r="G209" t="n">
-        <v>-57200.9996877</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>384</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7534,24 +6963,19 @@
         <v>1813.8379</v>
       </c>
       <c r="G210" t="n">
-        <v>-59014.8375877</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>384</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7573,24 +6997,19 @@
         <v>1</v>
       </c>
       <c r="G211" t="n">
-        <v>-59013.8375877</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>384</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7612,24 +7031,19 @@
         <v>190.4763</v>
       </c>
       <c r="G212" t="n">
-        <v>-59013.8375877</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>384</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7651,24 +7065,19 @@
         <v>779.2207792200001</v>
       </c>
       <c r="G213" t="n">
-        <v>-59013.8375877</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>384</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7690,24 +7099,19 @@
         <v>2</v>
       </c>
       <c r="G214" t="n">
-        <v>-59015.8375877</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>384</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7729,26 +7133,19 @@
         <v>9</v>
       </c>
       <c r="G215" t="n">
-        <v>-59015.8375877</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>380</v>
-      </c>
-      <c r="J215" t="n">
-        <v>384</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7770,26 +7167,19 @@
         <v>2244.3892</v>
       </c>
       <c r="G216" t="n">
-        <v>-61260.2267877</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>380</v>
-      </c>
-      <c r="J216" t="n">
-        <v>384</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7811,26 +7201,19 @@
         <v>1</v>
       </c>
       <c r="G217" t="n">
-        <v>-61259.2267877</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>379</v>
-      </c>
-      <c r="J217" t="n">
-        <v>384</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7852,26 +7235,19 @@
         <v>184.8517</v>
       </c>
       <c r="G218" t="n">
-        <v>-61444.0784877</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>384</v>
-      </c>
-      <c r="J218" t="n">
-        <v>384</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7893,26 +7269,19 @@
         <v>77.7587</v>
       </c>
       <c r="G219" t="n">
-        <v>-61444.0784877</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>380</v>
-      </c>
-      <c r="J219" t="n">
-        <v>384</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7934,26 +7303,19 @@
         <v>2085.1828</v>
       </c>
       <c r="G220" t="n">
-        <v>-63529.2612877</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>380</v>
-      </c>
-      <c r="J220" t="n">
-        <v>384</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7975,26 +7337,19 @@
         <v>252.6449</v>
       </c>
       <c r="G221" t="n">
-        <v>-63276.6163877</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>379</v>
-      </c>
-      <c r="J221" t="n">
-        <v>384</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8016,26 +7371,19 @@
         <v>1</v>
       </c>
       <c r="G222" t="n">
-        <v>-63275.6163877</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>380</v>
-      </c>
-      <c r="J222" t="n">
-        <v>384</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
